--- a/04_output_data/folder.xlsx
+++ b/04_output_data/folder.xlsx
@@ -3883,1930 +3883,1930 @@
     <t>DH.TMIK.M 274/14</t>
   </si>
   <si>
-    <t>pou_2492e70846089b93</t>
-  </si>
-  <si>
-    <t>pou_1522c52673c8032e</t>
-  </si>
-  <si>
-    <t>pou_aff4d580e7ba866e;pou_2c0b60d30985cfa2</t>
-  </si>
-  <si>
-    <t>pou_81f6080407436d2a</t>
-  </si>
-  <si>
-    <t>pou_9258575443480e2b</t>
-  </si>
-  <si>
-    <t>pou_45c26ac31682324c</t>
-  </si>
-  <si>
-    <t>pou_30f077d65ec50d94</t>
-  </si>
-  <si>
-    <t>pou_939a88bd3d3930a8</t>
-  </si>
-  <si>
-    <t>pou_f1d15a3dbed721b1</t>
-  </si>
-  <si>
-    <t>pou_af2bf45b49b78ce8</t>
-  </si>
-  <si>
-    <t>pou_9b40fdc3faa00b1c</t>
-  </si>
-  <si>
-    <t>pou_27bcf8341b50fe91</t>
-  </si>
-  <si>
-    <t>pou_a577744e5ef5f12d</t>
-  </si>
-  <si>
-    <t>pou_007dffee45355dee</t>
-  </si>
-  <si>
-    <t>pou_b777a0f6988bf38f;pou_c63e1e9716b6caa1</t>
-  </si>
-  <si>
-    <t>pou_f9dd7bb686a550de</t>
-  </si>
-  <si>
-    <t>pou_1939d6faf2f1957f</t>
-  </si>
-  <si>
-    <t>pou_40515860fc0522d0;pou_5025df5a08503534</t>
-  </si>
-  <si>
-    <t>pou_fc29cd179079e864</t>
-  </si>
-  <si>
-    <t>pou_096db3ff7e3207f7</t>
-  </si>
-  <si>
-    <t>pou_b4ab0729f6291121</t>
-  </si>
-  <si>
-    <t>pou_c232a5371ff74030</t>
-  </si>
-  <si>
-    <t>pou_ebf93123a5e7c3ac;pou_a7590d86fe174da0</t>
-  </si>
-  <si>
-    <t>pou_4618bfc04443dec8;pou_04982e9f8743c62d</t>
-  </si>
-  <si>
-    <t>pou_32a328901a30d2dc</t>
-  </si>
-  <si>
-    <t>pou_60358b01a5d6b457</t>
-  </si>
-  <si>
-    <t>pou_290362065f7b17d4</t>
-  </si>
-  <si>
-    <t>pou_b45237217830da48;pou_93c7d4f546891942;pou_9e01b1c737881f5f;pou_eea1ef70c226b4a6;pou_df601c32794c8edb;pou_090241c958f46e6b;pou_11d9df817c638837;pou_b5aa2b4b00dc034b;pou_47ae95a3de153efd</t>
-  </si>
-  <si>
-    <t>pou_680faf8c0efaf114</t>
-  </si>
-  <si>
-    <t>pou_821fe50976a60be9</t>
-  </si>
-  <si>
-    <t>pou_6422153083736dbb</t>
-  </si>
-  <si>
-    <t>pou_4f10ebb7cc2da608</t>
-  </si>
-  <si>
-    <t>pou_197cf0ed7666af2e</t>
-  </si>
-  <si>
-    <t>pou_604df49bfb9b5db6</t>
-  </si>
-  <si>
-    <t>pou_3ca4e110ebee7cd3;pou_69e3d51ac8d77429</t>
-  </si>
-  <si>
-    <t>pou_9d945027ca8b74f0</t>
-  </si>
-  <si>
-    <t>pou_f41a117c79793481</t>
-  </si>
-  <si>
-    <t>pou_d56c52dade9514e7</t>
-  </si>
-  <si>
-    <t>pou_054a3c7286893809;pou_683a06dbfe17d318</t>
-  </si>
-  <si>
-    <t>pou_0f7af17b206a9097</t>
-  </si>
-  <si>
-    <t>pou_b478e8a86cf599c3</t>
-  </si>
-  <si>
-    <t>pou_107686ff10c7a399</t>
-  </si>
-  <si>
-    <t>pou_2ec7a31ee10b42c7</t>
-  </si>
-  <si>
-    <t>pou_72c5017fc4ae4ef5</t>
-  </si>
-  <si>
-    <t>pou_80d089690b149583</t>
-  </si>
-  <si>
-    <t>pou_60ef8ee14efbd790;pou_bec800f7862b8c48</t>
-  </si>
-  <si>
-    <t>pou_39ced034cc9b7c21</t>
-  </si>
-  <si>
-    <t>pou_6cfd143f0f2c99eb</t>
-  </si>
-  <si>
-    <t>pou_9f5e8eead572fbd4</t>
-  </si>
-  <si>
-    <t>pou_210f43fba32fd270</t>
-  </si>
-  <si>
-    <t>pou_8c6c1d47a68c3467</t>
-  </si>
-  <si>
-    <t>pou_668a117f2c52d459</t>
-  </si>
-  <si>
-    <t>pou_fa68813d1c1225ca</t>
-  </si>
-  <si>
-    <t>pou_fb01b700745ad120</t>
-  </si>
-  <si>
-    <t>pou_566773c20fa9aa76</t>
-  </si>
-  <si>
-    <t>pou_d9bd678fdd3c0cbf</t>
-  </si>
-  <si>
-    <t>pou_044a917428e841ce</t>
-  </si>
-  <si>
-    <t>pou_769bc25991362bc7</t>
-  </si>
-  <si>
-    <t>pou_63331d118eeeee1a</t>
-  </si>
-  <si>
-    <t>pou_a1cfaec58c5873d1</t>
-  </si>
-  <si>
-    <t>pou_61f137eea909af05</t>
-  </si>
-  <si>
-    <t>pou_78c8c93ae2c1e710</t>
-  </si>
-  <si>
-    <t>pou_aa51e6c49c40c24f</t>
-  </si>
-  <si>
-    <t>pou_0a0df5d3b393713a</t>
-  </si>
-  <si>
-    <t>pou_9ec5cae6a9847884</t>
-  </si>
-  <si>
-    <t>pou_6b36096934fc10d2</t>
-  </si>
-  <si>
-    <t>pou_2b86aacf59a938f8</t>
-  </si>
-  <si>
-    <t>pou_65570c36cb4ba01c</t>
-  </si>
-  <si>
-    <t>pou_1125e461cec5d4a0</t>
-  </si>
-  <si>
-    <t>pou_a39656910f4891d2</t>
-  </si>
-  <si>
-    <t>pou_9b91dd5d3fae5e19</t>
-  </si>
-  <si>
-    <t>pou_87df9338bd9a2432</t>
-  </si>
-  <si>
-    <t>pou_3fc5ea7f07370307</t>
-  </si>
-  <si>
-    <t>pou_248fc0357d62b173</t>
-  </si>
-  <si>
-    <t>pou_05c926697eeb335c</t>
-  </si>
-  <si>
-    <t>pou_2681dbb7464429f1</t>
-  </si>
-  <si>
-    <t>pou_224bb50b8a4fd72c</t>
-  </si>
-  <si>
-    <t>pou_7e6e35cf5f39f3d4</t>
-  </si>
-  <si>
-    <t>pou_28f7ec0e9f5ad60f</t>
-  </si>
-  <si>
-    <t>pou_65cc3fbe965b9353</t>
-  </si>
-  <si>
-    <t>pou_d59eb828dbf614cd</t>
-  </si>
-  <si>
-    <t>pou_fac125cac1e329f1</t>
-  </si>
-  <si>
-    <t>pou_f9493db8772183e9</t>
-  </si>
-  <si>
-    <t>pou_257fc545ee7b43ce</t>
-  </si>
-  <si>
-    <t>pou_c9add1f3b69d1d02</t>
-  </si>
-  <si>
-    <t>pou_334cf7cea84ec41a</t>
-  </si>
-  <si>
-    <t>pou_47fd6fce7197f90f</t>
-  </si>
-  <si>
-    <t>pou_c0c2795b77c2238f</t>
-  </si>
-  <si>
-    <t>pou_7f1026ffdcd3b879</t>
-  </si>
-  <si>
-    <t>pou_ba24d86818a18fb8</t>
-  </si>
-  <si>
-    <t>pou_827539a35122bb34</t>
-  </si>
-  <si>
-    <t>pou_c0279aeaac03cfbf</t>
-  </si>
-  <si>
-    <t>pou_1439d3dcf45e9619</t>
-  </si>
-  <si>
-    <t>pou_80b21577bcfce40f</t>
-  </si>
-  <si>
-    <t>pou_f25016fd9678748c</t>
-  </si>
-  <si>
-    <t>pou_12d2c9d57b8f1457</t>
-  </si>
-  <si>
-    <t>pou_4f8d6838b8585dc6</t>
-  </si>
-  <si>
-    <t>pou_b9bd796abf674971</t>
-  </si>
-  <si>
-    <t>pou_ea12e37f4353f2f2</t>
-  </si>
-  <si>
-    <t>pou_347a162e4b11d3ae</t>
-  </si>
-  <si>
-    <t>pou_86fa90046d2c67d5</t>
-  </si>
-  <si>
-    <t>pou_8841ef2287aac6af</t>
-  </si>
-  <si>
-    <t>pou_6e27522132f04b9e</t>
-  </si>
-  <si>
-    <t>pou_297205349a80256d</t>
-  </si>
-  <si>
-    <t>pou_2f1b1de26c97aff3</t>
-  </si>
-  <si>
-    <t>pou_50816ef3a38773b6</t>
-  </si>
-  <si>
-    <t>pou_14baf721d4c59758</t>
-  </si>
-  <si>
-    <t>pou_63adb1aaed5a116c</t>
-  </si>
-  <si>
-    <t>pou_a21ed67cddfb16fe</t>
-  </si>
-  <si>
-    <t>pou_4b85c7dcd039fb1d</t>
-  </si>
-  <si>
-    <t>pou_8d646cf75ba691d0</t>
-  </si>
-  <si>
-    <t>pou_d2edf8c3bba0386d</t>
-  </si>
-  <si>
-    <t>pou_c799f4b69bca6e4d</t>
-  </si>
-  <si>
-    <t>pou_6a84636ecbd62184</t>
-  </si>
-  <si>
-    <t>pou_e075ad33d275b9ac</t>
-  </si>
-  <si>
-    <t>pou_18296971838d990d</t>
-  </si>
-  <si>
-    <t>pou_e810bc47ec56a76d</t>
-  </si>
-  <si>
-    <t>pou_7bc42a988a5ba466</t>
-  </si>
-  <si>
-    <t>pou_d41a1fb76d56af65</t>
-  </si>
-  <si>
-    <t>pou_7c80808b33bfe35d</t>
-  </si>
-  <si>
-    <t>pou_e7f374484e934156</t>
-  </si>
-  <si>
-    <t>pou_9fb8ae0832130af7</t>
-  </si>
-  <si>
-    <t>pou_f57ae29422b4abbc</t>
-  </si>
-  <si>
-    <t>pou_4e907f84fb19f260</t>
-  </si>
-  <si>
-    <t>pou_74c833093fa5226b</t>
-  </si>
-  <si>
-    <t>pou_5fa5c77c3d4f2972;pou_e486b92d6ecc8297;pou_c1c096c658d70a6a</t>
-  </si>
-  <si>
-    <t>pou_2aedcbe7dfff283d</t>
-  </si>
-  <si>
-    <t>pou_b433216ce24f51fa</t>
-  </si>
-  <si>
-    <t>pou_6e948ce7b9a141fc</t>
-  </si>
-  <si>
-    <t>pou_7d73f261ca8dc4d4;pou_d483ada348cd5ed2</t>
-  </si>
-  <si>
-    <t>pou_3040e11d00c6f197</t>
-  </si>
-  <si>
-    <t>pou_0b1e4a3d8363056c</t>
-  </si>
-  <si>
-    <t>pou_60c37e69e3f3d28f</t>
-  </si>
-  <si>
-    <t>pou_37587cf37cfaa525</t>
-  </si>
-  <si>
-    <t>pou_8af819e1fa6812a3</t>
-  </si>
-  <si>
-    <t>pou_9ee974b5b0d997af</t>
-  </si>
-  <si>
-    <t>pou_f87a2167e4db5959</t>
-  </si>
-  <si>
-    <t>pou_fdf919bb355c720d</t>
-  </si>
-  <si>
-    <t>pou_521a480b111e5775</t>
-  </si>
-  <si>
-    <t>pou_87e23bf618b97e70</t>
-  </si>
-  <si>
-    <t>pou_c74d40ae00929f26</t>
-  </si>
-  <si>
-    <t>pou_56221c19160fa327</t>
-  </si>
-  <si>
-    <t>pou_b51894219143a2cd</t>
-  </si>
-  <si>
-    <t>pou_7dec514804fd3372</t>
-  </si>
-  <si>
-    <t>pou_9150661d905e4f7a</t>
-  </si>
-  <si>
-    <t>pou_0ace40e3ef7e7b11</t>
-  </si>
-  <si>
-    <t>pou_d280878cdf30e963</t>
-  </si>
-  <si>
-    <t>pou_e3332145eaf9d1eb</t>
-  </si>
-  <si>
-    <t>pou_14a01d295cb1dbc5</t>
-  </si>
-  <si>
-    <t>pou_8483733a4518b021</t>
-  </si>
-  <si>
-    <t>pou_3838d803c6da3d67;pou_046bd58eb4219c16;pou_3e6d827824a0eea5;pou_f5eec2eaffdb1c17;pou_82cf2ec8af9e14b5;pou_f68dd78906e8e0b6;pou_dfe4d59f482140f8;pou_e9d1a7cf3724adbd;pou_971e03e4bacfad9f;pou_db9832d8a1841517;pou_d64540262cf9b133</t>
-  </si>
-  <si>
-    <t>pou_295c1cbd1ad3d716</t>
-  </si>
-  <si>
-    <t>pou_8f884639ff2b4ed5</t>
-  </si>
-  <si>
-    <t>pou_c4b5b84bbdc1f2d2;pou_1a97eff6856f7932</t>
-  </si>
-  <si>
-    <t>pou_f2d0bca1b6e04a6a</t>
-  </si>
-  <si>
-    <t>pou_8c1ca98a4e3adde1</t>
-  </si>
-  <si>
-    <t>pou_58ff0ba15dd7ffeb</t>
-  </si>
-  <si>
-    <t>pou_4c151faed65f88a8</t>
-  </si>
-  <si>
-    <t>pou_9f01d0c4dbc15fdb</t>
-  </si>
-  <si>
-    <t>pou_0a619390cb3f6a1e</t>
-  </si>
-  <si>
-    <t>pou_c69a116da5aaf41b</t>
-  </si>
-  <si>
-    <t>pou_d20d711465a61332</t>
-  </si>
-  <si>
-    <t>pou_7049e990b07db0ac</t>
-  </si>
-  <si>
-    <t>pou_ca99137f6eb65947</t>
-  </si>
-  <si>
-    <t>pou_15531096b5b164cf</t>
-  </si>
-  <si>
-    <t>pou_4ca92e2b2c3b23dc</t>
-  </si>
-  <si>
-    <t>pou_48cf02cc012ab636</t>
-  </si>
-  <si>
-    <t>pou_cf2f98c834e5cdc5</t>
-  </si>
-  <si>
-    <t>pou_812a62e7cea4c89c</t>
-  </si>
-  <si>
-    <t>pou_bdc80723b9e4f950</t>
-  </si>
-  <si>
-    <t>pou_550d649dd4f3d006</t>
-  </si>
-  <si>
-    <t>pou_faf8cea2e13d8101</t>
-  </si>
-  <si>
-    <t>pou_a012b9d0b8c166e0</t>
-  </si>
-  <si>
-    <t>pou_48fe5b33f0d751cb</t>
-  </si>
-  <si>
-    <t>pou_12e886d1e695724e</t>
-  </si>
-  <si>
-    <t>pou_c2776d4db039b16b</t>
-  </si>
-  <si>
-    <t>pou_cddaab98dcbedba1</t>
-  </si>
-  <si>
-    <t>pou_bd7e362410e2cf07</t>
-  </si>
-  <si>
-    <t>pou_a0fe82ff06eb1e56</t>
-  </si>
-  <si>
-    <t>pou_ead0ca7a3a6b0133</t>
-  </si>
-  <si>
-    <t>pou_c0fe33b9d404624e</t>
-  </si>
-  <si>
-    <t>pou_bcaf31c8ac3ba188</t>
-  </si>
-  <si>
-    <t>pou_e1f3d5f1f91fcba5</t>
-  </si>
-  <si>
-    <t>pou_96c9573e13c3fd8a</t>
-  </si>
-  <si>
-    <t>pou_bb65f20f9666a13c</t>
-  </si>
-  <si>
-    <t>pou_90ed06c96ddeda9b</t>
-  </si>
-  <si>
-    <t>pou_1e90edb659fd8b51</t>
-  </si>
-  <si>
-    <t>pou_6e63cac2c5290513</t>
-  </si>
-  <si>
-    <t>pou_7494b081d504de79</t>
-  </si>
-  <si>
-    <t>pou_b3a53627928b22f5</t>
-  </si>
-  <si>
-    <t>pou_d25ff97caa270829</t>
-  </si>
-  <si>
-    <t>pou_2805215c8a1407a4</t>
-  </si>
-  <si>
-    <t>pou_587f380bbefbc8b5</t>
-  </si>
-  <si>
-    <t>pou_f9928b5325e63cf2</t>
-  </si>
-  <si>
-    <t>pou_8d4cb49efb02445b</t>
-  </si>
-  <si>
-    <t>pou_9917526d95b8b2ee</t>
-  </si>
-  <si>
-    <t>pou_72f7228c0eb63a82</t>
-  </si>
-  <si>
-    <t>pou_7e5b20cf766162f7</t>
-  </si>
-  <si>
-    <t>pou_4936f8c08dfd0d0f</t>
-  </si>
-  <si>
-    <t>pou_b52e7a7eb8c9f4b7</t>
-  </si>
-  <si>
-    <t>pou_c195f47fe8336b19</t>
-  </si>
-  <si>
-    <t>pou_8c4043a024dbe119</t>
-  </si>
-  <si>
-    <t>pou_14ac534e8515cf53</t>
-  </si>
-  <si>
-    <t>pou_7b6d0191c465d8ee</t>
-  </si>
-  <si>
-    <t>pou_b2c4cf2726015747</t>
-  </si>
-  <si>
-    <t>pou_561cdb7eadc832ee</t>
-  </si>
-  <si>
-    <t>pou_4fb4b9a0078d3be7</t>
-  </si>
-  <si>
-    <t>pou_493395157bee3208</t>
-  </si>
-  <si>
-    <t>pou_ae718d78ab91cd92</t>
-  </si>
-  <si>
-    <t>pou_ec2543a13da4f271</t>
-  </si>
-  <si>
-    <t>pou_0b8676d49de69c6d</t>
-  </si>
-  <si>
-    <t>pou_78c1ce1cb1acbeeb</t>
-  </si>
-  <si>
-    <t>pou_54290a11cd3ac0c6</t>
-  </si>
-  <si>
-    <t>pou_be9c5042ea80cdf8</t>
-  </si>
-  <si>
-    <t>pou_708f59ee0afb9b66</t>
-  </si>
-  <si>
-    <t>pou_1db4190cbc10ba2d</t>
-  </si>
-  <si>
-    <t>pou_9e35ab5026c55f6d</t>
-  </si>
-  <si>
-    <t>pou_fe58c2de38ea577c</t>
-  </si>
-  <si>
-    <t>pou_2616b2b23525ffa7</t>
-  </si>
-  <si>
-    <t>pou_91aeb908a4b8fac6</t>
-  </si>
-  <si>
-    <t>pou_60a970c754e2253d</t>
-  </si>
-  <si>
-    <t>pou_a47f5264398673df</t>
-  </si>
-  <si>
-    <t>pou_60f3fc300d069329</t>
-  </si>
-  <si>
-    <t>pou_b08f902164f94b6d</t>
-  </si>
-  <si>
-    <t>pou_b6666ed255c031c8</t>
-  </si>
-  <si>
-    <t>pou_a240c7b2a3bf3880</t>
-  </si>
-  <si>
-    <t>pou_e6569b087215ef30</t>
-  </si>
-  <si>
-    <t>pou_4475a0e17b1919d6</t>
-  </si>
-  <si>
-    <t>pou_f21b67ff5615e228</t>
-  </si>
-  <si>
-    <t>pou_a0e8536d644950c0</t>
-  </si>
-  <si>
-    <t>pou_4b3c90ab11da8eb3</t>
-  </si>
-  <si>
-    <t>pou_12f47f8d72b68308</t>
-  </si>
-  <si>
-    <t>pou_2fe11b37be876650</t>
-  </si>
-  <si>
-    <t>pou_dbc5b2357a51f98c</t>
-  </si>
-  <si>
-    <t>pou_f3ed0d547e847291</t>
-  </si>
-  <si>
-    <t>pou_6caf3584971a6588</t>
-  </si>
-  <si>
-    <t>pou_59ab8edbdd98b88b</t>
-  </si>
-  <si>
-    <t>pou_349d1466dada6b50</t>
-  </si>
-  <si>
-    <t>pou_712232736a0d9f1b</t>
-  </si>
-  <si>
-    <t>pou_27501605e3e51654</t>
-  </si>
-  <si>
-    <t>pou_a3d21635800dac28</t>
-  </si>
-  <si>
-    <t>pou_a3151da01d37757e</t>
-  </si>
-  <si>
-    <t>pou_ccb327f753fb6949</t>
-  </si>
-  <si>
-    <t>pou_6e4c49b8776fe712</t>
-  </si>
-  <si>
-    <t>pou_983f104ac6e61ff4</t>
-  </si>
-  <si>
-    <t>pou_df5a6d9d84ed831a</t>
-  </si>
-  <si>
-    <t>pou_fa39819eea53059f</t>
-  </si>
-  <si>
-    <t>pou_dd46192d74f363a3</t>
-  </si>
-  <si>
-    <t>pou_4f543f826f82c96f</t>
-  </si>
-  <si>
-    <t>pou_b1224f701f0ba2b7</t>
-  </si>
-  <si>
-    <t>pou_9eec722d2f80efb6</t>
-  </si>
-  <si>
-    <t>pou_b87e76e9ed8e84ea</t>
-  </si>
-  <si>
-    <t>pou_9172cecb539a388f</t>
-  </si>
-  <si>
-    <t>pou_4eb7506de3ece741</t>
-  </si>
-  <si>
-    <t>pou_53a08b6979ed9bf8</t>
-  </si>
-  <si>
-    <t>pou_79d962d0424e6198</t>
-  </si>
-  <si>
-    <t>pou_9502e46cd0ede0c0</t>
-  </si>
-  <si>
-    <t>pou_a8597538dc3aae6e</t>
-  </si>
-  <si>
-    <t>pou_a3d2cef91a4f5349</t>
-  </si>
-  <si>
-    <t>pou_1efb68aa9768e37c</t>
-  </si>
-  <si>
-    <t>pou_bfbd112882ae2e9d</t>
-  </si>
-  <si>
-    <t>pou_066d98ea119a4be5</t>
-  </si>
-  <si>
-    <t>pou_3f0bccb14ef4b8c3;pou_3e843913ad47a1e4</t>
-  </si>
-  <si>
-    <t>pou_4c7ab4f44556a8bd</t>
-  </si>
-  <si>
-    <t>pou_885a43a31d8cfdd8;pou_fbf867faf63b4db5;pou_1c2833904b60ff83;pou_534b7641851ee019;pou_d65e3f317845c3a5;pou_524c07d35afe0068;pou_7b529d8958032ab5;pou_d950af62be3cb9fe;pou_f5688383cece2f25;pou_ec25e336bbfdb6fd;pou_3546228b71082aa9;pou_6855e5bbace3e94c</t>
-  </si>
-  <si>
-    <t>pou_ea8d732f90011612</t>
-  </si>
-  <si>
-    <t>pou_d391c9af7e358a17</t>
-  </si>
-  <si>
-    <t>pou_7f055dbe0630beb7</t>
-  </si>
-  <si>
-    <t>pou_34541c502e86727c</t>
-  </si>
-  <si>
-    <t>pou_27975fc39399a7b1</t>
-  </si>
-  <si>
-    <t>pou_fd416c8e282e0a20</t>
-  </si>
-  <si>
-    <t>pou_7ee964f11934656e</t>
-  </si>
-  <si>
-    <t>pou_1c2a1d7b7824d885</t>
-  </si>
-  <si>
-    <t>pou_a7f5f32008710ef1</t>
-  </si>
-  <si>
-    <t>pou_8e06203a6a936959</t>
-  </si>
-  <si>
-    <t>pou_1e5022259348db37;pou_9b10170a3df69f24</t>
-  </si>
-  <si>
-    <t>pou_1f035727f1616384</t>
-  </si>
-  <si>
-    <t>pou_d737d20c37e2bf74</t>
-  </si>
-  <si>
-    <t>pou_c7be9e0f823e43c8</t>
-  </si>
-  <si>
-    <t>pou_4c85c7f6a84642be</t>
-  </si>
-  <si>
-    <t>pou_ffec994370696494</t>
-  </si>
-  <si>
-    <t>pou_aa2c8e02413df498</t>
-  </si>
-  <si>
-    <t>pou_c87b96da149f1855</t>
-  </si>
-  <si>
-    <t>pou_28d32ce019604257</t>
-  </si>
-  <si>
-    <t>pou_123dcfef558f8646</t>
-  </si>
-  <si>
-    <t>pou_06cc40d2dbd20ba9;pou_d5818eee33293a33;pou_8e9ef864b98518e1;pou_f866900dbb3cd573;pou_b33babfbac5f4824;pou_a7a51f510ade153d;pou_b7bf1afb3a6e5ec3</t>
-  </si>
-  <si>
-    <t>pou_608f18027cb30c91;pou_b97d38ac0c2eaf01</t>
-  </si>
-  <si>
-    <t>pou_ce6d66858d33ed47</t>
-  </si>
-  <si>
-    <t>pou_68deed1baa6108c5</t>
-  </si>
-  <si>
-    <t>pou_7c9fab81ffdf9a7a</t>
-  </si>
-  <si>
-    <t>pou_966197b880f5fd7e</t>
-  </si>
-  <si>
-    <t>pou_8f886f348fbabd3a</t>
-  </si>
-  <si>
-    <t>pou_ac7a0a22e8374fc6</t>
-  </si>
-  <si>
-    <t>pou_084aceb497c033cb</t>
-  </si>
-  <si>
-    <t>pou_39e6924735f09f5a</t>
-  </si>
-  <si>
-    <t>pou_06ddf84879b08b81</t>
-  </si>
-  <si>
-    <t>pou_936ce568c7e708d5</t>
-  </si>
-  <si>
-    <t>pou_d5e1f94d93705228</t>
-  </si>
-  <si>
-    <t>pou_de1c892b295cc596;pou_27c3ea6c019eb763;pou_ab8f9a4ca9732ef8;pou_e61384c8b72f69a9;pou_11ea312bc825aaf9;pou_8b9a1c7875e18316;pou_0df9b802e4113703;pou_1eec545ddc7eeb56;pou_63ba011e61e1f584</t>
-  </si>
-  <si>
-    <t>pou_654ab3d22bf15a3c;pou_1fbff09d692070b6;pou_c878e673f3c5a689;pou_404e70992a571549;pou_1f2a3df6a3a6bc44;pou_b9c66d11504184bb;pou_0bda3a6c177ffae3</t>
-  </si>
-  <si>
-    <t>pou_07b59b82e2ae21bb</t>
-  </si>
-  <si>
-    <t>pou_3a52b8d9dbfa36d2;pou_9356f388639c1e7b;pou_cf513549f8c22d64;pou_41e33f2792aca08d</t>
-  </si>
-  <si>
-    <t>pou_4c074ea757e3667d;pou_d7f138e54eeaba06;pou_7d1b51b716d6af81;pou_18b10d8b068a958f;pou_f478c19a5952ade5;pou_e521b52074e7c446;pou_5ff062e6279d1daa;pou_baeee29f0ca0ce7f;pou_9f5bdec38257afda;pou_e277e00b8897ada6</t>
-  </si>
-  <si>
-    <t>pou_656affc5d719cce8</t>
-  </si>
-  <si>
-    <t>pou_15bb891e55364e31;pou_c5000ecbfe878779;pou_77a73b065933b1d6;pou_34959e9fc1a9e9a6;pou_73c0902f5d185c8e;pou_90188d971a087efb;pou_4bcc36c4a1b8855a;pou_b3cee747309113cd;pou_e9bc72453b36f2a5;pou_069fd6b61239fd2e;pou_70aae3d82b286219;pou_289ce28f456a2c6d;pou_7da2db5a3764acaa;pou_9f709ac31c0aae82;pou_2517809c121ca792;pou_8c1f56cec9bc6c95;pou_5145fd4146e28bf0;pou_5ba706879a7a75b7;pou_64a8c4dff3881278;pou_e70202adaf7eef84;pou_771e21d7c912d6d3;pou_19ea2796e35a83b8;pou_26f0bcb9c731dbd0;pou_0e994efbee2fa15d;pou_88227fdd4d294fed;pou_78072c7551cfaa90;pou_37c348fc0387eb2b;pou_00cb5a32d8f6ff03;pou_430e964638439ad2;pou_25f6ef4779069741;pou_372823064264ad8e;pou_303c3ed7f99676aa;pou_bb0b59df241cceaf;pou_0e4a94d0743f6a9d;pou_42c6e0181c208800;pou_bb82f36992192e21;pou_87b09d5e70d5694d;pou_e7940097f37605f0;pou_52e8008b5961fa30;pou_7a0436940375cff5;pou_83df9f849d0beecd;pou_63fc2bf03eef8210;pou_68b8c8a5095036db;pou_32e980a1fbbf1bc7;pou_7da499a4e7455a0f;pou_5af3518a325ca17b;pou_081f218b1cef60c1;pou_deeca22aa171db75;pou_1a2108bdb3c500d7;pou_1c2459415221356d;pou_84f8499f860bf69a;pou_65c4179335b2307d;pou_b2c6631be63d56f4;pou_51b5ecd34fce0945;pou_6ad2333642d25e4f;pou_93947007d1276575;pou_f238dbc9d477e3f4;pou_9e982ea20eb84505;pou_27f6abd1af308240;pou_258024d0b3d46a51;pou_08c2d73144a16f55;pou_13bc8adc1622033a;pou_bc9b2f44381d74f7;pou_a349311f92f8f3b3;pou_f894261e06ce801f;pou_961af4077788a23e;pou_3825c8e3b3680ddc;pou_e31cbf11d9237d69;pou_53f8ec42ba9d520c;pou_56f08384a46e34b8;pou_bce5bf6be4a0b696;pou_04fc3ab02a7bd45f;pou_b691160097cf7652;pou_84b54d19b735eb71;pou_8f58eb949c41bd5e;pou_8eeb94011bc58164;pou_1e719d019c23549c;pou_eecbb2f29a470819;pou_fb6eace1a844f502;pou_4c7f19240daf7c8f;pou_6ac4ccb73c211158;pou_5177e87a16a1638f;pou_a06d5b18f835f7cc;pou_16a8e0546481b31f;pou_51ebd29b3e53f640;pou_d162f97f2edbe6f4;pou_3345ca648023946f;pou_143647ad835608ae;pou_2e2e6248e9a633aa;pou_dda5ca0baa80d9a5;pou_815464f847e32f2b;pou_a74857d22d7e3b3c;pou_3fc23ef0fb34edb6;pou_5f00ea434cf54141;pou_dff1fbe2ed1725a0;pou_f1927f71f1d61177;pou_820145dd694c0364;pou_02fd99d00d8ecd4d;pou_f6d9fd67ed6c5394;pou_4320dfe4f004deae;pou_2c8628a8812ece6d;pou_853f8580ecd2eab8;pou_3c32ae40a1df04ca;pou_7d1652fa01ae689c;pou_cd7d5c45a9430eca;pou_fef79f6479570542;pou_625a9658b341af7b;pou_5d09be22ca425ea4;pou_96d62c5d8e1942f9;pou_ecd51e0a33b6b9e4;pou_0b6093f97efa8e92;pou_bb27abec800b69fd;pou_506f597d79d6d213;pou_f2b33464ef970287;pou_d7d334c39b069cd4;pou_9c2de85d5938aa95;pou_099717664515a71b;pou_d49fee111c06054b;pou_1aa2c44cd8b61cbe;pou_d4f8703549d5a915;pou_53b4fd1accb7857e;pou_65e3885b12512d1e;pou_5787530b90288bfb;pou_dbfb47c84f810dee;pou_03dabb3acf0b4827;pou_70eab3d6ca0b55eb;pou_7a11c40edfb48d9f;pou_12416e40cbe8bfb4;pou_8ada0784dc2a130e;pou_4ce91fced0cc7c79;pou_a3995d47aa127fdc;pou_aba72a52309ae4ac;pou_2bec2269a8808b23;pou_5baacac8be8425d7;pou_750cad0e9c1b09df;pou_a2f6b386f6e2b441;pou_b0a6bbe1351c4138;pou_37da1e9e447dc936;pou_885000ebc2e2595d;pou_8bafeed0376b4484;pou_c6e2e575ab18cf70;pou_749295acad89a288;pou_1afafe3f231f7008</t>
-  </si>
-  <si>
-    <t>pou_9b3221da52ccfb8e;pou_a468c3d4db33ca18;pou_a760b8850cd4a600</t>
-  </si>
-  <si>
-    <t>pou_c89dce4f615d5489</t>
-  </si>
-  <si>
-    <t>pou_dc2514c2cb91dd69</t>
-  </si>
-  <si>
-    <t>pou_9f067f1f93cfe6d7</t>
-  </si>
-  <si>
-    <t>pou_ed179b974b0bb46f</t>
-  </si>
-  <si>
-    <t>pou_92b65845c0f0cd92</t>
-  </si>
-  <si>
-    <t>pou_8f8a3da2d0e49147;pou_6315bf716f658d2d;pou_4b2d9f615e37c10d</t>
-  </si>
-  <si>
-    <t>pou_190abfb20bbfc203</t>
-  </si>
-  <si>
-    <t>pou_2dec46ecf378e129</t>
-  </si>
-  <si>
-    <t>pou_0cec2cdb41761829</t>
-  </si>
-  <si>
-    <t>pou_8162bc48afb2a5f3</t>
-  </si>
-  <si>
-    <t>pou_091938f27b63026d</t>
-  </si>
-  <si>
-    <t>pou_2661df583924211c;pou_65adbd987d1a5dd9;pou_bcf31024c41cf82f;pou_b20a9a1aa3f2ea36;pou_56a12b2e57f220ec;pou_e00b874dac06a434;pou_bc400401cb8a0dcc</t>
-  </si>
-  <si>
-    <t>pou_592ab3a685ba9705</t>
-  </si>
-  <si>
-    <t>pou_4feeb205dfe73491</t>
-  </si>
-  <si>
-    <t>pou_5ab353fe49dddbc3;pou_192d0c24357dc2ce</t>
-  </si>
-  <si>
-    <t>pou_d9df3cbcc85f2c48</t>
-  </si>
-  <si>
-    <t>pou_ee5a52e4e8ff2221</t>
-  </si>
-  <si>
-    <t>pou_3087089a8f124e1d</t>
-  </si>
-  <si>
-    <t>pou_60d8243117e0b0cf</t>
-  </si>
-  <si>
-    <t>pou_f2e921c46f2659ce</t>
-  </si>
-  <si>
-    <t>pou_3dea65fb00ea5fa8;pou_606a78c936f4b102</t>
-  </si>
-  <si>
-    <t>pou_e1e62a1e4acf704c;pou_3c401a9459419c7a</t>
-  </si>
-  <si>
-    <t>pou_4d9db521b9859266;pou_d72cb779e542c26a;pou_4b3c090c13a0ec25;pou_cd4be9860b0039c0;pou_c42179e9bd6e8b34;pou_421cce5e61e32a66;pou_67ed0d85eb737ee2;pou_1308b874b4316e7d;pou_63c8128fd7ef9265;pou_5696985e5ece9c5d;pou_18e78d8835b11b81;pou_93bf1f0e02ac8962;pou_396243d1ebe3dd3c;pou_94c83588a30ec7c9;pou_8a71ace04138603c;pou_3908699aa22aad5e;pou_926ad02906fda377;pou_7feb1963d29f1183;pou_b9d2ec7c33604d15;pou_c233088c4586c305;pou_e5062cd241d234fc;pou_0593a23a1423a731;pou_e0e7c51884687871;pou_73aa4b7d252d0742;pou_533dccac27564fc1;pou_c8cfa7ac386d5673;pou_4b5f698906b776d8</t>
-  </si>
-  <si>
-    <t>pou_1c6ca76050b2fb06</t>
-  </si>
-  <si>
-    <t>pou_8bfb6068928da2ec</t>
-  </si>
-  <si>
-    <t>pou_52cca8d7e6bccc98;pou_6552a2e869287664;pou_def3dd4022e00695;pou_68d18b780f075399;pou_2da057e5e532b59a</t>
-  </si>
-  <si>
-    <t>pou_c3090c3eb578de7b;pou_47c70b9002635f3b;pou_0216634f972922ac;pou_28211764ab558a32;pou_d26910199871bfa4;pou_c6abfa2ccc60218d;pou_4b45d8b49f742218;pou_3b7cdb27abd446fe;pou_a98cdd7549014535;pou_7977e56b8383c449;pou_4aa30244dc78c5f8;pou_df41bd860c618103;pou_07e60c8df29865cc;pou_12fd387f7627283d;pou_22d170dac3edf472;pou_99aa5de06cb11793;pou_bd3627c31546d287;pou_c021da55f3370b1d;pou_c9e9f07c8e6c16ad;pou_fb7f608f08813f51;pou_ffc3be589d7d1342;pou_b087b4898756e411;pou_36c951bbaff98c12;pou_70714d09b82b31cf;pou_8f445057e94fc9a8;pou_95f9f9307d5f86fa;pou_ccac55179e713868;pou_9469e560779b24e6;pou_f803c1d321960b59</t>
-  </si>
-  <si>
-    <t>pou_efc2b2b1b98139c7;pou_c41a547b040b684a;pou_7dc0ca2134a30d95;pou_2ace4d714ee61878;pou_daded07e19ee4f90;pou_7243febc6bb5a6d6;pou_6b436f56db1e809f;pou_e5a4329fa67d5db7</t>
-  </si>
-  <si>
-    <t>pou_9573e21bf02bc905;pou_58935557af12e5f4</t>
-  </si>
-  <si>
-    <t>pou_e1e5f297fa88df26</t>
-  </si>
-  <si>
-    <t>pou_771222cc4f3d7113</t>
-  </si>
-  <si>
-    <t>pou_ba2d63a6301a1409;pou_62a75a87da570beb;pou_7d4cd36b845ea0f5;pou_60f97021b3fe68d8;pou_1730eb4faae6992d;pou_21fb79e835d5ec7c;pou_c81bb0322dbbacec;pou_eaf9a58962500eb3;pou_3a451a4c867656e9;pou_f164eccd0ddd6246;pou_c6c6ea467ee7ffe0;pou_46a411dcd97e7e34;pou_ca58acd8020f3b52;pou_0824066b0f5c6370;pou_6c76fe7ee8c9d2fd</t>
-  </si>
-  <si>
-    <t>pou_97916a67f641ed2d;pou_db7504c359bcd729;pou_b7d8a073a0e3f96c;pou_1fae1d51d2f3a6c8;pou_62500f3d7ddd7223;pou_305c625e915e5bea;pou_0d29d9a65cd1be83</t>
-  </si>
-  <si>
-    <t>pou_8f79dfd27be7871e</t>
-  </si>
-  <si>
-    <t>pou_f05b468149695d3c</t>
-  </si>
-  <si>
-    <t>pou_2b998bc840ff7fee</t>
-  </si>
-  <si>
-    <t>pou_da1119345d77fbf2</t>
-  </si>
-  <si>
-    <t>pou_b1f04b40a0f39ad8</t>
-  </si>
-  <si>
-    <t>pou_d044f0fc4e62c653</t>
-  </si>
-  <si>
-    <t>pou_9201886f6c83b386</t>
-  </si>
-  <si>
-    <t>pou_64082b4916d8c843</t>
-  </si>
-  <si>
-    <t>pou_b179c4815cbdeaeb</t>
-  </si>
-  <si>
-    <t>pou_65386d959282c620;pou_899f56762e4647ed;pou_c70afdda7d20d362;pou_d05d7ab780060d43;pou_6bedac37171ae2d7;pou_5c4fb316e2c9a48b;pou_7e721fd157e68cb1;pou_2c8727fc8569503b;pou_9b0a3cb721f58386;pou_22d8492ef8a55698;pou_6e8e378bca79c8ce;pou_5f74b7c77cdef6c0</t>
-  </si>
-  <si>
-    <t>pou_adc67f129c95d046</t>
-  </si>
-  <si>
-    <t>pou_813253d4d4a535e5;pou_03d5584561c1231d</t>
-  </si>
-  <si>
-    <t>pou_731e156f4be8344c;pou_27f1eb62e988dbae;pou_fec8a47b2a526d9f;pou_3e176be12ead265d;pou_cfed9ccedd568a6a;pou_7ab948abe11819db</t>
-  </si>
-  <si>
-    <t>pou_cf0e1324eb21bc6d;pou_3d1ad753bdef14cf;pou_e7f4f7caf968b0ef;pou_67c5060b6442e630;pou_82380462ff121bbc;pou_dc82a81761a88171;pou_519b6530a97a6fba;pou_9d26b82fbebde1ed;pou_0af403faf603c7f8;pou_24c823ab052f9970;pou_06e166e7f07410cc;pou_2d7212135df6a69e;pou_f9800687cc71c9cb;pou_95924c1d370e7107</t>
-  </si>
-  <si>
-    <t>pou_401730971c707d52;pou_121e7270b2831647;pou_b2a06f3169968944;pou_2016607812e8acbd;pou_19c276048907edfc;pou_da4026ef14ec1e8d;pou_813b37386fa4f79a;pou_a7fb22a7406b86cf;pou_d9928dd538c94606;pou_8c145f0a5ee71be5;pou_cf630d1e5b89591c</t>
-  </si>
-  <si>
-    <t>pou_68ddd217ccb99029</t>
-  </si>
-  <si>
-    <t>pou_07ac850fed938a23</t>
-  </si>
-  <si>
-    <t>pou_18a0e11c1a28b653;pou_d793de3ac4c89587;pou_12bc63a657218408;pou_ef54a3b358fcc851;pou_fb102354c83d75a4;pou_f7efc33b824e6f06;pou_91bcd40e45229f02</t>
-  </si>
-  <si>
-    <t>pou_7247a90681d934c7;pou_88187deef9df59d4;pou_1ba441bf07896543;pou_c67440ed19ee0286;pou_f3e9136f39afe989;pou_e2d25bcdc74457c1;pou_d89972af93bc2c53;pou_e4f62f3da753ef77;pou_b120ebc384e37960;pou_ecf83b51acf7b513;pou_2fe40819c9d3b45a;pou_6b9696c5e3fe17d8;pou_60899bc3d86f4bbe;pou_42f94c10702946a3;pou_6a0e8bb48146552c;pou_fac0c65b04e48c90;pou_7ec1e015774f4213;pou_82dba87e73b2f3f8;pou_50bd4b129ab29c21</t>
-  </si>
-  <si>
-    <t>pou_41208c17ddd38bf7</t>
-  </si>
-  <si>
-    <t>pou_311e67755fb87b75;pou_923f6ff98c246314;pou_33440a19823940ac;pou_9fe950847eb56785;pou_f7ca333b977367c9;pou_5b779d687593d3f4</t>
-  </si>
-  <si>
-    <t>pou_bb5a692d8a6d4206</t>
-  </si>
-  <si>
-    <t>pou_567927fc1b32d8c1;pou_b0f5e1d360831b0a;pou_a2a350a7f56d061e</t>
-  </si>
-  <si>
-    <t>pou_e42d723e824db32b</t>
-  </si>
-  <si>
-    <t>pou_bc79eac4f3a79582;pou_fe34cf4da34bb0d8;pou_3bebda11e2116898;pou_bd116d88017007bd;pou_78072e2abcdff325;pou_1dbf26dee95c41f9</t>
-  </si>
-  <si>
-    <t>pou_11af3bf77a5fbe7c</t>
-  </si>
-  <si>
-    <t>pou_be62fcf2c3664437</t>
-  </si>
-  <si>
-    <t>pou_5b99b139f087ae69</t>
-  </si>
-  <si>
-    <t>pou_7ef3c0c9246d51f4;pou_dbdc4390f8681f01;pou_82198f13bb63d154;pou_2c66f8ab8390e45e;pou_3f15ac83fc0b9da7;pou_45bcb69ccbcf3289;pou_927e85acdea06905;pou_b361b32d81f07e6d;pou_6c0fab98ed0adb99;pou_6f02cc8eb6ab5625;pou_f82cd0fbbe198349;pou_145ef5bf7365b9da;pou_44f72656b3128084;pou_dd7ad0fb22af17bc;pou_ff6ed412c13cfd69;pou_e96bf84e3fcee4bc;pou_0fe3822b6646469e;pou_c4843281e1fcfee1;pou_6a283a2d2f866b5f;pou_ee41fcb3c84f3192;pou_ad56091fabc8b4f8</t>
-  </si>
-  <si>
-    <t>pou_85c3266598bcf05d</t>
-  </si>
-  <si>
-    <t>pou_3c43010911cde750</t>
-  </si>
-  <si>
-    <t>pou_0bbd0495ed6f4062</t>
-  </si>
-  <si>
-    <t>pou_3b426e83c0622c81;pou_4210590c76570f46;pou_a4ff93771ed1a06b;pou_289a3fa0855f4959;pou_744984cbfbe4212d;pou_1691044141e1f147;pou_edefd131f80d03bd;pou_7e015e55e4b693bb;pou_3815a6e9e1b4dd90;pou_715b2871a8307aa0;pou_555180e0eb291189;pou_9b7eba4aa20a498a;pou_c3c7a39f94b072b6;pou_174db32ee46c7b08;pou_a15ca6399f651238</t>
-  </si>
-  <si>
-    <t>pou_fe5809363f39cac1</t>
-  </si>
-  <si>
-    <t>pou_96752041b349beb7</t>
-  </si>
-  <si>
-    <t>pou_990ddbb1c6749e9f</t>
-  </si>
-  <si>
-    <t>pou_b069af2bc1ddecf6</t>
-  </si>
-  <si>
-    <t>pou_4067e373c62cb72d</t>
-  </si>
-  <si>
-    <t>pou_6ad56aa3ca46e87a</t>
-  </si>
-  <si>
-    <t>pou_a6dd504ced9b8bd9</t>
-  </si>
-  <si>
-    <t>pou_148cc1370819c52e</t>
-  </si>
-  <si>
-    <t>pou_d428cdd926dcd9c2</t>
-  </si>
-  <si>
-    <t>pou_cc925cf8358bd258</t>
-  </si>
-  <si>
-    <t>pou_c4a7d875979a5939</t>
-  </si>
-  <si>
-    <t>pou_b4d68fbbeee1e735;pou_f7e83ccfb3317228</t>
-  </si>
-  <si>
-    <t>pou_118acaa5dfd3b1e0</t>
-  </si>
-  <si>
-    <t>pou_4c3f495f22ef31fd</t>
-  </si>
-  <si>
-    <t>pou_a9cad8d97bc93d55</t>
-  </si>
-  <si>
-    <t>pou_c7a6e83751530449</t>
-  </si>
-  <si>
-    <t>pou_56b04fc7bb83dadd</t>
-  </si>
-  <si>
-    <t>pou_a9e68d61f08929c5</t>
-  </si>
-  <si>
-    <t>pou_72897dbfe026ea2c</t>
-  </si>
-  <si>
-    <t>pou_97e0ebb6d8918b3c</t>
-  </si>
-  <si>
-    <t>pou_dc270875b1f06bc5</t>
-  </si>
-  <si>
-    <t>pou_f4dd0558c016a41f</t>
-  </si>
-  <si>
-    <t>pou_774bde7ae5bcf981</t>
-  </si>
-  <si>
-    <t>pou_4c3336446f716ed2</t>
-  </si>
-  <si>
-    <t>pou_185a3e2bd1ea0e50</t>
-  </si>
-  <si>
-    <t>pou_2c71e104b9119339</t>
-  </si>
-  <si>
-    <t>pou_e7dea7c7afb39b95</t>
-  </si>
-  <si>
-    <t>pou_a23242c6b639140a</t>
-  </si>
-  <si>
-    <t>pou_b91004bcc7b68e8e</t>
-  </si>
-  <si>
-    <t>pou_4b96a4622c282726</t>
-  </si>
-  <si>
-    <t>pou_e24304761120fb85</t>
-  </si>
-  <si>
-    <t>pou_8dbad8ff0a72b585</t>
-  </si>
-  <si>
-    <t>pou_eb44ce777c2b9667</t>
-  </si>
-  <si>
-    <t>pou_dcf7aa9e06fc581d</t>
-  </si>
-  <si>
-    <t>pou_9ff168e89d4dea35</t>
-  </si>
-  <si>
-    <t>pou_fabaa062700af1cc</t>
-  </si>
-  <si>
-    <t>pou_8274b7b1d85b39ae</t>
-  </si>
-  <si>
-    <t>pou_08dfa3f7cd22b8f9</t>
-  </si>
-  <si>
-    <t>pou_fbccc9b50bb67e40</t>
-  </si>
-  <si>
-    <t>pou_f29fa270bd7e75d1</t>
-  </si>
-  <si>
-    <t>pou_fcef373c80615ef1</t>
-  </si>
-  <si>
-    <t>pou_20a030899e747e2a</t>
-  </si>
-  <si>
-    <t>pou_1618f04bedb721a1</t>
-  </si>
-  <si>
-    <t>pou_3a6d2cbd2a70761e</t>
-  </si>
-  <si>
-    <t>pou_861abc2a7c0f1359</t>
-  </si>
-  <si>
-    <t>pou_c404a704f1b7ea66</t>
-  </si>
-  <si>
-    <t>pou_fa57db1aaa1d2334</t>
-  </si>
-  <si>
-    <t>pou_819c8906d4467d0f</t>
-  </si>
-  <si>
-    <t>pou_e06bc01c06abd110</t>
-  </si>
-  <si>
-    <t>pou_2839e4f84b50de0b</t>
-  </si>
-  <si>
-    <t>pou_8aef084414292602</t>
-  </si>
-  <si>
-    <t>pou_e765715df00dc706</t>
-  </si>
-  <si>
-    <t>pou_a5e41fad447f2a96</t>
-  </si>
-  <si>
-    <t>pou_bce9efb16b8cf947</t>
-  </si>
-  <si>
-    <t>pou_fb7318cf05fc9bd9</t>
-  </si>
-  <si>
-    <t>pou_7b0fc639e88e77d6</t>
-  </si>
-  <si>
-    <t>pou_66c7066284571bc5</t>
-  </si>
-  <si>
-    <t>pou_4d053c88ddf7e140</t>
-  </si>
-  <si>
-    <t>pou_02e4b7d556c387ce</t>
-  </si>
-  <si>
-    <t>pou_19998d9674c927a4</t>
-  </si>
-  <si>
-    <t>pou_40313cd39fc0a96b</t>
-  </si>
-  <si>
-    <t>pou_b9233f252d3fd7c4</t>
-  </si>
-  <si>
-    <t>pou_ea4dfded4a02d3ca</t>
-  </si>
-  <si>
-    <t>pou_52e900a3373b00f9</t>
-  </si>
-  <si>
-    <t>pou_5f9665714379a9e8</t>
-  </si>
-  <si>
-    <t>pou_dbfd16b7fafeb252</t>
-  </si>
-  <si>
-    <t>pou_d6ef4d95554497d9</t>
-  </si>
-  <si>
-    <t>pou_7ae6459265289747</t>
-  </si>
-  <si>
-    <t>pou_305980a0534c82ee</t>
-  </si>
-  <si>
-    <t>pou_d3b0264b4bbf6a0e</t>
-  </si>
-  <si>
-    <t>pou_3a671cbc116972da</t>
-  </si>
-  <si>
-    <t>pou_4b7cd07e40cd4354</t>
-  </si>
-  <si>
-    <t>pou_964c211d1f28fb3d</t>
-  </si>
-  <si>
-    <t>pou_20b566e73bd0f166</t>
-  </si>
-  <si>
-    <t>pou_f4056a0a7000f75a</t>
-  </si>
-  <si>
-    <t>pou_af443053fdd5cd02</t>
-  </si>
-  <si>
-    <t>pou_bd23540ed10f5087</t>
-  </si>
-  <si>
-    <t>pou_f89dc5a5d41f9e35</t>
-  </si>
-  <si>
-    <t>pou_8f98c14e13f0e972</t>
-  </si>
-  <si>
-    <t>pou_6ab3bd499601b5b1</t>
-  </si>
-  <si>
-    <t>pou_1a48a760393eadd6</t>
-  </si>
-  <si>
-    <t>pou_74446005743af677</t>
-  </si>
-  <si>
-    <t>pou_57411b89938457a4</t>
-  </si>
-  <si>
-    <t>pou_8a5850d4f02df3f0</t>
-  </si>
-  <si>
-    <t>pou_49797fac36d7a913</t>
-  </si>
-  <si>
-    <t>pou_e739928ccfeb5735</t>
-  </si>
-  <si>
-    <t>pou_74489ea5378387e1</t>
-  </si>
-  <si>
-    <t>pou_21de50b1941f869a</t>
-  </si>
-  <si>
-    <t>pou_3bb14aab1d791236</t>
-  </si>
-  <si>
-    <t>pou_b5e6366f4d220a79</t>
-  </si>
-  <si>
-    <t>pou_0ae48920663c0517</t>
-  </si>
-  <si>
-    <t>pou_b04d8f5d4d7db9eb</t>
-  </si>
-  <si>
-    <t>pou_d457a36f93b95b1a</t>
-  </si>
-  <si>
-    <t>pou_c63d5707c765a8c9</t>
-  </si>
-  <si>
-    <t>pou_7f12706626f5bcc2</t>
-  </si>
-  <si>
-    <t>pou_be436e743f35dd60</t>
-  </si>
-  <si>
-    <t>pou_c092c71bc8e0ef62</t>
-  </si>
-  <si>
-    <t>pou_a1e96534416754ca</t>
-  </si>
-  <si>
-    <t>pou_b7d247cda103152e</t>
-  </si>
-  <si>
-    <t>pou_162fd2b329c3074c</t>
-  </si>
-  <si>
-    <t>pou_6f6ce2d0b3ec43a9</t>
-  </si>
-  <si>
-    <t>pou_0f556c06997d5880</t>
-  </si>
-  <si>
-    <t>pou_cf3c68185355cb09</t>
-  </si>
-  <si>
-    <t>pou_3ba2c498bbfdd664</t>
-  </si>
-  <si>
-    <t>pou_8528ed74869c8d08</t>
-  </si>
-  <si>
-    <t>pou_814a95a6f45cc528</t>
-  </si>
-  <si>
-    <t>pou_2a94c5688de0f038</t>
-  </si>
-  <si>
-    <t>pou_e8e6c60f9b90f23b</t>
-  </si>
-  <si>
-    <t>pou_4ffe1f879eabf2f1</t>
-  </si>
-  <si>
-    <t>pou_babba591d57dd7ce</t>
-  </si>
-  <si>
-    <t>pou_b08ae516c9e8766b</t>
-  </si>
-  <si>
-    <t>pou_b6a1fbe4b94d4e1a</t>
-  </si>
-  <si>
-    <t>pou_98edae9204bf28e3</t>
-  </si>
-  <si>
-    <t>pou_240a7ed1c08a454b</t>
-  </si>
-  <si>
-    <t>pou_36fc3a5ca5c0b1e2</t>
-  </si>
-  <si>
-    <t>pou_0724a1e8a779cb35</t>
-  </si>
-  <si>
-    <t>pou_c1b9690bbeb0e55b</t>
-  </si>
-  <si>
-    <t>pou_55ac78f53f71fe3c</t>
-  </si>
-  <si>
-    <t>pou_ac3f2e3cb754864e</t>
-  </si>
-  <si>
-    <t>pou_013e90fbf211c4e2</t>
-  </si>
-  <si>
-    <t>pou_c5b9bb7aef0ad559</t>
-  </si>
-  <si>
-    <t>pou_a8794beac5fcab80</t>
-  </si>
-  <si>
-    <t>pou_b90e79ae2f6ede19</t>
-  </si>
-  <si>
-    <t>pou_e3c6d561ce39d976</t>
-  </si>
-  <si>
-    <t>pou_42e4ac3f533afcc8</t>
-  </si>
-  <si>
-    <t>pou_39d12d99672115f5</t>
-  </si>
-  <si>
-    <t>pou_c988eef4cc624034</t>
-  </si>
-  <si>
-    <t>pou_38c32603fb6ee7bd</t>
-  </si>
-  <si>
-    <t>pou_af2f049dc88e032b</t>
-  </si>
-  <si>
-    <t>pou_b749dc6fb4573724</t>
-  </si>
-  <si>
-    <t>pou_3f11b08b7c77314e</t>
-  </si>
-  <si>
-    <t>pou_88d37f4cc428c7d8</t>
-  </si>
-  <si>
-    <t>pou_6335b563a77c5e21</t>
-  </si>
-  <si>
-    <t>pou_e1b37ca0b8a21499</t>
-  </si>
-  <si>
-    <t>pou_686b2ec92e01d01e</t>
-  </si>
-  <si>
-    <t>pou_c06867e80b1f6e8e</t>
-  </si>
-  <si>
-    <t>pou_22991e901b76378e</t>
-  </si>
-  <si>
-    <t>pou_a8c422cad3f1c77e</t>
-  </si>
-  <si>
-    <t>pou_eb4f1b96c04b3934</t>
-  </si>
-  <si>
-    <t>pou_3d4085eec9ec33f0</t>
-  </si>
-  <si>
-    <t>pou_1893c13ad1813c7b</t>
-  </si>
-  <si>
-    <t>pou_bd67a26f6aef75d7</t>
-  </si>
-  <si>
-    <t>pou_3e038a056948477b</t>
-  </si>
-  <si>
-    <t>pou_e7ce853e853eb57b</t>
-  </si>
-  <si>
-    <t>pou_092bb4d58303ec88</t>
-  </si>
-  <si>
-    <t>pou_da59f18c1a112e69</t>
-  </si>
-  <si>
-    <t>pou_9741f48ddf6a6788</t>
-  </si>
-  <si>
-    <t>pou_afcf52218b394e79</t>
-  </si>
-  <si>
-    <t>pou_cd81a4cadd1b349a</t>
-  </si>
-  <si>
-    <t>pou_3843e7674647aa3d</t>
-  </si>
-  <si>
-    <t>pou_530f5c44ccd7a815</t>
-  </si>
-  <si>
-    <t>pou_c226cea6ec537cbe</t>
-  </si>
-  <si>
-    <t>pou_fc474b64ef48fdb4</t>
-  </si>
-  <si>
-    <t>pou_6d66e643e60374e4</t>
-  </si>
-  <si>
-    <t>pou_f374af9bc5313d59</t>
-  </si>
-  <si>
-    <t>pou_dbcb97ff768f6bbd</t>
-  </si>
-  <si>
-    <t>pou_908bf30ec4f82045</t>
-  </si>
-  <si>
-    <t>pou_642fc5c9a2c56505</t>
-  </si>
-  <si>
-    <t>pou_51d508cf272de860</t>
-  </si>
-  <si>
-    <t>pou_f0eb3045a44be6d4</t>
-  </si>
-  <si>
-    <t>pou_8cc953e9d333c81b</t>
-  </si>
-  <si>
-    <t>pou_72a23486ada4a542</t>
-  </si>
-  <si>
-    <t>pou_fdb6852a24dc4296</t>
-  </si>
-  <si>
-    <t>pou_042119649162cac4</t>
-  </si>
-  <si>
-    <t>pou_8dc9f0e5c8a1774b</t>
-  </si>
-  <si>
-    <t>pou_92ea0e72a7429776</t>
-  </si>
-  <si>
-    <t>pou_38850ba3f9b802e9</t>
-  </si>
-  <si>
-    <t>pou_b33d50d4d5e1fcff</t>
-  </si>
-  <si>
-    <t>pou_44e422a2b8780fbc</t>
-  </si>
-  <si>
-    <t>pou_98a9ec06b2e4fdc5</t>
-  </si>
-  <si>
-    <t>pou_4e2120bf75859c0f</t>
-  </si>
-  <si>
-    <t>pou_2c8fbcf8195e9a30</t>
-  </si>
-  <si>
-    <t>pou_a1e3398711ce2b98</t>
-  </si>
-  <si>
-    <t>pou_183837758b29cb3a</t>
-  </si>
-  <si>
-    <t>pou_0f65df658cd6c3ee</t>
-  </si>
-  <si>
-    <t>pou_7d205f9afc97d6e3</t>
-  </si>
-  <si>
-    <t>pou_6d8103708a7a5634</t>
-  </si>
-  <si>
-    <t>pou_0ae515ff90900335</t>
-  </si>
-  <si>
-    <t>pou_64c53cf5c5c5b203</t>
-  </si>
-  <si>
-    <t>pou_056d39321e07f677</t>
-  </si>
-  <si>
-    <t>pou_339dfccd139adc8e</t>
-  </si>
-  <si>
-    <t>pou_4366ecf7e0873163</t>
-  </si>
-  <si>
-    <t>pou_f6f23fae65b8a9a9</t>
-  </si>
-  <si>
-    <t>pou_0caa558f1a0707ff</t>
-  </si>
-  <si>
-    <t>pou_c19de7b9c39358dc</t>
-  </si>
-  <si>
-    <t>pou_bb89cd7c59fde42c</t>
-  </si>
-  <si>
-    <t>pou_36c4f0c3397ba9c2</t>
-  </si>
-  <si>
-    <t>pou_e1ea9707a9a53500</t>
-  </si>
-  <si>
-    <t>pou_13de8620cc7a87d6</t>
-  </si>
-  <si>
-    <t>pou_46e51723a5289039</t>
-  </si>
-  <si>
-    <t>pou_6d0f190451f1e196</t>
-  </si>
-  <si>
-    <t>pou_638ff01257a7b8f0</t>
-  </si>
-  <si>
-    <t>pou_deca3c1e59df9051</t>
-  </si>
-  <si>
-    <t>pou_396047c957baf369</t>
-  </si>
-  <si>
-    <t>pou_5b77794ae5cbb108</t>
-  </si>
-  <si>
-    <t>pou_ca7476b998f1e729</t>
-  </si>
-  <si>
-    <t>pou_991f3847c201b237</t>
-  </si>
-  <si>
-    <t>pou_2dcec0a4a609cb2a</t>
-  </si>
-  <si>
-    <t>pou_045e82438099fb3f</t>
-  </si>
-  <si>
-    <t>pou_f7a78331cfd03ea1</t>
-  </si>
-  <si>
-    <t>pou_fc2f5780564ae865</t>
-  </si>
-  <si>
-    <t>pou_a3c2551b7beb203b</t>
-  </si>
-  <si>
-    <t>pou_1ac06452a5a40122</t>
-  </si>
-  <si>
-    <t>pou_cb355a5486735deb</t>
-  </si>
-  <si>
-    <t>pou_15206ca7d90a67c2</t>
-  </si>
-  <si>
-    <t>pou_532be86b79063684</t>
-  </si>
-  <si>
-    <t>pou_ea6d326c2df7aeea</t>
-  </si>
-  <si>
-    <t>pou_fe31613ce005259a</t>
-  </si>
-  <si>
-    <t>pou_1348c492587cc41d</t>
-  </si>
-  <si>
-    <t>pou_6b32ac6f2657fd82</t>
-  </si>
-  <si>
-    <t>pou_d7ccf6cc26e6b8af</t>
-  </si>
-  <si>
-    <t>pou_cdcb59747d14ce07</t>
-  </si>
-  <si>
-    <t>pou_c99957b2ed9481cc</t>
-  </si>
-  <si>
-    <t>pou_cb22d61d05d77450</t>
-  </si>
-  <si>
-    <t>pou_1b7e4e3b51b9a6d6</t>
-  </si>
-  <si>
-    <t>pou_fe994cb6717c85e4</t>
-  </si>
-  <si>
-    <t>pou_9b77666da2d65a1e</t>
-  </si>
-  <si>
-    <t>pou_4c0a7f6e567c8936</t>
-  </si>
-  <si>
-    <t>pou_fbdaffc85b7df326</t>
-  </si>
-  <si>
-    <t>pou_eedd4241e265dcdf</t>
-  </si>
-  <si>
-    <t>pou_04d91997e8c47afd</t>
-  </si>
-  <si>
-    <t>pou_942aaf4075fd8a12</t>
-  </si>
-  <si>
-    <t>pou_3966def0cf63d6d1</t>
-  </si>
-  <si>
-    <t>pou_6c9e5b81f09cfece</t>
-  </si>
-  <si>
-    <t>pou_129678e5ca5fbd11</t>
-  </si>
-  <si>
-    <t>pou_a9ffa7c88d585379</t>
-  </si>
-  <si>
-    <t>pou_ac5709f53378e053;pou_dd27f13d26b66be7</t>
-  </si>
-  <si>
-    <t>pou_ba5c4cf88014b2d2;pou_180fd95713a4da99;pou_76967c830e9c4e5a;pou_691e833e6ed30623;pou_4aa8fc7616f16b16;pou_83d52843923e3b65;pou_2135cbb85a3b70ba;pou_18fac03a81adfee9;pou_97fd97de3e8ec5cd;pou_260a3184140fb858;pou_1d450d9cc46cbc0a;pou_81293de79af9660b</t>
-  </si>
-  <si>
-    <t>pou_33924a0991211a7c</t>
-  </si>
-  <si>
-    <t>pou_c7e66a60786debfe</t>
-  </si>
-  <si>
-    <t>pou_f38d24bfdb9e97af</t>
-  </si>
-  <si>
-    <t>pou_0693f31a3c8ad5fd</t>
-  </si>
-  <si>
-    <t>pou_a96fd0749197f776</t>
-  </si>
-  <si>
-    <t>pou_128841edb0b75b27</t>
-  </si>
-  <si>
-    <t>pou_dfa2ab5c76dc4ff0</t>
-  </si>
-  <si>
-    <t>pou_b4d9d21843a42dca</t>
-  </si>
-  <si>
-    <t>pou_6b3173257ce2eacf</t>
-  </si>
-  <si>
-    <t>pou_41f3689baa472644</t>
-  </si>
-  <si>
-    <t>pou_8b7bca48e0f17a48</t>
-  </si>
-  <si>
-    <t>pou_ba3eeab3625699a7</t>
-  </si>
-  <si>
-    <t>pou_2c10102d75c03624</t>
-  </si>
-  <si>
-    <t>pou_f8512bf6de1b5350</t>
-  </si>
-  <si>
-    <t>pou_2e4ab4b44d21cf3b</t>
-  </si>
-  <si>
-    <t>pou_75ff3436c436cdf7</t>
-  </si>
-  <si>
-    <t>pou_e47d60d5603ed1af</t>
-  </si>
-  <si>
-    <t>pou_b9e2fff68dfb462f</t>
-  </si>
-  <si>
-    <t>pou_9636eb316a42a9b6</t>
-  </si>
-  <si>
-    <t>pou_be03e3df7dae4eb1</t>
-  </si>
-  <si>
-    <t>pou_26810cb5b1809e64</t>
-  </si>
-  <si>
-    <t>pou_0d902cf6a4b97024</t>
-  </si>
-  <si>
-    <t>pou_13e3b34b9c28890f</t>
-  </si>
-  <si>
-    <t>pou_2e9a12943710923d</t>
-  </si>
-  <si>
-    <t>pou_59962f3a866f101d</t>
-  </si>
-  <si>
-    <t>pou_3ad164bf4be26ae8</t>
-  </si>
-  <si>
-    <t>pou_185363c8f98228f9</t>
-  </si>
-  <si>
-    <t>pou_b32bde18329d4d47</t>
-  </si>
-  <si>
-    <t>pou_9418b72bb07aa6f7</t>
-  </si>
-  <si>
-    <t>pou_0f43f1153fb24b61</t>
-  </si>
-  <si>
-    <t>pou_aa0a5e2317ce4e99</t>
-  </si>
-  <si>
-    <t>pou_e793c87bf60333a0</t>
-  </si>
-  <si>
-    <t>pou_276954732356fe86</t>
-  </si>
-  <si>
-    <t>pou_9a834caa0e006c0e</t>
-  </si>
-  <si>
-    <t>pou_6d28fd01bb1900c3</t>
-  </si>
-  <si>
-    <t>pou_b33949295bd68ab9</t>
-  </si>
-  <si>
-    <t>pou_e0acdf2531084b02</t>
-  </si>
-  <si>
-    <t>pou_b43007d81ec0eae4</t>
-  </si>
-  <si>
-    <t>pou_6be0ad34dfb79c9e</t>
-  </si>
-  <si>
-    <t>pou_2370b02b14356608</t>
-  </si>
-  <si>
-    <t>pou_3f21190aadd182e4</t>
-  </si>
-  <si>
-    <t>pou_09d2519148f07f49</t>
+    <t>pou_f24eb51424f88b62</t>
+  </si>
+  <si>
+    <t>pou_8e8bb4f612ecc869</t>
+  </si>
+  <si>
+    <t>pou_b1d943c79554edf6;pou_486d66f2173713b4</t>
+  </si>
+  <si>
+    <t>pou_c6642a78d328cbe0</t>
+  </si>
+  <si>
+    <t>pou_a4a6cd7562bb2fc6</t>
+  </si>
+  <si>
+    <t>pou_59bb6edfaea4263a</t>
+  </si>
+  <si>
+    <t>pou_1981c4a315e125ed</t>
+  </si>
+  <si>
+    <t>pou_bb62bca15eb4505b</t>
+  </si>
+  <si>
+    <t>pou_db157609a270d7f9</t>
+  </si>
+  <si>
+    <t>pou_5a78427920139029</t>
+  </si>
+  <si>
+    <t>pou_286c200d76e7ce9c</t>
+  </si>
+  <si>
+    <t>pou_df1fd9a659470efa</t>
+  </si>
+  <si>
+    <t>pou_9650bc8bce81360d</t>
+  </si>
+  <si>
+    <t>pou_b4e81e09d77ad309</t>
+  </si>
+  <si>
+    <t>pou_77fac64d12c1229f;pou_89c6c0985e443d25</t>
+  </si>
+  <si>
+    <t>pou_7061fa9e02c1924c</t>
+  </si>
+  <si>
+    <t>pou_aaa3b2674d7d556a</t>
+  </si>
+  <si>
+    <t>pou_02b9679ebd296058;pou_fd957fabaf2d2aab</t>
+  </si>
+  <si>
+    <t>pou_30b799c19368fccf</t>
+  </si>
+  <si>
+    <t>pou_b83e84efa9743225</t>
+  </si>
+  <si>
+    <t>pou_79231d74d43af48c</t>
+  </si>
+  <si>
+    <t>pou_ebc3240b92702b84</t>
+  </si>
+  <si>
+    <t>pou_51c3a42dbbbffd86;pou_a5923be7f721ec92</t>
+  </si>
+  <si>
+    <t>pou_0c99d9786694e2bb;pou_611a955bbbbb2e82</t>
+  </si>
+  <si>
+    <t>pou_89acef9bb493c97b</t>
+  </si>
+  <si>
+    <t>pou_a4094a46c7c140b4</t>
+  </si>
+  <si>
+    <t>pou_4dd70e322f5db8a5</t>
+  </si>
+  <si>
+    <t>pou_7f5872ba831bf695;pou_24b27df60d490ca1;pou_3af405f4aab1aed5;pou_afcb4331b950945a;pou_d409d279486cf2e2;pou_b5c6aea3a2d3a57a;pou_6bf1e29b6ed0ea9f;pou_2bdd7c48a9a92294;pou_928ac59bb40da6c7</t>
+  </si>
+  <si>
+    <t>pou_fc77126f8cf93a0e</t>
+  </si>
+  <si>
+    <t>pou_babbe07e56bb0c2f</t>
+  </si>
+  <si>
+    <t>pou_a9c3ad22153ee02e</t>
+  </si>
+  <si>
+    <t>pou_87a82b9d1f6ee985</t>
+  </si>
+  <si>
+    <t>pou_32c0dc04be0632c6</t>
+  </si>
+  <si>
+    <t>pou_c68e882711c34a15</t>
+  </si>
+  <si>
+    <t>pou_7e938680764829af;pou_2347435230a42925</t>
+  </si>
+  <si>
+    <t>pou_fbaf2d40e2d610b8</t>
+  </si>
+  <si>
+    <t>pou_f873df811f328259</t>
+  </si>
+  <si>
+    <t>pou_9457db1c2e23381a</t>
+  </si>
+  <si>
+    <t>pou_995bf5d2dfa33466;pou_7365cfb69c58c776</t>
+  </si>
+  <si>
+    <t>pou_19158f196e08eb47</t>
+  </si>
+  <si>
+    <t>pou_0dac7ac9b01ce924</t>
+  </si>
+  <si>
+    <t>pou_8abea929cd45afb4</t>
+  </si>
+  <si>
+    <t>pou_64a8dba1b1115de5</t>
+  </si>
+  <si>
+    <t>pou_3dfbc4ecab31628b</t>
+  </si>
+  <si>
+    <t>pou_83262a50454e0c0a</t>
+  </si>
+  <si>
+    <t>pou_f25247cda5ad1baa;pou_d6c87dc3d2b05622</t>
+  </si>
+  <si>
+    <t>pou_29966e965f83299f</t>
+  </si>
+  <si>
+    <t>pou_3c83f846a9ea07e3</t>
+  </si>
+  <si>
+    <t>pou_fce128c04535f8c5</t>
+  </si>
+  <si>
+    <t>pou_27be48cf736aa4d4</t>
+  </si>
+  <si>
+    <t>pou_568a6bff6add8060</t>
+  </si>
+  <si>
+    <t>pou_d9b6ce98ab980513</t>
+  </si>
+  <si>
+    <t>pou_9c3c1cda64f03d3d</t>
+  </si>
+  <si>
+    <t>pou_b8a5f9f2414a2798</t>
+  </si>
+  <si>
+    <t>pou_58f41fe8d1916979</t>
+  </si>
+  <si>
+    <t>pou_285388dca6ead21f</t>
+  </si>
+  <si>
+    <t>pou_fbb8bb50f1630d3a</t>
+  </si>
+  <si>
+    <t>pou_6f6e6f30231492bd</t>
+  </si>
+  <si>
+    <t>pou_b33ed17441159453</t>
+  </si>
+  <si>
+    <t>pou_2e86cebf6b699d8f</t>
+  </si>
+  <si>
+    <t>pou_aa5c878f81779b49</t>
+  </si>
+  <si>
+    <t>pou_b2665cd7ff39c525</t>
+  </si>
+  <si>
+    <t>pou_0a09bbf309583d2d</t>
+  </si>
+  <si>
+    <t>pou_9f53453f55371553</t>
+  </si>
+  <si>
+    <t>pou_8367f4c49c9e467c</t>
+  </si>
+  <si>
+    <t>pou_c67919d584d4d8ab</t>
+  </si>
+  <si>
+    <t>pou_183a245a35b84538</t>
+  </si>
+  <si>
+    <t>pou_4edf14590c520ae7</t>
+  </si>
+  <si>
+    <t>pou_9b394d2b4f361adb</t>
+  </si>
+  <si>
+    <t>pou_5d8ff769178fd365</t>
+  </si>
+  <si>
+    <t>pou_7e68e83ed227446d</t>
+  </si>
+  <si>
+    <t>pou_dc1b08cca08f2fa9</t>
+  </si>
+  <si>
+    <t>pou_1f913b063f542940</t>
+  </si>
+  <si>
+    <t>pou_b027954f6840ea5f</t>
+  </si>
+  <si>
+    <t>pou_141d1cd49a2ec1f1</t>
+  </si>
+  <si>
+    <t>pou_759dbb8e73e12720</t>
+  </si>
+  <si>
+    <t>pou_6eb923c652a44eea</t>
+  </si>
+  <si>
+    <t>pou_a8b7ce58e486a4e5</t>
+  </si>
+  <si>
+    <t>pou_6ff3d19ce04f0829</t>
+  </si>
+  <si>
+    <t>pou_55e4a6f6ca6ea318</t>
+  </si>
+  <si>
+    <t>pou_8510d89e19d6d061</t>
+  </si>
+  <si>
+    <t>pou_3482b580e0bda838</t>
+  </si>
+  <si>
+    <t>pou_2c9d2ce6c10cc7fb</t>
+  </si>
+  <si>
+    <t>pou_f5ea63c907fe3a61</t>
+  </si>
+  <si>
+    <t>pou_77e23e9b47dd2f68</t>
+  </si>
+  <si>
+    <t>pou_61525256e318c9d0</t>
+  </si>
+  <si>
+    <t>pou_d6ce6e898bc19a33</t>
+  </si>
+  <si>
+    <t>pou_3c71e524fcfccdca</t>
+  </si>
+  <si>
+    <t>pou_7600cd2ba52a5906</t>
+  </si>
+  <si>
+    <t>pou_2fcf77af8b48b637</t>
+  </si>
+  <si>
+    <t>pou_52247fbe0929b272</t>
+  </si>
+  <si>
+    <t>pou_94362bd70407b6ae</t>
+  </si>
+  <si>
+    <t>pou_880a84ed791a95ba</t>
+  </si>
+  <si>
+    <t>pou_8971cb7a64afe3de</t>
+  </si>
+  <si>
+    <t>pou_c91d80326b62e763</t>
+  </si>
+  <si>
+    <t>pou_0f15dccc3a612472</t>
+  </si>
+  <si>
+    <t>pou_2ef6503ba163131a</t>
+  </si>
+  <si>
+    <t>pou_d7ebc9e68ad1952a</t>
+  </si>
+  <si>
+    <t>pou_d489b3c93e096b8b</t>
+  </si>
+  <si>
+    <t>pou_f4bbca71a13b0c1f</t>
+  </si>
+  <si>
+    <t>pou_96ad43ac23203cdd</t>
+  </si>
+  <si>
+    <t>pou_62d30ac686347fcd</t>
+  </si>
+  <si>
+    <t>pou_c58451c304f7d05f</t>
+  </si>
+  <si>
+    <t>pou_f22f43b0c35a45ef</t>
+  </si>
+  <si>
+    <t>pou_46cb86db61671924</t>
+  </si>
+  <si>
+    <t>pou_24fd4f048834dfd2</t>
+  </si>
+  <si>
+    <t>pou_fa83419f8adc54f9</t>
+  </si>
+  <si>
+    <t>pou_5a1453fc24257774</t>
+  </si>
+  <si>
+    <t>pou_0a4e20638d4d38eb</t>
+  </si>
+  <si>
+    <t>pou_1d3af3f0dd483e89</t>
+  </si>
+  <si>
+    <t>pou_537190b55122d1e3</t>
+  </si>
+  <si>
+    <t>pou_4ed02675765f129f</t>
+  </si>
+  <si>
+    <t>pou_ec1f6b395b55078f</t>
+  </si>
+  <si>
+    <t>pou_079504445a342e00</t>
+  </si>
+  <si>
+    <t>pou_d04451950e92ce49</t>
+  </si>
+  <si>
+    <t>pou_069558d32ece92e5</t>
+  </si>
+  <si>
+    <t>pou_54ae6652bb3c0fd1</t>
+  </si>
+  <si>
+    <t>pou_6d2c833effc8855a</t>
+  </si>
+  <si>
+    <t>pou_f9334b4b41079c6a</t>
+  </si>
+  <si>
+    <t>pou_1149d85f7814d0ed</t>
+  </si>
+  <si>
+    <t>pou_0088e3a0c1516446</t>
+  </si>
+  <si>
+    <t>pou_2eeff31d669d7593</t>
+  </si>
+  <si>
+    <t>pou_68f302b12e870f0d</t>
+  </si>
+  <si>
+    <t>pou_019e50ac8cea68d9</t>
+  </si>
+  <si>
+    <t>pou_f0c458ede05d27fb</t>
+  </si>
+  <si>
+    <t>pou_f6215282a60207e5;pou_19b5528128e9a2ac;pou_256378a2cf697a7b</t>
+  </si>
+  <si>
+    <t>pou_827c99daea52280c</t>
+  </si>
+  <si>
+    <t>pou_74fb25421f13ccbc</t>
+  </si>
+  <si>
+    <t>pou_cd2a1742b5ea8c69</t>
+  </si>
+  <si>
+    <t>pou_ec426bdaa289e6c5;pou_c0ffdfa6fbb77624</t>
+  </si>
+  <si>
+    <t>pou_08bb7772cd802cd8</t>
+  </si>
+  <si>
+    <t>pou_692bb74ce7fbc9fe</t>
+  </si>
+  <si>
+    <t>pou_4c3fb15904dbfee0</t>
+  </si>
+  <si>
+    <t>pou_ebad4bc7db4f3754</t>
+  </si>
+  <si>
+    <t>pou_a45d5bdcc09c0695</t>
+  </si>
+  <si>
+    <t>pou_a38778119c40583f</t>
+  </si>
+  <si>
+    <t>pou_de35ebf6eaa69c26</t>
+  </si>
+  <si>
+    <t>pou_c2cbe8a31239dfea</t>
+  </si>
+  <si>
+    <t>pou_5aa5cbec6cc044fb</t>
+  </si>
+  <si>
+    <t>pou_ed7b5c3c97cae9f9</t>
+  </si>
+  <si>
+    <t>pou_5ee69d3f03322af2</t>
+  </si>
+  <si>
+    <t>pou_e09f4b31064eb50c</t>
+  </si>
+  <si>
+    <t>pou_ff06472f1660edc1</t>
+  </si>
+  <si>
+    <t>pou_824f1da18b954c80</t>
+  </si>
+  <si>
+    <t>pou_72f739c8a9807532</t>
+  </si>
+  <si>
+    <t>pou_1238e70fda77f65f</t>
+  </si>
+  <si>
+    <t>pou_1badf265b331623a</t>
+  </si>
+  <si>
+    <t>pou_b5878514379ccf5e</t>
+  </si>
+  <si>
+    <t>pou_57cf3567f664cda8</t>
+  </si>
+  <si>
+    <t>pou_6cfb16946c09eee8</t>
+  </si>
+  <si>
+    <t>pou_863401674c6691db;pou_607b148e3ce80b05;pou_ef5144b151552532;pou_c09c4c137c180595;pou_b83c8dd6ef36c30f;pou_ba23a9763bf65408;pou_1d4fdee4a3173279;pou_ecf2153a4bf06b28;pou_642b404c52b03daa;pou_f33f590b0de3807a;pou_1588bfffb9844bdf</t>
+  </si>
+  <si>
+    <t>pou_23c037a8b7751ef5</t>
+  </si>
+  <si>
+    <t>pou_75b2e8647dfa7563</t>
+  </si>
+  <si>
+    <t>pou_c920ffc01fe9a1cc;pou_40721df5fce15266</t>
+  </si>
+  <si>
+    <t>pou_7487f71ed27e45a7</t>
+  </si>
+  <si>
+    <t>pou_d245ef20be960f91</t>
+  </si>
+  <si>
+    <t>pou_687dfc827e71095a</t>
+  </si>
+  <si>
+    <t>pou_b7a0a08ec96c5178</t>
+  </si>
+  <si>
+    <t>pou_9aa056bdaf8778f0</t>
+  </si>
+  <si>
+    <t>pou_edcb4729f8fc33a4</t>
+  </si>
+  <si>
+    <t>pou_77d41bdfedca48a8</t>
+  </si>
+  <si>
+    <t>pou_72386367493bafab</t>
+  </si>
+  <si>
+    <t>pou_45a844a65ed14a0f</t>
+  </si>
+  <si>
+    <t>pou_fcdc20aafa2e69c9</t>
+  </si>
+  <si>
+    <t>pou_8c4caee9481c3a12</t>
+  </si>
+  <si>
+    <t>pou_015e3b815ed105f4</t>
+  </si>
+  <si>
+    <t>pou_c514263a6ea15295</t>
+  </si>
+  <si>
+    <t>pou_a190126d8aaae6fa</t>
+  </si>
+  <si>
+    <t>pou_400bae93cca0200d</t>
+  </si>
+  <si>
+    <t>pou_3f139672cba0843f</t>
+  </si>
+  <si>
+    <t>pou_042aea9a09cfd90c</t>
+  </si>
+  <si>
+    <t>pou_1d617e1258d4e6d6</t>
+  </si>
+  <si>
+    <t>pou_12a1767b81102de0</t>
+  </si>
+  <si>
+    <t>pou_ff5914ae4434fc34</t>
+  </si>
+  <si>
+    <t>pou_7eece01521ab3514</t>
+  </si>
+  <si>
+    <t>pou_30bb6220f78b5576</t>
+  </si>
+  <si>
+    <t>pou_7279d55ec53de8b8</t>
+  </si>
+  <si>
+    <t>pou_04642ac899ca99ad</t>
+  </si>
+  <si>
+    <t>pou_e8b47d9148299c11</t>
+  </si>
+  <si>
+    <t>pou_27b1a1c4fdcc429d</t>
+  </si>
+  <si>
+    <t>pou_390091b27eef0c19</t>
+  </si>
+  <si>
+    <t>pou_b8de6ca1013fd490</t>
+  </si>
+  <si>
+    <t>pou_947353069ea67cc2</t>
+  </si>
+  <si>
+    <t>pou_cfc2e98f0450aa73</t>
+  </si>
+  <si>
+    <t>pou_e43b006a07d3698a</t>
+  </si>
+  <si>
+    <t>pou_9991a953faf330ee</t>
+  </si>
+  <si>
+    <t>pou_ae57e4c61eba4234</t>
+  </si>
+  <si>
+    <t>pou_b6c3740d7f729904</t>
+  </si>
+  <si>
+    <t>pou_b069654d75122199</t>
+  </si>
+  <si>
+    <t>pou_0224370c05a75058</t>
+  </si>
+  <si>
+    <t>pou_aacdfd170573b14d</t>
+  </si>
+  <si>
+    <t>pou_b39bb9bdd8c86112</t>
+  </si>
+  <si>
+    <t>pou_187eab67e0be9d00</t>
+  </si>
+  <si>
+    <t>pou_560741f87ae0b24e</t>
+  </si>
+  <si>
+    <t>pou_57e83e9f2ef0b27b</t>
+  </si>
+  <si>
+    <t>pou_cf741a101e7e3424</t>
+  </si>
+  <si>
+    <t>pou_1903be7f76f1746c</t>
+  </si>
+  <si>
+    <t>pou_be6e76442aa48411</t>
+  </si>
+  <si>
+    <t>pou_664e00507959fc1d</t>
+  </si>
+  <si>
+    <t>pou_e23fc661ffd78541</t>
+  </si>
+  <si>
+    <t>pou_e1db92a6176bdd59</t>
+  </si>
+  <si>
+    <t>pou_4742ed7bb6f1cae3</t>
+  </si>
+  <si>
+    <t>pou_0461939b4ea8d293</t>
+  </si>
+  <si>
+    <t>pou_6d5e08ecce2cb9ad</t>
+  </si>
+  <si>
+    <t>pou_f1fed661c263835d</t>
+  </si>
+  <si>
+    <t>pou_13d52b3a93c0b904</t>
+  </si>
+  <si>
+    <t>pou_54a00b817c4efd94</t>
+  </si>
+  <si>
+    <t>pou_e958138325df6a66</t>
+  </si>
+  <si>
+    <t>pou_b276e6becd0bb7d8</t>
+  </si>
+  <si>
+    <t>pou_78fb1a153221126a</t>
+  </si>
+  <si>
+    <t>pou_a5fd4243411c1ac8</t>
+  </si>
+  <si>
+    <t>pou_b909f498a88410b5</t>
+  </si>
+  <si>
+    <t>pou_9d6a5695a0a4df76</t>
+  </si>
+  <si>
+    <t>pou_b432e5606bbb511d</t>
+  </si>
+  <si>
+    <t>pou_acb26e9372bcfe37</t>
+  </si>
+  <si>
+    <t>pou_aec1e726b21a7dc5</t>
+  </si>
+  <si>
+    <t>pou_be08c5d2d5bd026c</t>
+  </si>
+  <si>
+    <t>pou_2e4714fefafe476b</t>
+  </si>
+  <si>
+    <t>pou_1518635532f12ef6</t>
+  </si>
+  <si>
+    <t>pou_fb9cde85b0de078d</t>
+  </si>
+  <si>
+    <t>pou_450562be7feb05d3</t>
+  </si>
+  <si>
+    <t>pou_48da2808f868c7c8</t>
+  </si>
+  <si>
+    <t>pou_68fb39eb6565bf68</t>
+  </si>
+  <si>
+    <t>pou_9993ad866cdcc128</t>
+  </si>
+  <si>
+    <t>pou_766f9f42bb672814</t>
+  </si>
+  <si>
+    <t>pou_be3a87515a8fc092</t>
+  </si>
+  <si>
+    <t>pou_383d98ea40689895</t>
+  </si>
+  <si>
+    <t>pou_1f094d1d1c64d9e1</t>
+  </si>
+  <si>
+    <t>pou_1bd4c41381966ea5</t>
+  </si>
+  <si>
+    <t>pou_3967b993ad6ebdec</t>
+  </si>
+  <si>
+    <t>pou_19acc221f9ec6f4e</t>
+  </si>
+  <si>
+    <t>pou_7768d965823bec80</t>
+  </si>
+  <si>
+    <t>pou_c72fca366dd18adb</t>
+  </si>
+  <si>
+    <t>pou_4290bece90c803b0</t>
+  </si>
+  <si>
+    <t>pou_c8cde19bb1d57c0c</t>
+  </si>
+  <si>
+    <t>pou_a69f07c6dce7c7e3</t>
+  </si>
+  <si>
+    <t>pou_f5e3e9b6966ddbf8</t>
+  </si>
+  <si>
+    <t>pou_2a8d0829bac47bb9</t>
+  </si>
+  <si>
+    <t>pou_e84e5dc821c13a96</t>
+  </si>
+  <si>
+    <t>pou_432c225ea01960d8</t>
+  </si>
+  <si>
+    <t>pou_ffebf213174f9bbf</t>
+  </si>
+  <si>
+    <t>pou_ca844d28e060a26b</t>
+  </si>
+  <si>
+    <t>pou_71b7d43ef0d89859</t>
+  </si>
+  <si>
+    <t>pou_0669133a2e2ad894</t>
+  </si>
+  <si>
+    <t>pou_cb1c070c3a9f402e</t>
+  </si>
+  <si>
+    <t>pou_8a3aa425e51e23b3</t>
+  </si>
+  <si>
+    <t>pou_8cffe8bc929684b2</t>
+  </si>
+  <si>
+    <t>pou_c125ade96694952c</t>
+  </si>
+  <si>
+    <t>pou_fa52eb8d2aa954ab</t>
+  </si>
+  <si>
+    <t>pou_8b9a184a1e4fc5a0</t>
+  </si>
+  <si>
+    <t>pou_ad95335fcf3b539e</t>
+  </si>
+  <si>
+    <t>pou_18b05b8e44144b42</t>
+  </si>
+  <si>
+    <t>pou_95844d2266068a7a</t>
+  </si>
+  <si>
+    <t>pou_072e6d4ffe785c51</t>
+  </si>
+  <si>
+    <t>pou_ecfc609e5df07fce</t>
+  </si>
+  <si>
+    <t>pou_c2a8cd3007a941bd</t>
+  </si>
+  <si>
+    <t>pou_8135ec10d685c82d</t>
+  </si>
+  <si>
+    <t>pou_55c2b395ff5ea88d</t>
+  </si>
+  <si>
+    <t>pou_2df6c7a4e5a9b062</t>
+  </si>
+  <si>
+    <t>pou_5ac8537bc396b583</t>
+  </si>
+  <si>
+    <t>pou_57a826cd39b20290</t>
+  </si>
+  <si>
+    <t>pou_6edc783fd5c2c96d</t>
+  </si>
+  <si>
+    <t>pou_9b7b0efa5b625531;pou_e8636cd57dacb069</t>
+  </si>
+  <si>
+    <t>pou_37bf951d4622786f</t>
+  </si>
+  <si>
+    <t>pou_e47e30d2a1e6d70d;pou_dc8d92db78892700;pou_8bde76e8769ea5bd;pou_43568fc168fa68d6;pou_3daab271de65b6ca;pou_e632fc77fd577a50;pou_9f9285e5387f6e0d;pou_dcacbf59c0e1d855;pou_e5e36f5efc7843de;pou_758255af3e974872;pou_5ff4a1b14fd91c3c;pou_d8ba029fc76f41f7</t>
+  </si>
+  <si>
+    <t>pou_ba6014de1beee8ec</t>
+  </si>
+  <si>
+    <t>pou_773b7e5622ff67d3</t>
+  </si>
+  <si>
+    <t>pou_4e26c56ae8632e1b</t>
+  </si>
+  <si>
+    <t>pou_cb3f9b73ac3f534d</t>
+  </si>
+  <si>
+    <t>pou_1fdbdf696ec4b9c8</t>
+  </si>
+  <si>
+    <t>pou_8e07b153f67a8b75</t>
+  </si>
+  <si>
+    <t>pou_aa54ee22018db3b0</t>
+  </si>
+  <si>
+    <t>pou_9a6dc2c24deab0b0</t>
+  </si>
+  <si>
+    <t>pou_51ac0fe4f635da09</t>
+  </si>
+  <si>
+    <t>pou_c4bb494eea755d33</t>
+  </si>
+  <si>
+    <t>pou_f80471d57e68eafa;pou_2f28d756c9bca18e</t>
+  </si>
+  <si>
+    <t>pou_f8175ad8f1a81717</t>
+  </si>
+  <si>
+    <t>pou_ddc9eac2b51c09a0</t>
+  </si>
+  <si>
+    <t>pou_f50b529a417b42ae</t>
+  </si>
+  <si>
+    <t>pou_e4f3e3121b9f76d2</t>
+  </si>
+  <si>
+    <t>pou_d6b254ecf49efd88</t>
+  </si>
+  <si>
+    <t>pou_a23cfc68cfd3f02f</t>
+  </si>
+  <si>
+    <t>pou_892fa63bec787f0d</t>
+  </si>
+  <si>
+    <t>pou_6fdb24c47de640e0</t>
+  </si>
+  <si>
+    <t>pou_7c1bfa242408c4e0</t>
+  </si>
+  <si>
+    <t>pou_8ca467cf4aca7a51;pou_0276c68c66dbd1a1;pou_20dfc3e67829dec6;pou_082a78d17a69d16b;pou_da7ed0bfafd10fab;pou_e6aaa2b7e1216d6b;pou_25ea6be11ed725dd</t>
+  </si>
+  <si>
+    <t>pou_6e0349a27d56b428;pou_04d795120b6519ee</t>
+  </si>
+  <si>
+    <t>pou_ae468a6b8f1feeae</t>
+  </si>
+  <si>
+    <t>pou_49a75e7a763f1f8b</t>
+  </si>
+  <si>
+    <t>pou_a53c69a9a618a931</t>
+  </si>
+  <si>
+    <t>pou_94c9a99338172d9b</t>
+  </si>
+  <si>
+    <t>pou_9b450bee72a12860</t>
+  </si>
+  <si>
+    <t>pou_7356f5f570b75cfc</t>
+  </si>
+  <si>
+    <t>pou_967f4df71797c169</t>
+  </si>
+  <si>
+    <t>pou_c166434da8dc7b7e</t>
+  </si>
+  <si>
+    <t>pou_3b5a01bd242a3958</t>
+  </si>
+  <si>
+    <t>pou_394b08252401db6a</t>
+  </si>
+  <si>
+    <t>pou_552789acb5603dd4</t>
+  </si>
+  <si>
+    <t>pou_db4ea0c027ce2a6a;pou_751f841f76d9dadf;pou_5eba88244e55e0a6;pou_2dee6b5b46fe2fd6;pou_5d909629ba60a572;pou_26d153c122e92984;pou_793e2bc4926c4467;pou_030732e41b972f30;pou_dcd2de03d2e2afc4</t>
+  </si>
+  <si>
+    <t>pou_53f613b0acbfdc8d;pou_5f2d7d2d98df3980;pou_83ce51684c01b4ce;pou_33381662d14f2c26;pou_96d5768246d41ab7;pou_8c9e0c5ada27deb4;pou_9812433104aa39cf</t>
+  </si>
+  <si>
+    <t>pou_637a2bf9feda826c</t>
+  </si>
+  <si>
+    <t>pou_3b85f5dfef5eb60f;pou_452b4caf250a7ec3;pou_7a85807bb6286232;pou_671bd99ac93ea3b6</t>
+  </si>
+  <si>
+    <t>pou_0741b9bde4a30b51;pou_430b7fad20b5ca4b;pou_6dfa54192bc4cea4;pou_fc0f58be13f2287e;pou_89e145059bba35b7;pou_e718348b4a7f6744;pou_69424ddbf56f628b;pou_c11703a112df6432;pou_9d08c35507522e4d;pou_ab0f0032ef44d752</t>
+  </si>
+  <si>
+    <t>pou_176a137ec6404b2c</t>
+  </si>
+  <si>
+    <t>pou_e941c16499604bac;pou_24f05bd75fe85239;pou_c8739c5009172b51;pou_8208d599c9490193;pou_27156cb4558c4107;pou_fa8c72a8d726a85f;pou_13faf8e5ee7e1d8e;pou_c30ff0a0ecb1f1a3;pou_b74c09d7f1de9527;pou_45f4891d3ca2c92f;pou_82de3c6815c670fe;pou_e95928e49c5b9200;pou_ba414aff1c9937e4;pou_75e3a2045ed6ffc0;pou_53d2a587d7d2a18d;pou_214e6c1395d425ba;pou_684246c3a6e9c630;pou_3232e90a8dae0f9d;pou_59f3981f7595f1a7;pou_caa4c9c02a89d441;pou_a2ad5c0401fe9475;pou_fa9b8665e59839cd;pou_937e799a8d2bd71c;pou_9689e605c471b8c7;pou_8abad0777b064e34;pou_6e8321ee5faef8e2;pou_4274a19e33c569d1;pou_ac04fb9c058440ee;pou_6fb3386f405116b1;pou_59ff5f919fe20ddd;pou_7adfa2019ec69b5e;pou_775d098d9f415e20;pou_6866b92ce985bbc0;pou_5716c8a34e971e49;pou_ab48f16f536a332d;pou_d0bdd85cdf6835b0;pou_d6926dba99e1bd87;pou_10ddf40c498fd303;pou_ff0e70f11d031114;pou_70c5f2b8e3032fbe;pou_3e250290c63ee1ec;pou_3ef137b36e088ab0;pou_5ef0c84b7af7e11f;pou_3086efcb31a2d80c;pou_4506462d91a0e418;pou_98363a63f66a6fca;pou_82b05548394529f0;pou_04a84a27af94b361;pou_66d74cc26725a803;pou_9bd7ea26f9c834cc;pou_8f66d8544bc2d6e3;pou_66f053fd9382ec07;pou_0bef509dead88e54;pou_8f2975c32662a397;pou_5d3d72d547eb9f96;pou_eac9d0e8cc8f4370;pou_086d2458b6c9f9f8;pou_76d7be32fbf5b3b9;pou_9a06bdf1987d2da9;pou_e0750cc3762cb9f2;pou_e9958b77e20fa7f8;pou_9b3c216d203c1812;pou_ce36be22b25c381c;pou_5bd08b056cab3d91;pou_2dcee2e533a63b08;pou_a0a1ddae6a764e63;pou_376ee3258c8cad39;pou_e34ac8fc133c316e;pou_9151d109ccb4ff98;pou_932bdef46211ef6d;pou_6e10537c16642cd0;pou_05ef687e955b8b56;pou_085fcdfd8dec750f;pou_76776827e8735d97;pou_cc464eb82c013056;pou_b2d10122401d8de0;pou_e3f7be62e87b1658;pou_6a9cd481df8bb21c;pou_2816e4e9244fdaa1;pou_abf55a18f125bf9e;pou_cbde53bb72fade3e;pou_65973781a33a3a83;pou_f1ec847043160c87;pou_0081cdb3feed0a33;pou_fb3165e2dc6014f1;pou_b952df53485ee3a4;pou_17e063bc0ac3ae54;pou_4e7db1d155d8503f;pou_917933d14148169b;pou_c6542544ae306ebe;pou_34d72ddae51019b4;pou_ba8c18be3e1df863;pou_48783d199032343c;pou_bd68f22ee255d156;pou_269cee3cb99840e5;pou_847c37712ba69a9b;pou_1f92764d90024bfa;pou_b1827f6ed5262551;pou_4927080ae25a5caf;pou_133db9f225aad7ab;pou_f0370c28a35d3fb8;pou_54b78d64d580a9d6;pou_0f3001dcef1a681b;pou_c3b335d7eaf927cc;pou_9d0887f1fd219bb5;pou_33dc0ccbce4bdd78;pou_e274d003a78ceee0;pou_700deef2bb56c038;pou_124fcc59baa1c355;pou_64927a39d55d0cab;pou_ee87b418e0b14b1d;pou_629b6f80b5e55b9b;pou_8cdda553360bc79a;pou_adafcc70ee756fa7;pou_a9031cd93c54a1e8;pou_c7aeaaca08910eff;pou_1ad1931caeef0273;pou_d8cdd2c614f3873f;pou_1d3369da329bed75;pou_2359171013cc2be5;pou_f6999724e697ba50;pou_0fa1792375efd399;pou_ae71577b4c3fabbf;pou_015a8063c3f91f66;pou_aa84162c45d44957;pou_fb04a2ca39e3d631;pou_ad9092b2bc14863a;pou_cadeced1727c1bfb;pou_5d192ea837617554;pou_f769e68e71940d4c;pou_224aaa114fd2a044;pou_dd66429d6e302331;pou_6154777478020369;pou_7d979d7cbe5fd6a1;pou_e881ccdaf9d217f9;pou_81bffea8f56e7a36;pou_142de7af5c096709;pou_ce65c06a662c9d56;pou_351b9866bd8eb5d3;pou_073e0fcb685b4dbe;pou_e313ad598b47b325;pou_078fe4daf80a13e4;pou_b2d49fd883206aac</t>
+  </si>
+  <si>
+    <t>pou_775d302a749061c9;pou_b004321e64f52e3e;pou_aaee35b0e5788279</t>
+  </si>
+  <si>
+    <t>pou_22fb71db75aebeb7</t>
+  </si>
+  <si>
+    <t>pou_ae6b30222ce85167</t>
+  </si>
+  <si>
+    <t>pou_96d4d7571910e159</t>
+  </si>
+  <si>
+    <t>pou_504757ce58822e0d</t>
+  </si>
+  <si>
+    <t>pou_557d39aaa00577fc</t>
+  </si>
+  <si>
+    <t>pou_3f85292b584b4a58;pou_dc89309f1255d10a;pou_e8207eaaf7632e9a</t>
+  </si>
+  <si>
+    <t>pou_8b3b6cf43724bdd7</t>
+  </si>
+  <si>
+    <t>pou_1dbf02b688e5fd19</t>
+  </si>
+  <si>
+    <t>pou_0d5d71f2f7cb3c37</t>
+  </si>
+  <si>
+    <t>pou_ccf22daec0707423</t>
+  </si>
+  <si>
+    <t>pou_a93556316a9a06a4</t>
+  </si>
+  <si>
+    <t>pou_4f1494d0d62e90fc;pou_c5b8d1559c1fb84a;pou_5e8e293d29d2df0b;pou_91c3c4914fafbef8;pou_cb83e98466c5c116;pou_7e3b2a3edf84fa11;pou_39031f0026b5d700</t>
+  </si>
+  <si>
+    <t>pou_98ff4061c2088942</t>
+  </si>
+  <si>
+    <t>pou_5b4f3d5d90d21837</t>
+  </si>
+  <si>
+    <t>pou_50f5bc16488dfd72;pou_96ac8f2d71d3118b</t>
+  </si>
+  <si>
+    <t>pou_eb58ce4c94eaab9b</t>
+  </si>
+  <si>
+    <t>pou_a8dc86d57183e942</t>
+  </si>
+  <si>
+    <t>pou_41834508f6ffa919</t>
+  </si>
+  <si>
+    <t>pou_cbe8821a0e51610c</t>
+  </si>
+  <si>
+    <t>pou_63f923a4f9ca84b9</t>
+  </si>
+  <si>
+    <t>pou_a7a19a853f68f025;pou_50a8ea040dba70c8</t>
+  </si>
+  <si>
+    <t>pou_dcf34af8a861c605;pou_ea44126c8eb3a980</t>
+  </si>
+  <si>
+    <t>pou_53cd332e6d7ac65e;pou_a22089a434c9d1ea;pou_9cdab0867d457d56;pou_8af992378d8b4c5e;pou_b357bd1aa20e24ff;pou_8716d0c7d2736251;pou_25c041ec654089d6;pou_1950a23ed50d3561;pou_cc6b8ce559e50415;pou_550fccb2f0dd12b1;pou_ac9542c8d0b21c8f;pou_7b4a8f287a679ea3;pou_0974637ad3ec02f1;pou_dc39b687f03a29ff;pou_bc67e408fc8c5f94;pou_679c1f58fa697e47;pou_f540d45f5ff5363b;pou_1ee7a2ff8b576fda;pou_93180113906161ba;pou_3731239e087bb7c4;pou_d92e027f82e4eb29;pou_2006dab5327c5d34;pou_d05508349e42952d;pou_30684b7bbe9295c5;pou_908d9653f60ff439;pou_353de51b4ff42a5d;pou_d5915c3bf898835a</t>
+  </si>
+  <si>
+    <t>pou_36a366d6115b36d7</t>
+  </si>
+  <si>
+    <t>pou_554250e809082e9d</t>
+  </si>
+  <si>
+    <t>pou_e09ca7b4cce1b86f;pou_c3c0a1a09dfdc0bd;pou_b9cbf89bbf92ec2f;pou_097cf815d61a64bc;pou_d21a96733b68d272</t>
+  </si>
+  <si>
+    <t>pou_4acb0a3263cc206b;pou_f48f7677147074ab;pou_da78d3cec705c5b9;pou_68afb6577ed46421;pou_c542bead931c24fd;pou_02d11cd533264d78;pou_b71de6d4913afe12;pou_aee42eb4bc0bbf9a;pou_bd155a32f3efce50;pou_e719f03b51b58e0a;pou_a12a8fa87bb3ee43;pou_04a7f10038c59dbb;pou_ccd54dbeb2c43965;pou_e5beab0c8d7ef7d0;pou_689548ca9f6bbfa8;pou_1f5f4ec5e7c78c20;pou_02b1e1f786ccf75f;pou_8c4aae42dd9787cf;pou_01a54f848b463105;pou_a1275989e3c54beb;pou_64e6a0c778e945b7;pou_41cd4bae5d19d4ab;pou_a23d97652592b24c;pou_4b402ecfd93d9d79;pou_ca23f543917170dd;pou_1a676731550005f9;pou_7fb062115613c954;pou_ef2c9de60aa1c1ac;pou_19e26910caba211c</t>
+  </si>
+  <si>
+    <t>pou_38e139ba32bf774e;pou_a4faab7b60f51bd2;pou_14a3dbc31f25f7cc;pou_aec7ab23b9873bd2;pou_cfce5a748ae86052;pou_e0c965b5ab0df6c2;pou_3c787366b82c048d;pou_bf73f35c12b5b215</t>
+  </si>
+  <si>
+    <t>pou_73c49084f2aeffd5;pou_51bb84b45381fe7d</t>
+  </si>
+  <si>
+    <t>pou_114d8a1c111310c6</t>
+  </si>
+  <si>
+    <t>pou_086b9996d0e916da</t>
+  </si>
+  <si>
+    <t>pou_b691828f3d9f7522;pou_edbe463f63f4c204;pou_75e895d18f5a973c;pou_40c2a8f25a74370f;pou_5ed1570ba23e9186;pou_f41ea50936a7ed3b;pou_1168968bacbbfc1f;pou_e6b6faf85788a075;pou_f1de09459cadb5ab;pou_a937c91138d15a24;pou_60f362a05f58e883;pou_5222d99f4d7cff7c;pou_714e8c2f2fcd9efc;pou_ebe2de625c188253;pou_0ba37cb1fe555c36</t>
+  </si>
+  <si>
+    <t>pou_8acea383b73ef488;pou_ffa6703830d148d1;pou_89b83435c5026576;pou_142842db4b14af68;pou_69afb278c321b7bf;pou_5db03f7eaddbd1b7;pou_fe1b9f3b5faec0e0</t>
+  </si>
+  <si>
+    <t>pou_2bb1a044ef6b8eb0</t>
+  </si>
+  <si>
+    <t>pou_e41b7de27d853dad</t>
+  </si>
+  <si>
+    <t>pou_5d3e5183cec66d53</t>
+  </si>
+  <si>
+    <t>pou_b33fd99e04c3b5a4</t>
+  </si>
+  <si>
+    <t>pou_1dc236bdbe88e3d1</t>
+  </si>
+  <si>
+    <t>pou_aa6b6ef6918cee94</t>
+  </si>
+  <si>
+    <t>pou_95656709770b0cba</t>
+  </si>
+  <si>
+    <t>pou_a1ba7751491cfcd1</t>
+  </si>
+  <si>
+    <t>pou_c29a8d90f1561020</t>
+  </si>
+  <si>
+    <t>pou_f9f6c9c08ebec294;pou_c3f3391b22ff19ff;pou_dbfa69d48468d412;pou_33de5bf7cc35fafb;pou_9e728e42f56e9d04;pou_b67ca80eb9a6b3a7;pou_843bf7fb780c3425;pou_d0a4465cadefbc17;pou_f3281e0a82fd71b4;pou_076e605182730f1e;pou_79ac4d3062ef3cc1;pou_8cfd22ffc8a52097</t>
+  </si>
+  <si>
+    <t>pou_8936489dbf72de9e</t>
+  </si>
+  <si>
+    <t>pou_1d8245ab080550c9;pou_53fb635e1a7e84a1</t>
+  </si>
+  <si>
+    <t>pou_1130ad79268021dd;pou_a703873417c18f6b;pou_35bf2b23535c038c;pou_a375b9a312bd3231;pou_d568c3cca5f723a6;pou_40060c55b89940e6</t>
+  </si>
+  <si>
+    <t>pou_11319b2271525430;pou_b05b4efa19caa3c2;pou_546b9dd60442fbcd;pou_0c3a65326a066d93;pou_87cc80991cc1d03c;pou_576d2133f8b29b00;pou_cc5ff7efebddd878;pou_1c53ee015753df2e;pou_e81ddd8ff44eefce;pou_e2395db5c721df2f;pou_0e80123692b9f612;pou_103f5aad02a335d6;pou_6891b4a516be8c78;pou_f4fff114408512ad</t>
+  </si>
+  <si>
+    <t>pou_ca82bb3c0a54c5dd;pou_8cdf88c416c54088;pou_c61e055e163d124d;pou_a94f2e91098d0e46;pou_5647d4962e802111;pou_1a8e5b3c1a8c8e58;pou_d464e0f25c765300;pou_aab7a7808377165f;pou_8448ab96a34c8768;pou_5e36dad12a7754e3;pou_cc6c5e1dded310f0</t>
+  </si>
+  <si>
+    <t>pou_f1f5aefbbed8b58c</t>
+  </si>
+  <si>
+    <t>pou_9c0d3dcd19d13c9a</t>
+  </si>
+  <si>
+    <t>pou_92146925dd3e79e1;pou_98085e4dba2e9a29;pou_dfa709bae3f40742;pou_309dfa49e7bd5930;pou_3377cd408b09f8c0;pou_fbf6bb59b4709967;pou_4a675444d6bbc82e</t>
+  </si>
+  <si>
+    <t>pou_22e0f3f44424b77e;pou_4bc6feb56ef2cff2;pou_c4e3531933fe487e;pou_0346cafd0b74f94f;pou_7c0419c4b9189e14;pou_f6605298baa549fe;pou_83b7bfa650158f2c;pou_7f14d805ea58cf23;pou_e5918faeb1eb9ba0;pou_6d5ebb116b4673fe;pou_9921f74bc64b9b51;pou_8eb770832938a071;pou_9306022faa2e1508;pou_ee8b3ca6613451e1;pou_df47c0f7a7b7417b;pou_74d8bb4473275549;pou_01b44447c7642a00;pou_50794e17aba7a84c;pou_728218ba75382c6b</t>
+  </si>
+  <si>
+    <t>pou_5601274853e63968</t>
+  </si>
+  <si>
+    <t>pou_766b274cc7297cb7;pou_e411253b684bc1d1;pou_0b1deb49fbe59cf0;pou_2c89cbf53f01daaa;pou_7aba2b70204b24ae;pou_bcc0f6a7754f4ab8</t>
+  </si>
+  <si>
+    <t>pou_16f7a1af5780b112</t>
+  </si>
+  <si>
+    <t>pou_163257fcd58abf67;pou_e6def53b38143fdd;pou_daf1997e64a8e63a</t>
+  </si>
+  <si>
+    <t>pou_a57a325247ebb690</t>
+  </si>
+  <si>
+    <t>pou_7b3e9a6a5613d2cb;pou_a0841689b8c17b72;pou_0348874e3357ab45;pou_3c66f9252d2492e8;pou_d2621e0fd4b82fd4;pou_7b77e6df0859456b</t>
+  </si>
+  <si>
+    <t>pou_332a245dfe5c20b7</t>
+  </si>
+  <si>
+    <t>pou_fccb42642123396f</t>
+  </si>
+  <si>
+    <t>pou_38f13b5eb025bdb6</t>
+  </si>
+  <si>
+    <t>pou_8545ee5e56203622;pou_3f9dae485672cb6a;pou_c5dba4e37a0bce9b;pou_d54962533391bee6;pou_5a83aa1059b429e4;pou_25e06ee5ee5ce062;pou_7bfcfa2ebd1f8a0c;pou_8fc5b267e08278d5;pou_f09b7227b4a56c87;pou_e2d796590ea9e821;pou_3b044dd3c7147c7e;pou_d0223f8a9074c67a;pou_a72731299cdbe88c;pou_6df580646972d65b;pou_1cf6db51726da6a6;pou_24478a7d3ecd1936;pou_2f3a789e5145d1e6;pou_048caccaddeb8768;pou_d8b0c905246fe8bd;pou_9c1abe108126436b;pou_a1f484f205a1b9f4</t>
+  </si>
+  <si>
+    <t>pou_6cf3ee6420d55a3f</t>
+  </si>
+  <si>
+    <t>pou_e894fde37f0fb6ff</t>
+  </si>
+  <si>
+    <t>pou_0fdd29ccf16b5872</t>
+  </si>
+  <si>
+    <t>pou_59764f5c99b6a1ad;pou_5a59aa811d1c0247;pou_dcc61de9d26d9421;pou_8283c4327a286a21;pou_c9a5b0fef2a09f62;pou_5f4e0cd45b336808;pou_4979f0cfb9d3780a;pou_0ee95d2b3a08e8b5;pou_e27fc26380ae6af4;pou_26380acf8c318832;pou_e0e48bcbbf16ee50;pou_5725d40ea8759d90;pou_efe407f4faf88c5d;pou_ee92964d2bad7b30;pou_69839da6a1de25e5</t>
+  </si>
+  <si>
+    <t>pou_0667ef1133350437</t>
+  </si>
+  <si>
+    <t>pou_d4e0a252a29cb7f5</t>
+  </si>
+  <si>
+    <t>pou_58ff37926bade032</t>
+  </si>
+  <si>
+    <t>pou_4334161bc80c6c7b</t>
+  </si>
+  <si>
+    <t>pou_2e6788498a1368b1</t>
+  </si>
+  <si>
+    <t>pou_5bb12222baf6a6d5</t>
+  </si>
+  <si>
+    <t>pou_b87795e1fca98048</t>
+  </si>
+  <si>
+    <t>pou_ceced6d4cca2166e</t>
+  </si>
+  <si>
+    <t>pou_1832ebeff3b6ba82</t>
+  </si>
+  <si>
+    <t>pou_14912e3f255bcd9c</t>
+  </si>
+  <si>
+    <t>pou_e5b0eac12d80fc36</t>
+  </si>
+  <si>
+    <t>pou_722c14d37c4e0ba7;pou_2cc4e73db9a948c3</t>
+  </si>
+  <si>
+    <t>pou_015f3c4cc6b7017d</t>
+  </si>
+  <si>
+    <t>pou_49f227073ccb0a65</t>
+  </si>
+  <si>
+    <t>pou_f03455693ae71ef2</t>
+  </si>
+  <si>
+    <t>pou_96fa62e61d848be8</t>
+  </si>
+  <si>
+    <t>pou_2e38d64c0e33cd74</t>
+  </si>
+  <si>
+    <t>pou_ddac54d31860b7b2</t>
+  </si>
+  <si>
+    <t>pou_522ec409ee37bc27</t>
+  </si>
+  <si>
+    <t>pou_feb0fb8ed225c742</t>
+  </si>
+  <si>
+    <t>pou_6febdc6be7c957bc</t>
+  </si>
+  <si>
+    <t>pou_e9d2500baffe12fc</t>
+  </si>
+  <si>
+    <t>pou_3e39e890dc6b2de4</t>
+  </si>
+  <si>
+    <t>pou_61203250446a1fe0</t>
+  </si>
+  <si>
+    <t>pou_e2aa9ba03a5c8cf1</t>
+  </si>
+  <si>
+    <t>pou_0dfaeeb5d8fa5aa7</t>
+  </si>
+  <si>
+    <t>pou_e0079c9479983b03</t>
+  </si>
+  <si>
+    <t>pou_3a1a83e49d9c7beb</t>
+  </si>
+  <si>
+    <t>pou_4c40f928b75608f6</t>
+  </si>
+  <si>
+    <t>pou_d7768e04c4bc8dc8</t>
+  </si>
+  <si>
+    <t>pou_3d7bc0ff32ee1bb0</t>
+  </si>
+  <si>
+    <t>pou_850e423d82deefe6</t>
+  </si>
+  <si>
+    <t>pou_9d5be082acf7bb0d</t>
+  </si>
+  <si>
+    <t>pou_279dd8bd2b0b0b9c</t>
+  </si>
+  <si>
+    <t>pou_ffcbfd160e51e98e</t>
+  </si>
+  <si>
+    <t>pou_cf18352b6d0797a2</t>
+  </si>
+  <si>
+    <t>pou_8f6cb0c83c56929f</t>
+  </si>
+  <si>
+    <t>pou_48b07b8b1b91d479</t>
+  </si>
+  <si>
+    <t>pou_e30ba1d4414e5412</t>
+  </si>
+  <si>
+    <t>pou_46e511448892ae47</t>
+  </si>
+  <si>
+    <t>pou_192186da159d1cbe</t>
+  </si>
+  <si>
+    <t>pou_1b8c5266d8f60e79</t>
+  </si>
+  <si>
+    <t>pou_648a39c26f22df59</t>
+  </si>
+  <si>
+    <t>pou_2ba0d7dbc18ba9d8</t>
+  </si>
+  <si>
+    <t>pou_f03ff23929bf56d9</t>
+  </si>
+  <si>
+    <t>pou_93d195a7d9ce0dbb</t>
+  </si>
+  <si>
+    <t>pou_1e663637e481f47f</t>
+  </si>
+  <si>
+    <t>pou_e6827f414eb31acb</t>
+  </si>
+  <si>
+    <t>pou_4fca5bdb4b0d7cfe</t>
+  </si>
+  <si>
+    <t>pou_ec06f8594261c69c</t>
+  </si>
+  <si>
+    <t>pou_5d4111a5d5563c89</t>
+  </si>
+  <si>
+    <t>pou_1ee09d4ec2a021dd</t>
+  </si>
+  <si>
+    <t>pou_cfc7857880618340</t>
+  </si>
+  <si>
+    <t>pou_20f8527eb8ae0773</t>
+  </si>
+  <si>
+    <t>pou_ee4df8e92b1c20b1</t>
+  </si>
+  <si>
+    <t>pou_96cbdef874333b5d</t>
+  </si>
+  <si>
+    <t>pou_542f8efed28e2a70</t>
+  </si>
+  <si>
+    <t>pou_3de15a5ececdf2fb</t>
+  </si>
+  <si>
+    <t>pou_8ce5c6cf60d64b76</t>
+  </si>
+  <si>
+    <t>pou_0e219cd9faef548e</t>
+  </si>
+  <si>
+    <t>pou_c1256a1c0b131495</t>
+  </si>
+  <si>
+    <t>pou_3d8898b1f18619f5</t>
+  </si>
+  <si>
+    <t>pou_6745befdd3b5b7bd</t>
+  </si>
+  <si>
+    <t>pou_8d6ae61fab28cb44</t>
+  </si>
+  <si>
+    <t>pou_693c57e900e1c564</t>
+  </si>
+  <si>
+    <t>pou_8cf0c77f62dc2619</t>
+  </si>
+  <si>
+    <t>pou_c574b094df4490f0</t>
+  </si>
+  <si>
+    <t>pou_4912dfc55974f036</t>
+  </si>
+  <si>
+    <t>pou_090d9976a2debff0</t>
+  </si>
+  <si>
+    <t>pou_ba3527798e450fa7</t>
+  </si>
+  <si>
+    <t>pou_8186d04aeaba8902</t>
+  </si>
+  <si>
+    <t>pou_bdbbbd56b0cc4778</t>
+  </si>
+  <si>
+    <t>pou_2d1baf1e81b81bae</t>
+  </si>
+  <si>
+    <t>pou_c68ba5fab7a61cfe</t>
+  </si>
+  <si>
+    <t>pou_ec2d89053a657eb3</t>
+  </si>
+  <si>
+    <t>pou_1f2d126eb1561aec</t>
+  </si>
+  <si>
+    <t>pou_a12ee4853073d17e</t>
+  </si>
+  <si>
+    <t>pou_e8c45f61b6614154</t>
+  </si>
+  <si>
+    <t>pou_20610802d63f173f</t>
+  </si>
+  <si>
+    <t>pou_0a98b730dee381a8</t>
+  </si>
+  <si>
+    <t>pou_a7405cea92f4721e</t>
+  </si>
+  <si>
+    <t>pou_adc6c9948c91b120</t>
+  </si>
+  <si>
+    <t>pou_bc1594a95a97c863</t>
+  </si>
+  <si>
+    <t>pou_1d220a67bc78dfc1</t>
+  </si>
+  <si>
+    <t>pou_355931b3d968e8e9</t>
+  </si>
+  <si>
+    <t>pou_374206575dcdfc30</t>
+  </si>
+  <si>
+    <t>pou_69068ce4bb842e8d</t>
+  </si>
+  <si>
+    <t>pou_a48007d55e896f7e</t>
+  </si>
+  <si>
+    <t>pou_b7c283ad83bb81d6</t>
+  </si>
+  <si>
+    <t>pou_1c23bba13ddf3061</t>
+  </si>
+  <si>
+    <t>pou_3ead452b5f8dde61</t>
+  </si>
+  <si>
+    <t>pou_b6add156266b67f6</t>
+  </si>
+  <si>
+    <t>pou_ee7d875cb9101deb</t>
+  </si>
+  <si>
+    <t>pou_d90d611b5542c253</t>
+  </si>
+  <si>
+    <t>pou_6b5d63b88ed62fe1</t>
+  </si>
+  <si>
+    <t>pou_f31fa8287dd7c929</t>
+  </si>
+  <si>
+    <t>pou_3ad89659213bd8cc</t>
+  </si>
+  <si>
+    <t>pou_e8eb54b802d85183</t>
+  </si>
+  <si>
+    <t>pou_146785c62b791d46</t>
+  </si>
+  <si>
+    <t>pou_48cc759545274597</t>
+  </si>
+  <si>
+    <t>pou_f6dc040ed432ac1e</t>
+  </si>
+  <si>
+    <t>pou_585cad8bfe7041a5</t>
+  </si>
+  <si>
+    <t>pou_6e43d1456fbe8986</t>
+  </si>
+  <si>
+    <t>pou_a0c7e77bfbbd6bb5</t>
+  </si>
+  <si>
+    <t>pou_6c80fd2d87fff3fc</t>
+  </si>
+  <si>
+    <t>pou_2cac25633833e4e9</t>
+  </si>
+  <si>
+    <t>pou_4f022d08751f6f54</t>
+  </si>
+  <si>
+    <t>pou_f3e44d2faa22fe0d</t>
+  </si>
+  <si>
+    <t>pou_c8c8f3d63857abe2</t>
+  </si>
+  <si>
+    <t>pou_c1c6639de29d0016</t>
+  </si>
+  <si>
+    <t>pou_22cee5690047badf</t>
+  </si>
+  <si>
+    <t>pou_e105151c5119ca5a</t>
+  </si>
+  <si>
+    <t>pou_c00e9dd00bfcbdf4</t>
+  </si>
+  <si>
+    <t>pou_85037000e59be04b</t>
+  </si>
+  <si>
+    <t>pou_c616dd19d3b704d9</t>
+  </si>
+  <si>
+    <t>pou_a5a4df4af8e8267f</t>
+  </si>
+  <si>
+    <t>pou_f37b2c2fe0ef0c9d</t>
+  </si>
+  <si>
+    <t>pou_ffa4b6e53b51d7c4</t>
+  </si>
+  <si>
+    <t>pou_42ad7f09cd8b9082</t>
+  </si>
+  <si>
+    <t>pou_8efcdcf775e74b30</t>
+  </si>
+  <si>
+    <t>pou_b197aabc5f5416d2</t>
+  </si>
+  <si>
+    <t>pou_78419e16f4059cf4</t>
+  </si>
+  <si>
+    <t>pou_07e70944c88b5cf3</t>
+  </si>
+  <si>
+    <t>pou_10d252b7476cedc5</t>
+  </si>
+  <si>
+    <t>pou_cf8e6ba678b20c73</t>
+  </si>
+  <si>
+    <t>pou_60f5c37c17a18461</t>
+  </si>
+  <si>
+    <t>pou_0903d7534cb777d0</t>
+  </si>
+  <si>
+    <t>pou_0a7672937126ad1a</t>
+  </si>
+  <si>
+    <t>pou_805286dc10047ff4</t>
+  </si>
+  <si>
+    <t>pou_ee391c3b4edcdcf5</t>
+  </si>
+  <si>
+    <t>pou_5084330796afc3b3</t>
+  </si>
+  <si>
+    <t>pou_f037a9d7126e9169</t>
+  </si>
+  <si>
+    <t>pou_d89525723782fc8f</t>
+  </si>
+  <si>
+    <t>pou_c41955914d77db67</t>
+  </si>
+  <si>
+    <t>pou_f43448198ce22971</t>
+  </si>
+  <si>
+    <t>pou_e363069fbe3f19da</t>
+  </si>
+  <si>
+    <t>pou_db138486c082a84a</t>
+  </si>
+  <si>
+    <t>pou_cebd7c90924202af</t>
+  </si>
+  <si>
+    <t>pou_8e6bbc5ffa525013</t>
+  </si>
+  <si>
+    <t>pou_bed9f805edd7f5de</t>
+  </si>
+  <si>
+    <t>pou_3b9178af6b4c2c53</t>
+  </si>
+  <si>
+    <t>pou_694e4f4d08e1a079</t>
+  </si>
+  <si>
+    <t>pou_3b46699fdc076f78</t>
+  </si>
+  <si>
+    <t>pou_c199adefdb4d408e</t>
+  </si>
+  <si>
+    <t>pou_ff4fd192bca50865</t>
+  </si>
+  <si>
+    <t>pou_2c841b451d9035f5</t>
+  </si>
+  <si>
+    <t>pou_f2fcec99016a389b</t>
+  </si>
+  <si>
+    <t>pou_8576c0aaedb2673a</t>
+  </si>
+  <si>
+    <t>pou_c2ac38601d74220e</t>
+  </si>
+  <si>
+    <t>pou_88be1be590a4d7fc</t>
+  </si>
+  <si>
+    <t>pou_768545bdcbdfcbc9</t>
+  </si>
+  <si>
+    <t>pou_d491d834814db5f0</t>
+  </si>
+  <si>
+    <t>pou_0629c50259a32203</t>
+  </si>
+  <si>
+    <t>pou_78a954d2ac6deff7</t>
+  </si>
+  <si>
+    <t>pou_500f17753265b608</t>
+  </si>
+  <si>
+    <t>pou_264682cd468973de</t>
+  </si>
+  <si>
+    <t>pou_d4e17acdebb6135c</t>
+  </si>
+  <si>
+    <t>pou_1e1a0f4b5b026919</t>
+  </si>
+  <si>
+    <t>pou_15fad7326626ab59</t>
+  </si>
+  <si>
+    <t>pou_0acb543e296c07f5</t>
+  </si>
+  <si>
+    <t>pou_99bdb91d69b369a0</t>
+  </si>
+  <si>
+    <t>pou_d56dc4a8e936015d</t>
+  </si>
+  <si>
+    <t>pou_a2ee4f98d3dfb309</t>
+  </si>
+  <si>
+    <t>pou_1761a787c95e3a2b</t>
+  </si>
+  <si>
+    <t>pou_a82d50e9889d3de7</t>
+  </si>
+  <si>
+    <t>pou_74e045fe392b3405</t>
+  </si>
+  <si>
+    <t>pou_630702cd7b8f2473</t>
+  </si>
+  <si>
+    <t>pou_2ffff143772f7a3a</t>
+  </si>
+  <si>
+    <t>pou_aa889f560b665a54</t>
+  </si>
+  <si>
+    <t>pou_f217bebe4e9f3261</t>
+  </si>
+  <si>
+    <t>pou_cbd794b22ee77c98</t>
+  </si>
+  <si>
+    <t>pou_812b75ad6850c8c8</t>
+  </si>
+  <si>
+    <t>pou_6cb756844bd023c1</t>
+  </si>
+  <si>
+    <t>pou_88991fb43fd56a2b</t>
+  </si>
+  <si>
+    <t>pou_9b2d187a4b547c6c</t>
+  </si>
+  <si>
+    <t>pou_5562cb96928f02ee</t>
+  </si>
+  <si>
+    <t>pou_00c1465153e429d0</t>
+  </si>
+  <si>
+    <t>pou_273950215b4d5bf3</t>
+  </si>
+  <si>
+    <t>pou_208aa168e247e6b5</t>
+  </si>
+  <si>
+    <t>pou_77bc738300cfe217</t>
+  </si>
+  <si>
+    <t>pou_01b08962c7da4f8d</t>
+  </si>
+  <si>
+    <t>pou_0ae50b03b0bb004d</t>
+  </si>
+  <si>
+    <t>pou_9aa1b8590f5a5187</t>
+  </si>
+  <si>
+    <t>pou_d0d9e131ff49316d</t>
+  </si>
+  <si>
+    <t>pou_2c14f43081b5d92a</t>
+  </si>
+  <si>
+    <t>pou_859c267b10484906</t>
+  </si>
+  <si>
+    <t>pou_a345fef1b8740442</t>
+  </si>
+  <si>
+    <t>pou_ce2178729f1235f8</t>
+  </si>
+  <si>
+    <t>pou_929c9ddee5571dfc</t>
+  </si>
+  <si>
+    <t>pou_d703377aa08dc041</t>
+  </si>
+  <si>
+    <t>pou_f20c43a5ba2abb1e</t>
+  </si>
+  <si>
+    <t>pou_959834bff9edeb76</t>
+  </si>
+  <si>
+    <t>pou_acf1f96e56e5e977</t>
+  </si>
+  <si>
+    <t>pou_537620b345c0bc96</t>
+  </si>
+  <si>
+    <t>pou_cf37b8fea0eb75c3</t>
+  </si>
+  <si>
+    <t>pou_b3934f396ff9b001</t>
+  </si>
+  <si>
+    <t>pou_a8dfa0b08d397ed8</t>
+  </si>
+  <si>
+    <t>pou_128e70ab42da249f</t>
+  </si>
+  <si>
+    <t>pou_323297fa10830a4b</t>
+  </si>
+  <si>
+    <t>pou_8465081f22bfb730</t>
+  </si>
+  <si>
+    <t>pou_25402826df32225b</t>
+  </si>
+  <si>
+    <t>pou_81447ac55d128b34</t>
+  </si>
+  <si>
+    <t>pou_63bc9235b6d214b8</t>
+  </si>
+  <si>
+    <t>pou_78343638b2d58337</t>
+  </si>
+  <si>
+    <t>pou_d590203873f52732</t>
+  </si>
+  <si>
+    <t>pou_902c2cbff5717c3e</t>
+  </si>
+  <si>
+    <t>pou_98ade39bb8b6e01f</t>
+  </si>
+  <si>
+    <t>pou_cfe13ff843a20d89</t>
+  </si>
+  <si>
+    <t>pou_d9aa00b9a0f9eb1a</t>
+  </si>
+  <si>
+    <t>pou_09c778454e0a3fca</t>
+  </si>
+  <si>
+    <t>pou_68fa91bb7b662c0b</t>
+  </si>
+  <si>
+    <t>pou_d9fe06d7203bf6b4</t>
+  </si>
+  <si>
+    <t>pou_e796f3fdea7db1fd</t>
+  </si>
+  <si>
+    <t>pou_0612f8409a8ef503</t>
+  </si>
+  <si>
+    <t>pou_6af0bd95dad6d51c</t>
+  </si>
+  <si>
+    <t>pou_6b19b86b93cd4df1</t>
+  </si>
+  <si>
+    <t>pou_a14e93e9362f0b76</t>
+  </si>
+  <si>
+    <t>pou_6be92f0c150a6ff9</t>
+  </si>
+  <si>
+    <t>pou_1d0b1f0d2ca62d08</t>
+  </si>
+  <si>
+    <t>pou_1106c53f5ffc20b6</t>
+  </si>
+  <si>
+    <t>pou_728d84a4127d3713</t>
+  </si>
+  <si>
+    <t>pou_e1a94f2f58ddc4a7</t>
+  </si>
+  <si>
+    <t>pou_16f51133b255579a</t>
+  </si>
+  <si>
+    <t>pou_9d6499506db400e2</t>
+  </si>
+  <si>
+    <t>pou_38efe72718f21fc6</t>
+  </si>
+  <si>
+    <t>pou_6c9cd354bf0a7d31</t>
+  </si>
+  <si>
+    <t>pou_fb678783b63a652d;pou_fca71b7c3b6ff832</t>
+  </si>
+  <si>
+    <t>pou_e780fa1c5a7ec305;pou_a6877c0f29791234;pou_0fee52440d658b26;pou_2a392e1e292641ac;pou_bb67b0db7491b505;pou_bdda089242efc6e6;pou_a3e391fb6bbe6b7e;pou_c8e59dbf6a2a54f3;pou_ca06763aee27fba7;pou_85808623edb52699;pou_25adbf6f6ad757b7;pou_7f52839301369625</t>
+  </si>
+  <si>
+    <t>pou_f833f8ea00e41902</t>
+  </si>
+  <si>
+    <t>pou_aa2a99f6ace62d77</t>
+  </si>
+  <si>
+    <t>pou_dad28fd4cc11f155</t>
+  </si>
+  <si>
+    <t>pou_39711686e8d22939</t>
+  </si>
+  <si>
+    <t>pou_3544be4a13bc39e1</t>
+  </si>
+  <si>
+    <t>pou_9a6bf4cff77440d8</t>
+  </si>
+  <si>
+    <t>pou_02745f9b77f44679</t>
+  </si>
+  <si>
+    <t>pou_e87c108b0e82b264</t>
+  </si>
+  <si>
+    <t>pou_ff876fdcbcd6c706</t>
+  </si>
+  <si>
+    <t>pou_68c73413374c315e</t>
+  </si>
+  <si>
+    <t>pou_c2da4b2f65d29f18</t>
+  </si>
+  <si>
+    <t>pou_f1cbd627f0439840</t>
+  </si>
+  <si>
+    <t>pou_cf20a011f5031993</t>
+  </si>
+  <si>
+    <t>pou_afbb513a91725815</t>
+  </si>
+  <si>
+    <t>pou_be1620316618dcff</t>
+  </si>
+  <si>
+    <t>pou_9669b2e1ec0dc069</t>
+  </si>
+  <si>
+    <t>pou_bc47812cabb44769</t>
+  </si>
+  <si>
+    <t>pou_03d623a61ce92034</t>
+  </si>
+  <si>
+    <t>pou_017e36fc82571abb</t>
+  </si>
+  <si>
+    <t>pou_9bc4407abbbc02c0</t>
+  </si>
+  <si>
+    <t>pou_cfe1eeca1876f5df</t>
+  </si>
+  <si>
+    <t>pou_579d3ecd465ac451</t>
+  </si>
+  <si>
+    <t>pou_b26c72d7bd602573</t>
+  </si>
+  <si>
+    <t>pou_9e68a7ddc7b9890f</t>
+  </si>
+  <si>
+    <t>pou_b7107c1f15a619bc</t>
+  </si>
+  <si>
+    <t>pou_1a83df1e5117ba3b</t>
+  </si>
+  <si>
+    <t>pou_4d796c446b5d85eb</t>
+  </si>
+  <si>
+    <t>pou_d832efc195913057</t>
+  </si>
+  <si>
+    <t>pou_59f525e658ecc0fc</t>
+  </si>
+  <si>
+    <t>pou_30009d7235da1c7d</t>
+  </si>
+  <si>
+    <t>pou_22b3a1b3928f4804</t>
+  </si>
+  <si>
+    <t>pou_1e76ccf8fe0f12b3</t>
+  </si>
+  <si>
+    <t>pou_aaa2c86844246c31</t>
+  </si>
+  <si>
+    <t>pou_36d5acf96141464b</t>
+  </si>
+  <si>
+    <t>pou_61e898bb74410ba3</t>
+  </si>
+  <si>
+    <t>pou_26708e3087d65119</t>
+  </si>
+  <si>
+    <t>pou_fcd67948080425b3</t>
+  </si>
+  <si>
+    <t>pou_d2f4b31a4ecee196</t>
+  </si>
+  <si>
+    <t>pou_19e2e449f38b08f3</t>
+  </si>
+  <si>
+    <t>pou_37adc1184526171e</t>
+  </si>
+  <si>
+    <t>pou_53d24d9873ac27e5</t>
+  </si>
+  <si>
+    <t>pou_cde5ebbc60fb4fb5</t>
   </si>
 </sst>
 </file>

--- a/04_output_data/folder.xlsx
+++ b/04_output_data/folder.xlsx
@@ -4237,1930 +4237,1930 @@
     <t>FTG 1060</t>
   </si>
   <si>
-    <t>pou_a0de395be55a19ea</t>
-  </si>
-  <si>
-    <t>pou_6c421a0ed69d1976</t>
-  </si>
-  <si>
-    <t>pou_f25fa8a988c46a29;pou_4723a3f30502a8df</t>
-  </si>
-  <si>
-    <t>pou_8cca590c6e0c99d9</t>
-  </si>
-  <si>
-    <t>pou_5fea98217ab8dce3</t>
-  </si>
-  <si>
-    <t>pou_bdc2fe8932890cdc</t>
-  </si>
-  <si>
-    <t>pou_f6cae3876ebd44a9</t>
-  </si>
-  <si>
-    <t>pou_af6cbef75cad0d63</t>
-  </si>
-  <si>
-    <t>pou_c871a40b8639c5fc</t>
-  </si>
-  <si>
-    <t>pou_5687a3b95d450ff2</t>
-  </si>
-  <si>
-    <t>pou_290435b0ed972857</t>
-  </si>
-  <si>
-    <t>pou_218dade6de0b2eaf</t>
-  </si>
-  <si>
-    <t>pou_39ff8419342911e5</t>
-  </si>
-  <si>
-    <t>pou_bdcf0157ce80e171</t>
-  </si>
-  <si>
-    <t>pou_43f563910550ff2b;pou_54b549647bb7a8fd</t>
-  </si>
-  <si>
-    <t>pou_90277f1cf3dda883</t>
-  </si>
-  <si>
-    <t>pou_4ae885809038c538</t>
-  </si>
-  <si>
-    <t>pou_8a83f000fbc6a64f;pou_0f8df06a833ad6de</t>
-  </si>
-  <si>
-    <t>pou_55a2dda64f33f058</t>
-  </si>
-  <si>
-    <t>pou_93dece6f5fd5633f</t>
-  </si>
-  <si>
-    <t>pou_74bda9eb44e8ee5c</t>
-  </si>
-  <si>
-    <t>pou_3398f485532a4e26</t>
-  </si>
-  <si>
-    <t>pou_dc67ece58771119f;pou_83e8e09b2dbfa71b</t>
-  </si>
-  <si>
-    <t>pou_feb62e15905e4a90;pou_18f1a47667f07673</t>
-  </si>
-  <si>
-    <t>pou_ec03c25d6f619ff8</t>
-  </si>
-  <si>
-    <t>pou_29b6de189c57b2e8</t>
-  </si>
-  <si>
-    <t>pou_8a60908356d6e15e</t>
-  </si>
-  <si>
-    <t>pou_f61c25a558fa62ac;pou_089bd11eabebf4ec;pou_74add39bf6526f24;pou_19dfe2950b3c6902;pou_e701a0bbc961474c;pou_f099f8b712fdade1;pou_695216f944ba8461;pou_487ca2d280e0bcb1;pou_6a86ccf3c5041d28</t>
-  </si>
-  <si>
-    <t>pou_fb8ffb19bb48ccfa</t>
-  </si>
-  <si>
-    <t>pou_8866b9c1ac9827fa</t>
-  </si>
-  <si>
-    <t>pou_888afe0da1424913</t>
-  </si>
-  <si>
-    <t>pou_c1db532ee6ee588e</t>
-  </si>
-  <si>
-    <t>pou_6d1998537307ff40</t>
-  </si>
-  <si>
-    <t>pou_8c18fd6303ea4a21</t>
-  </si>
-  <si>
-    <t>pou_064321eac799ead8;pou_0dd37db185081537</t>
-  </si>
-  <si>
-    <t>pou_f43398e9e4afd747</t>
-  </si>
-  <si>
-    <t>pou_67e061c53472e6d4</t>
-  </si>
-  <si>
-    <t>pou_f81a3edf3e7e536a</t>
-  </si>
-  <si>
-    <t>pou_759b13b0478a0085;pou_b7d65a417fec51b2</t>
-  </si>
-  <si>
-    <t>pou_03d6b425f15e4156</t>
-  </si>
-  <si>
-    <t>pou_3e6e8feca10bb36e</t>
-  </si>
-  <si>
-    <t>pou_8b7ec46ba9f3a94e</t>
-  </si>
-  <si>
-    <t>pou_9b36904edfd032ac</t>
-  </si>
-  <si>
-    <t>pou_3c66f7dc027d1e54</t>
-  </si>
-  <si>
-    <t>pou_6ed278260e0dfc8f</t>
-  </si>
-  <si>
-    <t>pou_feffb27f778f1a9e;pou_ae65638aedbae664</t>
-  </si>
-  <si>
-    <t>pou_4a85a42480157f89</t>
-  </si>
-  <si>
-    <t>pou_124b9c02065dc792</t>
-  </si>
-  <si>
-    <t>pou_dce820bcecf88c93</t>
-  </si>
-  <si>
-    <t>pou_72698531f6cf1a86</t>
-  </si>
-  <si>
-    <t>pou_c16c7155794f1364</t>
-  </si>
-  <si>
-    <t>pou_4bd996635e087e0a</t>
-  </si>
-  <si>
-    <t>pou_2d6fd9568a658810</t>
-  </si>
-  <si>
-    <t>pou_523611c3793b3ac7</t>
-  </si>
-  <si>
-    <t>pou_38e8b0f18ff1d38b</t>
-  </si>
-  <si>
-    <t>pou_98b9b8a934b45d86</t>
-  </si>
-  <si>
-    <t>pou_746144d4d231bf6b</t>
-  </si>
-  <si>
-    <t>pou_c7412eb27a0d94d0</t>
-  </si>
-  <si>
-    <t>pou_dad80555e7a6bb50</t>
-  </si>
-  <si>
-    <t>pou_ef45384a432d7756</t>
-  </si>
-  <si>
-    <t>pou_19a85d3742f6b5b5</t>
-  </si>
-  <si>
-    <t>pou_a181250ac974634d</t>
-  </si>
-  <si>
-    <t>pou_fe85fdf7225cadc1</t>
-  </si>
-  <si>
-    <t>pou_9066b6e1e159d070</t>
-  </si>
-  <si>
-    <t>pou_b14c4f1ea6390ffe</t>
-  </si>
-  <si>
-    <t>pou_815bc12240fe5177</t>
-  </si>
-  <si>
-    <t>pou_8e3587ac10ed2400</t>
-  </si>
-  <si>
-    <t>pou_749dfc782f76dc73</t>
-  </si>
-  <si>
-    <t>pou_79bdb2c280e14a3a</t>
-  </si>
-  <si>
-    <t>pou_5417b7e60298adde</t>
-  </si>
-  <si>
-    <t>pou_da964dd4c2b55f39</t>
-  </si>
-  <si>
-    <t>pou_295c079cae58d5e0</t>
-  </si>
-  <si>
-    <t>pou_4e9889d06fa5f7bc</t>
-  </si>
-  <si>
-    <t>pou_ec0b909f6fcc23a6</t>
-  </si>
-  <si>
-    <t>pou_f7e303e2db8b4f0a</t>
-  </si>
-  <si>
-    <t>pou_7a03aad568e1813c</t>
-  </si>
-  <si>
-    <t>pou_d4eb85b8a32f5c68</t>
-  </si>
-  <si>
-    <t>pou_57de753a716680e5</t>
-  </si>
-  <si>
-    <t>pou_707545913ad9865e</t>
-  </si>
-  <si>
-    <t>pou_df8509d1d8cb1de1</t>
-  </si>
-  <si>
-    <t>pou_8e0a286075e057c1</t>
-  </si>
-  <si>
-    <t>pou_ed3c8b45b69dd902</t>
-  </si>
-  <si>
-    <t>pou_c59eb8a6e1745b1a</t>
-  </si>
-  <si>
-    <t>pou_350f503cd2842517</t>
-  </si>
-  <si>
-    <t>pou_d63bb44de2fe9410</t>
-  </si>
-  <si>
-    <t>pou_cca727d4769aef75</t>
-  </si>
-  <si>
-    <t>pou_6d790657db42d09c</t>
-  </si>
-  <si>
-    <t>pou_d0271fc7e7c452cf</t>
-  </si>
-  <si>
-    <t>pou_d8790e5cf73ce68a</t>
-  </si>
-  <si>
-    <t>pou_96aac952e53087b5</t>
-  </si>
-  <si>
-    <t>pou_c5af69a3c24c95e7</t>
-  </si>
-  <si>
-    <t>pou_4fd3220c705a1cee</t>
-  </si>
-  <si>
-    <t>pou_35e8c065b784e8e4</t>
-  </si>
-  <si>
-    <t>pou_def44c98d91b06c5</t>
-  </si>
-  <si>
-    <t>pou_959a5a566f8c53af</t>
-  </si>
-  <si>
-    <t>pou_c8bff6e87f7f2da2</t>
-  </si>
-  <si>
-    <t>pou_25333733f1adf839</t>
-  </si>
-  <si>
-    <t>pou_ccf4466872289231</t>
-  </si>
-  <si>
-    <t>pou_8ba66a80076d05ee</t>
-  </si>
-  <si>
-    <t>pou_4d7297b0de905526</t>
-  </si>
-  <si>
-    <t>pou_5c69e6429ac4dbbd</t>
-  </si>
-  <si>
-    <t>pou_356abeb70605a1b3</t>
-  </si>
-  <si>
-    <t>pou_645ce65e625289d4</t>
-  </si>
-  <si>
-    <t>pou_370884f02694aef6</t>
-  </si>
-  <si>
-    <t>pou_0c0fde309dc5e659</t>
-  </si>
-  <si>
-    <t>pou_f5315a5f47842b34</t>
-  </si>
-  <si>
-    <t>pou_3ee6595358bb4cb7</t>
-  </si>
-  <si>
-    <t>pou_9909c1f3d422a6d9</t>
-  </si>
-  <si>
-    <t>pou_4c8ed47b07abb37f</t>
-  </si>
-  <si>
-    <t>pou_5b001b6b45d3aa04</t>
-  </si>
-  <si>
-    <t>pou_f993f2016e5fb4bf</t>
-  </si>
-  <si>
-    <t>pou_4496720de6c97c61</t>
-  </si>
-  <si>
-    <t>pou_d6fc600f6ac72fc6</t>
-  </si>
-  <si>
-    <t>pou_aaa7a2a708cda7f0</t>
-  </si>
-  <si>
-    <t>pou_af50c5dbcbf129b0</t>
-  </si>
-  <si>
-    <t>pou_e690d7eb88a841d6</t>
-  </si>
-  <si>
-    <t>pou_531e0b880f3cb8d6</t>
-  </si>
-  <si>
-    <t>pou_68a3817785dd8771</t>
-  </si>
-  <si>
-    <t>pou_287c8aae3099cc35</t>
-  </si>
-  <si>
-    <t>pou_68eab1416cad1624</t>
-  </si>
-  <si>
-    <t>pou_a521470df395b704</t>
-  </si>
-  <si>
-    <t>pou_bd60e13d696d2c5e</t>
-  </si>
-  <si>
-    <t>pou_331a643a63a984b9</t>
-  </si>
-  <si>
-    <t>pou_14bff995a44640ab</t>
-  </si>
-  <si>
-    <t>pou_d5b925c17bb41980</t>
-  </si>
-  <si>
-    <t>pou_6e9bce644e971c37;pou_a58155c77b57ba45;pou_44abd06e75d3edf3</t>
-  </si>
-  <si>
-    <t>pou_3747d38bcacf6667</t>
-  </si>
-  <si>
-    <t>pou_1ac5b5fb1bc678a8</t>
-  </si>
-  <si>
-    <t>pou_81238adbc564d089</t>
-  </si>
-  <si>
-    <t>pou_fabfb34b118ce7ad;pou_e30a87044aab141a</t>
-  </si>
-  <si>
-    <t>pou_27c1bb8d9c319a73</t>
-  </si>
-  <si>
-    <t>pou_b41ac27162359688</t>
-  </si>
-  <si>
-    <t>pou_3c58bb863337124c</t>
-  </si>
-  <si>
-    <t>pou_3ed09c6d02e6a223</t>
-  </si>
-  <si>
-    <t>pou_758ca3fb7dc0866d</t>
-  </si>
-  <si>
-    <t>pou_9a2db7263edf1349</t>
-  </si>
-  <si>
-    <t>pou_9aa010928305fd15</t>
-  </si>
-  <si>
-    <t>pou_a33c915279db248d</t>
-  </si>
-  <si>
-    <t>pou_388687d5cad19159</t>
-  </si>
-  <si>
-    <t>pou_b91dc47539fa9df6</t>
-  </si>
-  <si>
-    <t>pou_6f9577324baa23f6</t>
-  </si>
-  <si>
-    <t>pou_fd14c7970b34dbc6</t>
-  </si>
-  <si>
-    <t>pou_4323b50d11682802</t>
-  </si>
-  <si>
-    <t>pou_347cf64798c5fa7d</t>
-  </si>
-  <si>
-    <t>pou_4ef88fc92be6e140</t>
-  </si>
-  <si>
-    <t>pou_c56a879027d470e0</t>
-  </si>
-  <si>
-    <t>pou_91027451246a8f80</t>
-  </si>
-  <si>
-    <t>pou_bf18e50be43e7fab</t>
-  </si>
-  <si>
-    <t>pou_438a5924abfe35cc</t>
-  </si>
-  <si>
-    <t>pou_eb785a67d09eb484</t>
-  </si>
-  <si>
-    <t>pou_03fb35d7ea752b97;pou_70f9ecc3f33c3c5e;pou_21e7b8212daf194f;pou_8930aaef7b142da2;pou_0c81d7de805ed776;pou_c3c791c5458dc4dc;pou_3259126690b7e974;pou_a14e08c625f4683b;pou_e28b70ed2abe0858;pou_8fca379165049725;pou_1fbdf39e54bcf9bd</t>
-  </si>
-  <si>
-    <t>pou_3513355bdd6ba9ef</t>
-  </si>
-  <si>
-    <t>pou_37969918a8550f45</t>
-  </si>
-  <si>
-    <t>pou_9dd2452fcd42e61e;pou_304ed4415914424d</t>
-  </si>
-  <si>
-    <t>pou_37bce23fb43f070d</t>
-  </si>
-  <si>
-    <t>pou_7c8839ead8c1efb2</t>
-  </si>
-  <si>
-    <t>pou_8bc0f9c1ea2007e9</t>
-  </si>
-  <si>
-    <t>pou_7e0980465108a812</t>
-  </si>
-  <si>
-    <t>pou_93e9ab08f18dcd98</t>
-  </si>
-  <si>
-    <t>pou_c691b95b564a9867</t>
-  </si>
-  <si>
-    <t>pou_dd7007d63da0440d</t>
-  </si>
-  <si>
-    <t>pou_70eeffb3aac24eb4</t>
-  </si>
-  <si>
-    <t>pou_d05a3192c9582e56</t>
-  </si>
-  <si>
-    <t>pou_8fc22624c388edb2</t>
-  </si>
-  <si>
-    <t>pou_38b967ca53320c0b</t>
-  </si>
-  <si>
-    <t>pou_7103e376a73c662a</t>
-  </si>
-  <si>
-    <t>pou_db1727105fc317d8</t>
-  </si>
-  <si>
-    <t>pou_366ac68c838f3e8b</t>
-  </si>
-  <si>
-    <t>pou_0e43c27cffa60f49</t>
-  </si>
-  <si>
-    <t>pou_45a61da8bf9379d7</t>
-  </si>
-  <si>
-    <t>pou_51752c73e65f7411</t>
-  </si>
-  <si>
-    <t>pou_7a9122e1aad7e74f</t>
-  </si>
-  <si>
-    <t>pou_ec9a8caf0cb1d662</t>
-  </si>
-  <si>
-    <t>pou_d8d9e6387ab91812</t>
-  </si>
-  <si>
-    <t>pou_1aa237f8e9deba1b</t>
-  </si>
-  <si>
-    <t>pou_e110171c28767efb</t>
-  </si>
-  <si>
-    <t>pou_f4b5ee61bab25916</t>
-  </si>
-  <si>
-    <t>pou_3304af0417016eeb</t>
-  </si>
-  <si>
-    <t>pou_91c10347907cf931</t>
-  </si>
-  <si>
-    <t>pou_2ad042aabeca3bd9</t>
-  </si>
-  <si>
-    <t>pou_0cd0bac171b39fcb</t>
-  </si>
-  <si>
-    <t>pou_93fc0ae942a0cca3</t>
-  </si>
-  <si>
-    <t>pou_295cacc974468097</t>
-  </si>
-  <si>
-    <t>pou_d11ed94fbc6b2e2f</t>
-  </si>
-  <si>
-    <t>pou_1517db95456413c2</t>
-  </si>
-  <si>
-    <t>pou_56882950f6a4dca8</t>
-  </si>
-  <si>
-    <t>pou_f3bff2da7c613511</t>
-  </si>
-  <si>
-    <t>pou_e882803f5493152e</t>
-  </si>
-  <si>
-    <t>pou_cbf5e736e5bba44b</t>
-  </si>
-  <si>
-    <t>pou_7fa63ab82eed50be</t>
-  </si>
-  <si>
-    <t>pou_3cc49295caab08b0</t>
-  </si>
-  <si>
-    <t>pou_c37c3d69adffeded</t>
-  </si>
-  <si>
-    <t>pou_6c205381b100f014</t>
-  </si>
-  <si>
-    <t>pou_35486489b1f994cc</t>
-  </si>
-  <si>
-    <t>pou_5e0acbe288b074f2</t>
-  </si>
-  <si>
-    <t>pou_74b80dbdb49caba7</t>
-  </si>
-  <si>
-    <t>pou_76972d666c803ad4</t>
-  </si>
-  <si>
-    <t>pou_3ea252b1ca3c17c5</t>
-  </si>
-  <si>
-    <t>pou_0fb36f50d8f8034b</t>
-  </si>
-  <si>
-    <t>pou_eeefdba63dd04995</t>
-  </si>
-  <si>
-    <t>pou_cd0fbfc388b9b497</t>
-  </si>
-  <si>
-    <t>pou_7dd436f9cf446c2a</t>
-  </si>
-  <si>
-    <t>pou_f09c137741eaeb15</t>
-  </si>
-  <si>
-    <t>pou_401fd83f350dafde</t>
-  </si>
-  <si>
-    <t>pou_e42573caf600666b</t>
-  </si>
-  <si>
-    <t>pou_f591dcb20cfedbe6</t>
-  </si>
-  <si>
-    <t>pou_469dcc71b72e9e79</t>
-  </si>
-  <si>
-    <t>pou_e93f154c9bfcc828</t>
-  </si>
-  <si>
-    <t>pou_f9cde19a43fc88e7</t>
-  </si>
-  <si>
-    <t>pou_52383bafc33ffe35</t>
-  </si>
-  <si>
-    <t>pou_4ce700c4ddecacd8</t>
-  </si>
-  <si>
-    <t>pou_ce353695293640dc</t>
-  </si>
-  <si>
-    <t>pou_d45cad99ba26028a</t>
-  </si>
-  <si>
-    <t>pou_ed28ea2c15519295</t>
-  </si>
-  <si>
-    <t>pou_9b309f84000e2c05</t>
-  </si>
-  <si>
-    <t>pou_4a4f6cd260007787</t>
-  </si>
-  <si>
-    <t>pou_39d441d97f692b6b</t>
-  </si>
-  <si>
-    <t>pou_29fbb47f407eb2c8</t>
-  </si>
-  <si>
-    <t>pou_8a016e0fb5c8febc</t>
-  </si>
-  <si>
-    <t>pou_1b356aff30572fa2</t>
-  </si>
-  <si>
-    <t>pou_2bc5c51d3da6af99</t>
-  </si>
-  <si>
-    <t>pou_1bba67c69a685195</t>
-  </si>
-  <si>
-    <t>pou_7b9e873e4f653978</t>
-  </si>
-  <si>
-    <t>pou_70ee4c91d413d24f</t>
-  </si>
-  <si>
-    <t>pou_adca042d41f156e7</t>
-  </si>
-  <si>
-    <t>pou_073ef7f66839fbdc</t>
-  </si>
-  <si>
-    <t>pou_445f2598f24b80aa</t>
-  </si>
-  <si>
-    <t>pou_059934877d8b622f</t>
-  </si>
-  <si>
-    <t>pou_6d6704271a28c746</t>
-  </si>
-  <si>
-    <t>pou_ea914878582734c8</t>
-  </si>
-  <si>
-    <t>pou_df0fec4e66a76814</t>
-  </si>
-  <si>
-    <t>pou_5957d2748273c470</t>
-  </si>
-  <si>
-    <t>pou_8a61d57675863671</t>
-  </si>
-  <si>
-    <t>pou_0cb34f1936c91864</t>
-  </si>
-  <si>
-    <t>pou_2630f157308f6d4a</t>
-  </si>
-  <si>
-    <t>pou_6082a9b1edaafaf0</t>
-  </si>
-  <si>
-    <t>pou_43b9353aade40c06</t>
-  </si>
-  <si>
-    <t>pou_33b7397656aa5a13</t>
-  </si>
-  <si>
-    <t>pou_1137fc06d2e06071</t>
-  </si>
-  <si>
-    <t>pou_b0125276f89255e3</t>
-  </si>
-  <si>
-    <t>pou_fd5bc77d97dbf8c1</t>
-  </si>
-  <si>
-    <t>pou_ee9a2674d48f738f</t>
-  </si>
-  <si>
-    <t>pou_84976ad25539e45b</t>
-  </si>
-  <si>
-    <t>pou_a20ab1beac37814c</t>
-  </si>
-  <si>
-    <t>pou_040d7b647eb5ac73</t>
-  </si>
-  <si>
-    <t>pou_01bffe189d731ad3</t>
-  </si>
-  <si>
-    <t>pou_29feef0ab513c5eb</t>
-  </si>
-  <si>
-    <t>pou_4cdabeaa4a1ffb07</t>
-  </si>
-  <si>
-    <t>pou_d39dc2a7bbb0d9ed</t>
-  </si>
-  <si>
-    <t>pou_c749f847e3ca01c4</t>
-  </si>
-  <si>
-    <t>pou_afbd1ec012bb2b5a</t>
-  </si>
-  <si>
-    <t>pou_20e715ad9592f9fa</t>
-  </si>
-  <si>
-    <t>pou_4fdd487d7531c705</t>
-  </si>
-  <si>
-    <t>pou_17b7a77dd3169eee</t>
-  </si>
-  <si>
-    <t>pou_d692dabcd2096ca9</t>
-  </si>
-  <si>
-    <t>pou_62bd6e6f4c0f6fa2</t>
-  </si>
-  <si>
-    <t>pou_84a25cf1276ec4f9</t>
-  </si>
-  <si>
-    <t>pou_09b21b6976dd3e60</t>
-  </si>
-  <si>
-    <t>pou_567c3ad611b81b2a</t>
-  </si>
-  <si>
-    <t>pou_d0d3523f0b1d8b31</t>
-  </si>
-  <si>
-    <t>pou_e3ebb476da27a1c4</t>
-  </si>
-  <si>
-    <t>pou_f2293bde249e218e</t>
-  </si>
-  <si>
-    <t>pou_a8e9986fc61e18e5;pou_202cb28ad0f19314</t>
-  </si>
-  <si>
-    <t>pou_7d67205bf9754906</t>
-  </si>
-  <si>
-    <t>pou_b5af3448018b66c0;pou_b71b3e5e2948b0e2;pou_04ef899fddd32a3f;pou_bf25e8a62d0dbd1a;pou_def8bb814ed8a13e;pou_5b78d9b0924f3c9a;pou_134f1368ddbe239c;pou_0730adf44c58834c;pou_83f54b99c768424b;pou_42246e96509b341a;pou_9479ca761fcbf247;pou_e43de8ae5c8284e0</t>
-  </si>
-  <si>
-    <t>pou_679fffd8a58db840</t>
-  </si>
-  <si>
-    <t>pou_dd717ea47e10579c</t>
-  </si>
-  <si>
-    <t>pou_22d67dfe243cf90a</t>
-  </si>
-  <si>
-    <t>pou_3504b17f0fef5ae0</t>
-  </si>
-  <si>
-    <t>pou_5ce4dcd76f5d896d</t>
-  </si>
-  <si>
-    <t>pou_9aa3e0186ddafc8a</t>
-  </si>
-  <si>
-    <t>pou_52c87abb4c49a3a0</t>
-  </si>
-  <si>
-    <t>pou_ec0375aef53b06b7</t>
-  </si>
-  <si>
-    <t>pou_3fd14922aca140e0</t>
-  </si>
-  <si>
-    <t>pou_aec341cdf9a42b3f</t>
-  </si>
-  <si>
-    <t>pou_f5b18ccd8081bcb3;pou_e16b9cce4a183e3b</t>
-  </si>
-  <si>
-    <t>pou_d5fac640a045f744</t>
-  </si>
-  <si>
-    <t>pou_0085219a91e3c95f</t>
-  </si>
-  <si>
-    <t>pou_dfb4650ad3def175</t>
-  </si>
-  <si>
-    <t>pou_be5e53f7d26c749f</t>
-  </si>
-  <si>
-    <t>pou_fbb89cf7a5063b0c</t>
-  </si>
-  <si>
-    <t>pou_82b65bbefd4ef257</t>
-  </si>
-  <si>
-    <t>pou_8bb581eab286b339</t>
-  </si>
-  <si>
-    <t>pou_5ca0ddcef18cff09</t>
-  </si>
-  <si>
-    <t>pou_f33115d53405a0cd</t>
-  </si>
-  <si>
-    <t>pou_82c3c0f5f36bf9e7;pou_adce4adf8789bc46;pou_5545eb9f8e780c13;pou_c06f5d442089c389;pou_abdd16b0633bf2e7;pou_3f32398718eafd01;pou_c7f84555331e5d13</t>
-  </si>
-  <si>
-    <t>pou_ed6e724c73c3a37d;pou_074ca0ee12f34606</t>
-  </si>
-  <si>
-    <t>pou_879143cea5792e77</t>
-  </si>
-  <si>
-    <t>pou_8b74b923ceaff47d</t>
-  </si>
-  <si>
-    <t>pou_cd143f2f92bf4bbf</t>
-  </si>
-  <si>
-    <t>pou_b9fd5d9bf10f9573</t>
-  </si>
-  <si>
-    <t>pou_b2c45f2c13911b19</t>
-  </si>
-  <si>
-    <t>pou_94fabfcf8bb3a96f</t>
-  </si>
-  <si>
-    <t>pou_6ec294707028468e</t>
-  </si>
-  <si>
-    <t>pou_3bcce3ad2efb9a22</t>
-  </si>
-  <si>
-    <t>pou_dd5cedab4497787b</t>
-  </si>
-  <si>
-    <t>pou_a89e46254a060a13</t>
-  </si>
-  <si>
-    <t>pou_8d9862972c32a15c</t>
-  </si>
-  <si>
-    <t>pou_6517a9d93b381466;pou_6318d9d291e76bf4;pou_b845eb94db94de70;pou_3e922ace65a33021;pou_550c377167769450;pou_29f3b21c655da696;pou_1dabd5ca0aef7c48;pou_133709820463bb68;pou_57df51620c220351</t>
-  </si>
-  <si>
-    <t>pou_4e52e4f0ae84ec16;pou_1c4e741daef8f29d;pou_a562fc0f1c7152e8;pou_05be32f1007b6c19;pou_c7c3f1e01688cfff;pou_24b4a2550553564f;pou_5386443f75a2f75f</t>
-  </si>
-  <si>
-    <t>pou_da062f7afb88fdfa</t>
-  </si>
-  <si>
-    <t>pou_739103e9029a456a;pou_3679a3ac1ba0e87f;pou_969e7a829233cc27;pou_a361025696b8534b</t>
-  </si>
-  <si>
-    <t>pou_3830170dadd76b2a;pou_a55e5ad3accc365f;pou_4ceb6c76d0c18532;pou_6fe5b9b8aaedde2d;pou_01a613cf763faedb;pou_84e4b1f5f7c91dad;pou_00b12a8d06464c02;pou_c62a5fd072e67b47;pou_949b0e53e1164df3;pou_70dce072928aa85e</t>
-  </si>
-  <si>
-    <t>pou_4e95623e8c5fe990</t>
-  </si>
-  <si>
-    <t>pou_9ff819029c43bccc;pou_9d7dc319dcd03cd0;pou_b2f33b3941530b7d;pou_f87e2a4640dbd38f;pou_81a3246aa09659ca;pou_cf450d008a3d2832;pou_ac1618b06b247191;pou_162b751398a1394f;pou_77af58bd6fc306af;pou_b8fdad2c0aaf8d92;pou_086608e6e619588c;pou_c87612bfa7fdbe77;pou_cd387c347ef7b5ac;pou_f40ff33c69611e1d;pou_c97bac5dd09f65bb;pou_d2e7114bb044e566;pou_ba91bca4c9833a9c;pou_c3f3f86bc0beb62a;pou_1d7c8313e23057b7;pou_0d6c7ab1ab6a8239;pou_d71e0f74d296e408;pou_3b51afc34b982b6f;pou_12e08721384170c1;pou_5be9f63031e62de6;pou_d1257de73f0d9c88;pou_63a37fb42625e491;pou_751b458fcbad0245;pou_39050b5c603bea0b;pou_04406ca0dccbce1f;pou_e604f5d654f26547;pou_7d407f8636b59c6a;pou_90a0b2928573cf25;pou_e81ad7c9994052e5;pou_ddb92736e7bcc60b;pou_dfddcc8ec181d550;pou_36b364617bcd1f9b;pou_b9417a7faa5611de;pou_66955f54fa197f1e;pou_14cb7829b6f0dbc4;pou_710249807e0b0e1d;pou_67bbe0db4c9add2c;pou_7c4c939dc996e020;pou_d297dba5535357c3;pou_db585db665896e71;pou_f9ad398d86cd4c79;pou_39e7574919c523ce;pou_2370a202222e9a19;pou_9fa4e003c3ef1fd3;pou_50ffb4f8be260fab;pou_d227ed6c7e71c86e;pou_f6955948ecf363b3;pou_9192f0d4d4660147;pou_e410f9c645e54900;pou_d852087255b8ba97;pou_7ffd5d12aee50ab9;pou_959a04b64200fa7f;pou_c0c7f4817869576d;pou_2bc123bc65bba091;pou_e7fec47be7eacd33;pou_3950742a38ef8430;pou_bb8921eda6ae1379;pou_ec47eb1061e3ea78;pou_827ff31f2082ffcc;pou_c48f9335e90e9030;pou_02eeaff75286215d;pou_db41f66ddf6dcdcd;pou_eb4136d3086c6f87;pou_c829bceb971a825d;pou_d957094d49f93b18;pou_480e5525a9485e3a;pou_03edf91472b9c636;pou_3be3b93761d61ae9;pou_4a3973019e84ba71;pou_34d83bc7b37bfc85;pou_64ae070dc2d1885d;pou_9092df28ef5d40a1;pou_67f01eb21a3c33a7;pou_e96da06bdc0317ea;pou_1532124fca09d6a1;pou_9519210c69bf526a;pou_bdd1515f6990d0ab;pou_4742d698a4ab1a81;pou_6d951d99dc8cf2c2;pou_f5ca8e0b039bf45b;pou_9a9d6c6013051e8d;pou_c9c7fd96b33f492e;pou_dc859009f6ab231c;pou_19c31d1f036c08e6;pou_0b0b6a8d7c2a7077;pou_cdbc01b6423c512c;pou_0e70659665fc240f;pou_a9756da83a5bb448;pou_306c9505257e17c8;pou_bd4e1a36429bcbfc;pou_a11edffdca78ba78;pou_3be75f60a79f2f30;pou_8b24d9f04b23c53b;pou_22ce20cbcf19f02d;pou_fcd73f3a5b0891c5;pou_4119866da3903c0d;pou_811799e653dadd46;pou_b871b0fdc5b8a5bc;pou_7c247db99d886e64;pou_4b1d4f290419059e;pou_aa7eed151b23f5f8;pou_bb24fe64ecc8f09c;pou_d5e9ea0f496dd820;pou_c9a957ae71b397c2;pou_533b25046747c207;pou_32a359229fd1c9c6;pou_d93ceb759d010067;pou_e79e542d512d7fb9;pou_215a02e92dc511db;pou_9b0e8bb620ad9e23;pou_37a5d3a9f3f70fc9;pou_7397f8cd3150fde1;pou_ba21165f5f1f2c82;pou_5685161ce49d79f2;pou_71a8412a52ccd7a6;pou_806b3dbeea19e643;pou_c3a4497a99e528ee;pou_f58f91bc3b1cfa70;pou_6d20abfe0f86fc67;pou_dc62cccd99d9ff12;pou_2880ddf71af75331;pou_7468daf73e0fb9f3;pou_4d6055c8b8537e7d;pou_5a0b4bada4053eac;pou_cf5bed5163941d71;pou_c2eaee31563bb4e0;pou_f41bb91c6abb7cbc;pou_41e8d1df414ff4c0;pou_86e9bc9609a97c9b;pou_8a792a129ead9dcf;pou_094c8a82831072f9;pou_1dd7ee14d4de5390;pou_c40d55ba2b351605;pou_06b27fbc6b0b7960;pou_f62e1c17d61813e6;pou_28ebdde88d345545;pou_c479dbe66afdc665;pou_61ef18704fe3662c;pou_bb2781e7825a0b3b</t>
-  </si>
-  <si>
-    <t>pou_3189b9a0da3d1df0;pou_1e1fabe913569a68;pou_6fe6ea2520aefb4b</t>
-  </si>
-  <si>
-    <t>pou_58f80b3b24681b3a</t>
-  </si>
-  <si>
-    <t>pou_0f1831727b410add</t>
-  </si>
-  <si>
-    <t>pou_3033e360e91830f1</t>
-  </si>
-  <si>
-    <t>pou_5868763483dbf056</t>
-  </si>
-  <si>
-    <t>pou_25c131b233f6f9a4</t>
-  </si>
-  <si>
-    <t>pou_9eafd45f76f2dd82;pou_7520fda55ae8dbcc;pou_0285f1d0d4748f81</t>
-  </si>
-  <si>
-    <t>pou_dfd88d8b73944ddc</t>
-  </si>
-  <si>
-    <t>pou_f0a081dcde5370db</t>
-  </si>
-  <si>
-    <t>pou_7a5eb0c75ee8204f</t>
-  </si>
-  <si>
-    <t>pou_d69c270d64b11deb</t>
-  </si>
-  <si>
-    <t>pou_262ec0687f62045e</t>
-  </si>
-  <si>
-    <t>pou_5ef6abe83e4ef1f7;pou_b69bbff9b270fa83;pou_b15cda00bb134de1;pou_854c402047e0bd32;pou_f0765b306f9a09a8;pou_b114b819646bafc7;pou_cc61da99f471583d</t>
-  </si>
-  <si>
-    <t>pou_9745cf77f6de3dd0</t>
-  </si>
-  <si>
-    <t>pou_559b7b78d292a5bc</t>
-  </si>
-  <si>
-    <t>pou_3dc5c370b70ff855;pou_c4679672f4748b45</t>
-  </si>
-  <si>
-    <t>pou_b6e1725488800f8e</t>
-  </si>
-  <si>
-    <t>pou_fba721267d202391</t>
-  </si>
-  <si>
-    <t>pou_3b8dd14734a0cebf</t>
-  </si>
-  <si>
-    <t>pou_543cc9ae080013b7</t>
-  </si>
-  <si>
-    <t>pou_2f94c2a0a92668a1</t>
-  </si>
-  <si>
-    <t>pou_a735f53f44c8de3d;pou_62442de976b3ef26</t>
-  </si>
-  <si>
-    <t>pou_4c951a9b5852371c;pou_f131571b81820d0d</t>
-  </si>
-  <si>
-    <t>pou_3107c553b6d3487a;pou_b013628752762592;pou_55b31216e3418de7;pou_aa4eb7e1c44b1bdd;pou_c532a2e4d2f1e9b1;pou_a9e9560d08b6026a;pou_2c4f14bd44c1c564;pou_3c13751dfb8a43cf;pou_ca3475932fbecb9e;pou_9802d834b282192b;pou_8b59912d1bbb69bb;pou_27b4d20e7c7ac7d5;pou_4133f187967f5838;pou_8bace32bc1f73b62;pou_62aea05f9524b075;pou_0963a07bb6a78007;pou_f0bb66b153086367;pou_58afd0edccf4c2da;pou_1ecf47bb3350dc70;pou_99b317a548021646;pou_551f3dc0a3c6efb8;pou_5d26374eb56f394f;pou_c9c82316f70402ca;pou_27986cbb4627f3a5;pou_95fd41a7d3234142;pou_be0532dad2510c8a;pou_6d12f2b037cdab39</t>
-  </si>
-  <si>
-    <t>pou_aa55405d559776ef</t>
-  </si>
-  <si>
-    <t>pou_5fc6007c0cec3b56</t>
-  </si>
-  <si>
-    <t>pou_9a838402b8f7bde5;pou_26385414a4af0c9e;pou_1650b719f5efb07b;pou_b56a67138fea4a43;pou_62749a3f3c671663</t>
-  </si>
-  <si>
-    <t>pou_ab11a32d29e6eaa3;pou_5fcee831d3bb0b2b;pou_f28738d643db8da6;pou_a6ec55437db66ee1;pou_b0cde5677a092256;pou_e06c963e14460977;pou_69fd451794f39fb6;pou_d8031e1c3dbeb046;pou_9bfb7a545354e028;pou_b62c2c66573e0eb1;pou_2c95a9e6cb43e61c;pou_b9fcdc7340156b6a;pou_68404dbccde2d23c;pou_926050efe189a38d;pou_5fc97e9763e5a110;pou_b772d999689aad8a;pou_3a7716c4671ca578;pou_0731c646cd18d49a;pou_82a4db8ed2826d3b;pou_beea13e7c0431210;pou_7535827663ff37a7;pou_f53687b351ed1de0;pou_ce716d89b7213256;pou_db33041c46d730dd;pou_5971bb1f23d24fd4;pou_867168c4466e833a;pou_0848932d5e083a97;pou_6f03d95c54ba56c8;pou_0e6a59adb0b8797e</t>
-  </si>
-  <si>
-    <t>pou_79f98f3de39f5fa8;pou_38751de1354842e3;pou_ae73be6642ece1ba;pou_d09ac70e8ec640de;pou_219edc6f942952ff;pou_ae0b1831e91a81a8;pou_5df1e160cff64711;pou_89dd04ebdf907815</t>
-  </si>
-  <si>
-    <t>pou_e96bba81906a11b8;pou_f322a7916558612b</t>
-  </si>
-  <si>
-    <t>pou_4f9f63382bf1d7ba</t>
-  </si>
-  <si>
-    <t>pou_41fd12077716ba45</t>
-  </si>
-  <si>
-    <t>pou_d2252c61b59981b4;pou_6937ec23f8cf92e8;pou_0e3424392894f755;pou_3901f1850d2315de;pou_9180b23b50a4714d;pou_9e8f2d6ea9aad579;pou_d3bb8966dbc7cc73;pou_18dbacbc34a8b276;pou_538ed9fae868cd25;pou_72dda3d45cf11530;pou_adc91dc46301e427;pou_ae247a48a241865a;pou_10246456b2396043;pou_e274aaab24710e5d;pou_5ae7e14d3c7f35a0</t>
-  </si>
-  <si>
-    <t>pou_d0c4c4ea87b7d7ac;pou_4505c46a063ef9ec;pou_fed3b333c54174cf;pou_8f8618f96a793584;pou_28452fcd317f8739;pou_326ec769728ed332;pou_8553662e8eb104d8</t>
-  </si>
-  <si>
-    <t>pou_ac4a3cf1c7468198</t>
-  </si>
-  <si>
-    <t>pou_b54a10ea684c581b</t>
-  </si>
-  <si>
-    <t>pou_21206953fb9fefa5</t>
-  </si>
-  <si>
-    <t>pou_72c1577b79376742</t>
-  </si>
-  <si>
-    <t>pou_831fd67d2da58b93</t>
-  </si>
-  <si>
-    <t>pou_93893c05fbb4cdfa</t>
-  </si>
-  <si>
-    <t>pou_499a89b33d7a4d51</t>
-  </si>
-  <si>
-    <t>pou_7236352f2a497386</t>
-  </si>
-  <si>
-    <t>pou_6186a0827a22e764</t>
-  </si>
-  <si>
-    <t>pou_ccdaaaf68e506d01;pou_6dcfa07b54828b82;pou_67bd227f6aa1bdb3;pou_10ed0e95200368e3;pou_1745389709e47d8c;pou_8fd8179ae524569f;pou_d41c03e3ea5bf83a;pou_865c42ca83ee9ee0;pou_7e3d07c6f906e3c5;pou_dfa8d5751ab96693;pou_e5ad233446a2302e;pou_f68a412eedb3f2b9</t>
-  </si>
-  <si>
-    <t>pou_8e330371a53bd796</t>
-  </si>
-  <si>
-    <t>pou_d93e0db0fbf6a93a;pou_4b64d6774fd16b4d</t>
-  </si>
-  <si>
-    <t>pou_18256706854ac884;pou_52149251f1dee744;pou_7e5c252cff234151;pou_93e2f694edd7fa41;pou_beab6d647269fd05;pou_dadb8dd7d974d84e</t>
-  </si>
-  <si>
-    <t>pou_05f3f107010000fa;pou_78399e921a303052;pou_d9a684f84a0b732f;pou_8f449ddf1fdc7f23;pou_74a09f05855d7067;pou_ce3dd7a22501892d;pou_4b6b5754a5c94fa2;pou_73c3bc11cc33578c;pou_ff8b17959437eec6;pou_af17cf752193a9d5;pou_36a7e1618b53f360;pou_b3b391b235b520c2;pou_dc1aaacdaeedf419;pou_f0a763a466fbffca</t>
-  </si>
-  <si>
-    <t>pou_eb5e6f58ca65ec13;pou_ab2d5652bebcde4c;pou_44d6dca8d236af7c;pou_e075a6456840856d;pou_1b207e0340dedfdd;pou_93fb9affa02ac651;pou_cab7da6b020ba689;pou_595d1b232359fa04;pou_f901a0ce400e0351;pou_5f5d7415f2d3bdba;pou_eca1a3bba16f6bfc</t>
-  </si>
-  <si>
-    <t>pou_60dff1466478f5ef</t>
-  </si>
-  <si>
-    <t>pou_f6590a8a83d34109</t>
-  </si>
-  <si>
-    <t>pou_028c944aa012093b;pou_17056e70b56750f4;pou_ddde0b64d5cebbc6;pou_fae522c0949b03c5;pou_1fb5b86e07a0eb38;pou_7e8eecc7de008eba;pou_77a6cca3ab9f650d</t>
-  </si>
-  <si>
-    <t>pou_a2a65e715ebd9963;pou_29f7ad6d333895fa;pou_45108c368e29cd95;pou_a4055e9d1f760b64;pou_491188961d448df8;pou_de495d6494687464;pou_f16058fa51eb6053;pou_a4452779b87ba987;pou_63afb9652f2132d0;pou_917facd75c96e1be;pou_aa4717ce4cbda09e;pou_594acfceec1bc143;pou_83890a3ab025c659;pou_e3928ce931dc793a;pou_1516be412cc8c47d;pou_094ae4a7a6ebb217;pou_fb3e7b7b9f5d4264;pou_c9b06c6908bd4fcb;pou_46ac0166317298a9</t>
-  </si>
-  <si>
-    <t>pou_b3a4664fb7254b70</t>
-  </si>
-  <si>
-    <t>pou_9f5603f6a0dfd589;pou_9fffaa522efefed0;pou_ca78e3ba95181096;pou_11cb77652ce5a39f;pou_afd7506f07f682fa;pou_fa38add8c6eefdd7</t>
-  </si>
-  <si>
-    <t>pou_0fa46620dff154eb</t>
-  </si>
-  <si>
-    <t>pou_a0e29302f30f5180;pou_095458d6125e44c0;pou_13313cb4ef06bc5b</t>
-  </si>
-  <si>
-    <t>pou_4addfc6d01779951</t>
-  </si>
-  <si>
-    <t>pou_37cdba0fcbd44c97;pou_23d9ed4c589a7ad2;pou_ce2ec1fb4264a2f5;pou_074c65a9ad935023;pou_81d965f76d41c98c;pou_4277cad7d26b544d</t>
-  </si>
-  <si>
-    <t>pou_800921757186ce51</t>
-  </si>
-  <si>
-    <t>pou_dafe7c69ed5a7665</t>
-  </si>
-  <si>
-    <t>pou_f9c9197f0a9a2c53</t>
-  </si>
-  <si>
-    <t>pou_be29fc0698c6fbda;pou_b72261651e6e814e;pou_224e7b3458ff42e4;pou_681f0c4870e0d214;pou_4ab704831174c869;pou_f29a0d46b6252555;pou_c7791c2c07c017b7;pou_c668219d39dd1882;pou_c12882ec705bb1b3;pou_4c6b218bfea5bbf7;pou_764a497c89e73df2;pou_aa7cc982d47b9960;pou_ad47cec01167c53d;pou_9e991c4ea5f20191;pou_f897dca395305b29;pou_6d8ce4a3ca025967;pou_cc24fe2e3252f3f5;pou_6209e3aa9414fb75;pou_9fbbdff39278d178;pou_b160e62009edf408;pou_4b2d898f47c64cea</t>
-  </si>
-  <si>
-    <t>pou_3017535a37009edd</t>
-  </si>
-  <si>
-    <t>pou_0095a15872fa9de3</t>
-  </si>
-  <si>
-    <t>pou_2225f2c63b8e9476</t>
-  </si>
-  <si>
-    <t>pou_d17c7e784f8c7b9b;pou_7e56f0ab3bfd0b21;pou_3d8ccc6fa7d628b4;pou_3fe08ca6acaae3d8;pou_6f9ad5d4a4244128;pou_e32869d45e46a3e0;pou_d09feff8671a055d;pou_afe99d986af2aaf0;pou_08cfa81dff575806;pou_568238b8197d2458;pou_99ce9b1b02451201;pou_f5dd79e814bbdc40;pou_c24af056ff503b52;pou_8cfaca752141b920;pou_0c95ef1db55a174e</t>
-  </si>
-  <si>
-    <t>pou_893e6967dfbb7c24</t>
-  </si>
-  <si>
-    <t>pou_78a67d0654370ec9</t>
-  </si>
-  <si>
-    <t>pou_e92d5dd8ac1dee0c</t>
-  </si>
-  <si>
-    <t>pou_b15bb719c022a88d</t>
-  </si>
-  <si>
-    <t>pou_d3ab831f718693d3</t>
-  </si>
-  <si>
-    <t>pou_47dcedf6d8dbd9e9</t>
-  </si>
-  <si>
-    <t>pou_10679746d8bfac99</t>
-  </si>
-  <si>
-    <t>pou_7d1bb4457c3c72f3</t>
-  </si>
-  <si>
-    <t>pou_e720c875db0fad8f</t>
-  </si>
-  <si>
-    <t>pou_23fab60103dc93e1</t>
-  </si>
-  <si>
-    <t>pou_ba6fe83c55c18d08</t>
-  </si>
-  <si>
-    <t>pou_078ece639cbcf9a1;pou_04780914073f982a</t>
-  </si>
-  <si>
-    <t>pou_6d438a02668dc906</t>
-  </si>
-  <si>
-    <t>pou_98f58b0f7cc5c38a</t>
-  </si>
-  <si>
-    <t>pou_670a1523140cce15</t>
-  </si>
-  <si>
-    <t>pou_73dc55934abe8579</t>
-  </si>
-  <si>
-    <t>pou_a3bfe3578778de55</t>
-  </si>
-  <si>
-    <t>pou_3bf4965df8b797dd</t>
-  </si>
-  <si>
-    <t>pou_dc1fc85c9bb08fc4</t>
-  </si>
-  <si>
-    <t>pou_df27db82cb9a336c</t>
-  </si>
-  <si>
-    <t>pou_b00aec1474cac6b6</t>
-  </si>
-  <si>
-    <t>pou_11437f5f149f5cb1</t>
-  </si>
-  <si>
-    <t>pou_bef628920d8099de</t>
-  </si>
-  <si>
-    <t>pou_538392e5fd6d4a04</t>
-  </si>
-  <si>
-    <t>pou_f9d956c55075175d</t>
-  </si>
-  <si>
-    <t>pou_e1becf9b7937a5f4</t>
-  </si>
-  <si>
-    <t>pou_dbd23ef6f0520f12</t>
-  </si>
-  <si>
-    <t>pou_ed71fb7c290f6461</t>
-  </si>
-  <si>
-    <t>pou_6faa9441bd344750</t>
-  </si>
-  <si>
-    <t>pou_41943f828a1b9d0b</t>
-  </si>
-  <si>
-    <t>pou_23b11181bb21034a</t>
-  </si>
-  <si>
-    <t>pou_739debb6c9e2a748</t>
-  </si>
-  <si>
-    <t>pou_1ae79634692c66db</t>
-  </si>
-  <si>
-    <t>pou_69dbd036e3687ad6</t>
-  </si>
-  <si>
-    <t>pou_193964122aa68294</t>
-  </si>
-  <si>
-    <t>pou_59f6e782c41cb94e</t>
-  </si>
-  <si>
-    <t>pou_8e48ca556c52c54f</t>
-  </si>
-  <si>
-    <t>pou_0410da2ed9cb4687</t>
-  </si>
-  <si>
-    <t>pou_28e2847c176a4b91</t>
-  </si>
-  <si>
-    <t>pou_a10959a3487fc4f2</t>
-  </si>
-  <si>
-    <t>pou_b71c81ed58ce332f</t>
-  </si>
-  <si>
-    <t>pou_50252f385c0f1647</t>
-  </si>
-  <si>
-    <t>pou_7ae61b994bed5062</t>
-  </si>
-  <si>
-    <t>pou_7ff38791429082ed</t>
-  </si>
-  <si>
-    <t>pou_d4f49cab55ae027b</t>
-  </si>
-  <si>
-    <t>pou_99be62a5b65bf64a</t>
-  </si>
-  <si>
-    <t>pou_ce07bd67f088c7a7</t>
-  </si>
-  <si>
-    <t>pou_79affb553c7fb6de</t>
-  </si>
-  <si>
-    <t>pou_bbb6ecb033326b8c</t>
-  </si>
-  <si>
-    <t>pou_08723caee6efe86b</t>
-  </si>
-  <si>
-    <t>pou_6ea4414173c62526</t>
-  </si>
-  <si>
-    <t>pou_6aab72087672e704</t>
-  </si>
-  <si>
-    <t>pou_ff37cc3d36f032f8</t>
-  </si>
-  <si>
-    <t>pou_2a5bd8e7fb46aeac</t>
-  </si>
-  <si>
-    <t>pou_1106c4cff33cc1eb</t>
-  </si>
-  <si>
-    <t>pou_908a456a878b5688</t>
-  </si>
-  <si>
-    <t>pou_7eb3fa73ed73617a</t>
-  </si>
-  <si>
-    <t>pou_92ccbe2a3682ec0e</t>
-  </si>
-  <si>
-    <t>pou_12b1d1bf88de56dc</t>
-  </si>
-  <si>
-    <t>pou_1d18c13a9bf8b069</t>
-  </si>
-  <si>
-    <t>pou_dce413f0b620ba00</t>
-  </si>
-  <si>
-    <t>pou_e405f5af9a1851d5</t>
-  </si>
-  <si>
-    <t>pou_f6e4e433a04e5014</t>
-  </si>
-  <si>
-    <t>pou_7fdd4a4e18c4ae5c</t>
-  </si>
-  <si>
-    <t>pou_487563b1177cf2c6</t>
-  </si>
-  <si>
-    <t>pou_970da51997b9c927</t>
-  </si>
-  <si>
-    <t>pou_f881164ffd2d0cf9</t>
-  </si>
-  <si>
-    <t>pou_47ffbea4d1b117cd</t>
-  </si>
-  <si>
-    <t>pou_714583128191c0b1</t>
-  </si>
-  <si>
-    <t>pou_869efee8e1f75570</t>
-  </si>
-  <si>
-    <t>pou_3439d2ef42cbf202</t>
-  </si>
-  <si>
-    <t>pou_46e3f1a1d47e557a</t>
-  </si>
-  <si>
-    <t>pou_665f322301454f61</t>
-  </si>
-  <si>
-    <t>pou_59fc5c16ce8c61d1</t>
-  </si>
-  <si>
-    <t>pou_9691f7fcea922c52</t>
-  </si>
-  <si>
-    <t>pou_61fdc811c75b2a7f</t>
-  </si>
-  <si>
-    <t>pou_b0b4f9e306ed6a32</t>
-  </si>
-  <si>
-    <t>pou_fb8311b1b70037c4</t>
-  </si>
-  <si>
-    <t>pou_587e7a87f200b86f</t>
-  </si>
-  <si>
-    <t>pou_1b7c616013342080</t>
-  </si>
-  <si>
-    <t>pou_4c57268506c65152</t>
-  </si>
-  <si>
-    <t>pou_dd909426041cc8e6</t>
-  </si>
-  <si>
-    <t>pou_606ad5f9b5b2ffbf</t>
-  </si>
-  <si>
-    <t>pou_effaa5d881a39c02</t>
-  </si>
-  <si>
-    <t>pou_b1d85f0595460585</t>
-  </si>
-  <si>
-    <t>pou_b3ba39a08f44c897</t>
-  </si>
-  <si>
-    <t>pou_1edac1cac816d682</t>
-  </si>
-  <si>
-    <t>pou_899557706b3d76ba</t>
-  </si>
-  <si>
-    <t>pou_91c4c543abb308ac</t>
-  </si>
-  <si>
-    <t>pou_fd0b054e20b957d9</t>
-  </si>
-  <si>
-    <t>pou_8d74ff17699cbf85</t>
-  </si>
-  <si>
-    <t>pou_990d006f1eb2e2df</t>
-  </si>
-  <si>
-    <t>pou_ba1a40fc266bd9b6</t>
-  </si>
-  <si>
-    <t>pou_6ac606b0193c08c8</t>
-  </si>
-  <si>
-    <t>pou_c962f566dac00edd</t>
-  </si>
-  <si>
-    <t>pou_1c0b44193fedaa4f</t>
-  </si>
-  <si>
-    <t>pou_341c8d0a36f7eb6c</t>
-  </si>
-  <si>
-    <t>pou_177b241f942e4d53</t>
-  </si>
-  <si>
-    <t>pou_9ed25de33910ef3c</t>
-  </si>
-  <si>
-    <t>pou_4d23bf077c07cd91</t>
-  </si>
-  <si>
-    <t>pou_13eaf8fa35087b42</t>
-  </si>
-  <si>
-    <t>pou_687217d72a602958</t>
-  </si>
-  <si>
-    <t>pou_cb11cc106500e6de</t>
-  </si>
-  <si>
-    <t>pou_09e6738b626df150</t>
-  </si>
-  <si>
-    <t>pou_30c0f35c7f387ee4</t>
-  </si>
-  <si>
-    <t>pou_418b31f41938df41</t>
-  </si>
-  <si>
-    <t>pou_d40468e7b9d9f17e</t>
-  </si>
-  <si>
-    <t>pou_073c8f0fb2c22cfe</t>
-  </si>
-  <si>
-    <t>pou_df5178c59f51aedf</t>
-  </si>
-  <si>
-    <t>pou_85fd3a99cc3cb87d</t>
-  </si>
-  <si>
-    <t>pou_03ad0da5b05246af</t>
-  </si>
-  <si>
-    <t>pou_214441a93b3957fc</t>
-  </si>
-  <si>
-    <t>pou_ec0d619c0a468afe</t>
-  </si>
-  <si>
-    <t>pou_a5750d7201bbcabd</t>
-  </si>
-  <si>
-    <t>pou_747c8a79ed21c00c</t>
-  </si>
-  <si>
-    <t>pou_8c1c1714e0f66b77</t>
-  </si>
-  <si>
-    <t>pou_fc9a38f45cbbfaf6</t>
-  </si>
-  <si>
-    <t>pou_411f1283373e1bab</t>
-  </si>
-  <si>
-    <t>pou_4554a07eee5e1435</t>
-  </si>
-  <si>
-    <t>pou_8822e09cd2ec39ec</t>
-  </si>
-  <si>
-    <t>pou_e892bed77e67aa01</t>
-  </si>
-  <si>
-    <t>pou_1fcccf0a896a6f68</t>
-  </si>
-  <si>
-    <t>pou_6869a16a3fcddefa</t>
-  </si>
-  <si>
-    <t>pou_bd0ed5dd0ffaed8d</t>
-  </si>
-  <si>
-    <t>pou_5341d34eea8b9c6f</t>
-  </si>
-  <si>
-    <t>pou_38809c7a10e214c6</t>
-  </si>
-  <si>
-    <t>pou_3b33f475edbb14af</t>
-  </si>
-  <si>
-    <t>pou_1650ca6e816d7a4c</t>
-  </si>
-  <si>
-    <t>pou_32836cba5f5ada1e</t>
-  </si>
-  <si>
-    <t>pou_ceddd40f8a215345</t>
-  </si>
-  <si>
-    <t>pou_0bacbb57862347c1</t>
-  </si>
-  <si>
-    <t>pou_ebf59644e3441235</t>
-  </si>
-  <si>
-    <t>pou_70d8fbe986b0386a</t>
-  </si>
-  <si>
-    <t>pou_13f44f318112fe34</t>
-  </si>
-  <si>
-    <t>pou_a20c85ae776ba32e</t>
-  </si>
-  <si>
-    <t>pou_760d997485f31ecd</t>
-  </si>
-  <si>
-    <t>pou_c6a38552004524d9</t>
-  </si>
-  <si>
-    <t>pou_43e15fb74be89e1c</t>
-  </si>
-  <si>
-    <t>pou_91c672bfc7781edb</t>
-  </si>
-  <si>
-    <t>pou_7572feb99811c363</t>
-  </si>
-  <si>
-    <t>pou_708b97fb847bac88</t>
-  </si>
-  <si>
-    <t>pou_e14f079bb284d443</t>
-  </si>
-  <si>
-    <t>pou_7a3b7713fb3a448d</t>
-  </si>
-  <si>
-    <t>pou_979a93ecc3e0d7d4</t>
-  </si>
-  <si>
-    <t>pou_a9d1632535c8ad87</t>
-  </si>
-  <si>
-    <t>pou_c954a2f172787b13</t>
-  </si>
-  <si>
-    <t>pou_3ad1b00cc6cf05f6</t>
-  </si>
-  <si>
-    <t>pou_918070c4fa402775</t>
-  </si>
-  <si>
-    <t>pou_7c12122f8fb09210</t>
-  </si>
-  <si>
-    <t>pou_f31c53956f2a0534</t>
-  </si>
-  <si>
-    <t>pou_8ffd9927fc45338d</t>
-  </si>
-  <si>
-    <t>pou_ed4c9a8c66ed1828</t>
-  </si>
-  <si>
-    <t>pou_4fb00ab0066e351b</t>
-  </si>
-  <si>
-    <t>pou_ecf987964af69281</t>
-  </si>
-  <si>
-    <t>pou_1157e7123dc2f8ae</t>
-  </si>
-  <si>
-    <t>pou_0b8ba6b0cd08ec70</t>
-  </si>
-  <si>
-    <t>pou_6a59653df839264a</t>
-  </si>
-  <si>
-    <t>pou_b6f41adf4ebfcfe6</t>
-  </si>
-  <si>
-    <t>pou_31bdde4d4a226088</t>
-  </si>
-  <si>
-    <t>pou_c5c3b6b511fe7923</t>
-  </si>
-  <si>
-    <t>pou_541726d87f2ac7c2</t>
-  </si>
-  <si>
-    <t>pou_fd04ed83936d04c5</t>
-  </si>
-  <si>
-    <t>pou_918149fa2f020c08</t>
-  </si>
-  <si>
-    <t>pou_f643f794bc5c8a7b</t>
-  </si>
-  <si>
-    <t>pou_e298cace5db6abbe</t>
-  </si>
-  <si>
-    <t>pou_43870d0d9b2a5f7c</t>
-  </si>
-  <si>
-    <t>pou_9a63dfaee626c036</t>
-  </si>
-  <si>
-    <t>pou_ef40d92548cb342c</t>
-  </si>
-  <si>
-    <t>pou_999490a237965f42</t>
-  </si>
-  <si>
-    <t>pou_b7583515dd45c105</t>
-  </si>
-  <si>
-    <t>pou_4501a21189a67296</t>
-  </si>
-  <si>
-    <t>pou_d8da82a0ccb57427</t>
-  </si>
-  <si>
-    <t>pou_ce5d78f4ec755e28</t>
-  </si>
-  <si>
-    <t>pou_f8a18707b453fd3b</t>
-  </si>
-  <si>
-    <t>pou_203ba004c923f949</t>
-  </si>
-  <si>
-    <t>pou_9aac9667cb88d0fd</t>
-  </si>
-  <si>
-    <t>pou_36e23ec156f693af</t>
-  </si>
-  <si>
-    <t>pou_8fd397cac86ec40f</t>
-  </si>
-  <si>
-    <t>pou_d8da7d86fd84fbf6</t>
-  </si>
-  <si>
-    <t>pou_1fbf4a72fc06be98</t>
-  </si>
-  <si>
-    <t>pou_4ba20e0eb1919156</t>
-  </si>
-  <si>
-    <t>pou_d50471a72744ecb6</t>
-  </si>
-  <si>
-    <t>pou_6b78162f58f0a554</t>
-  </si>
-  <si>
-    <t>pou_c249568cb5e73781</t>
-  </si>
-  <si>
-    <t>pou_cb29e7bfb1823af0</t>
-  </si>
-  <si>
-    <t>pou_ecc5eeaab7800425</t>
-  </si>
-  <si>
-    <t>pou_02990047044da357</t>
-  </si>
-  <si>
-    <t>pou_30a1b07f6a7055a7</t>
-  </si>
-  <si>
-    <t>pou_05b33c9f55317da4</t>
-  </si>
-  <si>
-    <t>pou_776aa11ad0901390</t>
-  </si>
-  <si>
-    <t>pou_8b103502d6d2c5b6</t>
-  </si>
-  <si>
-    <t>pou_9bb4639b457b77b5</t>
-  </si>
-  <si>
-    <t>pou_5ec525e17e96fff1</t>
-  </si>
-  <si>
-    <t>pou_0401728fd7c3751e</t>
-  </si>
-  <si>
-    <t>pou_4bbdbfce9cbfac9d</t>
-  </si>
-  <si>
-    <t>pou_c2d34cbf58ec427c</t>
-  </si>
-  <si>
-    <t>pou_a6ebf9b249207a25</t>
-  </si>
-  <si>
-    <t>pou_8bec9b2f4d59060c</t>
-  </si>
-  <si>
-    <t>pou_049dccbccf71bbb2</t>
-  </si>
-  <si>
-    <t>pou_ca5f2b490f9a4ecc</t>
-  </si>
-  <si>
-    <t>pou_6bd0f718fb769d0f</t>
-  </si>
-  <si>
-    <t>pou_87e666e9fd68904f</t>
-  </si>
-  <si>
-    <t>pou_be8e298ec5606daa</t>
-  </si>
-  <si>
-    <t>pou_fdbbb36c92825236</t>
-  </si>
-  <si>
-    <t>pou_e62e9b2d8ed69443</t>
-  </si>
-  <si>
-    <t>pou_7d357202fdb0c718</t>
-  </si>
-  <si>
-    <t>pou_16aab80c9768d499</t>
-  </si>
-  <si>
-    <t>pou_c26ca9fd2e18389b</t>
-  </si>
-  <si>
-    <t>pou_227119629a6287f7</t>
-  </si>
-  <si>
-    <t>pou_8fae9fd8f09b4bdd</t>
-  </si>
-  <si>
-    <t>pou_e13114292f993daf</t>
-  </si>
-  <si>
-    <t>pou_4c19ab33051280b8</t>
-  </si>
-  <si>
-    <t>pou_83a88cc6c22ddfdb</t>
-  </si>
-  <si>
-    <t>pou_55b918be47e0f518</t>
-  </si>
-  <si>
-    <t>pou_db50e3ef93586f11</t>
-  </si>
-  <si>
-    <t>pou_0fdf2b615f099f47</t>
-  </si>
-  <si>
-    <t>pou_f2fb291cc959f705</t>
-  </si>
-  <si>
-    <t>pou_7e35d2c863f4b70a</t>
-  </si>
-  <si>
-    <t>pou_1c15c137fcc519c5</t>
-  </si>
-  <si>
-    <t>pou_d552e7e1f43dc139</t>
-  </si>
-  <si>
-    <t>pou_0ca0b4673cfc115e</t>
-  </si>
-  <si>
-    <t>pou_a1241966cf72ecfa</t>
-  </si>
-  <si>
-    <t>pou_c8b63106e76835a1</t>
-  </si>
-  <si>
-    <t>pou_926ef1330b845517</t>
-  </si>
-  <si>
-    <t>pou_d70695451af625d4</t>
-  </si>
-  <si>
-    <t>pou_00f3f1f5871ceee7</t>
-  </si>
-  <si>
-    <t>pou_8bc860079f8f44d0;pou_4418fc569525b584</t>
-  </si>
-  <si>
-    <t>pou_0fe9e748d5503c72;pou_0286b56d29f4b8f8;pou_103f0bc9af1360a7;pou_4d91ef9e3915d8fc;pou_f5b7c43d8c8fc414;pou_ee586a24810fc466;pou_a7fd8659639dba85;pou_e56b2a2f544d16d3;pou_8d1e895099a6f9c9;pou_607a106aeb23da13;pou_b91032c204d90ba7;pou_cc7e69902f1f7a0f</t>
-  </si>
-  <si>
-    <t>pou_f2c82ed8ce770129</t>
-  </si>
-  <si>
-    <t>pou_d3326d7e110cb73c</t>
-  </si>
-  <si>
-    <t>pou_fd93e17a695e9f7c</t>
-  </si>
-  <si>
-    <t>pou_214781e4cbe7e473</t>
-  </si>
-  <si>
-    <t>pou_ed60111a48b1856f</t>
-  </si>
-  <si>
-    <t>pou_e4574329c278c836</t>
-  </si>
-  <si>
-    <t>pou_8dce89547aec4343</t>
-  </si>
-  <si>
-    <t>pou_52cd39ac797603da</t>
-  </si>
-  <si>
-    <t>pou_a8d47ac863e53e20</t>
-  </si>
-  <si>
-    <t>pou_9d4306fe5a9969ac</t>
-  </si>
-  <si>
-    <t>pou_5c8022a2817fc111</t>
-  </si>
-  <si>
-    <t>pou_c31a781906792ccf</t>
-  </si>
-  <si>
-    <t>pou_6969255589a0180f</t>
-  </si>
-  <si>
-    <t>pou_dcbc55e946d02507</t>
-  </si>
-  <si>
-    <t>pou_4c432a868379c35e</t>
-  </si>
-  <si>
-    <t>pou_a192a6952a93ff76</t>
-  </si>
-  <si>
-    <t>pou_2d8ff029dae08602</t>
-  </si>
-  <si>
-    <t>pou_9181f3c485f860f8</t>
-  </si>
-  <si>
-    <t>pou_4c86bf114dd9123c</t>
-  </si>
-  <si>
-    <t>pou_4814a5cba5e4ea7f</t>
-  </si>
-  <si>
-    <t>pou_ccb340a3dc422f47</t>
-  </si>
-  <si>
-    <t>pou_c1e7a13b0e9c3b01</t>
-  </si>
-  <si>
-    <t>pou_73cbcda58d69de89</t>
-  </si>
-  <si>
-    <t>pou_7476211cc1e933e2</t>
-  </si>
-  <si>
-    <t>pou_0e7f5937046d5235</t>
-  </si>
-  <si>
-    <t>pou_4860915301e2e0be</t>
-  </si>
-  <si>
-    <t>pou_4604ee7add548cec</t>
-  </si>
-  <si>
-    <t>pou_9c1cbcdd8357ec95</t>
-  </si>
-  <si>
-    <t>pou_ce82742912d76f55</t>
-  </si>
-  <si>
-    <t>pou_ee6f5fbb79c693d4</t>
-  </si>
-  <si>
-    <t>pou_af9c25c3e7a0d625</t>
-  </si>
-  <si>
-    <t>pou_3e0f6c3d4fdf607c</t>
-  </si>
-  <si>
-    <t>pou_534d0d93a4cbfe23</t>
-  </si>
-  <si>
-    <t>pou_6f2466a6f8e57743</t>
-  </si>
-  <si>
-    <t>pou_586c489edb3b5c80</t>
-  </si>
-  <si>
-    <t>pou_de301b4ecf862948</t>
-  </si>
-  <si>
-    <t>pou_f8d4ee3d75b0fd98</t>
-  </si>
-  <si>
-    <t>pou_84f2faf7e88b4b7c</t>
-  </si>
-  <si>
-    <t>pou_dbed1294a91a09e6</t>
-  </si>
-  <si>
-    <t>pou_001adb9ab341afe4</t>
-  </si>
-  <si>
-    <t>pou_536dc01df156efbc</t>
-  </si>
-  <si>
-    <t>pou_e8b2d87d9361eaf7</t>
+    <t>pou_27e54b3d27e557c7</t>
+  </si>
+  <si>
+    <t>pou_80b669f99b483fd4</t>
+  </si>
+  <si>
+    <t>pou_e879297c6b479255;pou_84c5cec8cd154ec4</t>
+  </si>
+  <si>
+    <t>pou_2e56f190f68b8364</t>
+  </si>
+  <si>
+    <t>pou_2df458adb54f9c23</t>
+  </si>
+  <si>
+    <t>pou_21dedd43d7ebc959</t>
+  </si>
+  <si>
+    <t>pou_4d5ee45c02635efb</t>
+  </si>
+  <si>
+    <t>pou_8da13b897917ba52</t>
+  </si>
+  <si>
+    <t>pou_765e700a7cb58c93</t>
+  </si>
+  <si>
+    <t>pou_7cf0dcc0dcff06b2</t>
+  </si>
+  <si>
+    <t>pou_c9e729f168bf06d0</t>
+  </si>
+  <si>
+    <t>pou_487e6cec70498df8</t>
+  </si>
+  <si>
+    <t>pou_cb504e04d146bb45</t>
+  </si>
+  <si>
+    <t>pou_72237b852a8344a7</t>
+  </si>
+  <si>
+    <t>pou_1b58b05130c7e38c;pou_0aedded10e7bb90c</t>
+  </si>
+  <si>
+    <t>pou_819e3e39071bae23</t>
+  </si>
+  <si>
+    <t>pou_de2a2b64fdc29df7</t>
+  </si>
+  <si>
+    <t>pou_e35051b773cbf291;pou_d3051ae1c25dde96</t>
+  </si>
+  <si>
+    <t>pou_50d11be223c93e5a</t>
+  </si>
+  <si>
+    <t>pou_4199f6a8b0ca1fba</t>
+  </si>
+  <si>
+    <t>pou_4a64bb57fdc6e34d</t>
+  </si>
+  <si>
+    <t>pou_f58895f5bb32e0d2</t>
+  </si>
+  <si>
+    <t>pou_20fedabb474897cd;pou_84a67c7931acb5cb</t>
+  </si>
+  <si>
+    <t>pou_82f450a0643ffd7d;pou_aa97bf28dc071c54</t>
+  </si>
+  <si>
+    <t>pou_b0278210a8bad108</t>
+  </si>
+  <si>
+    <t>pou_4a7a08a7775ba273</t>
+  </si>
+  <si>
+    <t>pou_785fef8738ea5368</t>
+  </si>
+  <si>
+    <t>pou_bad93249d1651cc8;pou_e6fd125b47ad8fbd;pou_176d6e0a77516b8d;pou_d1f2e77a01724b56;pou_0a853bcdfa1aa8e2;pou_1cb655f5bd8def87;pou_895748e63739cc70;pou_52d58d64891a5bc0;pou_2a998686ebc46991</t>
+  </si>
+  <si>
+    <t>pou_7dff4826c9e3a5c6</t>
+  </si>
+  <si>
+    <t>pou_80990ccb204c0b76</t>
+  </si>
+  <si>
+    <t>pou_7ddd015a8aaec4e6</t>
+  </si>
+  <si>
+    <t>pou_60f110d77494741f</t>
+  </si>
+  <si>
+    <t>pou_34986cff0026bd83</t>
+  </si>
+  <si>
+    <t>pou_3f650ed656efb01e</t>
+  </si>
+  <si>
+    <t>pou_b10fe7473d497cc0;pou_562ae979396b949a</t>
+  </si>
+  <si>
+    <t>pou_c204502031440747</t>
+  </si>
+  <si>
+    <t>pou_6af5d4a629997808</t>
+  </si>
+  <si>
+    <t>pou_1500be9ada15ee5c</t>
+  </si>
+  <si>
+    <t>pou_0dcf019e3ea0ca5f;pou_cf73a1a9ecdbbc2d</t>
+  </si>
+  <si>
+    <t>pou_862508291671cea4</t>
+  </si>
+  <si>
+    <t>pou_4f6c9f455d73352b</t>
+  </si>
+  <si>
+    <t>pou_a31a9ecea5a43464</t>
+  </si>
+  <si>
+    <t>pou_88fd224cf173a965</t>
+  </si>
+  <si>
+    <t>pou_16d8f93be1eff9cc</t>
+  </si>
+  <si>
+    <t>pou_d3f566b2dbe31844</t>
+  </si>
+  <si>
+    <t>pou_2b372ed515f1d773;pou_d369af8a57b40ef6</t>
+  </si>
+  <si>
+    <t>pou_8b0c30397f20cc69</t>
+  </si>
+  <si>
+    <t>pou_4c58f4184d367818</t>
+  </si>
+  <si>
+    <t>pou_efb51e5d7fe0e4c0</t>
+  </si>
+  <si>
+    <t>pou_9a1bac13ac15ea35</t>
+  </si>
+  <si>
+    <t>pou_e051501a0df5b114</t>
+  </si>
+  <si>
+    <t>pou_0cab916ab030c2ba</t>
+  </si>
+  <si>
+    <t>pou_265d490606850910</t>
+  </si>
+  <si>
+    <t>pou_d5fe2a3c99eed7b2</t>
+  </si>
+  <si>
+    <t>pou_31a6654672744768</t>
+  </si>
+  <si>
+    <t>pou_0f8177bba67704c1</t>
+  </si>
+  <si>
+    <t>pou_5f86856ec3b4a442</t>
+  </si>
+  <si>
+    <t>pou_21c94d19fbbde275</t>
+  </si>
+  <si>
+    <t>pou_19cf35344af9e1bd</t>
+  </si>
+  <si>
+    <t>pou_fbd745fe9a06a3a1</t>
+  </si>
+  <si>
+    <t>pou_0a194e34665f467c</t>
+  </si>
+  <si>
+    <t>pou_b822ccebc3a60fe2</t>
+  </si>
+  <si>
+    <t>pou_144408adc1908447</t>
+  </si>
+  <si>
+    <t>pou_3b69c12dfc871fc0</t>
+  </si>
+  <si>
+    <t>pou_f5035793cec413c6</t>
+  </si>
+  <si>
+    <t>pou_79f85b5096b8d1ce</t>
+  </si>
+  <si>
+    <t>pou_58a3c4e95da1fab9</t>
+  </si>
+  <si>
+    <t>pou_a0e305ad0c9bb7bc</t>
+  </si>
+  <si>
+    <t>pou_15f68679574eb452</t>
+  </si>
+  <si>
+    <t>pou_bc86ccfdb54a261f</t>
+  </si>
+  <si>
+    <t>pou_49a6343040f68517</t>
+  </si>
+  <si>
+    <t>pou_47a83a3f02791c12</t>
+  </si>
+  <si>
+    <t>pou_2c40af0741e7177f</t>
+  </si>
+  <si>
+    <t>pou_a6ebe6a6d36c7643</t>
+  </si>
+  <si>
+    <t>pou_abee8124cb8d05f9</t>
+  </si>
+  <si>
+    <t>pou_24e706d199c46d53</t>
+  </si>
+  <si>
+    <t>pou_dd1489858bf16518</t>
+  </si>
+  <si>
+    <t>pou_62a7b2be171f5bb7</t>
+  </si>
+  <si>
+    <t>pou_52780f0b4eac8a8c</t>
+  </si>
+  <si>
+    <t>pou_87d33827c4558b89</t>
+  </si>
+  <si>
+    <t>pou_f1f7e16a953ed9ad</t>
+  </si>
+  <si>
+    <t>pou_ffd78560ca3a67fd</t>
+  </si>
+  <si>
+    <t>pou_cc170eccee7db1e7</t>
+  </si>
+  <si>
+    <t>pou_655da86841ffdcec</t>
+  </si>
+  <si>
+    <t>pou_84a44aad4b8d36b1</t>
+  </si>
+  <si>
+    <t>pou_2818b8534ea734c2</t>
+  </si>
+  <si>
+    <t>pou_1d9b812b7b84b794</t>
+  </si>
+  <si>
+    <t>pou_f738f37d971168a5</t>
+  </si>
+  <si>
+    <t>pou_7f63b46e80273978</t>
+  </si>
+  <si>
+    <t>pou_74f0967db3dd7262</t>
+  </si>
+  <si>
+    <t>pou_51b6b1f049b19f59</t>
+  </si>
+  <si>
+    <t>pou_b5ac16ca44c39e97</t>
+  </si>
+  <si>
+    <t>pou_cf5e204fba8c7958</t>
+  </si>
+  <si>
+    <t>pou_4d04912b9059d8f3</t>
+  </si>
+  <si>
+    <t>pou_71e10fe2f843ffc8</t>
+  </si>
+  <si>
+    <t>pou_e4a4e4fdf391b3dc</t>
+  </si>
+  <si>
+    <t>pou_1fc1215c694a2f25</t>
+  </si>
+  <si>
+    <t>pou_ec5296f2d229539e</t>
+  </si>
+  <si>
+    <t>pou_91fc8869f78da456</t>
+  </si>
+  <si>
+    <t>pou_dff7d224c7e6185d</t>
+  </si>
+  <si>
+    <t>pou_0112314d382cc9ea</t>
+  </si>
+  <si>
+    <t>pou_e3acb526538a5d6b</t>
+  </si>
+  <si>
+    <t>pou_7c2454d0eb67670e</t>
+  </si>
+  <si>
+    <t>pou_6aba7b287e4b5c8e</t>
+  </si>
+  <si>
+    <t>pou_cbc32964f31ddea8</t>
+  </si>
+  <si>
+    <t>pou_fe85e7692e7e7473</t>
+  </si>
+  <si>
+    <t>pou_1a1fa54f97c88b2e</t>
+  </si>
+  <si>
+    <t>pou_9aefe71654e5f659</t>
+  </si>
+  <si>
+    <t>pou_bf8941da1aa7f051</t>
+  </si>
+  <si>
+    <t>pou_10b3294a24baeb83</t>
+  </si>
+  <si>
+    <t>pou_1b4af9ead74678d3</t>
+  </si>
+  <si>
+    <t>pou_cd87e789b0d58647</t>
+  </si>
+  <si>
+    <t>pou_92534e2f234f544f</t>
+  </si>
+  <si>
+    <t>pou_395d495b9985a891</t>
+  </si>
+  <si>
+    <t>pou_5a942921d4da49ff</t>
+  </si>
+  <si>
+    <t>pou_d2afb1cb32648a79</t>
+  </si>
+  <si>
+    <t>pou_2818576caf5a68d3</t>
+  </si>
+  <si>
+    <t>pou_14a52295dbba80a1</t>
+  </si>
+  <si>
+    <t>pou_6fea36a3935594c8</t>
+  </si>
+  <si>
+    <t>pou_4543dc007dbf1c7d</t>
+  </si>
+  <si>
+    <t>pou_f030a20a70d7a1e5</t>
+  </si>
+  <si>
+    <t>pou_bf8811c4909ead92</t>
+  </si>
+  <si>
+    <t>pou_6f2039ca4ef18916</t>
+  </si>
+  <si>
+    <t>pou_ecdc6c7950c443d2</t>
+  </si>
+  <si>
+    <t>pou_f70182bc312067bc</t>
+  </si>
+  <si>
+    <t>pou_c7707b8065af616d;pou_477af08c3a345325;pou_8392dc5bf58e485b</t>
+  </si>
+  <si>
+    <t>pou_779e5a06c1ac09d7</t>
+  </si>
+  <si>
+    <t>pou_5b0f9e4f5595d763</t>
+  </si>
+  <si>
+    <t>pou_ef9a0f76ce129ff0</t>
+  </si>
+  <si>
+    <t>pou_9690bb159d4b3fc3;pou_fbd24a8e918fc5cc</t>
+  </si>
+  <si>
+    <t>pou_de3b6ac2016cdf33</t>
+  </si>
+  <si>
+    <t>pou_c51a877ac53c0b1e</t>
+  </si>
+  <si>
+    <t>pou_0313c2f1796fa4b0</t>
+  </si>
+  <si>
+    <t>pou_eef34fee886143a8</t>
+  </si>
+  <si>
+    <t>pou_6722b845b053badd</t>
+  </si>
+  <si>
+    <t>pou_d77ca4792149812a</t>
+  </si>
+  <si>
+    <t>pou_405e4963431deaf8</t>
+  </si>
+  <si>
+    <t>pou_1920ae0fde51509d</t>
+  </si>
+  <si>
+    <t>pou_eeb20d0c969788cb</t>
+  </si>
+  <si>
+    <t>pou_92339186efe2a87b</t>
+  </si>
+  <si>
+    <t>pou_1f98c7e353c135ce</t>
+  </si>
+  <si>
+    <t>pou_5f955a33d4f6b3b3</t>
+  </si>
+  <si>
+    <t>pou_0f66a5fc4ed68705</t>
+  </si>
+  <si>
+    <t>pou_329dbb699e51ade9</t>
+  </si>
+  <si>
+    <t>pou_f821696a81dc0da1</t>
+  </si>
+  <si>
+    <t>pou_697ee6e64596197f</t>
+  </si>
+  <si>
+    <t>pou_8537faeb3d8731a1</t>
+  </si>
+  <si>
+    <t>pou_86a2f89f9b7ab52a</t>
+  </si>
+  <si>
+    <t>pou_6f65fcb984c97032</t>
+  </si>
+  <si>
+    <t>pou_e93d8218e2c5dd7f</t>
+  </si>
+  <si>
+    <t>pou_aa837141efef1334;pou_0a18cc7263027953;pou_ce67a4736bd07424;pou_9a63446c64a67d6d;pou_239dacd5c79c97a9;pou_a1abb21bb7e5d6a0;pou_0ddf0b45c32770ca;pou_2619cec6b20446b1;pou_8ba8c6733b91b195;pou_d7ca5d5c27f3f836;pou_b303040acda66160</t>
+  </si>
+  <si>
+    <t>pou_ed86c1bbf5f8fcec</t>
+  </si>
+  <si>
+    <t>pou_6a454fa9d8ff40cd</t>
+  </si>
+  <si>
+    <t>pou_f2957197c881648d;pou_f2aeb5ebf20bd889</t>
+  </si>
+  <si>
+    <t>pou_cb02f006d4dd724e</t>
+  </si>
+  <si>
+    <t>pou_6a5ea162fcc3bcc1</t>
+  </si>
+  <si>
+    <t>pou_cfa3ac2b6f372441</t>
+  </si>
+  <si>
+    <t>pou_8944181fac1f886c</t>
+  </si>
+  <si>
+    <t>pou_bb75faa5559c06f6</t>
+  </si>
+  <si>
+    <t>pou_73ff5caded2cb0b2</t>
+  </si>
+  <si>
+    <t>pou_4c9730a5a15cc48a</t>
+  </si>
+  <si>
+    <t>pou_bb9769e407d093e7</t>
+  </si>
+  <si>
+    <t>pou_70c6fd11914ab085</t>
+  </si>
+  <si>
+    <t>pou_e7b741975a7dc8b0</t>
+  </si>
+  <si>
+    <t>pou_d6d4d1178680014f</t>
+  </si>
+  <si>
+    <t>pou_f3fa02efdf049d96</t>
+  </si>
+  <si>
+    <t>pou_3b57200bc342b8a3</t>
+  </si>
+  <si>
+    <t>pou_3de74af0d2eb7e10</t>
+  </si>
+  <si>
+    <t>pou_87a9f14ab3fb9896</t>
+  </si>
+  <si>
+    <t>pou_05047aa6e52fa26e</t>
+  </si>
+  <si>
+    <t>pou_6b813b02239ab1ef</t>
+  </si>
+  <si>
+    <t>pou_74f1f22d1a36f0dc</t>
+  </si>
+  <si>
+    <t>pou_43ba067534f282b1</t>
+  </si>
+  <si>
+    <t>pou_25f85ce5ab44360a</t>
+  </si>
+  <si>
+    <t>pou_849e62f8c527e39c</t>
+  </si>
+  <si>
+    <t>pou_a5bf0a75115b47b9</t>
+  </si>
+  <si>
+    <t>pou_686de46225c4d38e</t>
+  </si>
+  <si>
+    <t>pou_1712377bcce166f8</t>
+  </si>
+  <si>
+    <t>pou_f32749723b48772f</t>
+  </si>
+  <si>
+    <t>pou_cc8b182fcace7f08</t>
+  </si>
+  <si>
+    <t>pou_7845d096786b2abd</t>
+  </si>
+  <si>
+    <t>pou_74a9f57e3bf96454</t>
+  </si>
+  <si>
+    <t>pou_16ca8bc99be16ed9</t>
+  </si>
+  <si>
+    <t>pou_3c3f07927609242b</t>
+  </si>
+  <si>
+    <t>pou_56e50ba94a1cfb73</t>
+  </si>
+  <si>
+    <t>pou_ac57a6a43b93f557</t>
+  </si>
+  <si>
+    <t>pou_971e0bb096cce679</t>
+  </si>
+  <si>
+    <t>pou_22b83090123edc29</t>
+  </si>
+  <si>
+    <t>pou_b1a6b33071e8fdb3</t>
+  </si>
+  <si>
+    <t>pou_52e0a6b9aa97b16d</t>
+  </si>
+  <si>
+    <t>pou_43da38ceab5166bc</t>
+  </si>
+  <si>
+    <t>pou_073a167ef8f747ad</t>
+  </si>
+  <si>
+    <t>pou_3d2ee8eb4d24b368</t>
+  </si>
+  <si>
+    <t>pou_561b71b5a981c519</t>
+  </si>
+  <si>
+    <t>pou_0150ce123cbe965a</t>
+  </si>
+  <si>
+    <t>pou_e58d280d038ec2df</t>
+  </si>
+  <si>
+    <t>pou_fe5ec05e1dea95d3</t>
+  </si>
+  <si>
+    <t>pou_d142fc3519460808</t>
+  </si>
+  <si>
+    <t>pou_fc49bbe730bd894f</t>
+  </si>
+  <si>
+    <t>pou_d5aa28578e393cdf</t>
+  </si>
+  <si>
+    <t>pou_59667ad7b59c4044</t>
+  </si>
+  <si>
+    <t>pou_cb3777a63a00bd60</t>
+  </si>
+  <si>
+    <t>pou_154a5bda25f4493a</t>
+  </si>
+  <si>
+    <t>pou_75a6d36343539ec3</t>
+  </si>
+  <si>
+    <t>pou_07e880330b7554f9</t>
+  </si>
+  <si>
+    <t>pou_66be6e5912d668b4</t>
+  </si>
+  <si>
+    <t>pou_53da077dd658bcfb</t>
+  </si>
+  <si>
+    <t>pou_2137447295a2be81</t>
+  </si>
+  <si>
+    <t>pou_b574d1a4ddda0533</t>
+  </si>
+  <si>
+    <t>pou_843b5df8e250d350</t>
+  </si>
+  <si>
+    <t>pou_dd14618d6c597a0f</t>
+  </si>
+  <si>
+    <t>pou_fdf361c793a4c3e4</t>
+  </si>
+  <si>
+    <t>pou_f4aba5de2a2fcd31</t>
+  </si>
+  <si>
+    <t>pou_c7aa44982ab40360</t>
+  </si>
+  <si>
+    <t>pou_9a1a3d4fe77b27fc</t>
+  </si>
+  <si>
+    <t>pou_f4179a221087f817</t>
+  </si>
+  <si>
+    <t>pou_5ccaf2debb7a94c5</t>
+  </si>
+  <si>
+    <t>pou_b88f81476c891fad</t>
+  </si>
+  <si>
+    <t>pou_ae52766bafe30a90</t>
+  </si>
+  <si>
+    <t>pou_114f8ede8c933f57</t>
+  </si>
+  <si>
+    <t>pou_00cba3342fe9e34f</t>
+  </si>
+  <si>
+    <t>pou_6eef08560de0e406</t>
+  </si>
+  <si>
+    <t>pou_b1042d7fb9d6f8e7</t>
+  </si>
+  <si>
+    <t>pou_c63873ed607c5d1c</t>
+  </si>
+  <si>
+    <t>pou_c83dca4eb69d8e91</t>
+  </si>
+  <si>
+    <t>pou_ebd028ea4d7ea811</t>
+  </si>
+  <si>
+    <t>pou_c4ec8c3b316c2072</t>
+  </si>
+  <si>
+    <t>pou_7fb570b94b365b5d</t>
+  </si>
+  <si>
+    <t>pou_a366366475bd2653</t>
+  </si>
+  <si>
+    <t>pou_3d955c44c6a915b8</t>
+  </si>
+  <si>
+    <t>pou_4a18c616183ad5d5</t>
+  </si>
+  <si>
+    <t>pou_38d5b35624aec902</t>
+  </si>
+  <si>
+    <t>pou_11a675385304ee25</t>
+  </si>
+  <si>
+    <t>pou_67b83488c022a76e</t>
+  </si>
+  <si>
+    <t>pou_455a79644689ad02</t>
+  </si>
+  <si>
+    <t>pou_046763d415a4a476</t>
+  </si>
+  <si>
+    <t>pou_cf5aace11b77022e</t>
+  </si>
+  <si>
+    <t>pou_6b200e88cf0211eb</t>
+  </si>
+  <si>
+    <t>pou_3f9b82148dd2103f</t>
+  </si>
+  <si>
+    <t>pou_a3e0378591030368</t>
+  </si>
+  <si>
+    <t>pou_cd7dd13b658ff4f4</t>
+  </si>
+  <si>
+    <t>pou_68935d2272d8f9be</t>
+  </si>
+  <si>
+    <t>pou_29196dbdbd085a35</t>
+  </si>
+  <si>
+    <t>pou_b051a3894949fc66</t>
+  </si>
+  <si>
+    <t>pou_7a679e99fc940330</t>
+  </si>
+  <si>
+    <t>pou_f650e32200784ff1</t>
+  </si>
+  <si>
+    <t>pou_36b31baf2cf628bb</t>
+  </si>
+  <si>
+    <t>pou_3df6ce1d91aa13aa</t>
+  </si>
+  <si>
+    <t>pou_8dd24f4945e243f6</t>
+  </si>
+  <si>
+    <t>pou_1ea99420b8bab706</t>
+  </si>
+  <si>
+    <t>pou_a4503d975de40443</t>
+  </si>
+  <si>
+    <t>pou_e74bb4e1d58764ac</t>
+  </si>
+  <si>
+    <t>pou_974241179758b74f</t>
+  </si>
+  <si>
+    <t>pou_aee391289aa7122c</t>
+  </si>
+  <si>
+    <t>pou_4a8c756c142845e0</t>
+  </si>
+  <si>
+    <t>pou_e1f2560173373d7d</t>
+  </si>
+  <si>
+    <t>pou_16daa4902a800a0b</t>
+  </si>
+  <si>
+    <t>pou_8e8363ba6eaf3d5a</t>
+  </si>
+  <si>
+    <t>pou_467f30cb803b5f58</t>
+  </si>
+  <si>
+    <t>pou_4c4649dc43f46991</t>
+  </si>
+  <si>
+    <t>pou_d98d9181b3a5b33e</t>
+  </si>
+  <si>
+    <t>pou_5dea5e10e22023fe</t>
+  </si>
+  <si>
+    <t>pou_04db12da544b6dc6;pou_7fd68457337fa2f6</t>
+  </si>
+  <si>
+    <t>pou_6d537d072e0efda5</t>
+  </si>
+  <si>
+    <t>pou_801cd562d0eabf0e;pou_3909cc494e43fe0d;pou_c2319102ae0ba209;pou_7fcec48644a170d5;pou_731f9e70b480a1be;pou_b192cc1fc5581e8a;pou_196fa71d85c92d5c;pou_48762fb5be00eb2d;pou_b05745f92e200ef5;pou_a2a1af8f570f21b2;pou_10c8149f86496df3;pou_562fdfec5af40066</t>
+  </si>
+  <si>
+    <t>pou_8588c1c2aad55819</t>
+  </si>
+  <si>
+    <t>pou_fb558bfa891cb6a5</t>
+  </si>
+  <si>
+    <t>pou_778e228b91fc4bfb</t>
+  </si>
+  <si>
+    <t>pou_5617401d943cb37b</t>
+  </si>
+  <si>
+    <t>pou_eb7b86fd5a1f43c0</t>
+  </si>
+  <si>
+    <t>pou_987887fed388c35a</t>
+  </si>
+  <si>
+    <t>pou_d927d9c338ebcd7a</t>
+  </si>
+  <si>
+    <t>pou_4d1ed61f6829a2de</t>
+  </si>
+  <si>
+    <t>pou_073eb6bb12d73f7a</t>
+  </si>
+  <si>
+    <t>pou_d47c5682fa765f33</t>
+  </si>
+  <si>
+    <t>pou_aa64d52e481239a1;pou_bf479fe8b63e8b5b</t>
+  </si>
+  <si>
+    <t>pou_8bd6aa82225006c8</t>
+  </si>
+  <si>
+    <t>pou_e2498f1d32428e61</t>
+  </si>
+  <si>
+    <t>pou_0dc4fc63416f2b89</t>
+  </si>
+  <si>
+    <t>pou_586413d8194a6a61</t>
+  </si>
+  <si>
+    <t>pou_4959eb65d7f94f50</t>
+  </si>
+  <si>
+    <t>pou_66b318796271d4c9</t>
+  </si>
+  <si>
+    <t>pou_908d7f1f4d6b066d</t>
+  </si>
+  <si>
+    <t>pou_bf347e0f391992cc</t>
+  </si>
+  <si>
+    <t>pou_23fdfc4061f0efc7</t>
+  </si>
+  <si>
+    <t>pou_39ec7630ade9b494;pou_9d3ed2d710954bb6;pou_a775990bd43dac66;pou_013c6d4f04cd7d9f;pou_df62c585110ed0e1;pou_5f8590665bec52a5;pou_e59332370f72fb50</t>
+  </si>
+  <si>
+    <t>pou_908cf3ab37a69920;pou_df232531b9f1bf8a</t>
+  </si>
+  <si>
+    <t>pou_9724501a98a3842d</t>
+  </si>
+  <si>
+    <t>pou_0038bd3adb32a68c</t>
+  </si>
+  <si>
+    <t>pou_138fd43684ef7492</t>
+  </si>
+  <si>
+    <t>pou_75e6d18db09beeb1</t>
+  </si>
+  <si>
+    <t>pou_61f289bf097a5c7d</t>
+  </si>
+  <si>
+    <t>pou_a4dc4f57eaa1777e</t>
+  </si>
+  <si>
+    <t>pou_b0d67b521e4f34ea</t>
+  </si>
+  <si>
+    <t>pou_172601cb9547af2e</t>
+  </si>
+  <si>
+    <t>pou_e8003dd4a4a96ded</t>
+  </si>
+  <si>
+    <t>pou_13d78b92ff9c0773</t>
+  </si>
+  <si>
+    <t>pou_8a4c41e0ec6fe020</t>
+  </si>
+  <si>
+    <t>pou_3cd8dbc2ab2680ba;pou_1bdd083947213d45;pou_f8eab749094cf604;pou_117763b7589d7e15;pou_40d5896bf462e98f;pou_a10ea5a67131907b;pou_8cf80b5737791fb2;pou_f7211257452b71e6;pou_b8c210072dd2b93a</t>
+  </si>
+  <si>
+    <t>pou_9d8d7db69ba19ffb;pou_76b858c851b47633;pou_bfe6c10e15fec09d;pou_37765f05b20ca95e;pou_5d36924e6989304f;pou_b82abb9c2590b05e;pou_3aca296a14711507</t>
+  </si>
+  <si>
+    <t>pou_6c1f6f02fd1b3a8c</t>
+  </si>
+  <si>
+    <t>pou_562e90f88ede464c;pou_db5329b0035c54be;pou_2359ac4ceb6c22b7;pou_9271ccf921f0c35a</t>
+  </si>
+  <si>
+    <t>pou_cb157a774ea5dfb8;pou_8c9623b714c7d1c1;pou_11c5c0307296dc84;pou_9cc58a5da407d76e;pou_03f24202ca48db06;pou_00d0ba6f125078cf;pou_0b1aab0c1500c180;pou_780402c4cf5199c4;pou_d012a859dbeb50a4;pou_4a6f71d3ab3e6346</t>
+  </si>
+  <si>
+    <t>pou_3f0824a2a9ed4306</t>
+  </si>
+  <si>
+    <t>pou_203ce97094530a84;pou_5c0cc6504629095b;pou_30e832f5ececdfd7;pou_18932a1efe8b69e6;pou_9fdcf5ad49262012;pou_128002d344739315;pou_9a5889b2d43f593d;pou_edccc0cfd18903ac;pou_98c63f7b4670a986;pou_f53ed94da606dce1;pou_002917a1d1d08084;pou_f3fc03c90f01a25e;pou_51efa72aed0a02c8;pou_48dd3ea9b530983a;pou_2d7773ba6051c53d;pou_72ca88ceebb3b354;pou_c27477be67521174;pou_9d09e3e6f7ea2aa5;pou_2d63f3baf64ab3e4;pou_f2ac51d0f7c2e755;pou_557a38c025d39ccf;pou_e7372217d819302d;pou_779f73ee5780bf4b;pou_118f661983ccca87;pou_0f12d0795c66f6e6;pou_1b44cf3d3d04889f;pou_d55bb7fae82b4f94;pou_82bf4dcabe2cd68f;pou_f7395fba53db7444;pou_997bd8d4b26642fc;pou_5f9ba7ccfc77f2dc;pou_41b95fdf44be5881;pou_0a0509255342947e;pou_89b26c33f2652739;pou_853ce4fccdcc9abe;pou_7b75fcbcb660a61e;pou_79411a128cffbcf7;pou_251b24c50695c469;pou_7d6d40d880790d84;pou_2dfec0797c7bf759;pou_96c9dcceeaec992a;pou_3d2ebcb5c4649499;pou_87c6ef52f176192c;pou_9fad0092ba9fbcdc;pou_59fb8823e9943e1a;pou_fccd43ebe981dfe5;pou_e9335366b2d98d3f;pou_18c61145ee05df15;pou_ee50c02a1776cb41;pou_2aa3cd4570c6cd85;pou_7097a41671c2ee6b;pou_653acb07ccb60f01;pou_771f060af560a3e3;pou_8bce3075ea547d6b;pou_6d2701e211624420;pou_58f28425751e3836;pou_6738adab46447edd;pou_b2c86787bbcba84d;pou_e674cdccac4914ca;pou_dddfb6b9c76751a9;pou_b23a38d0608474fb;pou_e3263ff6194b4b92;pou_2abbeab46edbf26f;pou_52a09d1bf3448e2b;pou_5a05bdd6af081695;pou_981ad4764e702e38;pou_c50720b29350fa8d;pou_7bf78f7f02cddbbd;pou_b6c67198323039fb;pou_bc06cb463b2c4eda;pou_1965c7dca07201d4;pou_d6366727d319c7aa;pou_547e17edf2fa72d5;pou_b34cf7262be1edb6;pou_ddd698a3fe3d8cd3;pou_ef020bda2f88c4d9;pou_2b603e002fffc8f8;pou_d8aa8c74ed49be66;pou_8b59b3e4f80a4971;pou_422eeeb4a7bca294;pou_2246a552d0633580;pou_8214893ab78ed76a;pou_fc17f9b0bc26d696;pou_6e6ec6176098731b;pou_4d63dca2ed9f43c0;pou_fb4d7131d342880d;pou_6b3431c298075427;pou_53d9b17842720fea;pou_d892141d1263f6e7;pou_092cdc62424f3db3;pou_4b0066ae42f9d9de;pou_484f6ffdfd644a65;pou_527252d91cbfe467;pou_e00f3d66aaf2f898;pou_e5350e54a159ff36;pou_7134fd1eb39eb39e;pou_23f3bfd1d4c831a0;pou_e48d417cb0c63e87;pou_8745fad5bdf3f009;pou_c6f6c78205f1e036;pou_c4c64a7f9cf34ff2;pou_f4d8d3b3a8c7fa2a;pou_1f5eb9fa3dadbc60;pou_83dc98b959a7bb4c;pou_0f20e1be57bda47a;pou_a1cb7941ff5d5318;pou_f272d802304e23a0;pou_e746f07faab140de;pou_4ce9dd66723ab0b3;pou_fd467a2dfef8370e;pou_1005dd4c7015c636;pou_8aeeaa21ccf98260;pou_67b35e3c1fc11d63;pou_25cf0359a56ec4e8;pou_b6f73e104f16f77b;pou_db077a5f890600d6;pou_4d8968ac60748af2;pou_aa288505b1ba7c63;pou_f124d88414fab81d;pou_fee9f1f1614b59e2;pou_913288831784a056;pou_6e4eacc5dbe4a433;pou_0f4609dffce63767;pou_e2be45d8ce207d4f;pou_c2869b2587a69bff;pou_0fd694a684cfe6e7;pou_12977a215cc066ff;pou_e152ddfafcabea1d;pou_4b49db0ec56afb15;pou_4d1a8488b80469ab;pou_71f99dbddfc11b7e;pou_8087217341198e92;pou_7a2d632f4f9df88d;pou_a448f84f201c436d;pou_059c60d37d2d68dd;pou_e5ecb29bf843d246;pou_c9cd3ecebaf5d6b6;pou_7476613d0c3eb3ef;pou_58029c319309e55a;pou_1d6d6d0ee5f31ea9;pou_e078932e206ec47f;pou_752b8ab5d0b0a752;pou_8fb68ed801107304</t>
+  </si>
+  <si>
+    <t>pou_aeb1c6eff074b7d0;pou_551fb67914a41b7a;pou_d5ff08debad6277b</t>
+  </si>
+  <si>
+    <t>pou_8881783ceff64f84</t>
+  </si>
+  <si>
+    <t>pou_a28667df33b83668</t>
+  </si>
+  <si>
+    <t>pou_6bdf6df67d81b837</t>
+  </si>
+  <si>
+    <t>pou_0b1f7cc89179154a</t>
+  </si>
+  <si>
+    <t>pou_cb6a453c71cdb858</t>
+  </si>
+  <si>
+    <t>pou_a218cc489c4e6126;pou_3448d1e179907adc;pou_6e53dfd31053b0cb</t>
+  </si>
+  <si>
+    <t>pou_5f59c2ae54bd04b5</t>
+  </si>
+  <si>
+    <t>pou_8e1e8c3605525e21</t>
+  </si>
+  <si>
+    <t>pou_7555c5f58deb2c75</t>
+  </si>
+  <si>
+    <t>pou_f2eeafb67d9569d7</t>
+  </si>
+  <si>
+    <t>pou_94fd3bbdacf72aa7</t>
+  </si>
+  <si>
+    <t>pou_2b16e15a71ef25d4;pou_b9b79b8e340edadb;pou_431cea328e63d8f0;pou_1f680f5eb1db889e;pou_9a5b5ee84c161ead;pou_558374b82593adf1;pou_9785e57b001dbe9f</t>
+  </si>
+  <si>
+    <t>pou_fbd025fb9bf06b1c</t>
+  </si>
+  <si>
+    <t>pou_f6d7234ccec48776</t>
+  </si>
+  <si>
+    <t>pou_fc246c2cf2150707;pou_79fdc720de0e08db</t>
+  </si>
+  <si>
+    <t>pou_5842c10b8f6379a6</t>
+  </si>
+  <si>
+    <t>pou_e77dcf71f3f3f049</t>
+  </si>
+  <si>
+    <t>pou_15d17c9d71cf45dc</t>
+  </si>
+  <si>
+    <t>pou_4b92ea24af733dcb</t>
+  </si>
+  <si>
+    <t>pou_31e61560b73ae2f4</t>
+  </si>
+  <si>
+    <t>pou_734ae2fd3c9433c1;pou_9f7e2e2fa98b42ee</t>
+  </si>
+  <si>
+    <t>pou_ccad5b2d906a9064;pou_6a9cdd134211e3de</t>
+  </si>
+  <si>
+    <t>pou_749cb14848753884;pou_ae04a26a3149a4fa;pou_0103ae86f43ba6e6;pou_f0b938b8b6e0df98;pou_2b4d52666a7b6a44;pou_f93d61ece0ee9948;pou_ff14bfbfd5eca9ed;pou_125456b330d4356e;pou_ed2dc52cae59f5e0;pou_044bab3fc80c4637;pou_3372abbbe1be8d93;pou_5b58d06dd5d3c983;pou_d85f4314cdb9d93f;pou_0dc3488928ed344f;pou_04d8abee47cb44b3;pou_c877384f9c69f463;pou_e1a8637aae761de9;pou_7fa536367cfba93d;pou_8bbb8cbfd36f2632;pou_d8fc1307dcc8f156;pou_256e45014c556ce0;pou_c27a1dcef952851b;pou_1d963320390dd824;pou_ff640adc0aed571f;pou_181fc3e477844019;pou_d126119f7996ae48;pou_c648b2516ecb55aa</t>
+  </si>
+  <si>
+    <t>pou_d7775bc2c9438153</t>
+  </si>
+  <si>
+    <t>pou_44346626f751308c</t>
+  </si>
+  <si>
+    <t>pou_0a64de45d0ce61f2;pou_54ae2ffd32322b6e;pou_a8989fbc50c3a5eb;pou_694ef8e27a7cfc1c;pou_a36619f2d96353e0</t>
+  </si>
+  <si>
+    <t>pou_cc283f4aefc8043a;pou_908d46a2aac8f00f;pou_4822e0fa97b7220d;pou_1b252939b21d5f8b;pou_72dc882a2b424e9a;pou_0222416077a863b9;pou_ed6d6fd48864df02;pou_00803fd7abb67c39;pou_33b838680eda9c0a;pou_1e6a0f6ad74fa11c;pou_2ea527af806e6796;pou_3f451231c038bab1;pou_2800c4e402da8db2;pou_a37cf0ba49ad86d3;pou_ed8debccbbd7499a;pou_57638688cd4313ed;pou_30b6a060349f5faa;pou_11ebcac331340053;pou_f6d9c6c8182b6d78;pou_21335eab4b53a891;pou_b6e9db055b9bfbdb;pou_38fcf3f4ec4035c8;pou_b4757c3806c87038;pou_5868e61c62622fb0;pou_813f838aada3c7f9;pou_7dd0a09c23c53e29;pou_66da02c5b19c14ae;pou_0499c31ba21d70c9;pou_65458ae5ac9134c3</t>
+  </si>
+  <si>
+    <t>pou_600fe708341a5fcc;pou_74d7f1395693e158;pou_165495ef7e261c8d;pou_58225ac4c6d5fedf;pou_8b3bde985db3df82;pou_6c493f06fa48301f;pou_ba45504604be47dd;pou_f362c5e585ea88ef</t>
+  </si>
+  <si>
+    <t>pou_d7b20257938c4a74;pou_ef79e99f35eff48b</t>
+  </si>
+  <si>
+    <t>pou_f5c5d5684e8a1049</t>
+  </si>
+  <si>
+    <t>pou_6b79cf55ad976ca4</t>
+  </si>
+  <si>
+    <t>pou_09ddf320d89bab08;pou_3ceee7d4af237058;pou_628054d93050bb18;pou_4e8ab60938d3a9c5;pou_e2957a69972a85af;pou_842da25000bc5b12;pou_5e55b0b43a644f0d;pou_7ad272778ccb21b3;pou_4c09cc6cc15dce6d;pou_a8501d779b6b1eac;pou_59bb585d2e177ae0;pou_06020b09d15de52b;pou_f7c5abe2d38a9c51;pou_480dc586fe6772e2;pou_680f47fe4023e542</t>
+  </si>
+  <si>
+    <t>pou_7673c52a16da50cc;pou_b77c5990fe502323;pou_b2e0e6be2d4bdf92;pou_ac30cac9a1cef783;pou_aac89e965fb32109;pou_a33809f858acd3a1;pou_695f3b9d0c04ecc1</t>
+  </si>
+  <si>
+    <t>pou_0810390d80aee091</t>
+  </si>
+  <si>
+    <t>pou_e8616dc87dc82260</t>
+  </si>
+  <si>
+    <t>pou_ebab02b8fce59010</t>
+  </si>
+  <si>
+    <t>pou_601062fede32256c</t>
+  </si>
+  <si>
+    <t>pou_f38e1a9c78c3a499</t>
+  </si>
+  <si>
+    <t>pou_84adf824466951ca</t>
+  </si>
+  <si>
+    <t>pou_d2aefeda3e5500b1</t>
+  </si>
+  <si>
+    <t>pou_38c81e1462d22bc4</t>
+  </si>
+  <si>
+    <t>pou_c82fba091921d30a</t>
+  </si>
+  <si>
+    <t>pou_d314943c4c339068;pou_10154012bd75b388;pou_506605150344b89a;pou_57547c11ce67ee69;pou_0219036040f3aba5;pou_fd6e7c2119fee665;pou_4d87f953178e2897;pou_7dd99c2bb5f5d2cd;pou_ada449ad3602b914;pou_c966e422f6b6416e;pou_7d068e2c75b7e842;pou_b339c80d353d7d91</t>
+  </si>
+  <si>
+    <t>pou_2ced702e179143b1</t>
+  </si>
+  <si>
+    <t>pou_35df497d79454890;pou_057677379ff72266</t>
+  </si>
+  <si>
+    <t>pou_14259b07ad5d4dc5;pou_bd5c9fb732af6ce4;pou_8ffaa959f3aa08fe;pou_be2b6bad72537c17;pou_d776fe1a1ff284a3;pou_a5d4481b5412ab66</t>
+  </si>
+  <si>
+    <t>pou_7487545c4ae59851;pou_649989a8181f3965;pou_63242545fcdd7897;pou_9729433f0078cd20;pou_cb32068eb9cdd749;pou_d5e462bf864f6287;pou_0d60263f63038401;pou_bfd280537ee858ca;pou_79f80f7afc0880c5;pou_6ccab4b9ce6f49bc;pou_831e9675308f3cb7;pou_2073e7305bb300dd;pou_c33710455307049e;pou_56a88e255bfd794a</t>
+  </si>
+  <si>
+    <t>pou_eacce84a36e430b6;pou_ee65ea7c737f65c0;pou_adf466ffa7e38fda;pou_595e92e8702321e7;pou_8dab83dc94f5b15f;pou_d3d02e809012ef2f;pou_6cc46cc593dfa2bf;pou_a2e140fc0261e71e;pou_8f98451da7e56290;pou_a2004fb944b943c5;pou_ed3d8e47baf5fd25</t>
+  </si>
+  <si>
+    <t>pou_4baa63e96288301d</t>
+  </si>
+  <si>
+    <t>pou_f6d7344d86714319</t>
+  </si>
+  <si>
+    <t>pou_8add2766b19ccf6f;pou_cee8de73753439fa;pou_16c55e7b8f9bb9ce;pou_d42e78edc3951184;pou_17b7e9d1897dd566;pou_26ff45ff9d0e4230;pou_c3ae4db3638af469</t>
+  </si>
+  <si>
+    <t>pou_6ae3cb9c2e201eb0;pou_bf0e08425544037a;pou_c1ef40ddf2daea5e;pou_864262fb260431ea;pou_979c17e6a6bd49cb;pou_603b00466d018f00;pou_342c85792a2979d6;pou_f6057685cfad979e;pou_f9d960ad78f5286b;pou_c57591eb5064222e;pou_d4433f80e27f8d62;pou_8b51f2ec6fbace2d;pou_70dcf124bb152b52;pou_b93587f8248df49f;pou_e84942edd5254708;pou_b82dc271428bee2a;pou_6552ec9def74f271;pou_d6b64d23ebc80aa4;pou_83274bd1dea2e75c</t>
+  </si>
+  <si>
+    <t>pou_97dec22f9f675823</t>
+  </si>
+  <si>
+    <t>pou_d60838f3bd158b59;pou_fcffffc76b769bfb;pou_4c71610676cac77e;pou_403402198d821a14;pou_5339f34ac2892d00;pou_edb7a20e01968056</t>
+  </si>
+  <si>
+    <t>pou_73e9fa3064427559</t>
+  </si>
+  <si>
+    <t>pou_7fa0db0e4d1cc310;pou_f772986c518f10c6;pou_65ecc94353c3811b</t>
+  </si>
+  <si>
+    <t>pou_67286d81fca90720</t>
+  </si>
+  <si>
+    <t>pou_d451aca89fce0e7f;pou_7c4555ebed1e1082;pou_5663573890f9a683;pou_476357fbdf56292d;pou_6a306488983acf4f;pou_9b82f40cc11a8d3d</t>
+  </si>
+  <si>
+    <t>pou_697006ecd0ba19c0</t>
+  </si>
+  <si>
+    <t>pou_2d1a7cbc48336455</t>
+  </si>
+  <si>
+    <t>pou_afc5a7bb41e42459</t>
+  </si>
+  <si>
+    <t>pou_6f594ba5fcc95783;pou_5c0306c1415ff1e6;pou_556c7e608d20f187;pou_20f2c1790f348e8b;pou_2e72ac942df676e5;pou_eeaaae9d390da4eb;pou_3e8a1b6cb378a374;pou_f08d2f60be939fc6;pou_21e5af715f8d6720;pou_eb79b13553cb5954;pou_eb0a994a47dd48f1;pou_a908e69052b46dcf;pou_02036320d4e44a9f;pou_ee5ab7526d24ebe0;pou_86c7856e1b1d21d3;pou_16556cf2493e0285;pou_064aa6151cc948ab;pou_dfb9d19ea77898f6;pou_c749815e9fff2b0f;pou_73e1094cdd818d94;pou_e3fae77eb0e2c562</t>
+  </si>
+  <si>
+    <t>pou_ee623079ace280fa</t>
+  </si>
+  <si>
+    <t>pou_081c0a0f01ac70c0</t>
+  </si>
+  <si>
+    <t>pou_8e017d81fd5e883d</t>
+  </si>
+  <si>
+    <t>pou_84ae02c8b6546f0d;pou_8c9fe83a892e8f8d;pou_472f1936c783f51e;pou_a359c278653f595e;pou_b0613ec50ef7d4be;pou_e3dcb16fbd288f99;pou_b7006bec7c5cd1f5;pou_03a0a918835743d8;pou_1067a99e18013f45;pou_7d2d5ef6e7222c7e;pou_25e3e5f430e18ed5;pou_95436972a3ca7e1a;pou_833d351c19387f17;pou_7c216cb350239d55;pou_79337ad18e9e03d3</t>
+  </si>
+  <si>
+    <t>pou_24e716efdfde9994</t>
+  </si>
+  <si>
+    <t>pou_064c8aa60128a441</t>
+  </si>
+  <si>
+    <t>pou_4fb3cb79eb6de751</t>
+  </si>
+  <si>
+    <t>pou_d4f314eb496f7dc1</t>
+  </si>
+  <si>
+    <t>pou_2235074ffc69238c</t>
+  </si>
+  <si>
+    <t>pou_40e585edd34c9a93</t>
+  </si>
+  <si>
+    <t>pou_a0a6af13de41309c</t>
+  </si>
+  <si>
+    <t>pou_ffd85f8c46993107</t>
+  </si>
+  <si>
+    <t>pou_54734434aa93d821</t>
+  </si>
+  <si>
+    <t>pou_73ea8374b1b10094</t>
+  </si>
+  <si>
+    <t>pou_b335b37aae1dd47c</t>
+  </si>
+  <si>
+    <t>pou_535ac26de24f6e10;pou_d5e5edbe05587534</t>
+  </si>
+  <si>
+    <t>pou_55535ab3bda8ea0b</t>
+  </si>
+  <si>
+    <t>pou_383bf688c726a783</t>
+  </si>
+  <si>
+    <t>pou_f19b176af82a5ec5</t>
+  </si>
+  <si>
+    <t>pou_a91ae63c6df89b5c</t>
+  </si>
+  <si>
+    <t>pou_cd3ca4926a73b4bb</t>
+  </si>
+  <si>
+    <t>pou_6b632048561444a2</t>
+  </si>
+  <si>
+    <t>pou_a0a4b062ab16ba62</t>
+  </si>
+  <si>
+    <t>pou_6ce350bedd6549af</t>
+  </si>
+  <si>
+    <t>pou_327fad70f4543816</t>
+  </si>
+  <si>
+    <t>pou_722dac701ddbf7fc</t>
+  </si>
+  <si>
+    <t>pou_9f8ab68c5f2a78a9</t>
+  </si>
+  <si>
+    <t>pou_16a5f24fd943b6f1</t>
+  </si>
+  <si>
+    <t>pou_c1b8ef291beb17e7</t>
+  </si>
+  <si>
+    <t>pou_a1a282f7969c6a3e</t>
+  </si>
+  <si>
+    <t>pou_2d11a2388d87f16c</t>
+  </si>
+  <si>
+    <t>pou_12acf62c49faaa16</t>
+  </si>
+  <si>
+    <t>pou_45247081d45286bc</t>
+  </si>
+  <si>
+    <t>pou_2003440b294873c7</t>
+  </si>
+  <si>
+    <t>pou_9aa613a8c07f0160</t>
+  </si>
+  <si>
+    <t>pou_5bba38835f92ecb9</t>
+  </si>
+  <si>
+    <t>pou_0e826f899116327e</t>
+  </si>
+  <si>
+    <t>pou_86f3fbe45aa82072</t>
+  </si>
+  <si>
+    <t>pou_61c307c1d057d216</t>
+  </si>
+  <si>
+    <t>pou_f4bbf77dac4cd932</t>
+  </si>
+  <si>
+    <t>pou_eeca78f8c76c86bf</t>
+  </si>
+  <si>
+    <t>pou_a026ab17fdc7d074</t>
+  </si>
+  <si>
+    <t>pou_c8089936d6c69e1f</t>
+  </si>
+  <si>
+    <t>pou_665dbd91965a48d5</t>
+  </si>
+  <si>
+    <t>pou_4e5b97d92c55c81a</t>
+  </si>
+  <si>
+    <t>pou_7b4913b8ae5ec5ae</t>
+  </si>
+  <si>
+    <t>pou_301540bf5cd7edd8</t>
+  </si>
+  <si>
+    <t>pou_38bcaa323ff92b76</t>
+  </si>
+  <si>
+    <t>pou_9cb9758f1d5b50ff</t>
+  </si>
+  <si>
+    <t>pou_d0e5630c473010f1</t>
+  </si>
+  <si>
+    <t>pou_89466f438c9920b5</t>
+  </si>
+  <si>
+    <t>pou_3d3a3a49d9128558</t>
+  </si>
+  <si>
+    <t>pou_823091a75fea49b7</t>
+  </si>
+  <si>
+    <t>pou_6bf5b435ed610152</t>
+  </si>
+  <si>
+    <t>pou_669075a818ec4676</t>
+  </si>
+  <si>
+    <t>pou_6c5be9b0682f55e1</t>
+  </si>
+  <si>
+    <t>pou_e2b57b4272aad742</t>
+  </si>
+  <si>
+    <t>pou_2c8769d2635ba93d</t>
+  </si>
+  <si>
+    <t>pou_0e30504003939297</t>
+  </si>
+  <si>
+    <t>pou_3143c0c3a397f191</t>
+  </si>
+  <si>
+    <t>pou_f3037f790c6c0d89</t>
+  </si>
+  <si>
+    <t>pou_ead37dc17bc5169b</t>
+  </si>
+  <si>
+    <t>pou_c96484dcea0e50b2</t>
+  </si>
+  <si>
+    <t>pou_970bda730a6c465a</t>
+  </si>
+  <si>
+    <t>pou_ce601b1c4eceacb3</t>
+  </si>
+  <si>
+    <t>pou_4adbc5f06bb33ba0</t>
+  </si>
+  <si>
+    <t>pou_bdd2a2a56a91030f</t>
+  </si>
+  <si>
+    <t>pou_74ada83b5d64eedb</t>
+  </si>
+  <si>
+    <t>pou_355846d03d7fbdee</t>
+  </si>
+  <si>
+    <t>pou_f3835ec5ae3d8b9e</t>
+  </si>
+  <si>
+    <t>pou_7adb807584214a84</t>
+  </si>
+  <si>
+    <t>pou_954d6787012e0c23</t>
+  </si>
+  <si>
+    <t>pou_06fdf17a1cc89209</t>
+  </si>
+  <si>
+    <t>pou_672fcac1488aaead</t>
+  </si>
+  <si>
+    <t>pou_da145d46687e83bb</t>
+  </si>
+  <si>
+    <t>pou_603ad67f5880c201</t>
+  </si>
+  <si>
+    <t>pou_cd21e97c0757dc2f</t>
+  </si>
+  <si>
+    <t>pou_989fb59ce73b7a74</t>
+  </si>
+  <si>
+    <t>pou_033803f795c8bc31</t>
+  </si>
+  <si>
+    <t>pou_1d123897a2c13fa9</t>
+  </si>
+  <si>
+    <t>pou_3c7e21fa6135e1dc</t>
+  </si>
+  <si>
+    <t>pou_4e6c5663164bd941</t>
+  </si>
+  <si>
+    <t>pou_efa012e0e9f82add</t>
+  </si>
+  <si>
+    <t>pou_5c12e8e3b1e83d86</t>
+  </si>
+  <si>
+    <t>pou_a90a9014fcab9e5c</t>
+  </si>
+  <si>
+    <t>pou_1637a15b3bc62b63</t>
+  </si>
+  <si>
+    <t>pou_ae88515d2b8e73ec</t>
+  </si>
+  <si>
+    <t>pou_81be645a70d9e29d</t>
+  </si>
+  <si>
+    <t>pou_9bc93f2efbcf61a5</t>
+  </si>
+  <si>
+    <t>pou_34539d1a17ec097c</t>
+  </si>
+  <si>
+    <t>pou_1dcbf12173c2b3ee</t>
+  </si>
+  <si>
+    <t>pou_e4e3384af0899295</t>
+  </si>
+  <si>
+    <t>pou_958a78544433f417</t>
+  </si>
+  <si>
+    <t>pou_09a16082f74ba230</t>
+  </si>
+  <si>
+    <t>pou_4dafd4188d0c1b88</t>
+  </si>
+  <si>
+    <t>pou_7a62a993414fd31f</t>
+  </si>
+  <si>
+    <t>pou_c73573fad0565018</t>
+  </si>
+  <si>
+    <t>pou_7e4107180f197925</t>
+  </si>
+  <si>
+    <t>pou_1d1be9a94d6909e0</t>
+  </si>
+  <si>
+    <t>pou_77754dd253625977</t>
+  </si>
+  <si>
+    <t>pou_3bf2dfd8022e448a</t>
+  </si>
+  <si>
+    <t>pou_0e562475ef6e1356</t>
+  </si>
+  <si>
+    <t>pou_2e6d5d66c6cf62bd</t>
+  </si>
+  <si>
+    <t>pou_e02213b84d66180f</t>
+  </si>
+  <si>
+    <t>pou_8cc376a4602713d8</t>
+  </si>
+  <si>
+    <t>pou_207c7df1f0aedb68</t>
+  </si>
+  <si>
+    <t>pou_cbc601fb70554844</t>
+  </si>
+  <si>
+    <t>pou_921ad6ce0dc50b2f</t>
+  </si>
+  <si>
+    <t>pou_ca1153f059ef3d71</t>
+  </si>
+  <si>
+    <t>pou_3197b85270b85912</t>
+  </si>
+  <si>
+    <t>pou_cbac6ce825a1bd1b</t>
+  </si>
+  <si>
+    <t>pou_c31cbdf9746eb358</t>
+  </si>
+  <si>
+    <t>pou_a2f24919928ee939</t>
+  </si>
+  <si>
+    <t>pou_03eb5012adcfd427</t>
+  </si>
+  <si>
+    <t>pou_b0f283cf287a1499</t>
+  </si>
+  <si>
+    <t>pou_8eec9d5050ced4d6</t>
+  </si>
+  <si>
+    <t>pou_536e08500bebadbb</t>
+  </si>
+  <si>
+    <t>pou_df177aa8b7b446f0</t>
+  </si>
+  <si>
+    <t>pou_25f167edac2145b3</t>
+  </si>
+  <si>
+    <t>pou_1d16dfd8744cd86c</t>
+  </si>
+  <si>
+    <t>pou_511220b52313d6a8</t>
+  </si>
+  <si>
+    <t>pou_35727d2c48a05c15</t>
+  </si>
+  <si>
+    <t>pou_d691a85a0999abcd</t>
+  </si>
+  <si>
+    <t>pou_946b97dc22f10f3f</t>
+  </si>
+  <si>
+    <t>pou_b8a28ebb1e8d21ec</t>
+  </si>
+  <si>
+    <t>pou_de88fcb296cce312</t>
+  </si>
+  <si>
+    <t>pou_a23bddcb220e1c33</t>
+  </si>
+  <si>
+    <t>pou_b7c6ac9a6c05ad3b</t>
+  </si>
+  <si>
+    <t>pou_9def49c8614ed8c5</t>
+  </si>
+  <si>
+    <t>pou_bbb990154c3761d1</t>
+  </si>
+  <si>
+    <t>pou_841d57cbcc37a5af</t>
+  </si>
+  <si>
+    <t>pou_8a0683511a03bbbf</t>
+  </si>
+  <si>
+    <t>pou_b4d9fae459c72a29</t>
+  </si>
+  <si>
+    <t>pou_f4b56fa089919ad4</t>
+  </si>
+  <si>
+    <t>pou_3532ad529cbdc673</t>
+  </si>
+  <si>
+    <t>pou_20c23c3a27326ee1</t>
+  </si>
+  <si>
+    <t>pou_8db590909f5796e9</t>
+  </si>
+  <si>
+    <t>pou_8224a4519db5e3cb</t>
+  </si>
+  <si>
+    <t>pou_635e19a73e0c12ec</t>
+  </si>
+  <si>
+    <t>pou_925e4f303b32684f</t>
+  </si>
+  <si>
+    <t>pou_6b722ba0075450d9</t>
+  </si>
+  <si>
+    <t>pou_7616fe7a85051c9b</t>
+  </si>
+  <si>
+    <t>pou_1b5953caa24c4807</t>
+  </si>
+  <si>
+    <t>pou_f1488ebf54ec3a2a</t>
+  </si>
+  <si>
+    <t>pou_57c6d031fecb03b0</t>
+  </si>
+  <si>
+    <t>pou_6d000fd9391f8973</t>
+  </si>
+  <si>
+    <t>pou_ed7ff7eebc64cdc2</t>
+  </si>
+  <si>
+    <t>pou_90f17567594eb5cc</t>
+  </si>
+  <si>
+    <t>pou_e6db2b464b8e8626</t>
+  </si>
+  <si>
+    <t>pou_68a57c5756da012a</t>
+  </si>
+  <si>
+    <t>pou_ebb689f4d26a6b93</t>
+  </si>
+  <si>
+    <t>pou_0f035799ee1d050f</t>
+  </si>
+  <si>
+    <t>pou_2509f4380491580b</t>
+  </si>
+  <si>
+    <t>pou_a2c2675e91146c11</t>
+  </si>
+  <si>
+    <t>pou_e49e56daa77c1ee5</t>
+  </si>
+  <si>
+    <t>pou_edc27185e6f665d2</t>
+  </si>
+  <si>
+    <t>pou_10beca5d5ebeaee1</t>
+  </si>
+  <si>
+    <t>pou_89fa0c45e3bea2e5</t>
+  </si>
+  <si>
+    <t>pou_90d4b167a2a7a4c0</t>
+  </si>
+  <si>
+    <t>pou_78fe266bc4eed8d0</t>
+  </si>
+  <si>
+    <t>pou_c9c14c39d95cfb54</t>
+  </si>
+  <si>
+    <t>pou_4ecbbfc7809091ea</t>
+  </si>
+  <si>
+    <t>pou_116e7ef824e1b6d6</t>
+  </si>
+  <si>
+    <t>pou_9a916f0874821c59</t>
+  </si>
+  <si>
+    <t>pou_4a2c4810798b7bf7</t>
+  </si>
+  <si>
+    <t>pou_c326b2543fed429d</t>
+  </si>
+  <si>
+    <t>pou_fd3a1a41a62858dc</t>
+  </si>
+  <si>
+    <t>pou_93071af4931f866e</t>
+  </si>
+  <si>
+    <t>pou_deb5bc884ebebf1b</t>
+  </si>
+  <si>
+    <t>pou_aac0519deecec394</t>
+  </si>
+  <si>
+    <t>pou_d2afa77c0634190c</t>
+  </si>
+  <si>
+    <t>pou_1dcff6d1ab7747df</t>
+  </si>
+  <si>
+    <t>pou_482610552a57c2ce</t>
+  </si>
+  <si>
+    <t>pou_4da66e4904439e36</t>
+  </si>
+  <si>
+    <t>pou_60a224dfb07a82cf</t>
+  </si>
+  <si>
+    <t>pou_da281bea2033ca0f</t>
+  </si>
+  <si>
+    <t>pou_8f1b02c6e6404056</t>
+  </si>
+  <si>
+    <t>pou_9f76321cf122271a</t>
+  </si>
+  <si>
+    <t>pou_d03462b41bffd4ee</t>
+  </si>
+  <si>
+    <t>pou_f5e9a8a1f57a82e7</t>
+  </si>
+  <si>
+    <t>pou_4b3ce89036f90bf2</t>
+  </si>
+  <si>
+    <t>pou_dee9b3a72d8e2967</t>
+  </si>
+  <si>
+    <t>pou_1e9c1e452600ceaf</t>
+  </si>
+  <si>
+    <t>pou_c2b1e9f6a4615920</t>
+  </si>
+  <si>
+    <t>pou_8d9d3cf789c4bb75</t>
+  </si>
+  <si>
+    <t>pou_5aaca2e45d350afc</t>
+  </si>
+  <si>
+    <t>pou_e962b638005fc026</t>
+  </si>
+  <si>
+    <t>pou_e3d262cc0b2da410</t>
+  </si>
+  <si>
+    <t>pou_7d7eae260f4cd53c</t>
+  </si>
+  <si>
+    <t>pou_fa05e08f584aa056</t>
+  </si>
+  <si>
+    <t>pou_da975bfc6544c069</t>
+  </si>
+  <si>
+    <t>pou_b800dd5e3295c360</t>
+  </si>
+  <si>
+    <t>pou_2088c76bd227048a</t>
+  </si>
+  <si>
+    <t>pou_e3b584cf6950d547</t>
+  </si>
+  <si>
+    <t>pou_a7fa90c21d4d495d</t>
+  </si>
+  <si>
+    <t>pou_2fbaeeeef9d1b6d6</t>
+  </si>
+  <si>
+    <t>pou_3a1d8bc453d810fd</t>
+  </si>
+  <si>
+    <t>pou_3c677c35cc3d350f</t>
+  </si>
+  <si>
+    <t>pou_44f109c880691314</t>
+  </si>
+  <si>
+    <t>pou_44ccf3851f8d8f20</t>
+  </si>
+  <si>
+    <t>pou_5aed74acb414ed59</t>
+  </si>
+  <si>
+    <t>pou_f7d11ba373410c5d</t>
+  </si>
+  <si>
+    <t>pou_56fd8b870de285f2</t>
+  </si>
+  <si>
+    <t>pou_0c7ee6ff30e4e17e</t>
+  </si>
+  <si>
+    <t>pou_4f4472ab2ec54b13</t>
+  </si>
+  <si>
+    <t>pou_b3833c8b41cdb165</t>
+  </si>
+  <si>
+    <t>pou_bb51f9167b0a79a4</t>
+  </si>
+  <si>
+    <t>pou_e18b612a1ce54bcf</t>
+  </si>
+  <si>
+    <t>pou_203a95b5714b6d19</t>
+  </si>
+  <si>
+    <t>pou_26745ec14296ca7c</t>
+  </si>
+  <si>
+    <t>pou_4419f93993ac8e63</t>
+  </si>
+  <si>
+    <t>pou_f6c6d77665c3e90d</t>
+  </si>
+  <si>
+    <t>pou_d27709a392a1682f</t>
+  </si>
+  <si>
+    <t>pou_4d02afe377b9d7d9</t>
+  </si>
+  <si>
+    <t>pou_1b0b496a8347f46b</t>
+  </si>
+  <si>
+    <t>pou_87756194a978d742</t>
+  </si>
+  <si>
+    <t>pou_921126e467310c45</t>
+  </si>
+  <si>
+    <t>pou_e0a9c4ca05821487</t>
+  </si>
+  <si>
+    <t>pou_4972291b1b3ffadd</t>
+  </si>
+  <si>
+    <t>pou_99fe1e02c07876e5</t>
+  </si>
+  <si>
+    <t>pou_2aba8cf212f4cf30</t>
+  </si>
+  <si>
+    <t>pou_5359a6498d6e68a4</t>
+  </si>
+  <si>
+    <t>pou_7feca395b48715fd</t>
+  </si>
+  <si>
+    <t>pou_c20af954e9ab057e</t>
+  </si>
+  <si>
+    <t>pou_1c7972359d17ffbb</t>
+  </si>
+  <si>
+    <t>pou_a559215e5c4db57c</t>
+  </si>
+  <si>
+    <t>pou_a1dc3543d82d1ac3</t>
+  </si>
+  <si>
+    <t>pou_5f06a8ee6dfbd3ac</t>
+  </si>
+  <si>
+    <t>pou_36280f78048876d2</t>
+  </si>
+  <si>
+    <t>pou_7db0940756364613</t>
+  </si>
+  <si>
+    <t>pou_76bce60a89b606e1;pou_9e56667c2dd70225</t>
+  </si>
+  <si>
+    <t>pou_0f4b286f48e94605;pou_5a166d2d679e85f4;pou_f6e57a31f008f45e;pou_527650f44165b220;pou_1ee10693b8234fd1;pou_d88b605613f42715;pou_d0e7eb3c7229d870;pou_4ae06fc22f47fafb;pou_80e7ff38b8ad87de;pou_7d5180881a80b632;pou_bb009c665833c67d;pou_9c533a799606c85a</t>
+  </si>
+  <si>
+    <t>pou_6a670a86879f9998</t>
+  </si>
+  <si>
+    <t>pou_39b6cd5fbca99f16</t>
+  </si>
+  <si>
+    <t>pou_051faa1508691457</t>
+  </si>
+  <si>
+    <t>pou_c4d221c52e5a3169</t>
+  </si>
+  <si>
+    <t>pou_2b907fe423e67e0b</t>
+  </si>
+  <si>
+    <t>pou_d277a76b2af02233</t>
+  </si>
+  <si>
+    <t>pou_23162226a76f89e1</t>
+  </si>
+  <si>
+    <t>pou_57c3f9386d8bc0dd</t>
+  </si>
+  <si>
+    <t>pou_4a488b17bdc210d9</t>
+  </si>
+  <si>
+    <t>pou_f020b553737adf5b</t>
+  </si>
+  <si>
+    <t>pou_a98644ea26bbd58b</t>
+  </si>
+  <si>
+    <t>pou_12ca0046211c76e4</t>
+  </si>
+  <si>
+    <t>pou_5755d4fbf10b9099</t>
+  </si>
+  <si>
+    <t>pou_6f04b2138f59653d</t>
+  </si>
+  <si>
+    <t>pou_f90b08ee86981c4b</t>
+  </si>
+  <si>
+    <t>pou_7f158c60e1c096e6</t>
+  </si>
+  <si>
+    <t>pou_6df8283f02bf246e</t>
+  </si>
+  <si>
+    <t>pou_28e7fcc27c9cf35c</t>
+  </si>
+  <si>
+    <t>pou_7731ffddf09c6ff4</t>
+  </si>
+  <si>
+    <t>pou_c7a07a159d77d870</t>
+  </si>
+  <si>
+    <t>pou_b0127bda6b9a3a3a</t>
+  </si>
+  <si>
+    <t>pou_713140b159d6bf6e</t>
+  </si>
+  <si>
+    <t>pou_28c0f39f0bf66866</t>
+  </si>
+  <si>
+    <t>pou_804bd085b58e74cf</t>
+  </si>
+  <si>
+    <t>pou_e80534a1ca5e3912</t>
+  </si>
+  <si>
+    <t>pou_c53ea85733478b5a</t>
+  </si>
+  <si>
+    <t>pou_cb8f805f7b8da014</t>
+  </si>
+  <si>
+    <t>pou_c3485316da2afde9</t>
+  </si>
+  <si>
+    <t>pou_fe3ec837a3ee8d79</t>
+  </si>
+  <si>
+    <t>pou_70de3cb22c6ff5c5</t>
+  </si>
+  <si>
+    <t>pou_9173e78443f16810</t>
+  </si>
+  <si>
+    <t>pou_853b92f7eee1c51f</t>
+  </si>
+  <si>
+    <t>pou_65c32830585c628c</t>
+  </si>
+  <si>
+    <t>pou_505523539c5ff99f</t>
+  </si>
+  <si>
+    <t>pou_daf17574cfbacc7c</t>
+  </si>
+  <si>
+    <t>pou_cf1b4dcbec4beed8</t>
+  </si>
+  <si>
+    <t>pou_6cc2b13680b34b5f</t>
+  </si>
+  <si>
+    <t>pou_f4549823ddb08c8b</t>
+  </si>
+  <si>
+    <t>pou_42625880cce40665</t>
+  </si>
+  <si>
+    <t>pou_927e5b4979e682cd</t>
+  </si>
+  <si>
+    <t>pou_46fd7585fa71aa0b</t>
+  </si>
+  <si>
+    <t>pou_f99b53fe6b79ed08</t>
   </si>
 </sst>
 </file>

--- a/04_output_data/folder.xlsx
+++ b/04_output_data/folder.xlsx
@@ -4231,1930 +4231,1930 @@
     <t>FTG 1060</t>
   </si>
   <si>
-    <t>pou_0b9a821e4f87984f</t>
-  </si>
-  <si>
-    <t>pou_2b71a6679ba72498</t>
-  </si>
-  <si>
-    <t>pou_9d7ce6232e101253;pou_15ea70213e449b98</t>
-  </si>
-  <si>
-    <t>pou_7158c75da12853a7</t>
-  </si>
-  <si>
-    <t>pou_73a6323ea8206744</t>
-  </si>
-  <si>
-    <t>pou_56b08f62a225f84c</t>
-  </si>
-  <si>
-    <t>pou_070d16aec5590ec0</t>
-  </si>
-  <si>
-    <t>pou_9ded2b87943c23ab</t>
-  </si>
-  <si>
-    <t>pou_c75f63a439f85fcb</t>
-  </si>
-  <si>
-    <t>pou_71ba554e51287253</t>
-  </si>
-  <si>
-    <t>pou_eb544b088711b324</t>
-  </si>
-  <si>
-    <t>pou_570e140b3943c914</t>
-  </si>
-  <si>
-    <t>pou_05df408e9a963991</t>
-  </si>
-  <si>
-    <t>pou_1202a479c10781b5</t>
-  </si>
-  <si>
-    <t>pou_23c570481065d20a;pou_222005fd523f74d8</t>
-  </si>
-  <si>
-    <t>pou_787ae2b45e4d7fc8</t>
-  </si>
-  <si>
-    <t>pou_c61f1f0b82201e80</t>
-  </si>
-  <si>
-    <t>pou_6d9d2a873eb9131b;pou_99bf017b50a181d9</t>
-  </si>
-  <si>
-    <t>pou_264408b5830f55d0</t>
-  </si>
-  <si>
-    <t>pou_32241ce551558e26</t>
-  </si>
-  <si>
-    <t>pou_647bc996bdde39bf</t>
-  </si>
-  <si>
-    <t>pou_657d2ba43c28fe8f</t>
-  </si>
-  <si>
-    <t>pou_e1f70c7df23f0184;pou_acc4d1483231dc14</t>
-  </si>
-  <si>
-    <t>pou_f21dc56eb236d7a6;pou_cfa09aa7be83aad2</t>
-  </si>
-  <si>
-    <t>pou_7fc2232c12493490</t>
-  </si>
-  <si>
-    <t>pou_ffb26088695c25c2</t>
-  </si>
-  <si>
-    <t>pou_b1161aaf87aa2d41</t>
-  </si>
-  <si>
-    <t>pou_57c68a3ec8faeae3;pou_984031060ef62e24;pou_4b27121e050ea75b;pou_d8cfe03cca137208;pou_eaa14208d5c66b52;pou_f2bd485c4b53fa0d;pou_e7dc85f269ff2aa8;pou_f204b18ccf08f2dc;pou_154e756ea7df1106</t>
-  </si>
-  <si>
-    <t>pou_73a30a3fd0fb2d2c</t>
-  </si>
-  <si>
-    <t>pou_8fda3d1662cab17c</t>
-  </si>
-  <si>
-    <t>pou_415b09f7baa9bc72</t>
-  </si>
-  <si>
-    <t>pou_1b84b398e44fa53d</t>
-  </si>
-  <si>
-    <t>pou_d93c52d6959a5f68</t>
-  </si>
-  <si>
-    <t>pou_b51cf76b4100ba9c</t>
-  </si>
-  <si>
-    <t>pou_fb47b877a03a4138;pou_4b7ee830d7aa699f</t>
-  </si>
-  <si>
-    <t>pou_7dca22a256d42a2b</t>
-  </si>
-  <si>
-    <t>pou_a972413066317d1e</t>
-  </si>
-  <si>
-    <t>pou_6f541f8378349fa9</t>
-  </si>
-  <si>
-    <t>pou_4a12c7594ee1b7a7;pou_004f6cf23b4b9282</t>
-  </si>
-  <si>
-    <t>pou_daf0277328a827af</t>
-  </si>
-  <si>
-    <t>pou_9675442764c358f8</t>
-  </si>
-  <si>
-    <t>pou_f1d82bea465a2e43</t>
-  </si>
-  <si>
-    <t>pou_7acd84c9f4d13f50</t>
-  </si>
-  <si>
-    <t>pou_05fec32daea62881</t>
-  </si>
-  <si>
-    <t>pou_6a20e23fdbea952c</t>
-  </si>
-  <si>
-    <t>pou_e2681049982af479;pou_2491b3150542d3cb</t>
-  </si>
-  <si>
-    <t>pou_fd448769a40a5482</t>
-  </si>
-  <si>
-    <t>pou_5fb07d87b9d33722</t>
-  </si>
-  <si>
-    <t>pou_b98c4f048096803a</t>
-  </si>
-  <si>
-    <t>pou_03e979f8e7ddbdac</t>
-  </si>
-  <si>
-    <t>pou_b8d925103308aaa2</t>
-  </si>
-  <si>
-    <t>pou_66547367cd367f8a</t>
-  </si>
-  <si>
-    <t>pou_2ad1750334d1fcd8</t>
-  </si>
-  <si>
-    <t>pou_ca44cc930fae5e36</t>
-  </si>
-  <si>
-    <t>pou_88cb16bd35130895</t>
-  </si>
-  <si>
-    <t>pou_162ebcda3fc9730d</t>
-  </si>
-  <si>
-    <t>pou_6a0968e96ee174ee</t>
-  </si>
-  <si>
-    <t>pou_2f948fbd056f85cc</t>
-  </si>
-  <si>
-    <t>pou_1e1edc26f112c8d4</t>
-  </si>
-  <si>
-    <t>pou_08f3cafd73865fe6</t>
-  </si>
-  <si>
-    <t>pou_c7a9ce0b1b40ed5f</t>
-  </si>
-  <si>
-    <t>pou_64fd0cbaa5565028</t>
-  </si>
-  <si>
-    <t>pou_5ca640129b7f8195</t>
-  </si>
-  <si>
-    <t>pou_6ec28638628421db</t>
-  </si>
-  <si>
-    <t>pou_fa598440eb82f43c</t>
-  </si>
-  <si>
-    <t>pou_084b518ab082e168</t>
-  </si>
-  <si>
-    <t>pou_d6d3d3af529963d7</t>
-  </si>
-  <si>
-    <t>pou_159ef289a923b19a</t>
-  </si>
-  <si>
-    <t>pou_ac322e5c482368a6</t>
-  </si>
-  <si>
-    <t>pou_4ba035d427a9d564</t>
-  </si>
-  <si>
-    <t>pou_3c08142516396805</t>
-  </si>
-  <si>
-    <t>pou_395e836c09ec644b</t>
-  </si>
-  <si>
-    <t>pou_697bd7aff42ef472</t>
-  </si>
-  <si>
-    <t>pou_d018481d413322f4</t>
-  </si>
-  <si>
-    <t>pou_b887633b0f3b5623</t>
-  </si>
-  <si>
-    <t>pou_14e1202f1d3f5de0</t>
-  </si>
-  <si>
-    <t>pou_67ef0cf4bf446d93</t>
-  </si>
-  <si>
-    <t>pou_2c9ab96b5f77d808</t>
-  </si>
-  <si>
-    <t>pou_a37a3022fca74f53</t>
-  </si>
-  <si>
-    <t>pou_ff1f0725617c8a77</t>
-  </si>
-  <si>
-    <t>pou_94faab22008a8cc6</t>
-  </si>
-  <si>
-    <t>pou_b6b50894e923b150</t>
-  </si>
-  <si>
-    <t>pou_77a2feeec6a4a71b</t>
-  </si>
-  <si>
-    <t>pou_35db92ca54ca9b1a</t>
-  </si>
-  <si>
-    <t>pou_e9e292f652fd2873</t>
-  </si>
-  <si>
-    <t>pou_47215df55fd65d22</t>
-  </si>
-  <si>
-    <t>pou_5bebcbb9a5422d39</t>
-  </si>
-  <si>
-    <t>pou_85580564054bec4c</t>
-  </si>
-  <si>
-    <t>pou_69478277eaea2faa</t>
-  </si>
-  <si>
-    <t>pou_b09ec3f40066b64d</t>
-  </si>
-  <si>
-    <t>pou_85b22e9c85c55d09</t>
-  </si>
-  <si>
-    <t>pou_635129d3d1632326</t>
-  </si>
-  <si>
-    <t>pou_8cda48e4c1c01659</t>
-  </si>
-  <si>
-    <t>pou_02bfd6479b4ae732</t>
-  </si>
-  <si>
-    <t>pou_b58a33c2633147ea</t>
-  </si>
-  <si>
-    <t>pou_338546c6c9e950a9</t>
-  </si>
-  <si>
-    <t>pou_bb48dedf6b571c51</t>
-  </si>
-  <si>
-    <t>pou_eaae824053fdeae6</t>
-  </si>
-  <si>
-    <t>pou_7e0aab8fb336f5dc</t>
-  </si>
-  <si>
-    <t>pou_c7144185c17a6622</t>
-  </si>
-  <si>
-    <t>pou_d55b5d7d629c4e17</t>
-  </si>
-  <si>
-    <t>pou_43148b1a0ae8eb5d</t>
-  </si>
-  <si>
-    <t>pou_8f19a7bf10e58126</t>
-  </si>
-  <si>
-    <t>pou_b00867a5b7f24d69</t>
-  </si>
-  <si>
-    <t>pou_5ba641e5115f954a</t>
-  </si>
-  <si>
-    <t>pou_e137a30a2b592a43</t>
-  </si>
-  <si>
-    <t>pou_2840944e2544ae73</t>
-  </si>
-  <si>
-    <t>pou_dc29bc94bc5cf175</t>
-  </si>
-  <si>
-    <t>pou_6e50dc952e684fd2</t>
-  </si>
-  <si>
-    <t>pou_115b6a4c0a120123</t>
-  </si>
-  <si>
-    <t>pou_91fe4ed875fd5cef</t>
-  </si>
-  <si>
-    <t>pou_8fb693195e22d5c5</t>
-  </si>
-  <si>
-    <t>pou_6b44c00ed4f8da5f</t>
-  </si>
-  <si>
-    <t>pou_d25518246d4722f0</t>
-  </si>
-  <si>
-    <t>pou_de1043c1745b5d3d</t>
-  </si>
-  <si>
-    <t>pou_af28dcb48a663854</t>
-  </si>
-  <si>
-    <t>pou_67e7ec5fb8fbacde</t>
-  </si>
-  <si>
-    <t>pou_8c35cc0e4d0cdb3d</t>
-  </si>
-  <si>
-    <t>pou_ee1e66f51795c964</t>
-  </si>
-  <si>
-    <t>pou_b4c5206bbb10a26b</t>
-  </si>
-  <si>
-    <t>pou_0cd6ab7f8321d62f</t>
-  </si>
-  <si>
-    <t>pou_71f2bca01e43084d</t>
-  </si>
-  <si>
-    <t>pou_6b9e2fb5569318bd</t>
-  </si>
-  <si>
-    <t>pou_5e2160e0cd152d4a</t>
-  </si>
-  <si>
-    <t>pou_24753afba97036d9</t>
-  </si>
-  <si>
-    <t>pou_ce76d4eeaae13b47;pou_afa13319568eb97a;pou_6739b672355524b2</t>
-  </si>
-  <si>
-    <t>pou_b6df877e31f8e43e</t>
-  </si>
-  <si>
-    <t>pou_fd714532a8cb1cda</t>
-  </si>
-  <si>
-    <t>pou_2fc0120040b96763</t>
-  </si>
-  <si>
-    <t>pou_8fd4ff0b2e9af369;pou_c63dce7d8b9ba971</t>
-  </si>
-  <si>
-    <t>pou_0f8ace316d2aee06</t>
-  </si>
-  <si>
-    <t>pou_a0e284571bc12569</t>
-  </si>
-  <si>
-    <t>pou_7449aafacf8f166e</t>
-  </si>
-  <si>
-    <t>pou_ca95cc8a3e18cea6</t>
-  </si>
-  <si>
-    <t>pou_c45f3c6fd21f6fe9</t>
-  </si>
-  <si>
-    <t>pou_ded541600e802dd5</t>
-  </si>
-  <si>
-    <t>pou_de189a5f8611ad67</t>
-  </si>
-  <si>
-    <t>pou_5b78e23e08423210</t>
-  </si>
-  <si>
-    <t>pou_1bffd6a90bb63903</t>
-  </si>
-  <si>
-    <t>pou_aca8ceef361d0cbd</t>
-  </si>
-  <si>
-    <t>pou_f7fad4a97d16cc09</t>
-  </si>
-  <si>
-    <t>pou_4bb642c0ea87ac33</t>
-  </si>
-  <si>
-    <t>pou_2d5f1238353d8638</t>
-  </si>
-  <si>
-    <t>pou_0450f9133ffce3ba</t>
-  </si>
-  <si>
-    <t>pou_44ff528dfb54669d</t>
-  </si>
-  <si>
-    <t>pou_8aad4df1a8a39a01</t>
-  </si>
-  <si>
-    <t>pou_ceaad774ecb6a828</t>
-  </si>
-  <si>
-    <t>pou_630b29736bfa3321</t>
-  </si>
-  <si>
-    <t>pou_31ddc6d63a35aa5f</t>
-  </si>
-  <si>
-    <t>pou_f20d860f31b5b158</t>
-  </si>
-  <si>
-    <t>pou_1df7d7af71775c4c;pou_e1611d9b0ffc15ca;pou_702fa72e8aec6a2d;pou_a516c509cb7458e5;pou_830f197b29d85a30;pou_222bd12eae65447b;pou_f8d6eb97efb5ac44;pou_79c5f02b4d0c5a0b;pou_c653425814075218;pou_887ee6f9bb266c2f;pou_1884144e94eaf66b</t>
-  </si>
-  <si>
-    <t>pou_04f1ffdf71e2dc2b</t>
-  </si>
-  <si>
-    <t>pou_04c57fcdbcf8a630</t>
-  </si>
-  <si>
-    <t>pou_4389d1a597176ce6;pou_bdd80be77e6198dd</t>
-  </si>
-  <si>
-    <t>pou_1b7938d414414fc9</t>
-  </si>
-  <si>
-    <t>pou_20bae6154e0b796b</t>
-  </si>
-  <si>
-    <t>pou_460329bb92b2e4d2</t>
-  </si>
-  <si>
-    <t>pou_1d6489c3fdfa7403</t>
-  </si>
-  <si>
-    <t>pou_ef74d437505f618a</t>
-  </si>
-  <si>
-    <t>pou_295604abcc856298</t>
-  </si>
-  <si>
-    <t>pou_d6a04b7816280163</t>
-  </si>
-  <si>
-    <t>pou_cb6db5f09022675e</t>
-  </si>
-  <si>
-    <t>pou_44790811516f1dac</t>
-  </si>
-  <si>
-    <t>pou_dcbcded4653e8244</t>
-  </si>
-  <si>
-    <t>pou_1b13d2068dffa713</t>
-  </si>
-  <si>
-    <t>pou_d586c55ea88b02bd</t>
-  </si>
-  <si>
-    <t>pou_319ea44b9b5a3155</t>
-  </si>
-  <si>
-    <t>pou_e43c793cc3f6ad2e</t>
-  </si>
-  <si>
-    <t>pou_fdc12fffbec3ff37</t>
-  </si>
-  <si>
-    <t>pou_355d1383aef895a9</t>
-  </si>
-  <si>
-    <t>pou_578ad34502d9e5ee</t>
-  </si>
-  <si>
-    <t>pou_56a416aec8122ae9</t>
-  </si>
-  <si>
-    <t>pou_19f79250e5eac46c</t>
-  </si>
-  <si>
-    <t>pou_298c512460f63a25</t>
-  </si>
-  <si>
-    <t>pou_58e314491abb6369</t>
-  </si>
-  <si>
-    <t>pou_19dd819422157f20</t>
-  </si>
-  <si>
-    <t>pou_a4c4db944d1460a6</t>
-  </si>
-  <si>
-    <t>pou_f050d407955a110a</t>
-  </si>
-  <si>
-    <t>pou_de11911011a40cc5</t>
-  </si>
-  <si>
-    <t>pou_1161029e238291d8</t>
-  </si>
-  <si>
-    <t>pou_47d7f0886a1abc34</t>
-  </si>
-  <si>
-    <t>pou_5cacb36903a11a75</t>
-  </si>
-  <si>
-    <t>pou_fd60fa6d1fd0f471</t>
-  </si>
-  <si>
-    <t>pou_ccae8bbcea60897f</t>
-  </si>
-  <si>
-    <t>pou_44dd633f9037a872</t>
-  </si>
-  <si>
-    <t>pou_842fac7bef180ea1</t>
-  </si>
-  <si>
-    <t>pou_48320f440d945ced</t>
-  </si>
-  <si>
-    <t>pou_f5ede8f4e55020b4</t>
-  </si>
-  <si>
-    <t>pou_305d61a6cabea194</t>
-  </si>
-  <si>
-    <t>pou_67b78f68884cec5f</t>
-  </si>
-  <si>
-    <t>pou_0d455f4b09a1dd38</t>
-  </si>
-  <si>
-    <t>pou_fe07c678098edc35</t>
-  </si>
-  <si>
-    <t>pou_72635838a93e5aee</t>
-  </si>
-  <si>
-    <t>pou_f514348e8d9e1e7f</t>
-  </si>
-  <si>
-    <t>pou_b21c4f42928558e5</t>
-  </si>
-  <si>
-    <t>pou_8967165f44298fbd</t>
-  </si>
-  <si>
-    <t>pou_4ba69d75f4267fb0</t>
-  </si>
-  <si>
-    <t>pou_4b35a53195cbe062</t>
-  </si>
-  <si>
-    <t>pou_adaf738e3c3ee415</t>
-  </si>
-  <si>
-    <t>pou_1f6d0feb617d9bd2</t>
-  </si>
-  <si>
-    <t>pou_e5e3640880c8f76c</t>
-  </si>
-  <si>
-    <t>pou_78672a2972830947</t>
-  </si>
-  <si>
-    <t>pou_f12cd3d15f7905a9</t>
-  </si>
-  <si>
-    <t>pou_5e2e0947f5ab14e4</t>
-  </si>
-  <si>
-    <t>pou_b7c75c5a23b59975</t>
-  </si>
-  <si>
-    <t>pou_171bbccf5df7cacb</t>
-  </si>
-  <si>
-    <t>pou_815fdd40341d3b9a</t>
-  </si>
-  <si>
-    <t>pou_b32bd1177f356676</t>
-  </si>
-  <si>
-    <t>pou_a7dfc89f431e9c89</t>
-  </si>
-  <si>
-    <t>pou_9e7cfe912d213a5e</t>
-  </si>
-  <si>
-    <t>pou_84d1c04a357581bd</t>
-  </si>
-  <si>
-    <t>pou_9d08b181fd74f273</t>
-  </si>
-  <si>
-    <t>pou_c69fedc94a8d356b</t>
-  </si>
-  <si>
-    <t>pou_ebf55227b5567827</t>
-  </si>
-  <si>
-    <t>pou_2b7045646c03d143</t>
-  </si>
-  <si>
-    <t>pou_4d012c40fe47ebba</t>
-  </si>
-  <si>
-    <t>pou_eb10f59a6d522f33</t>
-  </si>
-  <si>
-    <t>pou_af88cb03167f576f</t>
-  </si>
-  <si>
-    <t>pou_bc44bc44eeb503ac</t>
-  </si>
-  <si>
-    <t>pou_6434a62a41c2477f</t>
-  </si>
-  <si>
-    <t>pou_9821ebc58dfd64d2</t>
-  </si>
-  <si>
-    <t>pou_64aea8a559aa8bce</t>
-  </si>
-  <si>
-    <t>pou_416b50574f24c2ec</t>
-  </si>
-  <si>
-    <t>pou_b2b9ab33a05e13e7</t>
-  </si>
-  <si>
-    <t>pou_55e3ac6384488e51</t>
-  </si>
-  <si>
-    <t>pou_2f8af4dd61e9f08c</t>
-  </si>
-  <si>
-    <t>pou_06814abd5865926f</t>
-  </si>
-  <si>
-    <t>pou_fdec32da4c813010</t>
-  </si>
-  <si>
-    <t>pou_6638d8eb9171bbc7</t>
-  </si>
-  <si>
-    <t>pou_f9e1814e59296492</t>
-  </si>
-  <si>
-    <t>pou_70c946a74d5cdcc5</t>
-  </si>
-  <si>
-    <t>pou_13f141701cb96b1a</t>
-  </si>
-  <si>
-    <t>pou_2b3c85062a41b18f</t>
-  </si>
-  <si>
-    <t>pou_59e24a02b83ef4f1</t>
-  </si>
-  <si>
-    <t>pou_37b0d67f2d7e9e0e</t>
-  </si>
-  <si>
-    <t>pou_1cd4b82b5af6351f</t>
-  </si>
-  <si>
-    <t>pou_49c58942a5b408c7</t>
-  </si>
-  <si>
-    <t>pou_f80c31ac855297aa</t>
-  </si>
-  <si>
-    <t>pou_bded08448e72194c</t>
-  </si>
-  <si>
-    <t>pou_b4a64e8ebd314dd3</t>
-  </si>
-  <si>
-    <t>pou_b857b4cd39b2d60c</t>
-  </si>
-  <si>
-    <t>pou_07e62920402c7e85</t>
-  </si>
-  <si>
-    <t>pou_3727c81c43e4e227</t>
-  </si>
-  <si>
-    <t>pou_6569b8e1754fc738</t>
-  </si>
-  <si>
-    <t>pou_4a2cb6e0fd10f700</t>
-  </si>
-  <si>
-    <t>pou_30cadabb00bfc84c</t>
-  </si>
-  <si>
-    <t>pou_4083cb597f02659f</t>
-  </si>
-  <si>
-    <t>pou_d7f136232ae6c331</t>
-  </si>
-  <si>
-    <t>pou_9853afc593202243</t>
-  </si>
-  <si>
-    <t>pou_23a96680b9a4d050</t>
-  </si>
-  <si>
-    <t>pou_42d364e224c612fc</t>
-  </si>
-  <si>
-    <t>pou_52e6c90207329ffc</t>
-  </si>
-  <si>
-    <t>pou_b0b8a697e22c69a8</t>
-  </si>
-  <si>
-    <t>pou_cfe2e4b5d7e0882b</t>
-  </si>
-  <si>
-    <t>pou_c179aab928bd9baa</t>
-  </si>
-  <si>
-    <t>pou_d7bf42f1e0258c9a</t>
-  </si>
-  <si>
-    <t>pou_bce041daef673a33</t>
-  </si>
-  <si>
-    <t>pou_b2de5b841f3e485a</t>
-  </si>
-  <si>
-    <t>pou_b736f786765a09ed</t>
-  </si>
-  <si>
-    <t>pou_7ff350a59a413b6f</t>
-  </si>
-  <si>
-    <t>pou_bae2ab52c6ade009</t>
-  </si>
-  <si>
-    <t>pou_8828e9441d8c6936</t>
-  </si>
-  <si>
-    <t>pou_6d7141f49e4a590f;pou_8d232e8d78a493ae</t>
-  </si>
-  <si>
-    <t>pou_83d8f6c52bfd5ca2</t>
-  </si>
-  <si>
-    <t>pou_627b45181fe5473e;pou_c77953c50c8cca21;pou_d9611b7cff4a82f4;pou_2863956206dd9eda;pou_2dfa56b46a135320;pou_91b6cfdc8507cd71;pou_5a8c10c2409f2a20;pou_cf7e85bd86f69d85;pou_f4f3c0e5962ce8b9;pou_4dbac83d0f62294a;pou_10c959c98a6a7495;pou_fa604c737c78e92b</t>
-  </si>
-  <si>
-    <t>pou_c732c1bab936f73c</t>
-  </si>
-  <si>
-    <t>pou_293961a2f74157c6</t>
-  </si>
-  <si>
-    <t>pou_d69717c7cafb67ec</t>
-  </si>
-  <si>
-    <t>pou_099216c0a15ae4f6</t>
-  </si>
-  <si>
-    <t>pou_3bd44f9ffb186104</t>
-  </si>
-  <si>
-    <t>pou_ec20d6017e6bf428</t>
-  </si>
-  <si>
-    <t>pou_e0e88dc4c24c8354</t>
-  </si>
-  <si>
-    <t>pou_2efdb610ed5b8ff5</t>
-  </si>
-  <si>
-    <t>pou_a58460cf547ca7b9</t>
-  </si>
-  <si>
-    <t>pou_1af4cf50aece20b4</t>
-  </si>
-  <si>
-    <t>pou_57663a915f2594e1;pou_d613d5305b83a6e7</t>
-  </si>
-  <si>
-    <t>pou_1d727df079f6cdd6</t>
-  </si>
-  <si>
-    <t>pou_45d4bf93a1770f12</t>
-  </si>
-  <si>
-    <t>pou_7738fe8805f5ccb9</t>
-  </si>
-  <si>
-    <t>pou_1180070cf341941b</t>
-  </si>
-  <si>
-    <t>pou_6d9212cbaaadb2eb</t>
-  </si>
-  <si>
-    <t>pou_7c7917a836046e7c</t>
-  </si>
-  <si>
-    <t>pou_8624c44c53322997</t>
-  </si>
-  <si>
-    <t>pou_8af78ab6c70da227</t>
-  </si>
-  <si>
-    <t>pou_5f238e4f4fb90e44</t>
-  </si>
-  <si>
-    <t>pou_5711a0103769e7e2;pou_624697b02a54e88d;pou_fbc82e219158d5c3;pou_38268ed733e07f3c;pou_6abc12f4bc10dc02;pou_08b8f9532787fb58;pou_94e9e9c37a3ba350</t>
-  </si>
-  <si>
-    <t>pou_2c2c327ff2aedbc3;pou_651808e9f9cd5bbe</t>
-  </si>
-  <si>
-    <t>pou_8c76557c1489c4d2</t>
-  </si>
-  <si>
-    <t>pou_0d4360c43feaa9c8</t>
-  </si>
-  <si>
-    <t>pou_0c6013769bcd9c57</t>
-  </si>
-  <si>
-    <t>pou_f48860407d75c13a</t>
-  </si>
-  <si>
-    <t>pou_ec1da0ea88df6368</t>
-  </si>
-  <si>
-    <t>pou_6798ce32f4770027</t>
-  </si>
-  <si>
-    <t>pou_911f9694132c1e5d</t>
-  </si>
-  <si>
-    <t>pou_9ad6a306ff556d7f</t>
-  </si>
-  <si>
-    <t>pou_43fe3f81819679c8</t>
-  </si>
-  <si>
-    <t>pou_9e0f31138c9c8574</t>
-  </si>
-  <si>
-    <t>pou_89071dd60b414744</t>
-  </si>
-  <si>
-    <t>pou_18a61aa46b069b7e;pou_7ed7add5d622da52;pou_5b3a6643cb66be59;pou_ca11def763ab8e70;pou_1615055339256793;pou_9746c14912d3db2c;pou_043e3a564d12a9e8;pou_92f1f91701f41e33;pou_7bbcac157554d608</t>
-  </si>
-  <si>
-    <t>pou_9c320793471801d3;pou_e2b7215573443115;pou_bf3d4243e5597227;pou_88c63f386facd653;pou_3f58b94c8d876571;pou_e66d080155a42696;pou_67d0b9738e437ac7</t>
-  </si>
-  <si>
-    <t>pou_33f0ee2d5aa1f8dd</t>
-  </si>
-  <si>
-    <t>pou_5c9717403a52b6d1;pou_1cbbf54ba2c66ff5;pou_66bf412e1b42e87d;pou_c63b7c023a9b6b93</t>
-  </si>
-  <si>
-    <t>pou_d1d9c74767bd8fba;pou_3361f5cd6f138568;pou_34fbdff362e57def;pou_acab3cd5494e11ad;pou_f903c54ddb7e9db3;pou_480bad4ce0d0ca54;pou_99d837b3bfa6a7a0;pou_12e0d8f40c755f6d;pou_95c9111899292227;pou_0dfb2b0948c8c589</t>
-  </si>
-  <si>
-    <t>pou_7f488ae917abece0</t>
-  </si>
-  <si>
-    <t>pou_3cd92f0c1c10aee4;pou_431189f8b8779add;pou_436920e0632bb861;pou_3a08a9467a2c9b28;pou_de1a4f1989f40b50;pou_14a77635b71a8f43;pou_c44a8d536b375ea1;pou_142bd301799a088d;pou_d74f4065f0d95a61;pou_b7947a97999b34c4;pou_18997df46a61ec3b;pou_bcb352127f52fa25;pou_06bb06d1be0f63ec;pou_b18d431938fbe524;pou_d498cc6a4ba6ef78;pou_ce11709aaa7f868c;pou_b5e937869479948b;pou_771459b770a5cbf7;pou_b9f3dcb25a86b333;pou_a00b01ca9de932f1;pou_324791f2258f3e4b;pou_ace20e94ae9aad81;pou_175c3700bb15eac2;pou_806f1ef18a578c03;pou_aa7a9c59bd41f5bf;pou_77cb69b412aa4d09;pou_3d34e0da026bc964;pou_250a101760c0b130;pou_b247292e6562bbd2;pou_89eaa0d70c06d8ba;pou_3b0445427dabcbbe;pou_9d2a2a6c670cfad5;pou_9eb0efdfc673a1c4;pou_1ac0d0fac54399de;pou_6c94965e81ce5b76;pou_2ad75968fd585d24;pou_22055422111b1656;pou_f5866bb01966c05d;pou_90360198b8b67a25;pou_833d41b05b50002f;pou_309bea5bcca32a93;pou_01ea1d6cf5f35133;pou_971631330db7e31f;pou_db0efdb6213a8c8b;pou_05ceeb9bea1d3233;pou_1036674088734cd2;pou_6a0142012a67261c;pou_394e071b542981d1;pou_900c82a6045190b3;pou_d12b31c6aa6fba7c;pou_7e06c34bf838a4bf;pou_e9f28d8e71e9f347;pou_c474674d5a64cfae;pou_a1962ea7a0785831;pou_9bd6c0b003e86316;pou_4ebdf782e33c94e4;pou_68ca1e52e4d6a8c9;pou_51ed07d210929408;pou_0ffb430b52bb0e12;pou_e0736b6cec45cbba;pou_9c8972d104cfe0c3;pou_5a187be12ae4eb0d;pou_a92678aa58f02153;pou_9dd391db0990362f;pou_d3e2db8ce7940540;pou_c8587426a9b998eb;pou_f8a53299cfa5c8e8;pou_c812107b2dc81b39;pou_2baf3966b289ef98;pou_3efdff94f064c93c;pou_596f31cf97899d6d;pou_505ff89cd1655272;pou_b41cbe35581c40c3;pou_9f5367d964baf86a;pou_a8ae918991246b70;pou_1858035325095157;pou_8e0537a2fbabc1cb;pou_fe4341e59e3f5764;pou_bf65bc58f7165a27;pou_a99caa0ba124e5dc;pou_1c253bdb678126c7;pou_d698df77543ed327;pou_962bdcf568ed3736;pou_7e14924fa57b1541;pou_5a174eb2cb04bceb;pou_4adf1ee1b876dac0;pou_ae2f89a8c7b04d8d;pou_0d9bec2cdab2431e;pou_445a7d2951588847;pou_07f47a3b49f98167;pou_b4e2cd1de938ef49;pou_18a4f453e70a03a6;pou_476d124c99e12c8f;pou_f94cc1ebe3dd147a;pou_a4838224f0dc9540;pou_bd0d237e908513cf;pou_8d37e31797ee43a1;pou_d535d0c7252861b9;pou_23454bec12b62a5a;pou_598c9cc7f9d5e3d8;pou_3929d525ec027050;pou_8e827e15d7479754;pou_f24b1a922969016d;pou_4175105a1aca1f16;pou_aa580ae7c611d7b4;pou_be921d58e7c20a4e;pou_9541c8fc3fd17ad7;pou_9aa87e0c8b731462;pou_2f86e6c9926dcc77;pou_98407855dca3d20a;pou_791a3d29a84c9cda;pou_0e63166b8d52f6c3;pou_4cf013581c069cf0;pou_e6ad4cb8e844b219;pou_4ff1678b0bc12b26;pou_b8ed4e7f5f5cf164;pou_ea0fcb187009646d;pou_5f9f20d1a5c2adca;pou_ec90a3ba2e9fff5f;pou_7bc9674e9bafdedb;pou_36d28760cdf941c7;pou_6e69f4594267cf8f;pou_7bb328281b76ab30;pou_4c9da8b4dd65ada0;pou_42d1c66c397ac2a4;pou_31c191ee9360b35e;pou_f44703dfe6c3e350;pou_d72ad02863d072a2;pou_05fcd48783cf3045;pou_cb6c1e28faae85f6;pou_b825fc5375d33ce2;pou_59c7e582938ca2c0;pou_1ffdbc195e79b03f;pou_7028aeec27e60376;pou_51dba906a91cf070;pou_40c3042466fd2359;pou_3e2b4dd5efec369a;pou_d985f204b6673419;pou_759028269d0a49a7;pou_13b4a748f60942b9;pou_0deb7a85eef026d5;pou_a97ed078eda5a487;pou_d99014c810008e7d</t>
-  </si>
-  <si>
-    <t>pou_74c84c1c60737c11;pou_714ace6d0235799e;pou_5fcf97bfa1289b4c</t>
-  </si>
-  <si>
-    <t>pou_d65ce5c2b1aa35e9</t>
-  </si>
-  <si>
-    <t>pou_4709a141f36715f6</t>
-  </si>
-  <si>
-    <t>pou_e84aaa9822d5ba32</t>
-  </si>
-  <si>
-    <t>pou_da1285b9aab22eec</t>
-  </si>
-  <si>
-    <t>pou_73074b66c04d3642</t>
-  </si>
-  <si>
-    <t>pou_cfa879cfe486a135;pou_5baecbbcb13e221a;pou_e010f95e7eab8c17</t>
-  </si>
-  <si>
-    <t>pou_bedc073dc603891d</t>
-  </si>
-  <si>
-    <t>pou_c745fdb10816d1ac</t>
-  </si>
-  <si>
-    <t>pou_a80e0afd3dcd7072</t>
-  </si>
-  <si>
-    <t>pou_a20fdef34910f820</t>
-  </si>
-  <si>
-    <t>pou_f7bdf738fb8fbb36</t>
-  </si>
-  <si>
-    <t>pou_32b42caf1a0ebcc1;pou_1080d482d616d0eb;pou_c9143f83f8f75c83;pou_239a0378c06e0831;pou_96f7396964445f32;pou_d76985b429daf31c;pou_aae78f5195a057ff</t>
-  </si>
-  <si>
-    <t>pou_8eea494936f71ae1</t>
-  </si>
-  <si>
-    <t>pou_809c002d6939a845</t>
-  </si>
-  <si>
-    <t>pou_a47d2076974a28b5;pou_ffa3ca8a36b435a9</t>
-  </si>
-  <si>
-    <t>pou_504a5ce56e634ca5</t>
-  </si>
-  <si>
-    <t>pou_2f3cee9a4bca1fd8</t>
-  </si>
-  <si>
-    <t>pou_94102eee431c6a0b</t>
-  </si>
-  <si>
-    <t>pou_57a2567e4fb0ba62</t>
-  </si>
-  <si>
-    <t>pou_bd9f1f1332726916</t>
-  </si>
-  <si>
-    <t>pou_788e427847e6063e;pou_d6a6e93ef5416a22</t>
-  </si>
-  <si>
-    <t>pou_6b6217c5a0deb811;pou_c48579ecfd835481</t>
-  </si>
-  <si>
-    <t>pou_30ff81bf0bde8bb8;pou_00038482a04233fb;pou_ae8821f15ea11ea4;pou_fd1466d59c64a657;pou_258b54e89198a1cc;pou_aad95c883925dfac;pou_4f03774b8f4d5a8a;pou_66e100d98ceaac6c;pou_ed02f5482656f670;pou_4247cb649511a4cc;pou_87ad5a0d16a5b952;pou_6e8bf1501be91c0a;pou_f703cbc8d679e6ba;pou_5e559bc1b8f21d53;pou_395eea6c15c27f1e;pou_0e58b0a196bfd055;pou_dad5408ddb738c70;pou_a9a049ad7960c8ee;pou_dd229c46f5244df8;pou_eaa3b02b5f0613a7;pou_e331cc2d6db2ddba;pou_af40b103a4a8513b;pou_089241a5548d86c7;pou_8435f0882e40479e;pou_6c9fde1f32808168;pou_e5a9dbc29a864275;pou_6ac42ba1dc0df7c6</t>
-  </si>
-  <si>
-    <t>pou_e9e1258aa1ccc9fa</t>
-  </si>
-  <si>
-    <t>pou_79b097894135bc3b</t>
-  </si>
-  <si>
-    <t>pou_a1590415848209ab;pou_f903561caa4fa49f;pou_96c0b5cc02c50643;pou_8d62acd9558c8971;pou_28b738c52dc28b7c</t>
-  </si>
-  <si>
-    <t>pou_f224530189b0626c;pou_183ba6c703a6e467;pou_06bacea6935d30a7;pou_859b8220d115448f;pou_fb1b868994ad50e7;pou_fdeffa3c28372a6b;pou_99dac38b89db28ed;pou_8ec3021ad8dacdde;pou_af95d6a70964310b;pou_93dfe4e74c7c02e8;pou_470b7ba8fd7753aa;pou_537531f32b3aa0e8;pou_b8e0d50cceab7a9f;pou_fbd4cac653d3823c;pou_0e089b18a5760b0b;pou_33c975f0ce8fd478;pou_308daa81f3a7113b;pou_4fd257ad0c9a92b8;pou_93aaed45f4c1510d;pou_f6284f9e7757e6df;pou_707702460028c26a;pou_95f9532a07e4fcaf;pou_22e9be1cb19dbc0e;pou_7ba0d2a0cff309e7;pou_c33d716ac8714598;pou_43d69647c5ef24b2;pou_94ce2ef2f9e0509d;pou_1aa31555df5f6f02;pou_391258ff4e41763d</t>
-  </si>
-  <si>
-    <t>pou_4a3fef335e8400cd;pou_68f7c71db9d90cd3;pou_9d64e1136f9286ad;pou_d79c08abcf0d813f;pou_e439befcbb892873;pou_5fbfce6a7daef139;pou_854f3b43fff0967d;pou_29a38e7a91e8bc67</t>
-  </si>
-  <si>
-    <t>pou_ad5695f1c03f67c7;pou_b76a09ef5c6b403c</t>
-  </si>
-  <si>
-    <t>pou_47f44e560aecb50c</t>
-  </si>
-  <si>
-    <t>pou_5587ef0b82e9ad18</t>
-  </si>
-  <si>
-    <t>pou_e435780005e82ca7;pou_2c544398f479d04f;pou_aa3d83f704674eaf;pou_4c31874260c5039e;pou_ed7ae285c9258d9e;pou_6d393bc9021fc212;pou_deb31e9b8218f75b;pou_e84cb66622461007;pou_f0396c3069058304;pou_cb244957c79bfd65;pou_f32126b395e8eae4;pou_a6d077290b90bf08;pou_348b78f72ee550bd;pou_aaf9cecac28ebc58;pou_a6cf2fc9ce0fdd45</t>
-  </si>
-  <si>
-    <t>pou_f0d974133a5a2b80;pou_212736cec880374d;pou_7681712839e3a471;pou_25a3cc0a827d5f43;pou_fab11dbc537ec3fd;pou_f750351083d403c6;pou_4def861081125dab</t>
-  </si>
-  <si>
-    <t>pou_abe6d8c5ad9cbaad</t>
-  </si>
-  <si>
-    <t>pou_dfb60ddb09d949e3</t>
-  </si>
-  <si>
-    <t>pou_a8771186ac179216</t>
-  </si>
-  <si>
-    <t>pou_1672019b3de9b79f</t>
-  </si>
-  <si>
-    <t>pou_d3767c1b1a44e380</t>
-  </si>
-  <si>
-    <t>pou_0665003a7be672ec</t>
-  </si>
-  <si>
-    <t>pou_e03200001b3fc2b6</t>
-  </si>
-  <si>
-    <t>pou_d1ab2504bc20a4d0</t>
-  </si>
-  <si>
-    <t>pou_978adab46781788b</t>
-  </si>
-  <si>
-    <t>pou_587f9bcfdefe108e;pou_8a3ab44ac10cecb7;pou_1d3d6d5a5f33455e;pou_15e47048c99f69ae;pou_870ee5d487afcd32;pou_f9bbb17a80287d6b;pou_f009f05e221c3be1;pou_429b5212c778fea0;pou_85deeda13e0a0a25;pou_9f8d68c3bc768cfe;pou_6230ea6f654db5ba;pou_9c882e5033f86c6e</t>
-  </si>
-  <si>
-    <t>pou_56ae1718d433df6f</t>
-  </si>
-  <si>
-    <t>pou_520235052fb8a811;pou_db9ac31ee7bc0041</t>
-  </si>
-  <si>
-    <t>pou_b0435ad0b7b9929c;pou_734a7b866c1313f1;pou_0353f819008429dc;pou_c84ec2169bdb5a41;pou_fd6330e16c557d15;pou_1f2d4ebb72ef227c</t>
-  </si>
-  <si>
-    <t>pou_5c35063051174bb6;pou_5f4058ea8c818ec3;pou_b5614cbf1f5a9321;pou_289fbf8c27745311;pou_f309c492c7805f63;pou_8efde7b6834f8b5d;pou_b83b574e56547bde;pou_4b127558c6c491af;pou_e538715d6e4dbed2;pou_06ea1974c956e6a2;pou_bc70be36594a0bb7;pou_1e1e6601cf455635;pou_83d0fc16eacb29e4;pou_a50763f0d4af0602</t>
-  </si>
-  <si>
-    <t>pou_74d2dcd577ff140d;pou_fd04ab49aa2c6a4b;pou_c33525b932ef3a70;pou_0bbe8025f4adaf42;pou_79ffdd94bab1bd0f;pou_c9be6e9bbf5fd8e3;pou_bd6a36be9b51dd38;pou_794b4cf082c38b37;pou_d60b6a014828f996;pou_8ad064928bd2d268;pou_154633f33544295a</t>
-  </si>
-  <si>
-    <t>pou_837d806f10d56f50</t>
-  </si>
-  <si>
-    <t>pou_f59a7119c2aff39c</t>
-  </si>
-  <si>
-    <t>pou_0237b271a7fd8f0f;pou_5ba81b7cf169806f;pou_b11e88d534925ddc;pou_ddb379b4efb0b299;pou_963c55c6852dbc41;pou_78d075b64570ed46;pou_5acb79778622e97b</t>
-  </si>
-  <si>
-    <t>pou_464c3afdb0cab9c8;pou_023a89694b2147a2;pou_742e395d228c2164;pou_2115923bc65f5020;pou_685c206a5fd10fa9;pou_5997679cdbb1a821;pou_82d1a895a8838be9;pou_aed12397e889bcb0;pou_ca5a239d75b25dae;pou_905463210d8e570d;pou_45544a138ea55ad4;pou_325616c403b7749a;pou_dfeb67ec673d5c08;pou_ae97f3ed2794556e;pou_09f6294889217d6c;pou_a49254374abd8457;pou_9fe5dce562dd3684;pou_a0c45d71c826883e;pou_8f1aa1004cceb571</t>
-  </si>
-  <si>
-    <t>pou_7f9465540a016a3d</t>
-  </si>
-  <si>
-    <t>pou_924e560ae8f49b2d;pou_c3db46f221a39759;pou_55c6de9e9c5d1b24;pou_cd384e26bb1899eb;pou_f512d8060404bcef;pou_5e1b8c385dfe0d83</t>
-  </si>
-  <si>
-    <t>pou_d5194364d54d16db</t>
-  </si>
-  <si>
-    <t>pou_e67436496ffd5042;pou_75ec42135182540c;pou_1d068c1972a326c6</t>
-  </si>
-  <si>
-    <t>pou_3aac361d5709a06c</t>
-  </si>
-  <si>
-    <t>pou_40a681e67e649965;pou_db1b39557a43a72a;pou_1b6e26a9b0a71c5b;pou_20cf54a1549027ab;pou_681fe316a3f1fd74;pou_445a6d715c0a13a5</t>
-  </si>
-  <si>
-    <t>pou_a06265f7d0da1482</t>
-  </si>
-  <si>
-    <t>pou_0fe66b237fa3174f</t>
-  </si>
-  <si>
-    <t>pou_da0f020e739e41be</t>
-  </si>
-  <si>
-    <t>pou_eddb2508f02a7aab;pou_4accff16883f86b5;pou_62ee22c738c832cf;pou_115b56978ea5a784;pou_0030f11128ef6425;pou_632ce2482efa0a5c;pou_6c71d4585f4d1410;pou_13e63d642807d793;pou_01244ef31a5a0dcf;pou_2fd6b049888a8745;pou_12df5cbdb6e2257b;pou_f740589780cb9894;pou_a92b16d72feaf1b2;pou_355bb4057a2aff35;pou_dd0693ed29ad61c7;pou_7b28857da9649369;pou_85b6887a581ed73f;pou_c3418424a956c63f;pou_387cac20c7d23f85;pou_ba3b805555242efa;pou_d9e9e2df769bc2f8</t>
-  </si>
-  <si>
-    <t>pou_aa4d8e07e12ddcd8</t>
-  </si>
-  <si>
-    <t>pou_53a0c76f33a5b3a2</t>
-  </si>
-  <si>
-    <t>pou_b9dffc288fb7f880</t>
-  </si>
-  <si>
-    <t>pou_3c6f4fb4250004ad;pou_1164acb649d7c112;pou_cac34cc2a5743fa4;pou_dfac926cfc34248b;pou_65b547fb68f9d61d;pou_18118a537d957f78;pou_b3ebbdb167d1760b;pou_52140c4eeab8d54a;pou_dd35f03d11db71c2;pou_2427c739e4827bfe;pou_867c550a14a28ab1;pou_c7af01b537673bfb;pou_6b9f9129390d68d1;pou_dc0c4f623650da71;pou_9fa1bff60bd9be9b</t>
-  </si>
-  <si>
-    <t>pou_b058a7f4448c994c</t>
-  </si>
-  <si>
-    <t>pou_de47782d97976887</t>
-  </si>
-  <si>
-    <t>pou_a86661112facc203</t>
-  </si>
-  <si>
-    <t>pou_4eed990a5aedbec3</t>
-  </si>
-  <si>
-    <t>pou_29fa6d15e1cf542b</t>
-  </si>
-  <si>
-    <t>pou_b3f9b1e720861651</t>
-  </si>
-  <si>
-    <t>pou_e72aae935a3b8afd</t>
-  </si>
-  <si>
-    <t>pou_89642e25f66d829f</t>
-  </si>
-  <si>
-    <t>pou_411620dd7e6b115f</t>
-  </si>
-  <si>
-    <t>pou_cfe22ed8db9fd2e9</t>
-  </si>
-  <si>
-    <t>pou_948e9915c2a9d31a</t>
-  </si>
-  <si>
-    <t>pou_997a38df1a653198;pou_31e5fc03dedb3c3a</t>
-  </si>
-  <si>
-    <t>pou_d06b19812dcc0524</t>
-  </si>
-  <si>
-    <t>pou_616f3762d869b9fc</t>
-  </si>
-  <si>
-    <t>pou_a37661115617c6bb</t>
-  </si>
-  <si>
-    <t>pou_b415322eff37ed96</t>
-  </si>
-  <si>
-    <t>pou_f8ff4ad68d3364af</t>
-  </si>
-  <si>
-    <t>pou_9436be8ad0330358</t>
-  </si>
-  <si>
-    <t>pou_8f0695924b1ae642</t>
-  </si>
-  <si>
-    <t>pou_6b7ad759ea1a5e97</t>
-  </si>
-  <si>
-    <t>pou_617e3aea55995b2f</t>
-  </si>
-  <si>
-    <t>pou_c52ab33d8ec0fbc7</t>
-  </si>
-  <si>
-    <t>pou_cf5236100fb7ad40</t>
-  </si>
-  <si>
-    <t>pou_d7f78af22827bcc9</t>
-  </si>
-  <si>
-    <t>pou_48fdc058fc2ccac3</t>
-  </si>
-  <si>
-    <t>pou_0f4c2738cfd72b47</t>
-  </si>
-  <si>
-    <t>pou_cc4cc1a8f4dff408</t>
-  </si>
-  <si>
-    <t>pou_c041837de2cbeb0a</t>
-  </si>
-  <si>
-    <t>pou_d3126026584001c4</t>
-  </si>
-  <si>
-    <t>pou_6b9e5d4c7e236398</t>
-  </si>
-  <si>
-    <t>pou_ee7102c6903c8ffb</t>
-  </si>
-  <si>
-    <t>pou_76cb0ded7cd167ab</t>
-  </si>
-  <si>
-    <t>pou_f19425e6133d817c</t>
-  </si>
-  <si>
-    <t>pou_a49c8d350b50b6d5</t>
-  </si>
-  <si>
-    <t>pou_7948d924ed229419</t>
-  </si>
-  <si>
-    <t>pou_f00ff42630a00b67</t>
-  </si>
-  <si>
-    <t>pou_6cbf955e0cb0f6d4</t>
-  </si>
-  <si>
-    <t>pou_8b0248070c926b1f</t>
-  </si>
-  <si>
-    <t>pou_bae523890575f882</t>
-  </si>
-  <si>
-    <t>pou_e65fd73b72eebe7d</t>
-  </si>
-  <si>
-    <t>pou_a007076ea7e964bd</t>
-  </si>
-  <si>
-    <t>pou_2d380396d4919e83</t>
-  </si>
-  <si>
-    <t>pou_00c1117304db5ebb</t>
-  </si>
-  <si>
-    <t>pou_3e24ecc0eaf78c66</t>
-  </si>
-  <si>
-    <t>pou_2afdfa33da7b43a6</t>
-  </si>
-  <si>
-    <t>pou_e78420991549b9d1</t>
-  </si>
-  <si>
-    <t>pou_03e7a4d2a8f5753d</t>
-  </si>
-  <si>
-    <t>pou_a73421df7562f55b</t>
-  </si>
-  <si>
-    <t>pou_8129efb44214e8a4</t>
-  </si>
-  <si>
-    <t>pou_43f9796c602f0382</t>
-  </si>
-  <si>
-    <t>pou_f00191c2117a269f</t>
-  </si>
-  <si>
-    <t>pou_1c9799a96479abd1</t>
-  </si>
-  <si>
-    <t>pou_e3861405dd68d929</t>
-  </si>
-  <si>
-    <t>pou_072b8d9665f600ad</t>
-  </si>
-  <si>
-    <t>pou_0e442052fce4a7d4</t>
-  </si>
-  <si>
-    <t>pou_7ab5f107a3756e26</t>
-  </si>
-  <si>
-    <t>pou_36302715ce69bd12</t>
-  </si>
-  <si>
-    <t>pou_933aac113ad3de64</t>
-  </si>
-  <si>
-    <t>pou_7a160d36f3281b50</t>
-  </si>
-  <si>
-    <t>pou_7c8db8169d749a95</t>
-  </si>
-  <si>
-    <t>pou_2268d0720748df5e</t>
-  </si>
-  <si>
-    <t>pou_809caaf55d2fbf0f</t>
-  </si>
-  <si>
-    <t>pou_5c2fbd3e98f2b800</t>
-  </si>
-  <si>
-    <t>pou_43967f5233c9892a</t>
-  </si>
-  <si>
-    <t>pou_72eed528f17e9175</t>
-  </si>
-  <si>
-    <t>pou_ab82cfa7321ed5f0</t>
-  </si>
-  <si>
-    <t>pou_103a42e291cb7071</t>
-  </si>
-  <si>
-    <t>pou_83b20723b6e4e8e6</t>
-  </si>
-  <si>
-    <t>pou_a0d28c68018629c0</t>
-  </si>
-  <si>
-    <t>pou_9a6b8f8c50004198</t>
-  </si>
-  <si>
-    <t>pou_d287928ae8321675</t>
-  </si>
-  <si>
-    <t>pou_482730c335ee47b4</t>
-  </si>
-  <si>
-    <t>pou_5a97226b0e022298</t>
-  </si>
-  <si>
-    <t>pou_abb546adf278cc84</t>
-  </si>
-  <si>
-    <t>pou_5d37f3724760169a</t>
-  </si>
-  <si>
-    <t>pou_fafef9da6a4c5a9f</t>
-  </si>
-  <si>
-    <t>pou_255d7f40f624f90f</t>
-  </si>
-  <si>
-    <t>pou_02f7715a52de8f7d</t>
-  </si>
-  <si>
-    <t>pou_d2527fefa02e022e</t>
-  </si>
-  <si>
-    <t>pou_0533ef2e6ecaf03e</t>
-  </si>
-  <si>
-    <t>pou_f354d56f27686fcc</t>
-  </si>
-  <si>
-    <t>pou_06651e4230436a45</t>
-  </si>
-  <si>
-    <t>pou_85d7bb9ddd15d340</t>
-  </si>
-  <si>
-    <t>pou_83683a916496e185</t>
-  </si>
-  <si>
-    <t>pou_dfc16bcda7d88050</t>
-  </si>
-  <si>
-    <t>pou_51c287e01b0b8fae</t>
-  </si>
-  <si>
-    <t>pou_bdd4c9b9165c0209</t>
-  </si>
-  <si>
-    <t>pou_813db863221f9de1</t>
-  </si>
-  <si>
-    <t>pou_6f55438141516e37</t>
-  </si>
-  <si>
-    <t>pou_faad80d512e117a7</t>
-  </si>
-  <si>
-    <t>pou_0d8eded6c51315c6</t>
-  </si>
-  <si>
-    <t>pou_88e32956a321afe4</t>
-  </si>
-  <si>
-    <t>pou_62d5b9936066127e</t>
-  </si>
-  <si>
-    <t>pou_7b589ce5310c2041</t>
-  </si>
-  <si>
-    <t>pou_2a91822211269f42</t>
-  </si>
-  <si>
-    <t>pou_1d7d0df8f7899234</t>
-  </si>
-  <si>
-    <t>pou_afa63b9c4505a089</t>
-  </si>
-  <si>
-    <t>pou_32f7e218a3870760</t>
-  </si>
-  <si>
-    <t>pou_a9236aaa72c5257a</t>
-  </si>
-  <si>
-    <t>pou_b0ddbe2d6548d744</t>
-  </si>
-  <si>
-    <t>pou_45b4176f91e6ea1c</t>
-  </si>
-  <si>
-    <t>pou_2f874cb616d9ac0e</t>
-  </si>
-  <si>
-    <t>pou_86c8e0a64a86c28a</t>
-  </si>
-  <si>
-    <t>pou_bc22ca79a3bbd43f</t>
-  </si>
-  <si>
-    <t>pou_e3d2f9426aa6a36e</t>
-  </si>
-  <si>
-    <t>pou_2801797b9b2cf018</t>
-  </si>
-  <si>
-    <t>pou_ec7cd6b5ba5b08b7</t>
-  </si>
-  <si>
-    <t>pou_f0078c70bc238a9c</t>
-  </si>
-  <si>
-    <t>pou_ec0857adaa7a9c17</t>
-  </si>
-  <si>
-    <t>pou_ae7a3873cb0c1c90</t>
-  </si>
-  <si>
-    <t>pou_184e30aa04b7fedc</t>
-  </si>
-  <si>
-    <t>pou_8a0ed75ab5a97216</t>
-  </si>
-  <si>
-    <t>pou_8d0fff3490e1d846</t>
-  </si>
-  <si>
-    <t>pou_1df16f268bf3487a</t>
-  </si>
-  <si>
-    <t>pou_815196659b152db3</t>
-  </si>
-  <si>
-    <t>pou_12ba58b9927aac7f</t>
-  </si>
-  <si>
-    <t>pou_b0e1d57bca0cb5a0</t>
-  </si>
-  <si>
-    <t>pou_cf08ad31b96191b6</t>
-  </si>
-  <si>
-    <t>pou_5cf2c7a532be263f</t>
-  </si>
-  <si>
-    <t>pou_ef5a9bbea50480a5</t>
-  </si>
-  <si>
-    <t>pou_209b58523a9f7a56</t>
-  </si>
-  <si>
-    <t>pou_b1f985b2e90a0900</t>
-  </si>
-  <si>
-    <t>pou_f2eebd75a23446b0</t>
-  </si>
-  <si>
-    <t>pou_9b68fd777c4395a4</t>
-  </si>
-  <si>
-    <t>pou_fc2074d3e45c90eb</t>
-  </si>
-  <si>
-    <t>pou_4b01feb24d579e0b</t>
-  </si>
-  <si>
-    <t>pou_6f97bb4548515d28</t>
-  </si>
-  <si>
-    <t>pou_17fee672d1ecd5da</t>
-  </si>
-  <si>
-    <t>pou_0304c3919109491c</t>
-  </si>
-  <si>
-    <t>pou_ca1b07aa748ce305</t>
-  </si>
-  <si>
-    <t>pou_7acd7ba635b5cadb</t>
-  </si>
-  <si>
-    <t>pou_fe8e665c9261d6cc</t>
-  </si>
-  <si>
-    <t>pou_318785dabe380231</t>
-  </si>
-  <si>
-    <t>pou_4bc5d354c1d00675</t>
-  </si>
-  <si>
-    <t>pou_a769ec422c663e23</t>
-  </si>
-  <si>
-    <t>pou_875e6c0d61a38509</t>
-  </si>
-  <si>
-    <t>pou_79e4000de1bd0fe5</t>
-  </si>
-  <si>
-    <t>pou_19e5e9ba4e0a0d15</t>
-  </si>
-  <si>
-    <t>pou_c07d48b17d268b30</t>
-  </si>
-  <si>
-    <t>pou_91207109c7273fa1</t>
-  </si>
-  <si>
-    <t>pou_079e246ba9b983e1</t>
-  </si>
-  <si>
-    <t>pou_fc10cb0c1f91a723</t>
-  </si>
-  <si>
-    <t>pou_00755735e11184a3</t>
-  </si>
-  <si>
-    <t>pou_dd432f85deba3b29</t>
-  </si>
-  <si>
-    <t>pou_fc1545ecc1b703d3</t>
-  </si>
-  <si>
-    <t>pou_131c5be68372616a</t>
-  </si>
-  <si>
-    <t>pou_d5ca56678783c463</t>
-  </si>
-  <si>
-    <t>pou_41e6ba198656a06d</t>
-  </si>
-  <si>
-    <t>pou_c483842b3048884d</t>
-  </si>
-  <si>
-    <t>pou_eb3962cd6ade570e</t>
-  </si>
-  <si>
-    <t>pou_411afef22979066d</t>
-  </si>
-  <si>
-    <t>pou_101ac782fd02c7ef</t>
-  </si>
-  <si>
-    <t>pou_78a2016fdfc7e0b8</t>
-  </si>
-  <si>
-    <t>pou_bd150c0304819f49</t>
-  </si>
-  <si>
-    <t>pou_4e6c90ac32620e93</t>
-  </si>
-  <si>
-    <t>pou_a7450c7c5a3c94db</t>
-  </si>
-  <si>
-    <t>pou_fd3da92d1d88db11</t>
-  </si>
-  <si>
-    <t>pou_d1ed742d4fcbea67</t>
-  </si>
-  <si>
-    <t>pou_2c9edd9ba3df276c</t>
-  </si>
-  <si>
-    <t>pou_7b0382940cd124e0</t>
-  </si>
-  <si>
-    <t>pou_7261404358a0a9c6</t>
-  </si>
-  <si>
-    <t>pou_76f0c6f3e542389b</t>
-  </si>
-  <si>
-    <t>pou_54360c14196c468f</t>
-  </si>
-  <si>
-    <t>pou_d3fa714ca25d8714</t>
-  </si>
-  <si>
-    <t>pou_de7199dd6177fd72</t>
-  </si>
-  <si>
-    <t>pou_e74a76e58eb97bdf</t>
-  </si>
-  <si>
-    <t>pou_0e979e22a2128b01</t>
-  </si>
-  <si>
-    <t>pou_908892435bc7433f</t>
-  </si>
-  <si>
-    <t>pou_f00260d0421e0ee5</t>
-  </si>
-  <si>
-    <t>pou_dfb4f07682695dfa</t>
-  </si>
-  <si>
-    <t>pou_7161f80cb5aef21a</t>
-  </si>
-  <si>
-    <t>pou_1f4391543bcd851d</t>
-  </si>
-  <si>
-    <t>pou_7be1c65b21eb54a1</t>
-  </si>
-  <si>
-    <t>pou_99f84ca6241a957e</t>
-  </si>
-  <si>
-    <t>pou_52fcb79cacbeba5d</t>
-  </si>
-  <si>
-    <t>pou_282d3844dbaf470d</t>
-  </si>
-  <si>
-    <t>pou_512417c4cda04b54</t>
-  </si>
-  <si>
-    <t>pou_04efb6d4604be6ae</t>
-  </si>
-  <si>
-    <t>pou_dc94586af9d291d0</t>
-  </si>
-  <si>
-    <t>pou_37b6e8e00cbf0478</t>
-  </si>
-  <si>
-    <t>pou_c9b7261b21416218</t>
-  </si>
-  <si>
-    <t>pou_2c2e04c8888840d0</t>
-  </si>
-  <si>
-    <t>pou_d1c2d5252534225a</t>
-  </si>
-  <si>
-    <t>pou_c415bdab9eb79f97</t>
-  </si>
-  <si>
-    <t>pou_ed2a20129a3819d4</t>
-  </si>
-  <si>
-    <t>pou_4c243c068535608e</t>
-  </si>
-  <si>
-    <t>pou_9ee4a1ab82c42c96</t>
-  </si>
-  <si>
-    <t>pou_3c2006e67535b3b4</t>
-  </si>
-  <si>
-    <t>pou_160e91b933a5b30f</t>
-  </si>
-  <si>
-    <t>pou_d3b67240b182610d</t>
-  </si>
-  <si>
-    <t>pou_daad3bae4d4dc82f</t>
-  </si>
-  <si>
-    <t>pou_48456f986cd05ee2</t>
-  </si>
-  <si>
-    <t>pou_c283a36862f37350</t>
-  </si>
-  <si>
-    <t>pou_c59427ee3ad60c76</t>
-  </si>
-  <si>
-    <t>pou_ee354c14d85c4607</t>
-  </si>
-  <si>
-    <t>pou_f8c0468832b5d66e</t>
-  </si>
-  <si>
-    <t>pou_73be37bfd3b8cb7d</t>
-  </si>
-  <si>
-    <t>pou_2c1ea2efee65a3d2</t>
-  </si>
-  <si>
-    <t>pou_a7e630743cc0a54d</t>
-  </si>
-  <si>
-    <t>pou_b47c5df282db3f78</t>
-  </si>
-  <si>
-    <t>pou_84cf65ea86942e58</t>
-  </si>
-  <si>
-    <t>pou_71bbba0314393840</t>
-  </si>
-  <si>
-    <t>pou_b02a1292de4a08c9</t>
-  </si>
-  <si>
-    <t>pou_277689c92cb791cb</t>
-  </si>
-  <si>
-    <t>pou_b013083774a30d75</t>
-  </si>
-  <si>
-    <t>pou_8cd05048f7c30c57</t>
-  </si>
-  <si>
-    <t>pou_4959004369538504</t>
-  </si>
-  <si>
-    <t>pou_f5ec7338cce214e2</t>
-  </si>
-  <si>
-    <t>pou_2c3e74e0c5ee5352</t>
-  </si>
-  <si>
-    <t>pou_5f5df97bd753b58c</t>
-  </si>
-  <si>
-    <t>pou_ae00bfa2f7536b00</t>
-  </si>
-  <si>
-    <t>pou_2cc50651ecfc803f</t>
-  </si>
-  <si>
-    <t>pou_7f10aaede0e18f93</t>
-  </si>
-  <si>
-    <t>pou_a287483a2b5c4cbb</t>
-  </si>
-  <si>
-    <t>pou_c070d8478093048f</t>
-  </si>
-  <si>
-    <t>pou_9a61d86cd2b6acc7</t>
-  </si>
-  <si>
-    <t>pou_1ea5057c48147ff6</t>
-  </si>
-  <si>
-    <t>pou_9367869af15e2352</t>
-  </si>
-  <si>
-    <t>pou_15f80dfb4bd40bb9</t>
-  </si>
-  <si>
-    <t>pou_62f7fb03af068707</t>
-  </si>
-  <si>
-    <t>pou_7f1a34df054049ae</t>
-  </si>
-  <si>
-    <t>pou_57d48c405141c5b9</t>
-  </si>
-  <si>
-    <t>pou_61fbc1a6088bfadf</t>
-  </si>
-  <si>
-    <t>pou_07177d6a54c2c3b8</t>
-  </si>
-  <si>
-    <t>pou_c8befd77b8c30ac2</t>
-  </si>
-  <si>
-    <t>pou_3a57d2b791c6ea9d</t>
-  </si>
-  <si>
-    <t>pou_eee76aba923ae261;pou_db18a772107ce359</t>
-  </si>
-  <si>
-    <t>pou_c70c7864f7b09f42;pou_4a19e096bef4c9c0;pou_811e4a006d9bde8f;pou_718e74c03d9fac6d;pou_92accd0b18f1cc00;pou_14677913b717cce2;pou_7f62ee49957380f9;pou_dda41a13c13f094f;pou_eb39c3d2a45b41d8;pou_6804be1657161df5;pou_ea792296304206a8;pou_2bfcf46de2c6f871</t>
-  </si>
-  <si>
-    <t>pou_baf22e5226f56ecc</t>
-  </si>
-  <si>
-    <t>pou_70a565b7198fadf7</t>
-  </si>
-  <si>
-    <t>pou_56438e03bf7b5d5b</t>
-  </si>
-  <si>
-    <t>pou_0fc30cb7d958d63e</t>
-  </si>
-  <si>
-    <t>pou_69d23bbd8b598ce5</t>
-  </si>
-  <si>
-    <t>pou_4e957a6ea5ebf47f</t>
-  </si>
-  <si>
-    <t>pou_5a53733c5cb71423</t>
-  </si>
-  <si>
-    <t>pou_15096c9392763105</t>
-  </si>
-  <si>
-    <t>pou_5b868b4fa724c453</t>
-  </si>
-  <si>
-    <t>pou_7220dc4b34bfa10a</t>
-  </si>
-  <si>
-    <t>pou_4caaed59a699635b</t>
-  </si>
-  <si>
-    <t>pou_258b7634f29a33e4</t>
-  </si>
-  <si>
-    <t>pou_c4d7422f33d0c4bc</t>
-  </si>
-  <si>
-    <t>pou_79c23b412df17853</t>
-  </si>
-  <si>
-    <t>pou_c646c00c833be63a</t>
-  </si>
-  <si>
-    <t>pou_af4731f28c5ef483</t>
-  </si>
-  <si>
-    <t>pou_db1011da1f7dc47e</t>
-  </si>
-  <si>
-    <t>pou_31543f8e52c6dc50</t>
-  </si>
-  <si>
-    <t>pou_5646d87671b73880</t>
-  </si>
-  <si>
-    <t>pou_e09b238210253a37</t>
-  </si>
-  <si>
-    <t>pou_b3a717a16db6a82b</t>
-  </si>
-  <si>
-    <t>pou_7e6728ab5221c524</t>
-  </si>
-  <si>
-    <t>pou_1cd3647368f28f23</t>
-  </si>
-  <si>
-    <t>pou_ebe51b9ed6023b6d</t>
-  </si>
-  <si>
-    <t>pou_e3f713af306c674a</t>
-  </si>
-  <si>
-    <t>pou_17441518dc07ab16</t>
-  </si>
-  <si>
-    <t>pou_c6aba50c851a0af1</t>
-  </si>
-  <si>
-    <t>pou_e4c69b940c3487c4</t>
-  </si>
-  <si>
-    <t>pou_28c600fe7ffd0e6f</t>
-  </si>
-  <si>
-    <t>pou_73645546ce5e3537</t>
-  </si>
-  <si>
-    <t>pou_b22d096e2e0e4356</t>
-  </si>
-  <si>
-    <t>pou_9b3c8e26a5d9be45</t>
-  </si>
-  <si>
-    <t>pou_4eeab3127ad6b1f2</t>
-  </si>
-  <si>
-    <t>pou_58e497f4f733a294</t>
-  </si>
-  <si>
-    <t>pou_d3027a00fd45ea26</t>
-  </si>
-  <si>
-    <t>pou_43298358e62d8ec8</t>
-  </si>
-  <si>
-    <t>pou_d736b128514683a8</t>
-  </si>
-  <si>
-    <t>pou_7e1f572e17a96af4</t>
-  </si>
-  <si>
-    <t>pou_a0b9e1a26c55635e</t>
-  </si>
-  <si>
-    <t>pou_a1a45b7fb2dfbd2a</t>
-  </si>
-  <si>
-    <t>pou_cdf4c1dc9950c208</t>
-  </si>
-  <si>
-    <t>pou_f14f39a5d91cf8e6</t>
+    <t>pou_bdbb61c58c7dfeb1</t>
+  </si>
+  <si>
+    <t>pou_1bb8ccb25398d10a</t>
+  </si>
+  <si>
+    <t>pou_121ef345938a17e5;pou_e16942fb63125671</t>
+  </si>
+  <si>
+    <t>pou_3f9d86d9b80fa82e</t>
+  </si>
+  <si>
+    <t>pou_ae9233e2ce7fa2b1</t>
+  </si>
+  <si>
+    <t>pou_a587d43e0a016468</t>
+  </si>
+  <si>
+    <t>pou_1a8225fb48df9445</t>
+  </si>
+  <si>
+    <t>pou_551315a53c25c266</t>
+  </si>
+  <si>
+    <t>pou_6774204b99c19519</t>
+  </si>
+  <si>
+    <t>pou_bd89159fc59f5dd7</t>
+  </si>
+  <si>
+    <t>pou_8c2fcd397b11a575</t>
+  </si>
+  <si>
+    <t>pou_0658281478b2cfd9</t>
+  </si>
+  <si>
+    <t>pou_ed142a1659d547a2</t>
+  </si>
+  <si>
+    <t>pou_f991a98f9b7dc50f</t>
+  </si>
+  <si>
+    <t>pou_e3b2ceaa8ad42f11;pou_92272373face4d10</t>
+  </si>
+  <si>
+    <t>pou_31212034fbc997d2</t>
+  </si>
+  <si>
+    <t>pou_a3d5e46b30d2c0ff</t>
+  </si>
+  <si>
+    <t>pou_24c4bc1b2387355e;pou_d7efed6ef587904f</t>
+  </si>
+  <si>
+    <t>pou_379c66c82a10082f</t>
+  </si>
+  <si>
+    <t>pou_eea29aed29609fe0</t>
+  </si>
+  <si>
+    <t>pou_9565d6878a215c26</t>
+  </si>
+  <si>
+    <t>pou_9e6f5a9e1cc70351</t>
+  </si>
+  <si>
+    <t>pou_1f867e8580c99c95;pou_6414610690e92177</t>
+  </si>
+  <si>
+    <t>pou_073b346d24757884;pou_ec75c50d62da360d</t>
+  </si>
+  <si>
+    <t>pou_466ffe32223f2392</t>
+  </si>
+  <si>
+    <t>pou_93f0603fff765323</t>
+  </si>
+  <si>
+    <t>pou_de3b17540e5a33c2</t>
+  </si>
+  <si>
+    <t>pou_d90da0e1ef36e8d0;pou_9eeda7ac7f1eb8a8;pou_12a05018912575ae;pou_e82c26165b4caa41;pou_37531ca74211be00;pou_2eed1e3ed2af7d03;pou_3610a7a884ff808e;pou_dded661a3a4339a3;pou_fa738139b6fb627a</t>
+  </si>
+  <si>
+    <t>pou_5d57b394b5fa27b6</t>
+  </si>
+  <si>
+    <t>pou_2a892ca138cd1061</t>
+  </si>
+  <si>
+    <t>pou_85533d5b44b1db82</t>
+  </si>
+  <si>
+    <t>pou_ae13c7ffd7e37c05</t>
+  </si>
+  <si>
+    <t>pou_28d80670a66414ee</t>
+  </si>
+  <si>
+    <t>pou_2a18656655dbfdfe</t>
+  </si>
+  <si>
+    <t>pou_5f5d47173ff7409a;pou_0ca5d16d5c3369aa</t>
+  </si>
+  <si>
+    <t>pou_0e42d951d00efd6a</t>
+  </si>
+  <si>
+    <t>pou_67567fd023c261fe</t>
+  </si>
+  <si>
+    <t>pou_403882d96bb6686b</t>
+  </si>
+  <si>
+    <t>pou_0c8de334f03bbc2a;pou_8a06fef18eb16096</t>
+  </si>
+  <si>
+    <t>pou_b98476ebb25c3ca6</t>
+  </si>
+  <si>
+    <t>pou_30a6352b60118e2d</t>
+  </si>
+  <si>
+    <t>pou_ced40cd41380a8fb</t>
+  </si>
+  <si>
+    <t>pou_63598d6d8f2ddb61</t>
+  </si>
+  <si>
+    <t>pou_9c962492f621a329</t>
+  </si>
+  <si>
+    <t>pou_cf67726c33389916</t>
+  </si>
+  <si>
+    <t>pou_65f239a6a78161b3;pou_dfc2014f98ab98d3</t>
+  </si>
+  <si>
+    <t>pou_bda0818d86c1ea26</t>
+  </si>
+  <si>
+    <t>pou_cdf28cddf8bb0e46</t>
+  </si>
+  <si>
+    <t>pou_22cbeac9a1b98648</t>
+  </si>
+  <si>
+    <t>pou_2f3c194527d3e72e</t>
+  </si>
+  <si>
+    <t>pou_9b22f50866e0870f</t>
+  </si>
+  <si>
+    <t>pou_b6135aca33a91d1c</t>
+  </si>
+  <si>
+    <t>pou_dabb4a83e36ccc55</t>
+  </si>
+  <si>
+    <t>pou_2247a3b284bc5111</t>
+  </si>
+  <si>
+    <t>pou_3ded89649b519e7c</t>
+  </si>
+  <si>
+    <t>pou_b15c63038eb70971</t>
+  </si>
+  <si>
+    <t>pou_8a2fc5171424a403</t>
+  </si>
+  <si>
+    <t>pou_e93ee125dea40cd5</t>
+  </si>
+  <si>
+    <t>pou_1865033d8d2021e6</t>
+  </si>
+  <si>
+    <t>pou_a5b44ed55af9c893</t>
+  </si>
+  <si>
+    <t>pou_1e551b5627c8eda1</t>
+  </si>
+  <si>
+    <t>pou_03ecd8d94871ad1e</t>
+  </si>
+  <si>
+    <t>pou_ddd7eddbf115a299</t>
+  </si>
+  <si>
+    <t>pou_723ac9e91836fcef</t>
+  </si>
+  <si>
+    <t>pou_ea9b7796d17061e3</t>
+  </si>
+  <si>
+    <t>pou_a7e1458e80b7efe7</t>
+  </si>
+  <si>
+    <t>pou_a1ea9eff28f2afc1</t>
+  </si>
+  <si>
+    <t>pou_5fc4d96f09b3a27e</t>
+  </si>
+  <si>
+    <t>pou_5035394a22cfb00a</t>
+  </si>
+  <si>
+    <t>pou_d0981eb804c617b7</t>
+  </si>
+  <si>
+    <t>pou_631e9bd93e4ab250</t>
+  </si>
+  <si>
+    <t>pou_b24dc449b4529d4f</t>
+  </si>
+  <si>
+    <t>pou_747a688e48ada555</t>
+  </si>
+  <si>
+    <t>pou_bc415c057bd96e47</t>
+  </si>
+  <si>
+    <t>pou_e8ccbd5ff00ebd50</t>
+  </si>
+  <si>
+    <t>pou_a0f56c885a87a80e</t>
+  </si>
+  <si>
+    <t>pou_4785543ef01c4761</t>
+  </si>
+  <si>
+    <t>pou_130474d61106fb78</t>
+  </si>
+  <si>
+    <t>pou_c77ddc9af7209a20</t>
+  </si>
+  <si>
+    <t>pou_aa0c6df4567cfa5c</t>
+  </si>
+  <si>
+    <t>pou_4c8003287347c89a</t>
+  </si>
+  <si>
+    <t>pou_3132b6bdf644dcbe</t>
+  </si>
+  <si>
+    <t>pou_62c30f9cc85d06e9</t>
+  </si>
+  <si>
+    <t>pou_b7bc18698d939a16</t>
+  </si>
+  <si>
+    <t>pou_c4e8d7d20fbd5ac4</t>
+  </si>
+  <si>
+    <t>pou_95e6b4e7bf109d10</t>
+  </si>
+  <si>
+    <t>pou_6a789d42be438baa</t>
+  </si>
+  <si>
+    <t>pou_b779d226a0c8d054</t>
+  </si>
+  <si>
+    <t>pou_ce6ba31919ce7f04</t>
+  </si>
+  <si>
+    <t>pou_4ae3b8bb8f666d5d</t>
+  </si>
+  <si>
+    <t>pou_52a00eb9c4f877ed</t>
+  </si>
+  <si>
+    <t>pou_d4e43c8394ecec0c</t>
+  </si>
+  <si>
+    <t>pou_83b8a49b9b634052</t>
+  </si>
+  <si>
+    <t>pou_663a6230307d4af2</t>
+  </si>
+  <si>
+    <t>pou_a5febbe7035016ce</t>
+  </si>
+  <si>
+    <t>pou_797b8964b4090b74</t>
+  </si>
+  <si>
+    <t>pou_f6b7164efb415640</t>
+  </si>
+  <si>
+    <t>pou_231fad2a8b8a5c61</t>
+  </si>
+  <si>
+    <t>pou_ff2306e48488dd96</t>
+  </si>
+  <si>
+    <t>pou_97fa93cece188bab</t>
+  </si>
+  <si>
+    <t>pou_d2756979f1fbc45b</t>
+  </si>
+  <si>
+    <t>pou_96c431dc3567c3b2</t>
+  </si>
+  <si>
+    <t>pou_06ef1afa068a5341</t>
+  </si>
+  <si>
+    <t>pou_eb63fd61fc2288a1</t>
+  </si>
+  <si>
+    <t>pou_5018a9bf33491d65</t>
+  </si>
+  <si>
+    <t>pou_b76d2ecb6dec150d</t>
+  </si>
+  <si>
+    <t>pou_de2b4562a8c2c109</t>
+  </si>
+  <si>
+    <t>pou_c04a4efaa3951354</t>
+  </si>
+  <si>
+    <t>pou_1de4aba0c1ca886f</t>
+  </si>
+  <si>
+    <t>pou_d4ff74d226fd099a</t>
+  </si>
+  <si>
+    <t>pou_53111480ccf47a93</t>
+  </si>
+  <si>
+    <t>pou_845430bd546637ab</t>
+  </si>
+  <si>
+    <t>pou_f96e1ae38180f1df</t>
+  </si>
+  <si>
+    <t>pou_3b27eb10c596df12</t>
+  </si>
+  <si>
+    <t>pou_cb44938dd195e494</t>
+  </si>
+  <si>
+    <t>pou_afb4e2131b0bc4e2</t>
+  </si>
+  <si>
+    <t>pou_61f5b93f8b07cbad</t>
+  </si>
+  <si>
+    <t>pou_b9db760056ef7842</t>
+  </si>
+  <si>
+    <t>pou_4b8c5d3039f1869d</t>
+  </si>
+  <si>
+    <t>pou_805af8cf8af13e9d</t>
+  </si>
+  <si>
+    <t>pou_004e7433fb88f39b</t>
+  </si>
+  <si>
+    <t>pou_79b7de1146632e17</t>
+  </si>
+  <si>
+    <t>pou_3ce6181e4d220df0</t>
+  </si>
+  <si>
+    <t>pou_11992848aa23d8e0</t>
+  </si>
+  <si>
+    <t>pou_898b69bc7f9d0091</t>
+  </si>
+  <si>
+    <t>pou_704af0b4f39ee26b;pou_886bb8d7e54e61e6;pou_e0bcc3f71e027d6e</t>
+  </si>
+  <si>
+    <t>pou_faa659fd451c8a51</t>
+  </si>
+  <si>
+    <t>pou_1df4bc9397d4e07f</t>
+  </si>
+  <si>
+    <t>pou_1f1700b766b4314c</t>
+  </si>
+  <si>
+    <t>pou_93bfefaf97136317;pou_327bd1ece2857d39</t>
+  </si>
+  <si>
+    <t>pou_a6e1aa54eeff0d94</t>
+  </si>
+  <si>
+    <t>pou_66f15ac603936a7b</t>
+  </si>
+  <si>
+    <t>pou_02f4528d7f571d9d</t>
+  </si>
+  <si>
+    <t>pou_3b4676b8284d8ec8</t>
+  </si>
+  <si>
+    <t>pou_3bd8710f85859298</t>
+  </si>
+  <si>
+    <t>pou_dd0cd25cbc175492</t>
+  </si>
+  <si>
+    <t>pou_815bf16d0a14dd22</t>
+  </si>
+  <si>
+    <t>pou_fe22fe2e8b0ead71</t>
+  </si>
+  <si>
+    <t>pou_65e28dea2b852d59</t>
+  </si>
+  <si>
+    <t>pou_6f2039ca4ef18916</t>
+  </si>
+  <si>
+    <t>pou_faef27032680bdc1</t>
+  </si>
+  <si>
+    <t>pou_6f738b493a24a0f5</t>
+  </si>
+  <si>
+    <t>pou_0ef97ca5381bca31</t>
+  </si>
+  <si>
+    <t>pou_b2417e2ac189b126</t>
+  </si>
+  <si>
+    <t>pou_b5de8c56e5a48f8e</t>
+  </si>
+  <si>
+    <t>pou_0521e8df17bd3627</t>
+  </si>
+  <si>
+    <t>pou_63a3214e62d3de98</t>
+  </si>
+  <si>
+    <t>pou_99e07bc63c91bc04</t>
+  </si>
+  <si>
+    <t>pou_27807e317812aef8</t>
+  </si>
+  <si>
+    <t>pou_dc347a97c2179fd7</t>
+  </si>
+  <si>
+    <t>pou_850df6e0e35b075b;pou_53492814286efd02;pou_469b544fc5365981;pou_167f4ba76203280e;pou_82e47b43263a3d91;pou_a4d35fa13b9366b4;pou_7809b1e5adc72bdc;pou_47a620f7c1f21786;pou_8d127e434b88eb2c;pou_ef11ef6a5af8878d;pou_070280f6f6d568a5</t>
+  </si>
+  <si>
+    <t>pou_6522b54ec50ad95b</t>
+  </si>
+  <si>
+    <t>pou_5b9c329620fc22bd</t>
+  </si>
+  <si>
+    <t>pou_93adb7df1bcd784e;pou_46ec7821bc5ba5d3</t>
+  </si>
+  <si>
+    <t>pou_29ced96ef3324263</t>
+  </si>
+  <si>
+    <t>pou_42c8b516ada4c419</t>
+  </si>
+  <si>
+    <t>pou_038d58144db4b8d4</t>
+  </si>
+  <si>
+    <t>pou_600b070b639fdc85</t>
+  </si>
+  <si>
+    <t>pou_3d82c763a533135f</t>
+  </si>
+  <si>
+    <t>pou_1482132d3482332c</t>
+  </si>
+  <si>
+    <t>pou_6c62ce6b3978b217</t>
+  </si>
+  <si>
+    <t>pou_aa980d8986acb86b</t>
+  </si>
+  <si>
+    <t>pou_2289e02e236d6408</t>
+  </si>
+  <si>
+    <t>pou_ebe0e3510aa507c2</t>
+  </si>
+  <si>
+    <t>pou_50415442b100ac57</t>
+  </si>
+  <si>
+    <t>pou_0e23bc76d8f9aa24</t>
+  </si>
+  <si>
+    <t>pou_0b6a2c4c8350d309</t>
+  </si>
+  <si>
+    <t>pou_c7b64cf3d4d5d700</t>
+  </si>
+  <si>
+    <t>pou_4c2201f267c59dad</t>
+  </si>
+  <si>
+    <t>pou_3d67dbd06db9f636</t>
+  </si>
+  <si>
+    <t>pou_b00f749666569098</t>
+  </si>
+  <si>
+    <t>pou_47eaabc7bed4b3a7</t>
+  </si>
+  <si>
+    <t>pou_e1d74788a389fb20</t>
+  </si>
+  <si>
+    <t>pou_4b207c77ea587c35</t>
+  </si>
+  <si>
+    <t>pou_ebab0cafd7e8b2f9</t>
+  </si>
+  <si>
+    <t>pou_39dae473b254e3c0</t>
+  </si>
+  <si>
+    <t>pou_6afb3c3acb53ffb2</t>
+  </si>
+  <si>
+    <t>pou_bfbe37e9a1d35196</t>
+  </si>
+  <si>
+    <t>pou_c0ecdb768250c366</t>
+  </si>
+  <si>
+    <t>pou_b796a951d07bf056</t>
+  </si>
+  <si>
+    <t>pou_461fcf37d5020bd1</t>
+  </si>
+  <si>
+    <t>pou_761e7d8b8257e8f2</t>
+  </si>
+  <si>
+    <t>pou_49c83f3478ead7d8</t>
+  </si>
+  <si>
+    <t>pou_7f702220920a9a48</t>
+  </si>
+  <si>
+    <t>pou_d617654e4eb1a035</t>
+  </si>
+  <si>
+    <t>pou_e32d52d32b0d975f</t>
+  </si>
+  <si>
+    <t>pou_566a73968134b65c</t>
+  </si>
+  <si>
+    <t>pou_9c5e1fe94ad95fe7</t>
+  </si>
+  <si>
+    <t>pou_1051cba6f0ffffb0</t>
+  </si>
+  <si>
+    <t>pou_78cec3aa6a157959</t>
+  </si>
+  <si>
+    <t>pou_5294b5fe42d92505</t>
+  </si>
+  <si>
+    <t>pou_5eda457026655530</t>
+  </si>
+  <si>
+    <t>pou_b49a40492b0f711e</t>
+  </si>
+  <si>
+    <t>pou_b19740e5d393efa9</t>
+  </si>
+  <si>
+    <t>pou_b88e5e652bee0856</t>
+  </si>
+  <si>
+    <t>pou_b1f69a62a305f06a</t>
+  </si>
+  <si>
+    <t>pou_a5065bd99cfcaaaf</t>
+  </si>
+  <si>
+    <t>pou_efe5ef9e55305afc</t>
+  </si>
+  <si>
+    <t>pou_18534e9852fb8e14</t>
+  </si>
+  <si>
+    <t>pou_d5fe742d0ebb1be0</t>
+  </si>
+  <si>
+    <t>pou_ae2091464333ce72</t>
+  </si>
+  <si>
+    <t>pou_cf0ad20038af6f92</t>
+  </si>
+  <si>
+    <t>pou_05908af79cb18125</t>
+  </si>
+  <si>
+    <t>pou_e28abf7c35762a34</t>
+  </si>
+  <si>
+    <t>pou_103072317f83a6cf</t>
+  </si>
+  <si>
+    <t>pou_be03b97726fae23a</t>
+  </si>
+  <si>
+    <t>pou_38fda7a5ffb74f03</t>
+  </si>
+  <si>
+    <t>pou_f5557b1f0e04e3a8</t>
+  </si>
+  <si>
+    <t>pou_2d51e23b7d75a105</t>
+  </si>
+  <si>
+    <t>pou_7a125ca17e9471e6</t>
+  </si>
+  <si>
+    <t>pou_9943b46b88785788</t>
+  </si>
+  <si>
+    <t>pou_e97da0222633d5fb</t>
+  </si>
+  <si>
+    <t>pou_f5e764d49c627181</t>
+  </si>
+  <si>
+    <t>pou_2c95147d8eb00fc7</t>
+  </si>
+  <si>
+    <t>pou_0e12e2656294d6f1</t>
+  </si>
+  <si>
+    <t>pou_97a7fd7d69ba20e8</t>
+  </si>
+  <si>
+    <t>pou_7af8ce61bffa84f4</t>
+  </si>
+  <si>
+    <t>pou_33bd9448e1d7bf5c</t>
+  </si>
+  <si>
+    <t>pou_0535416a78d36c81</t>
+  </si>
+  <si>
+    <t>pou_c481b47b193fb1e1</t>
+  </si>
+  <si>
+    <t>pou_d12cb956b75d4497</t>
+  </si>
+  <si>
+    <t>pou_f89f3879d7f07f12</t>
+  </si>
+  <si>
+    <t>pou_15d34b43d9ad0c7d</t>
+  </si>
+  <si>
+    <t>pou_15c48de218cff521</t>
+  </si>
+  <si>
+    <t>pou_e2a9940e126a2a4b</t>
+  </si>
+  <si>
+    <t>pou_ed19f6d5998d2786</t>
+  </si>
+  <si>
+    <t>pou_fc1d07b138b8984a</t>
+  </si>
+  <si>
+    <t>pou_1a17d2cfeba08c2e</t>
+  </si>
+  <si>
+    <t>pou_8a97f82b73690498</t>
+  </si>
+  <si>
+    <t>pou_b7df614993420fc4</t>
+  </si>
+  <si>
+    <t>pou_f5bae3fff9740b84</t>
+  </si>
+  <si>
+    <t>pou_917504dd1fa62ef5</t>
+  </si>
+  <si>
+    <t>pou_8a639738edbf4465</t>
+  </si>
+  <si>
+    <t>pou_0bf8a006db94bf3c</t>
+  </si>
+  <si>
+    <t>pou_3849713c68c111d9</t>
+  </si>
+  <si>
+    <t>pou_70c3c4e0d3b67f1c</t>
+  </si>
+  <si>
+    <t>pou_8c395bc528436ed3</t>
+  </si>
+  <si>
+    <t>pou_47037979b04ca8e3</t>
+  </si>
+  <si>
+    <t>pou_a221b9c6799bb57b</t>
+  </si>
+  <si>
+    <t>pou_178e0ca52f995d63</t>
+  </si>
+  <si>
+    <t>pou_3c4c54e04ec45224</t>
+  </si>
+  <si>
+    <t>pou_822602f91d065c03</t>
+  </si>
+  <si>
+    <t>pou_6516273dd5847011</t>
+  </si>
+  <si>
+    <t>pou_e45e27dc6af883b0</t>
+  </si>
+  <si>
+    <t>pou_d9635baa086e1ea9</t>
+  </si>
+  <si>
+    <t>pou_87a6decb5446f13f</t>
+  </si>
+  <si>
+    <t>pou_a7039efa145bb83c</t>
+  </si>
+  <si>
+    <t>pou_88016bffdb85f3bf</t>
+  </si>
+  <si>
+    <t>pou_c03a1f40e073ae48</t>
+  </si>
+  <si>
+    <t>pou_f2ce7ba8da26c81c</t>
+  </si>
+  <si>
+    <t>pou_68e58dc42e999a44</t>
+  </si>
+  <si>
+    <t>pou_9463a08670a6e0e0</t>
+  </si>
+  <si>
+    <t>pou_7715418cc11c3718</t>
+  </si>
+  <si>
+    <t>pou_539a092b22f9b0df</t>
+  </si>
+  <si>
+    <t>pou_e0a8b8243f57bcf8</t>
+  </si>
+  <si>
+    <t>pou_5e19d179a16e9e39</t>
+  </si>
+  <si>
+    <t>pou_35d6dd7fe686c07a</t>
+  </si>
+  <si>
+    <t>pou_0d52fa0890a0e55a</t>
+  </si>
+  <si>
+    <t>pou_2217d7b3cda56c4f</t>
+  </si>
+  <si>
+    <t>pou_dd1af34dc2122daf</t>
+  </si>
+  <si>
+    <t>pou_899077ade9f87d1c</t>
+  </si>
+  <si>
+    <t>pou_837ff7456cbf768b</t>
+  </si>
+  <si>
+    <t>pou_37807ea530cd8034;pou_19f3eddb93eed3e3</t>
+  </si>
+  <si>
+    <t>pou_4d429bc93357e3b4</t>
+  </si>
+  <si>
+    <t>pou_7e0352f693da91da;pou_ff1b225a0734e4b6;pou_27045f034d58f396;pou_bc1940dd6239bcec;pou_813bde959fd592e9;pou_b7be4a13f505837d;pou_95b635192ad77112;pou_0f3294681e91ee06;pou_aae877f95824d976;pou_2af5c2b398d0955b;pou_2b1a48dc2f6e2aa2;pou_f757727f3767ece2</t>
+  </si>
+  <si>
+    <t>pou_90484944211848cd</t>
+  </si>
+  <si>
+    <t>pou_ee1e8dcb3aad5920</t>
+  </si>
+  <si>
+    <t>pou_119d53aa9ae19078</t>
+  </si>
+  <si>
+    <t>pou_66bf0c929c4e7483</t>
+  </si>
+  <si>
+    <t>pou_332b88eccae5aa12</t>
+  </si>
+  <si>
+    <t>pou_51fd0948877b193b</t>
+  </si>
+  <si>
+    <t>pou_b876070cbca3243d</t>
+  </si>
+  <si>
+    <t>pou_e5023f7a358de9a0</t>
+  </si>
+  <si>
+    <t>pou_ebefcc093d005e96</t>
+  </si>
+  <si>
+    <t>pou_8994e59d7e706c34</t>
+  </si>
+  <si>
+    <t>pou_b8c65f8db0d8a7a2;pou_ab0f48b4f552d49e</t>
+  </si>
+  <si>
+    <t>pou_85dd226017fef744</t>
+  </si>
+  <si>
+    <t>pou_59182763c24a1245</t>
+  </si>
+  <si>
+    <t>pou_ae16ec16d20d8565</t>
+  </si>
+  <si>
+    <t>pou_61245385215d4ae1</t>
+  </si>
+  <si>
+    <t>pou_80bf78ce1d00a2a4</t>
+  </si>
+  <si>
+    <t>pou_6e946d47df0a2c72</t>
+  </si>
+  <si>
+    <t>pou_2dcab2d5c4ba8878</t>
+  </si>
+  <si>
+    <t>pou_6c1af80d1e9b1be6</t>
+  </si>
+  <si>
+    <t>pou_74bea4c371a63575</t>
+  </si>
+  <si>
+    <t>pou_5ff6acb05b548280;pou_0599265d8a4e2200;pou_746cbb2bbc2753dc;pou_0157a6d6367cb5b2;pou_8f183cc00e55538c;pou_dc6f9c46157f28eb;pou_9688134f1526ebe8</t>
+  </si>
+  <si>
+    <t>pou_e95f57908601a40e;pou_e16214cabff0cde7</t>
+  </si>
+  <si>
+    <t>pou_7ff5ba43c1430fe9</t>
+  </si>
+  <si>
+    <t>pou_f7356e039c96f2cd</t>
+  </si>
+  <si>
+    <t>pou_a91c395b712fd556</t>
+  </si>
+  <si>
+    <t>pou_fde1380156d0d7b1</t>
+  </si>
+  <si>
+    <t>pou_641084c22b522994</t>
+  </si>
+  <si>
+    <t>pou_c372992378efa596</t>
+  </si>
+  <si>
+    <t>pou_27b2734fda1232e1</t>
+  </si>
+  <si>
+    <t>pou_34e9827f830a51a2</t>
+  </si>
+  <si>
+    <t>pou_671cf71e47fbcc55</t>
+  </si>
+  <si>
+    <t>pou_95123d1393cc7a27</t>
+  </si>
+  <si>
+    <t>pou_3515eb055d7048d7</t>
+  </si>
+  <si>
+    <t>pou_4b011ef9a89b47ef;pou_0cc68bb36915d64f;pou_8d7b0bdf618d99d3;pou_b7ce405391f23fb1;pou_13c7840e160fdd2b;pou_ea81186218946b52;pou_de39da94f463f900;pou_66997a829f3512f4;pou_17817bc38df27014</t>
+  </si>
+  <si>
+    <t>pou_24e65ae41815ae91;pou_e2372797e81e15d3;pou_05926a0899f3d824;pou_ff27257dc4693fcd;pou_9e0dce71a94c9cd2;pou_cb42c4fdaaea2a2a;pou_b65e0e7bee180c03</t>
+  </si>
+  <si>
+    <t>pou_d90395622f72fb3a</t>
+  </si>
+  <si>
+    <t>pou_3436100e08f23852;pou_1572fd86552d9494;pou_5568bf191331fc12;pou_891225c69426f5b8</t>
+  </si>
+  <si>
+    <t>pou_e2d409a8254fe964;pou_c23e7a60ba7f8fde;pou_11c6075155a6011b;pou_f94dd659b3ebc21a;pou_d8ea065ccfe694ce;pou_fd645b652e876554;pou_7921d1505c7b3ee0;pou_4355da8894a32068;pou_31b36cd76efaee3b;pou_ac533c1020e24eb5</t>
+  </si>
+  <si>
+    <t>pou_65fa7b2e1d65adb0</t>
+  </si>
+  <si>
+    <t>pou_868b5e18f8d5d984;pou_0c2bbdabd13c079b;pou_bbf54b4a94f285b4;pou_f510b2bdffd2a810;pou_68347c87662d4076;pou_a6e8c362e21d2d8d;pou_47ad6c1151a2a835;pou_e7bce2cc1c362106;pou_5823f736d218942f;pou_d8a97d4cded310ea;pou_cb59a4ae3560da21;pou_14a737b566301171;pou_01b34667fd90f96a;pou_dc056c97b5660cb0;pou_f4e4208817de8bfb;pou_d60a953e8398010e;pou_25db39742c311646;pou_dd665ba2abede392;pou_0d9983530b72abad;pou_2e960d183a0d9c28;pou_e512a87430b8091d;pou_9be37ce9df1eb728;pou_33acd4cd55042fd4;pou_187d255aa1a88f06;pou_85c303b720788190;pou_6af7c5c64e04d585;pou_2cbc9506c9ea4e36;pou_77203f244f256158;pou_69be9de6b930354b;pou_624f7b7712abbbfb;pou_cbfec8d778688f42;pou_dff57af6becb0e12;pou_5d5a940a2b0056e0;pou_ff3b16b49a669433;pou_cb856d6e5c666e85;pou_dd44ea2aec0af7ae;pou_65162d727248b547;pou_eeb6fa2cf6cec2fd;pou_ab9a87021597d286;pou_172e5ce850e4fa5c;pou_59162f82a75b4e99;pou_751150bc610ee491;pou_dd63355e2f55d304;pou_38a11f3934ff3b8e;pou_08b1c5ef1c1d04dd;pou_c78515c6a5b326c9;pou_1716fda2f7eeb715;pou_75c8034f6f01da51;pou_639911ca661a9676;pou_f20eb1db84db3840;pou_6c64402fec564983;pou_0dccd4873eb58df9;pou_af906b253c0b4c91;pou_2b4617136355dcbc;pou_f9951e3a70ec3d62;pou_98a6e557ca4f56fc;pou_f8dc091ed5916237;pou_2994848085527eda;pou_0c97c8d5f10c97b6;pou_69080c2801f7d40c;pou_8d3eabb7692e9018;pou_b14b34cccf189dd9;pou_414a329a47496c44;pou_e83cbcad7bb2b203;pou_8f69da99ac6e4900;pou_38d197e285b8eeb6;pou_708c6b5fba7452ff;pou_4daf0713780cf825;pou_bd0ae3eee753633f;pou_99ce20315de48049;pou_5914c63459245757;pou_55b96b27e68f41c3;pou_daa720ba4eeec214;pou_788ea75c8b61a8e9;pou_2d22a5f9ca82899e;pou_f0eff5b034123f7d;pou_f5bae3fff9740b84;pou_73c3c6454f00cd63;pou_7eb37b435f46f384;pou_33b52774bf835dfa;pou_433084383d2cd4f5;pou_e3214c5b0b938b4e;pou_b503c1cf607b6fca;pou_342bf1ed31bd896b;pou_80b317b618af95a4;pou_629f490fe0a9d4af;pou_e85ea6aa26a54db9;pou_ed92612d4fb5e272;pou_e8cc744a13a675af;pou_ab1a2f3c1b548519;pou_e0194d4d84225c3b;pou_d04b5cfb4cd771d7;pou_86959e7e96777f1a;pou_4e89c2c20fe8c158;pou_2f3a84ec32ef747f;pou_7352928dd9ffc190;pou_b9b62ff8b15c6a63;pou_21d3e97edacf0133;pou_c68c269937b48127;pou_170b59101b8d5681;pou_b5491c8eb64f4084;pou_11b19ddd754f9c14;pou_acc94efd28e811bb;pou_cbdd998630fb0818;pou_ff6500024b67f400;pou_d48bd8a88a8f7674;pou_2923f3a409984622;pou_1b151e2f16505481;pou_690bc6e9ab0964be;pou_ba23736537fec84e;pou_cb87bd7fe1f0b83e;pou_43f50caa95874da2;pou_b205740c628494fd;pou_2e1bf91eb2d443f5;pou_235d6b2096107958;pou_1ffb6c0c3cc05148;pou_620c55e0acf84c24;pou_020f79cce9e4df01;pou_e507b1f881e5dbbc;pou_b31b1d68ae470e58;pou_827ebdbc91beb3da;pou_6e7db67f9a06b15e;pou_7db7a2c9645b2300;pou_242153a1b0c9526d;pou_2532e788d2eefa4d;pou_09c55a76daeea912;pou_d3ea3faa57d8a2b2;pou_80114d88489a3fe1;pou_002132fd15958fc4;pou_9c7745c735d0cb24;pou_fcbc9f215af06d05;pou_50e56c7016ce25bd;pou_cce2ee3c96a47e26;pou_48baa893aadeecf9;pou_52943115ee0b1408;pou_b5f54fb054dd9416;pou_9041bac3ac69e7d7;pou_34daf94203c08129;pou_4968e80359942b17;pou_37b19d60b4bc89c1;pou_96df1c823d7e5bcc;pou_842766bc4c95d2bc;pou_95c2b31e014f6f4c</t>
+  </si>
+  <si>
+    <t>pou_0243e3d0b7f3e924;pou_3fac091be021b3fb;pou_9e817e8eb7c387bc</t>
+  </si>
+  <si>
+    <t>pou_80de5837f5f1fe01</t>
+  </si>
+  <si>
+    <t>pou_7cc4db56eafb8823</t>
+  </si>
+  <si>
+    <t>pou_7d17a817aedaa8f1</t>
+  </si>
+  <si>
+    <t>pou_8a412bc1cfa62a43</t>
+  </si>
+  <si>
+    <t>pou_0bae863b0e55de67</t>
+  </si>
+  <si>
+    <t>pou_63b7396135d574a8;pou_697ceb8893462b27;pou_cd0bbc693c498a60</t>
+  </si>
+  <si>
+    <t>pou_cee2124b6116ef9c</t>
+  </si>
+  <si>
+    <t>pou_a82d94d7cb0e67f5</t>
+  </si>
+  <si>
+    <t>pou_3f2df1661ac73a93</t>
+  </si>
+  <si>
+    <t>pou_241cc95555371cad</t>
+  </si>
+  <si>
+    <t>pou_22442d2cfe3c3d80</t>
+  </si>
+  <si>
+    <t>pou_821d71575bc9a4da;pou_2c436acecfa20bf5;pou_b40eafba2f9109a4;pou_13eee24c8351af35;pou_93c5c66d3188adec;pou_a113abf4189675b1;pou_046cd89c3c2da661</t>
+  </si>
+  <si>
+    <t>pou_fc4b6427feab7cdc</t>
+  </si>
+  <si>
+    <t>pou_b5ea77373a0a4fea</t>
+  </si>
+  <si>
+    <t>pou_bd53fceafb3b3658;pou_6a68cd9e944619df</t>
+  </si>
+  <si>
+    <t>pou_8cc1263949f28e38</t>
+  </si>
+  <si>
+    <t>pou_619083f063f00e64</t>
+  </si>
+  <si>
+    <t>pou_1fa9b19022e00646</t>
+  </si>
+  <si>
+    <t>pou_161bf0628d85a460</t>
+  </si>
+  <si>
+    <t>pou_e54c69ed00711508</t>
+  </si>
+  <si>
+    <t>pou_459edad945e35858;pou_0b5a53b00554d48e</t>
+  </si>
+  <si>
+    <t>pou_378182538e9711c0;pou_fe5048d7b12d2759</t>
+  </si>
+  <si>
+    <t>pou_e7bedc6139b92cd3;pou_1a96df6736bdfd23;pou_1f541c2a06275dcd;pou_c75f6abef1186fba;pou_8b30b944eee34a0f;pou_3ebddb5345389b4e;pou_a279de3e79e95ac0;pou_e4a6ea76c5b598a1;pou_c6b76fcacf80c2c2;pou_c4d3b49fde91f5eb;pou_a1e4c300aa38388a;pou_0acec33c902a3cf0;pou_6088be2a1048d80c;pou_2084d78bade80550;pou_8784d95a8695beed;pou_b91bc75fb8420aba;pou_c192be5559de1727;pou_abdca5b64304b8f3;pou_21d950510d33294e;pou_3b12a4733934fd20;pou_ff5b27aae032f26e;pou_d8c3869f3f3b7173;pou_4ce91e9c4e613612;pou_cb9cbc368ce3e6d3;pou_4ec96505a10af8e4;pou_d7ab3c74ef686889;pou_218a86e24396003d</t>
+  </si>
+  <si>
+    <t>pou_e9280d540ed56980</t>
+  </si>
+  <si>
+    <t>pou_e004b9b9d66e62fb</t>
+  </si>
+  <si>
+    <t>pou_de6ad74024f92bd6;pou_30b8a063352ba1ad;pou_927c8e297aaad1e6;pou_9f94d0cc5af76ba4;pou_fd3dd4a88c38602a</t>
+  </si>
+  <si>
+    <t>pou_592d55679d957230;pou_870d17a51a1e025d;pou_ff221a079b71bffa;pou_29e72a5f0b4e3e5a;pou_2408bb6af4b4a4c0;pou_b7bf6bd1ba9312e6;pou_a7d4f1b495efe615;pou_9aebe28bf067908d;pou_935f3a6144f2e233;pou_e815832aaa39cfde;pou_a7b6d302dec860d9;pou_8b25f828c9e1c34c;pou_057e3dedca29413e;pou_33af84ba627d4339;pou_bfbb0b238854c8f0;pou_2398ddc5e96b7db7;pou_ed9279d1b7125f9b;pou_160e810ad7a3990f;pou_b2235500cf001cb2;pou_a236cc7dff105686;pou_d362b057e557f2ac;pou_6e012cab2cd2bcc3;pou_227f903b6ad0af39;pou_e36da34f0cc995c6;pou_195c580014aea060;pou_50e93f0cd5ac79c8;pou_e7d4b58faca6598b;pou_9e335d5a74306a4d;pou_22cb2b8722fe9dd8</t>
+  </si>
+  <si>
+    <t>pou_ded23d43703a1236;pou_ea445d57c68b03fc;pou_a783fbaf3c871c50;pou_617b7b48cd8adf8d;pou_5521b33827abb7fa;pou_798856a971a07dc7;pou_ee608d23234cd0a8;pou_5f93a7df23865c15</t>
+  </si>
+  <si>
+    <t>pou_f39f1e9b6c7dcd52;pou_acb8594e67f2b66e</t>
+  </si>
+  <si>
+    <t>pou_1b39bd19fd0fd6e4</t>
+  </si>
+  <si>
+    <t>pou_c8d145c9ab15afe8</t>
+  </si>
+  <si>
+    <t>pou_b0bdcfc95c0fd3b9;pou_0a79fefbcc9750e4;pou_aaa64744b3dfa8e7;pou_301d41b9102e6884;pou_a8a5b1e35dcda21c;pou_fa95c53aa4dbceee;pou_edaf36fa95f95c67;pou_bea42f0f4ec54009;pou_1e74f1f7cd813af7;pou_c5673654157cb466;pou_4ad297a5b02a18cb;pou_f27b2807232df682;pou_77320080241870fd;pou_25c5b4a8eb1ef54a;pou_2ee67d2c47fe6107</t>
+  </si>
+  <si>
+    <t>pou_ff8d8e492a7226df;pou_02eb15f985ce544f;pou_ea70281cba1ace5d;pou_31630c4ffbf020e1;pou_deab18ba9f45db7d;pou_12f749e3aa36911f;pou_92248a701116729f</t>
+  </si>
+  <si>
+    <t>pou_5e7347ee8a3fd7a5</t>
+  </si>
+  <si>
+    <t>pou_0147515a554d5bc6</t>
+  </si>
+  <si>
+    <t>pou_78b56d6e266f6e37</t>
+  </si>
+  <si>
+    <t>pou_d9527c62bc7b7c17</t>
+  </si>
+  <si>
+    <t>pou_6404e4201a2bab7b</t>
+  </si>
+  <si>
+    <t>pou_b246cc9ac401c1fa</t>
+  </si>
+  <si>
+    <t>pou_7a920dd9fc3a4181</t>
+  </si>
+  <si>
+    <t>pou_6485ddfcd2f4c6c7</t>
+  </si>
+  <si>
+    <t>pou_c20f4e1af14d9625</t>
+  </si>
+  <si>
+    <t>pou_33afcde967ed7bb9;pou_7cbe554c8bb57e76;pou_433216a3e878a9d6;pou_a5aec557498036d3;pou_2961558cd689f6ba;pou_d06b0f620e5f433a;pou_5688ae8a4a9f69db;pou_275032c428b65f9f;pou_e1d6acc966c547ea;pou_240d632cc19fc234;pou_4842371e9d064181;pou_626cafe4c0359bba</t>
+  </si>
+  <si>
+    <t>pou_cbdc22fedbf12d07</t>
+  </si>
+  <si>
+    <t>pou_2afcac7ecc67f667;pou_7b0d5ee9f783e412</t>
+  </si>
+  <si>
+    <t>pou_0e6ab6479cdc14fb;pou_fa7c217510b1a65c;pou_1a12ca17a3d84283;pou_a89668b4179c6bdd;pou_cbf01f8ba2cc66ee;pou_15decf7e366f4abb</t>
+  </si>
+  <si>
+    <t>pou_31f5db1a0cc32cff;pou_f01281d3b4147cc6;pou_3b4e059406a671bc;pou_88fcb2ce9d1ddaa6;pou_be614e9f21b14c8c;pou_f4ce905e9a950a22;pou_2668a869ede3b8f1;pou_fa50e563274166be;pou_d8061ee9422fe9bb;pou_56d2373b0308bfbc;pou_570576e84f15df5d;pou_617e513b25f2d7c3;pou_765d3e9e12083b9b;pou_0cf0dc234e0a7ab3</t>
+  </si>
+  <si>
+    <t>pou_a671d597c50c6ac7;pou_c0d3c2fb5df070f6;pou_ec499e0a74ae308c;pou_db950944669b2d35;pou_1fe1ee634c3676b7;pou_06af552a3ad83429;pou_b9a1d2033235a9e9;pou_44ec9f1a451e19d6;pou_59740b6899731035;pou_762e04518a0d45b1;pou_0d29a2b1db7deff1</t>
+  </si>
+  <si>
+    <t>pou_06b156de8bfe6af2</t>
+  </si>
+  <si>
+    <t>pou_fbf0c1a552346c56</t>
+  </si>
+  <si>
+    <t>pou_feebe72393f0baa5;pou_c2358f0af249c557;pou_eeb0328666dfb2d6;pou_9a427d47d0c7dc5f;pou_8872e802416f3232;pou_76fdbb66eabe0aea;pou_e8aa9171e31ce043</t>
+  </si>
+  <si>
+    <t>pou_6a034acb36b7dfe5;pou_6e6aee5a2ccc1b1f;pou_bf2055a9fca2cde9;pou_a16ac6ca79d2255e;pou_1ece5d30faa78143;pou_7d4966bf53e482b4;pou_ef2019b6b5bdae98;pou_45adfb9d14d86c92;pou_e5bc20bc37694310;pou_313c7fece23d3cc4;pou_33ed8dd1d6858cd6;pou_cbf16f1046e6333a;pou_bd05d8bac8cc6392;pou_f786c4d4c0277b0e;pou_ee924866bad16b1c;pou_13cb91a678235fa5;pou_8dc0f867774b1a62;pou_c8c15637d04f56fc;pou_8909af8a366ab0d9</t>
+  </si>
+  <si>
+    <t>pou_02d9c04048c7b555</t>
+  </si>
+  <si>
+    <t>pou_a8c1f8466885d1ce;pou_585b034f4e2098d9;pou_42136040501c2528;pou_25885f424a8f4471;pou_3a9a8ce19782bed5;pou_ab3588506b2ca724</t>
+  </si>
+  <si>
+    <t>pou_24b9111fa8487b37</t>
+  </si>
+  <si>
+    <t>pou_1c82b3a0bd5c11f9;pou_7f37a736384da045;pou_e7c85d3939196dd1</t>
+  </si>
+  <si>
+    <t>pou_59bfca16936eb5e9</t>
+  </si>
+  <si>
+    <t>pou_e8defb3c3e6495c3;pou_33b627a159d1a07e;pou_9c69ee870f902bc9;pou_fc749df9bb6b592b;pou_0e3f2eed048bae35;pou_ca2a57a40aaf65bf</t>
+  </si>
+  <si>
+    <t>pou_4dddebb35bd70412</t>
+  </si>
+  <si>
+    <t>pou_ede48f316ea9fec5</t>
+  </si>
+  <si>
+    <t>pou_5b0deaa0f8b333be</t>
+  </si>
+  <si>
+    <t>pou_41295c2ca8ee95de;pou_901f5a209a9d3b8d;pou_c700a5833fc44169;pou_873f9f1e0c4fdd02;pou_5071acdad5923152;pou_88d34f48236f1848;pou_1b0026993a8ea0b2;pou_f627c78d0bd84b9f;pou_c38e5e538c7afa94;pou_909ad9210dd5c1c5;pou_754ae16db66caa17;pou_c7e94f7507250049;pou_7ca9edabb5eaa164;pou_a37fe845ebb63f40;pou_48130cd3e6c71927;pou_dd036b5e141b9a4b;pou_1bd7d9121eb370d3;pou_7110c0f0d02b807b;pou_7a1b8d1b9eb18151;pou_3b30b5509edc66c7;pou_617d4a717416b0c9</t>
+  </si>
+  <si>
+    <t>pou_78e7b033c1241664</t>
+  </si>
+  <si>
+    <t>pou_76c2aef4bf94afc6</t>
+  </si>
+  <si>
+    <t>pou_00b5e1276f67f34b</t>
+  </si>
+  <si>
+    <t>pou_817fff7c8be99357;pou_84d113ee9126f192;pou_386d8f6a90d13c96;pou_1a324a1b06811299;pou_f8b714b86327c560;pou_51f2a73a8eaa930b;pou_9880500c348220eb;pou_954f2e3a2bb8658e;pou_b373b38f1558e5d8;pou_364fd291a36592f1;pou_6f2fdc2ee8665de3;pou_3646347fda70e9c1;pou_3a6bc9f480292cd0;pou_2f5484a9b9a75237;pou_97019439170c1d66</t>
+  </si>
+  <si>
+    <t>pou_8f41877ee2c91521</t>
+  </si>
+  <si>
+    <t>pou_4a555c5afbfa7511</t>
+  </si>
+  <si>
+    <t>pou_78310a7d5f4b42d5</t>
+  </si>
+  <si>
+    <t>pou_ce019c07516c856e</t>
+  </si>
+  <si>
+    <t>pou_b04bbbda51c442d4</t>
+  </si>
+  <si>
+    <t>pou_75913d774415f5ae</t>
+  </si>
+  <si>
+    <t>pou_63b8bcb2c2e099ab</t>
+  </si>
+  <si>
+    <t>pou_441de4d3998d0791</t>
+  </si>
+  <si>
+    <t>pou_52c3acb08bb32e19</t>
+  </si>
+  <si>
+    <t>pou_0682700a95351f09</t>
+  </si>
+  <si>
+    <t>pou_9d09a4f097b5c9d9</t>
+  </si>
+  <si>
+    <t>pou_772c292c18d845d9;pou_b4b80357064562e3</t>
+  </si>
+  <si>
+    <t>pou_4357d342e3da28e5</t>
+  </si>
+  <si>
+    <t>pou_dea9672acc58e1fe</t>
+  </si>
+  <si>
+    <t>pou_2ffc3ca7442b5ebf</t>
+  </si>
+  <si>
+    <t>pou_1a28d76b2005f3c2</t>
+  </si>
+  <si>
+    <t>pou_8267922da05e5ba7</t>
+  </si>
+  <si>
+    <t>pou_54c21fa7f404a329</t>
+  </si>
+  <si>
+    <t>pou_3ae265edc701935d</t>
+  </si>
+  <si>
+    <t>pou_613453dfdab12991</t>
+  </si>
+  <si>
+    <t>pou_05b647b31f702e08</t>
+  </si>
+  <si>
+    <t>pou_e8f972e3c2f4700e</t>
+  </si>
+  <si>
+    <t>pou_0b65ff5f82b6186c</t>
+  </si>
+  <si>
+    <t>pou_77b917bc2c659e29</t>
+  </si>
+  <si>
+    <t>pou_4014d29891c85ebc</t>
+  </si>
+  <si>
+    <t>pou_d639f1cb76d7a933</t>
+  </si>
+  <si>
+    <t>pou_075912f9711dd747</t>
+  </si>
+  <si>
+    <t>pou_5dfd26316dbe616a</t>
+  </si>
+  <si>
+    <t>pou_0e15403477281fc6</t>
+  </si>
+  <si>
+    <t>pou_35e0167301779260</t>
+  </si>
+  <si>
+    <t>pou_7e67f5bd1ed961af</t>
+  </si>
+  <si>
+    <t>pou_822a5c7bbc6db20e</t>
+  </si>
+  <si>
+    <t>pou_2759061ee3080ab3</t>
+  </si>
+  <si>
+    <t>pou_c402672d2c6d16a7</t>
+  </si>
+  <si>
+    <t>pou_9f76a468a1d1589a</t>
+  </si>
+  <si>
+    <t>pou_12d52764a07419e6</t>
+  </si>
+  <si>
+    <t>pou_4d2917a7e893e30d</t>
+  </si>
+  <si>
+    <t>pou_7c724d575988a69e</t>
+  </si>
+  <si>
+    <t>pou_c0051d5afe3bfb33</t>
+  </si>
+  <si>
+    <t>pou_84946f8f2eda2246</t>
+  </si>
+  <si>
+    <t>pou_3b726bc83a95947d</t>
+  </si>
+  <si>
+    <t>pou_882cb268207aba10</t>
+  </si>
+  <si>
+    <t>pou_9a8f2a35695f4b38</t>
+  </si>
+  <si>
+    <t>pou_a790f9ebc26ce4c5</t>
+  </si>
+  <si>
+    <t>pou_9960353ead0ebe8e</t>
+  </si>
+  <si>
+    <t>pou_332d0e1860c25d6d</t>
+  </si>
+  <si>
+    <t>pou_0e9b3ac4a40c938a</t>
+  </si>
+  <si>
+    <t>pou_4baa856973f0cf13</t>
+  </si>
+  <si>
+    <t>pou_18fe634e49c0ed12</t>
+  </si>
+  <si>
+    <t>pou_f727eeeb44650774</t>
+  </si>
+  <si>
+    <t>pou_4d15954857f867e6</t>
+  </si>
+  <si>
+    <t>pou_bba63b295514f487</t>
+  </si>
+  <si>
+    <t>pou_bce19f9a0dd1f438</t>
+  </si>
+  <si>
+    <t>pou_5566939ba9952642</t>
+  </si>
+  <si>
+    <t>pou_6ccfa5281058583a</t>
+  </si>
+  <si>
+    <t>pou_76e961b4984dd865</t>
+  </si>
+  <si>
+    <t>pou_f3c0ea745a5e3870</t>
+  </si>
+  <si>
+    <t>pou_8aac481d2dad326c</t>
+  </si>
+  <si>
+    <t>pou_67fda27ce3154c49</t>
+  </si>
+  <si>
+    <t>pou_44b86ea70c91c622</t>
+  </si>
+  <si>
+    <t>pou_2d29e14e0bc3e6c3</t>
+  </si>
+  <si>
+    <t>pou_4e220d18c83a9590</t>
+  </si>
+  <si>
+    <t>pou_dd494d2b511df037</t>
+  </si>
+  <si>
+    <t>pou_db6d9350857f3900</t>
+  </si>
+  <si>
+    <t>pou_cf2440c47552a04c</t>
+  </si>
+  <si>
+    <t>pou_8bc773b782c57149</t>
+  </si>
+  <si>
+    <t>pou_3fde3168dd24d579</t>
+  </si>
+  <si>
+    <t>pou_2888e670d0c39b83</t>
+  </si>
+  <si>
+    <t>pou_d1d07a228d9d6b8d</t>
+  </si>
+  <si>
+    <t>pou_3bc564e3a4d85ecf</t>
+  </si>
+  <si>
+    <t>pou_680a4251a4361a90</t>
+  </si>
+  <si>
+    <t>pou_feaa0441f5bd42d3</t>
+  </si>
+  <si>
+    <t>pou_992c3872cacf28a2</t>
+  </si>
+  <si>
+    <t>pou_49bbccb767b62a97</t>
+  </si>
+  <si>
+    <t>pou_9b076bb16f0ba422</t>
+  </si>
+  <si>
+    <t>pou_b3c4a37566ad7c90</t>
+  </si>
+  <si>
+    <t>pou_578e0b91f7ee3d3f</t>
+  </si>
+  <si>
+    <t>pou_e30dc496fbcf9a83</t>
+  </si>
+  <si>
+    <t>pou_91ac63a797fa1c1a</t>
+  </si>
+  <si>
+    <t>pou_77ae5da17a9cd3cf</t>
+  </si>
+  <si>
+    <t>pou_d5a618388d63af9e</t>
+  </si>
+  <si>
+    <t>pou_6335b70d5d744185</t>
+  </si>
+  <si>
+    <t>pou_eefdfa313943cfc3</t>
+  </si>
+  <si>
+    <t>pou_74651c7022aabccf</t>
+  </si>
+  <si>
+    <t>pou_88174f97b4545b77</t>
+  </si>
+  <si>
+    <t>pou_bbc2b75e990f28e9</t>
+  </si>
+  <si>
+    <t>pou_6452cab12d404205</t>
+  </si>
+  <si>
+    <t>pou_977457c4e67b44fa</t>
+  </si>
+  <si>
+    <t>pou_1cce2c44f174582c</t>
+  </si>
+  <si>
+    <t>pou_86d712c62aeca539</t>
+  </si>
+  <si>
+    <t>pou_ac6bd6bdd5a1f020</t>
+  </si>
+  <si>
+    <t>pou_9355958247ded0da</t>
+  </si>
+  <si>
+    <t>pou_cdf7b7591f5af090</t>
+  </si>
+  <si>
+    <t>pou_9a44ab8564507dd7</t>
+  </si>
+  <si>
+    <t>pou_2b27f67c64775841</t>
+  </si>
+  <si>
+    <t>pou_acd4a6f02d2c6716</t>
+  </si>
+  <si>
+    <t>pou_2efc2071de3af64f</t>
+  </si>
+  <si>
+    <t>pou_7324daf7eee1a346</t>
+  </si>
+  <si>
+    <t>pou_4b048a5a5a367da7</t>
+  </si>
+  <si>
+    <t>pou_6273d25addafae6d</t>
+  </si>
+  <si>
+    <t>pou_f5734ee3f57131c4</t>
+  </si>
+  <si>
+    <t>pou_aefeb2048ab9dfef</t>
+  </si>
+  <si>
+    <t>pou_46f785f9ee72afd2</t>
+  </si>
+  <si>
+    <t>pou_e810dfdb4a8f6b9f</t>
+  </si>
+  <si>
+    <t>pou_3196bef7d73906e4</t>
+  </si>
+  <si>
+    <t>pou_443ebbe8e30bc3d0</t>
+  </si>
+  <si>
+    <t>pou_cba995834a9e11df</t>
+  </si>
+  <si>
+    <t>pou_3dc7573cc528f625</t>
+  </si>
+  <si>
+    <t>pou_37aed16103cca185</t>
+  </si>
+  <si>
+    <t>pou_fbf6ddd2d88b1837</t>
+  </si>
+  <si>
+    <t>pou_bb29aa37c4c6f7ba</t>
+  </si>
+  <si>
+    <t>pou_fc9653e473827d56</t>
+  </si>
+  <si>
+    <t>pou_e20297eee279ccc6</t>
+  </si>
+  <si>
+    <t>pou_95770451d33ade76</t>
+  </si>
+  <si>
+    <t>pou_21d5deab1d39e1a8</t>
+  </si>
+  <si>
+    <t>pou_4a507fa149633942</t>
+  </si>
+  <si>
+    <t>pou_cbede5d323731929</t>
+  </si>
+  <si>
+    <t>pou_7cc85b19d6ada5d4</t>
+  </si>
+  <si>
+    <t>pou_a4dc1084f924d45d</t>
+  </si>
+  <si>
+    <t>pou_61ddfdf55ab2ab95</t>
+  </si>
+  <si>
+    <t>pou_401c7e23d5fd9a3e</t>
+  </si>
+  <si>
+    <t>pou_01b83c40d97eb437</t>
+  </si>
+  <si>
+    <t>pou_3cccbe7c55d12281</t>
+  </si>
+  <si>
+    <t>pou_08a31292c2afcea4</t>
+  </si>
+  <si>
+    <t>pou_71e234be3b313ed9</t>
+  </si>
+  <si>
+    <t>pou_b39b45569e084ae1</t>
+  </si>
+  <si>
+    <t>pou_32ef3706a095d663</t>
+  </si>
+  <si>
+    <t>pou_f41e521542f07ee8</t>
+  </si>
+  <si>
+    <t>pou_1ed40a88563b2620</t>
+  </si>
+  <si>
+    <t>pou_aee40759ba5dfe0b</t>
+  </si>
+  <si>
+    <t>pou_117917fcc4d859e0</t>
+  </si>
+  <si>
+    <t>pou_468fc0dbefef68c8</t>
+  </si>
+  <si>
+    <t>pou_34351e9cf22d5ca7</t>
+  </si>
+  <si>
+    <t>pou_fdf3b800202d31d2</t>
+  </si>
+  <si>
+    <t>pou_a160fa3ebfce5722</t>
+  </si>
+  <si>
+    <t>pou_30be17adced4ac9f</t>
+  </si>
+  <si>
+    <t>pou_61ed0cf376f6d8a9</t>
+  </si>
+  <si>
+    <t>pou_2129f2dd75447f0b</t>
+  </si>
+  <si>
+    <t>pou_44b9896a717f69eb</t>
+  </si>
+  <si>
+    <t>pou_451132d9bf6aeb56</t>
+  </si>
+  <si>
+    <t>pou_341a45b5ca5e3c67</t>
+  </si>
+  <si>
+    <t>pou_aad8d2997c8d21c1</t>
+  </si>
+  <si>
+    <t>pou_f65a9252ed554b49</t>
+  </si>
+  <si>
+    <t>pou_62774a310b6b8ce6</t>
+  </si>
+  <si>
+    <t>pou_8921ffbdefc9d577</t>
+  </si>
+  <si>
+    <t>pou_f5124163e1256cce</t>
+  </si>
+  <si>
+    <t>pou_5c9d3c6ede28a66f</t>
+  </si>
+  <si>
+    <t>pou_b75f6cf74d92feb8</t>
+  </si>
+  <si>
+    <t>pou_7052b1cd7b793c47</t>
+  </si>
+  <si>
+    <t>pou_d3467fd05d654cfe</t>
+  </si>
+  <si>
+    <t>pou_655d010c7605d91e</t>
+  </si>
+  <si>
+    <t>pou_5b6cbd7bd7b9e827</t>
+  </si>
+  <si>
+    <t>pou_f9007850db6c7a16</t>
+  </si>
+  <si>
+    <t>pou_e81e065cc918dde8</t>
+  </si>
+  <si>
+    <t>pou_4dcbf0ed7b13bafc</t>
+  </si>
+  <si>
+    <t>pou_07cba7d195b97a3e</t>
+  </si>
+  <si>
+    <t>pou_7c2e4ec45d91f878</t>
+  </si>
+  <si>
+    <t>pou_03d48402f33d0fc2</t>
+  </si>
+  <si>
+    <t>pou_968d45c29c3667fc</t>
+  </si>
+  <si>
+    <t>pou_427ec72a2816a1a9</t>
+  </si>
+  <si>
+    <t>pou_2a252ea3e05204d3</t>
+  </si>
+  <si>
+    <t>pou_fe683b7b18c7a256</t>
+  </si>
+  <si>
+    <t>pou_2e33b5cdcf97f02f</t>
+  </si>
+  <si>
+    <t>pou_6c330f8cefc51fd9</t>
+  </si>
+  <si>
+    <t>pou_9f68802dbe718eb2</t>
+  </si>
+  <si>
+    <t>pou_1b5f460ee30632ee</t>
+  </si>
+  <si>
+    <t>pou_506ff00230347b17</t>
+  </si>
+  <si>
+    <t>pou_d5be793fdf82bdfa</t>
+  </si>
+  <si>
+    <t>pou_09a551536038c401</t>
+  </si>
+  <si>
+    <t>pou_80c7ed365392df7c</t>
+  </si>
+  <si>
+    <t>pou_1c2b212000cd9b42</t>
+  </si>
+  <si>
+    <t>pou_d8a77bef6bd66a71</t>
+  </si>
+  <si>
+    <t>pou_aa620217acf0fe49</t>
+  </si>
+  <si>
+    <t>pou_153e4b3598ec845b</t>
+  </si>
+  <si>
+    <t>pou_0273ce001867d56b</t>
+  </si>
+  <si>
+    <t>pou_e1f7af3baf515553</t>
+  </si>
+  <si>
+    <t>pou_b55010062e4153d7</t>
+  </si>
+  <si>
+    <t>pou_2de4ea13a32f3155</t>
+  </si>
+  <si>
+    <t>pou_e933486c67700733</t>
+  </si>
+  <si>
+    <t>pou_36ae6bc8c82aeb0f</t>
+  </si>
+  <si>
+    <t>pou_47ecc139e0131745</t>
+  </si>
+  <si>
+    <t>pou_6daf0b30dee99834</t>
+  </si>
+  <si>
+    <t>pou_9d3a076b603ad24e</t>
+  </si>
+  <si>
+    <t>pou_34b4f87a3e0acfb1</t>
+  </si>
+  <si>
+    <t>pou_cd6ced23df750078</t>
+  </si>
+  <si>
+    <t>pou_84a9f22caf34d380</t>
+  </si>
+  <si>
+    <t>pou_ac72432fd66ab4f6</t>
+  </si>
+  <si>
+    <t>pou_886727100b9e96c2</t>
+  </si>
+  <si>
+    <t>pou_055da9fb941a43e5</t>
+  </si>
+  <si>
+    <t>pou_5a91d516452be463</t>
+  </si>
+  <si>
+    <t>pou_b2a30ebac19f5e26</t>
+  </si>
+  <si>
+    <t>pou_07272f25dd5ad0f2</t>
+  </si>
+  <si>
+    <t>pou_d5213fb737f19b11</t>
+  </si>
+  <si>
+    <t>pou_86019bce95c2eeb0</t>
+  </si>
+  <si>
+    <t>pou_cac9348658dedf9d</t>
+  </si>
+  <si>
+    <t>pou_0d0324762cfcd6ea</t>
+  </si>
+  <si>
+    <t>pou_ba734c137981aaca</t>
+  </si>
+  <si>
+    <t>pou_0321b882ebafe355</t>
+  </si>
+  <si>
+    <t>pou_79e976fbfa1a9cc6</t>
+  </si>
+  <si>
+    <t>pou_d8b1a3d21047b64b</t>
+  </si>
+  <si>
+    <t>pou_d7c3f98865a8f0e0</t>
+  </si>
+  <si>
+    <t>pou_ff67dcb24904f1ac</t>
+  </si>
+  <si>
+    <t>pou_328c136e51cb6e2b</t>
+  </si>
+  <si>
+    <t>pou_c975a0ad3e655fb4</t>
+  </si>
+  <si>
+    <t>pou_6662d7bdd68c8cd3</t>
+  </si>
+  <si>
+    <t>pou_51eedb40c56ef9de</t>
+  </si>
+  <si>
+    <t>pou_68eb2a85481fcac5</t>
+  </si>
+  <si>
+    <t>pou_2c8445b92aafdd19</t>
+  </si>
+  <si>
+    <t>pou_27a8cc09282762e5</t>
+  </si>
+  <si>
+    <t>pou_b2433763c7234e7c</t>
+  </si>
+  <si>
+    <t>pou_024b8184ed6dc45c</t>
+  </si>
+  <si>
+    <t>pou_2ec10f06c65472e2</t>
+  </si>
+  <si>
+    <t>pou_bfa213518cb33106</t>
+  </si>
+  <si>
+    <t>pou_68c33a6eb950e736</t>
+  </si>
+  <si>
+    <t>pou_9a662e19d59103b3</t>
+  </si>
+  <si>
+    <t>pou_6b0698f8fcfc1f54</t>
+  </si>
+  <si>
+    <t>pou_3246d296a91b30f2</t>
+  </si>
+  <si>
+    <t>pou_4a242262b3419ae5</t>
+  </si>
+  <si>
+    <t>pou_c6621ff1653c9334</t>
+  </si>
+  <si>
+    <t>pou_6e9c56d69e60ff8c</t>
+  </si>
+  <si>
+    <t>pou_0be0fb1c7684b97d</t>
+  </si>
+  <si>
+    <t>pou_549a998ace1d947c</t>
+  </si>
+  <si>
+    <t>pou_eb8ffa5e6356221d</t>
+  </si>
+  <si>
+    <t>pou_b30126f9752d6a19</t>
+  </si>
+  <si>
+    <t>pou_d6afe494f4186d42</t>
+  </si>
+  <si>
+    <t>pou_9af96ea81a6bbd6f</t>
+  </si>
+  <si>
+    <t>pou_8af142888fefe4cc;pou_f92cb3f427247539</t>
+  </si>
+  <si>
+    <t>pou_00e45eb5b86faa18;pou_ff6debcb2bfe39b8;pou_518e086ce50ec7c0;pou_5f2d8fe127433bac;pou_2fc09bb14e10bf73;pou_51025221920a3d6e;pou_d49b832dee31bc66;pou_057b5436fb04b325;pou_158d4c098b406ec6;pou_15b201ef8fbb7439;pou_4422030cfa238293;pou_da635442543e4321</t>
+  </si>
+  <si>
+    <t>pou_365820ec4642c375</t>
+  </si>
+  <si>
+    <t>pou_8193fcbeacf088a1</t>
+  </si>
+  <si>
+    <t>pou_4dd82808d9f55b40</t>
+  </si>
+  <si>
+    <t>pou_d6f419375c51e7e7</t>
+  </si>
+  <si>
+    <t>pou_307e93178cbc4e0b</t>
+  </si>
+  <si>
+    <t>pou_c4905439497c49f3</t>
+  </si>
+  <si>
+    <t>pou_01f8bdda62db8ac5</t>
+  </si>
+  <si>
+    <t>pou_ee4ceb66f3a763bf</t>
+  </si>
+  <si>
+    <t>pou_3e6beb1fe09443bd</t>
+  </si>
+  <si>
+    <t>pou_84b105421a33387c</t>
+  </si>
+  <si>
+    <t>pou_1a9174630b27f893</t>
+  </si>
+  <si>
+    <t>pou_068b3152a9eab061</t>
+  </si>
+  <si>
+    <t>pou_17e002adb5f94af4</t>
+  </si>
+  <si>
+    <t>pou_634bdd2901fff5a2</t>
+  </si>
+  <si>
+    <t>pou_ef6b38370f60f04f</t>
+  </si>
+  <si>
+    <t>pou_e820eaa6e1b5cbe6</t>
+  </si>
+  <si>
+    <t>pou_01a0abfc330cac00</t>
+  </si>
+  <si>
+    <t>pou_2f434e17ce462f1a</t>
+  </si>
+  <si>
+    <t>pou_cb6401a7c9d7ec1d</t>
+  </si>
+  <si>
+    <t>pou_23b364d08566978c</t>
+  </si>
+  <si>
+    <t>pou_0102a3d8529fd2e5</t>
+  </si>
+  <si>
+    <t>pou_e3b999d465b51835</t>
+  </si>
+  <si>
+    <t>pou_9e38c3ac4adf79b3</t>
+  </si>
+  <si>
+    <t>pou_b403d214c77b09b7</t>
+  </si>
+  <si>
+    <t>pou_1a87bc493cfe121e</t>
+  </si>
+  <si>
+    <t>pou_6ed9203adec9c6de</t>
+  </si>
+  <si>
+    <t>pou_c121e6b64a407c76</t>
+  </si>
+  <si>
+    <t>pou_e819e07f0464ada2</t>
+  </si>
+  <si>
+    <t>pou_130f9be6011cd917</t>
+  </si>
+  <si>
+    <t>pou_c26b2564c6a76004</t>
+  </si>
+  <si>
+    <t>pou_1c0618500fd2423f</t>
+  </si>
+  <si>
+    <t>pou_5b08c599acfb4652</t>
+  </si>
+  <si>
+    <t>pou_7249af6378bac00b</t>
+  </si>
+  <si>
+    <t>pou_e614c72de38a708b</t>
+  </si>
+  <si>
+    <t>pou_60c258f469d39dc7</t>
+  </si>
+  <si>
+    <t>pou_8c03fcac1f9508ca</t>
+  </si>
+  <si>
+    <t>pou_44cdaff623eff612</t>
+  </si>
+  <si>
+    <t>pou_50445dfdaeb89dad</t>
+  </si>
+  <si>
+    <t>pou_e6c5d236c1054ad6</t>
+  </si>
+  <si>
+    <t>pou_322f80db1becd970</t>
+  </si>
+  <si>
+    <t>pou_88251fd45bf99eef</t>
+  </si>
+  <si>
+    <t>pou_95c1bbd73670baae</t>
   </si>
 </sst>
 </file>
